--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022F583-1403-4562-8D49-F143144E1202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6B985-B6CF-4FBF-B872-6D23A0284BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5C779D48-DB44-44C0-BDEF-96AFC28324AC}</author>
+  </authors>
+  <commentList>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{5C779D48-DB44-44C0-BDEF-96AFC28324AC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    EBIT/Interest Expense</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,7 +610,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +676,12 @@
       <color rgb="FF232A31"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -810,7 +834,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -890,6 +914,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,35 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1978,7 +1991,7 @@
                   <c:v>1.7965890512738651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.30852365421388317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,6 +3146,9 @@
                 <c:pt idx="4">
                   <c:v>-277.53400000000022</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.95999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3250,9 +3266,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-0.70175464990822678</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14668,6 +14681,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Simon Burghardt" id="{3D5FEDCC-57B8-46B3-B5C3-AD78C54E51BF}" userId="89957cfae585bdc7" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14929,12 +14948,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B26" dT="2024-03-18T10:57:34.68" personId="{3D5FEDCC-57B8-46B3-B5C3-AD78C54E51BF}" id="{5C779D48-DB44-44C0-BDEF-96AFC28324AC}">
+    <text>EBIT/Interest Expense</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15199,7 +15226,10 @@
       <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="54">
+        <f>C6/Model!F30</f>
+        <v>-34.285714285714285</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
       <c r="L13" s="5"/>
@@ -15209,7 +15239,10 @@
       <c r="B14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="54">
+        <f>C6/Model!G31</f>
+        <v>40</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -15224,90 +15257,110 @@
       <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="54">
+        <f>C6/Model!H31</f>
+        <v>13.584905660377359</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <f>Model!H31/Model!G31-1</f>
+        <v>1.9444444444444446</v>
+      </c>
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
+      <c r="C18" s="54">
+        <f>C14/C16</f>
+        <v>40</v>
+      </c>
+      <c r="L18" s="77"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="70"/>
+      <c r="C19" s="54">
+        <f>C15/C17</f>
+        <v>6.9865229110512121</v>
+      </c>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="C20" s="6">
+        <f>Model!G6/Model!F5-1</f>
+        <v>0.30852365421388317</v>
+      </c>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="70"/>
+      <c r="C21" s="6">
+        <f>Model!H6/Model!G6-1</f>
+        <v>2.2267206477732726E-2</v>
+      </c>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="70"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="70"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="79"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="70"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="79"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -15317,18 +15370,21 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="68"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="70"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="79"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
+      <c r="C26" s="36">
+        <f>(Model!F13+Model!F11)/-Model!F14</f>
+        <v>1.2486729512285588</v>
+      </c>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -15366,150 +15422,116 @@
       </c>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>100</v>
       </c>
       <c r="C34" s="23"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="79"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E50" s="76"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="67"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E51" s="62"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52" s="62"/>
       <c r="F52" s="63"/>
       <c r="G52" s="63"/>
@@ -15519,6 +15541,7 @@
     <mergeCell ref="L17:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15530,7 +15553,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15614,34 +15637,34 @@
       <c r="A3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <f>D5-D4</f>
         <v>1675.9</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="10">
         <f>1076.398</f>
         <v>1076.3979999999999</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="15">
         <v>3077.3119999999999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
         <v>336.1</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="10">
         <f>116.522+85.518+71.509</f>
         <v>273.54900000000004</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="15">
         <f>338.224+208.885+150.826</f>
         <v>697.93499999999995</v>
       </c>
@@ -15657,7 +15680,7 @@
       <c r="D5" s="11">
         <v>2012</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="11">
         <f>E3+E4</f>
         <v>1349.9469999999999</v>
       </c>
@@ -15690,8 +15713,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="43">
+        <v>4940</v>
+      </c>
+      <c r="H6" s="43">
+        <v>5050</v>
+      </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -15708,30 +15735,24 @@
       <c r="X6" s="41"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="80">
+      <c r="C7" s="10">
         <v>2668</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="10">
         <v>2589</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="10">
         <v>912.83900000000006</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="15">
         <v>2034.848</v>
       </c>
-      <c r="G7" s="44">
-        <f>G6*(1-G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <f>H6*(1-H32)</f>
-        <v>0</v>
-      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -15746,17 +15767,17 @@
       <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+      <c r="A8" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="87">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <f>46.199+82+22.419</f>
         <v>150.61800000000002</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="15">
         <f>87.637+163.492+76.704</f>
         <v>327.83299999999997</v>
       </c>
@@ -15773,19 +15794,19 @@
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="86"/>
+      <c r="V8" s="11"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="87">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>423.22500000000002</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="15">
         <v>488.12700000000001</v>
       </c>
       <c r="G9" s="41"/>
@@ -15801,20 +15822,20 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="86"/>
+      <c r="V9" s="11"/>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="87">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
         <f>28.894+15.585+32.785+22.662</f>
         <v>99.925999999999988</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="15">
         <f>42.451+43.944+1.202+22.67</f>
         <v>110.26700000000001</v>
       </c>
@@ -15831,19 +15852,19 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
-      <c r="V10" s="86"/>
+      <c r="V10" s="11"/>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="87">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>466.49200000000002</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="15">
         <v>520.726</v>
       </c>
       <c r="G11" s="41"/>
@@ -15859,19 +15880,19 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="86"/>
+      <c r="V11" s="11"/>
     </row>
     <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="87">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
         <v>39.981999999999999</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="15">
         <v>228.43700000000001</v>
       </c>
       <c r="G12" s="41"/>
@@ -15887,7 +15908,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="86"/>
+      <c r="V12" s="11"/>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -15922,51 +15943,51 @@
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>K5-K7</f>
+        <f t="shared" ref="K13:V13" si="0">K5-K7</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>L5-L7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>M5-M7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <f>N5-N7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" s="11">
-        <f>O5-O7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <f>P5-P7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="11">
-        <f>Q5-Q7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="11">
-        <f>R5-R7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <f>S5-S7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T13" s="11">
-        <f>T5-T7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13" s="11">
-        <f>U5-U7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V13" s="11">
-        <f>V5-V7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -15985,8 +16006,12 @@
         <f>23.305-492.391</f>
         <v>-469.08600000000001</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="G14" s="41">
+        <v>-400</v>
+      </c>
+      <c r="H14" s="41">
+        <v>-400</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -16034,94 +16059,94 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="86">
-        <f t="shared" ref="B16:E16" si="0">B13+B14+B15</f>
+      <c r="B16" s="11">
+        <f t="shared" ref="B16:E16" si="1">B13+B14+B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="86">
-        <f t="shared" si="0"/>
+      <c r="C16" s="11">
+        <f t="shared" si="1"/>
         <v>-941</v>
       </c>
-      <c r="D16" s="86">
-        <f t="shared" si="0"/>
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
         <v>-577</v>
       </c>
-      <c r="E16" s="86">
-        <f t="shared" si="0"/>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
         <v>-1091.9610000000002</v>
       </c>
       <c r="F16" s="14">
         <f>F13+F14+F15</f>
         <v>-401.85800000000023</v>
       </c>
-      <c r="G16" s="11" t="e">
-        <f>G13+G14+G15+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="11" t="e">
-        <f>H13+H14+H15+#REF!</f>
-        <v>#REF!</v>
+      <c r="G16" s="83">
+        <f>G13+G14+G15</f>
+        <v>-400</v>
+      </c>
+      <c r="H16" s="83">
+        <f>H13+H14+H15</f>
+        <v>-400</v>
       </c>
       <c r="K16" s="11">
-        <f>K13+K14+K15</f>
+        <f t="shared" ref="K16:V16" si="2">K13+K14+K15</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>L13+L14+L15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f>M13+M14+M15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <f>N13+N14+N15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="11">
-        <f>O13+O14+O15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="11">
-        <f>P13+P14+P15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <f>Q13+Q14+Q15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R16" s="11">
-        <f>R13+R14+R15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <f>S13+S14+S15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="11">
-        <f>T13+T14+T15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="11">
-        <f>U13+U14+U15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V16" s="14">
-        <f>V13+V14+V15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84" t="s">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
         <v>-5.2359999999999998</v>
       </c>
-      <c r="F17" s="85">
+      <c r="F17" s="15">
         <v>35.914000000000001</v>
       </c>
       <c r="G17" s="11"/>
@@ -16177,69 +16202,75 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
-        <f t="shared" ref="C19:E19" si="1">C16+C17+C18</f>
+        <f t="shared" ref="C19:E19" si="3">C16+C17+C18</f>
         <v>-1132</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-721</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-930.55600000000038</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="14">
         <f>F16+F17+F18</f>
         <v>-277.53400000000022</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="G19" s="61">
+        <f>G31*G29</f>
+        <v>237.95999999999998</v>
+      </c>
+      <c r="H19" s="61">
+        <f>H31*H29</f>
+        <v>700.66000000000008</v>
+      </c>
       <c r="K19" s="11">
         <f>K16-K17-K18</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" ref="L19:V19" si="2">L16-L17-L18</f>
+        <f t="shared" ref="L19:V19" si="4">L16-L17-L18</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" s="11">
@@ -16249,20 +16280,20 @@
       <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="88">
+      <c r="B20" s="10"/>
+      <c r="C20" s="70">
         <v>-2.9129999999999998</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="70">
         <v>2.8849999999999998</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="70">
         <v>5.2359999999999998</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
       <c r="K20" s="11"/>
@@ -16281,20 +16312,20 @@
       <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="88">
+      <c r="B21" s="10"/>
+      <c r="C21" s="70">
         <v>516.97</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="70">
         <v>376.12799999999999</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="70">
         <v>348.82600000000002</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
       <c r="K21" s="11"/>
@@ -16313,20 +16344,20 @@
       <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="88">
+      <c r="B22" s="10"/>
+      <c r="C22" s="70">
         <v>47.232999999999997</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="70">
         <v>30.57</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="70">
         <v>39.979999999999997</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="K22" s="11"/>
@@ -16345,20 +16376,20 @@
       <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="88">
+      <c r="B23" s="10"/>
+      <c r="C23" s="70">
         <v>618.53</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="70">
         <v>579.84699999999998</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="70">
         <v>521.93899999999996</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
       <c r="K23" s="11"/>
@@ -16377,20 +16408,20 @@
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="88">
+      <c r="B24" s="10"/>
+      <c r="C24" s="70">
         <v>54.3</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="70">
         <v>67.95</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="70">
         <v>71.808999999999997</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
       <c r="K24" s="11"/>
@@ -16409,23 +16440,23 @@
       <c r="X24" s="11"/>
     </row>
     <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="88">
+      <c r="B25" s="10"/>
+      <c r="C25" s="70">
         <f>25.61+1.322+3.19+12.89</f>
         <v>43.012</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="70">
         <f>30.67+4.15+2.848+26.37</f>
         <v>64.037999999999997</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="70">
         <f>15.58+2.318+28.89</f>
         <v>46.787999999999997</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
       <c r="K25" s="11"/>
@@ -16448,15 +16479,15 @@
         <v>162</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="89">
+      <c r="C26" s="71">
         <f>C19+SUM(C20:C25)</f>
         <v>145.13199999999983</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="71">
         <f>D19+SUM(D20:D25)</f>
         <v>400.41799999999989</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="71">
         <f>E19+SUM(E20:E25)</f>
         <v>104.02199999999959</v>
       </c>
@@ -16479,20 +16510,20 @@
       <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+      <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="88">
+      <c r="B27" s="10"/>
+      <c r="C27" s="70">
         <v>73.013999999999996</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="70">
         <v>70.180000000000007</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="70">
         <v>63.146999999999998</v>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
       <c r="K27" s="11"/>
@@ -16515,15 +16546,15 @@
         <v>164</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="89">
+      <c r="C28" s="71">
         <f>C26+C27</f>
         <v>218.14599999999984</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="71">
         <f>D26+D27</f>
         <v>470.5979999999999</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="71">
         <f>E26+E27</f>
         <v>167.16899999999958</v>
       </c>
@@ -16553,9 +16584,16 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="F29" s="15">
+        <f>F19/F30</f>
+        <v>1321.5904761904774</v>
+      </c>
+      <c r="G29" s="84">
+        <v>1322</v>
+      </c>
+      <c r="H29" s="85">
+        <v>1322</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -16581,11 +16619,11 @@
       <c r="E30" s="2">
         <v>-0.66900000000000004</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="35">
         <v>-0.21</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="82"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -16610,8 +16648,12 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="35"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
+      <c r="G31" s="45">
+        <v>0.18</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0.53</v>
+      </c>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
@@ -16640,62 +16682,62 @@
         <f>1-D7/D5</f>
         <v>-0.28677932405566597</v>
       </c>
-      <c r="E32" s="3">
-        <f>1-E7/E5</f>
-        <v>0.32379641571113527</v>
+      <c r="E32" s="40">
+        <f>1-(E7+E8)/E5</f>
+        <v>0.2122231465383454</v>
       </c>
       <c r="F32" s="6">
-        <f>1-F7/F5</f>
-        <v>0.4610026840627911</v>
+        <f>1-(F7+F8)/F5</f>
+        <v>0.37416518707252788</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
       <c r="K32" s="3" t="e">
-        <f>1-K7/K5</f>
+        <f t="shared" ref="K32:V32" si="5">1-K7/K5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="3" t="e">
-        <f>1-L7/L5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="3" t="e">
-        <f>1-M7/M5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="3" t="e">
-        <f>1-N7/N5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="3" t="e">
-        <f>1-O7/O5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="3" t="e">
-        <f>1-P7/P5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="3" t="e">
-        <f>1-Q7/Q5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="3" t="e">
-        <f>1-R7/R5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="3" t="e">
-        <f>1-S7/S5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="3" t="e">
-        <f>1-T7/T5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="3" t="e">
-        <f>1-U7/U5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V32" s="6" t="e">
-        <f>1-V7/V5</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16720,60 +16762,60 @@
         <f>F19/F5</f>
         <v>-7.351413033372392E-2</v>
       </c>
-      <c r="G33" s="48" t="e">
+      <c r="G33" s="48">
         <f>G19/G6</f>
+        <v>4.8170040485829957E-2</v>
+      </c>
+      <c r="H33" s="48">
+        <f>H19/H6</f>
+        <v>0.13874455445544556</v>
+      </c>
+      <c r="K33" s="4" t="e">
+        <f t="shared" ref="K33:V33" si="6">K19/K5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="48" t="e">
-        <f>H19/H6</f>
+      <c r="L33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="4" t="e">
-        <f>K19/K5</f>
+      <c r="M33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L33" s="4" t="e">
-        <f>L19/L5</f>
+      <c r="N33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="4" t="e">
-        <f>M19/M5</f>
+      <c r="O33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="4" t="e">
-        <f>N19/N5</f>
+      <c r="P33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="4" t="e">
-        <f>O19/O5</f>
+      <c r="Q33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P33" s="4" t="e">
-        <f>P19/P5</f>
+      <c r="R33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q33" s="4" t="e">
-        <f>Q19/Q5</f>
+      <c r="S33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="4" t="e">
-        <f>R19/R5</f>
+      <c r="T33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="4" t="e">
-        <f>S19/S5</f>
+      <c r="U33" s="4" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="4" t="e">
-        <f>T19/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U33" s="4" t="e">
-        <f>U19/U5</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="V33" s="7" t="e">
-        <f>V19/V5</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16797,46 +16839,46 @@
       </c>
       <c r="G34" s="49">
         <f>G6/F5-1</f>
-        <v>-1</v>
-      </c>
-      <c r="H34" s="49" t="e">
+        <v>0.30852365421388317</v>
+      </c>
+      <c r="H34" s="49">
         <f>H6/G6-1</f>
-        <v>#DIV/0!</v>
+        <v>2.2267206477732726E-2</v>
       </c>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="e">
-        <f>O5/K5-1</f>
+        <f t="shared" ref="O34:V34" si="7">O5/K5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="4" t="e">
-        <f>P5/L5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="4" t="e">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="4" t="e">
-        <f>R5/N5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="4" t="e">
-        <f>S5/O5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="4" t="e">
-        <f>T5/P5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U34" s="4" t="e">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="7" t="e">
-        <f>V5/R5-1</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W34" s="37" t="e">
@@ -16866,52 +16908,46 @@
         <f>F19/E19-1</f>
         <v>-0.70175464990822678</v>
       </c>
-      <c r="G35" s="60">
-        <f>G30/F30</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="60" t="e">
-        <f>H30/G30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="e">
-        <f>O19/K19-1</f>
+        <f t="shared" ref="O35:W35" si="8">O19/K19-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="4" t="e">
-        <f>P19/L19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f>Q19/M19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="4" t="e">
-        <f>R19/N19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="4" t="e">
-        <f>S19/O19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4" t="e">
-        <f>T19/P19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U35" s="4" t="e">
-        <f>U19/Q19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V35" s="7" t="e">
-        <f>V19/R19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W35" s="4" t="e">
-        <f>W19/S19-1</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -16919,7 +16955,7 @@
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="90"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="55">
         <f>C14/C5</f>
         <v>0</v>
@@ -16936,13 +16972,13 @@
         <f>-F14/F5</f>
         <v>0.12425306211752503</v>
       </c>
-      <c r="G36" s="55" t="e">
+      <c r="G36" s="55">
         <f>G14/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="55" t="e">
+        <v>-8.0971659919028341E-2</v>
+      </c>
+      <c r="H36" s="55">
         <f>H14/H6</f>
-        <v>#DIV/0!</v>
+        <v>-7.9207920792079209E-2</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -16962,31 +16998,25 @@
       <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="57">
-        <f>-C14/C13</f>
+        <f t="shared" ref="C37:H37" si="9">-C14/C13</f>
         <v>0</v>
       </c>
       <c r="D37" s="57">
-        <f>-D14/D13</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E37" s="57">
-        <f>-E14/E13</f>
+        <f t="shared" si="9"/>
         <v>-0.4713329341236786</v>
       </c>
       <c r="F37" s="56">
-        <f>-F14/F13</f>
+        <f t="shared" si="9"/>
         <v>7.2157085941946741</v>
       </c>
-      <c r="G37" s="55" t="e">
-        <f>-G14/G13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="55" t="e">
-        <f>-H14/H13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -17030,47 +17060,47 @@
         <v>0</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ref="L40:V40" si="3">L41+L42+L43-L57-L58</f>
+        <f t="shared" ref="L40:V40" si="10">L41+L42+L43-L57-L58</f>
         <v>0</v>
       </c>
       <c r="M40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -17232,51 +17262,51 @@
         <v>1544.2919999999999</v>
       </c>
       <c r="K46" s="11">
-        <f>SUM(K41:K45)</f>
+        <f t="shared" ref="K46:V46" si="11">SUM(K41:K45)</f>
         <v>0</v>
       </c>
       <c r="L46" s="11">
-        <f>SUM(L41:L45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f>SUM(M41:M45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f>SUM(N41:N45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f>SUM(O41:O45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f>SUM(P41:P45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q46" s="11">
-        <f>SUM(Q41:Q45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R46" s="11">
-        <f>SUM(R41:R45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S46" s="11">
-        <f>SUM(S41:S45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T46" s="11">
-        <f>SUM(T41:T45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U46" s="11">
-        <f>SUM(U41:U45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V46" s="14">
-        <f>SUM(V41:V45)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17537,51 +17567,51 @@
         <v>8384.4079999999994</v>
       </c>
       <c r="K56" s="11">
-        <f>SUM(K46:K55)</f>
+        <f t="shared" ref="K56:V56" si="12">SUM(K46:K55)</f>
         <v>0</v>
       </c>
       <c r="L56" s="11">
-        <f>SUM(L46:L55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M56" s="11">
-        <f>SUM(M46:M55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N56" s="11">
-        <f>SUM(N46:N55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56" s="11">
-        <f>SUM(O46:O55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P56" s="11">
-        <f>SUM(P46:P55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q56" s="11">
-        <f>SUM(Q46:Q55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R56" s="11">
-        <f>SUM(R46:R55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S56" s="11">
-        <f>SUM(S46:S55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T56" s="11">
-        <f>SUM(T46:T55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U56" s="11">
-        <f>SUM(U46:U55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V56" s="14">
-        <f>SUM(V46:V55)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -17766,51 +17796,51 @@
         <v>1103.6199999999999</v>
       </c>
       <c r="K63" s="11">
-        <f>SUM(K57:K62)</f>
+        <f t="shared" ref="K63:V63" si="13">SUM(K57:K62)</f>
         <v>0</v>
       </c>
       <c r="L63" s="11">
-        <f>SUM(L57:L62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M63" s="11">
-        <f>SUM(M57:M62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N63" s="11">
-        <f>SUM(N57:N62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O63" s="11">
-        <f>SUM(O57:O62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63" s="11">
-        <f>SUM(P57:P62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q63" s="11">
-        <f>SUM(Q57:Q62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R63" s="11">
-        <f>SUM(R57:R62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S63" s="11">
-        <f>SUM(S57:S62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T63" s="11">
-        <f>SUM(T57:T62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U63" s="11">
-        <f>SUM(U57:U62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V63" s="14">
-        <f>SUM(V57:V62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W63" s="11"/>
@@ -17947,51 +17977,51 @@
         <v>9176.1220000000012</v>
       </c>
       <c r="K68" s="11">
-        <f>SUM(K63:K67)</f>
+        <f t="shared" ref="K68:V68" si="14">SUM(K63:K67)</f>
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <f>SUM(L63:L67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f>SUM(M63:M67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f>SUM(N63:N67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f>SUM(O63:O67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f>SUM(P63:P67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f>SUM(Q63:Q67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f>SUM(R63:R67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S68" s="11">
-        <f>SUM(S63:S67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T68" s="11">
-        <f>SUM(T63:T67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U68" s="11">
-        <f>SUM(U63:U67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V68" s="14">
-        <f>SUM(V63:V67)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17999,10 +18029,10 @@
       <c r="A69" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10">
         <v>-314.36200000000002</v>
       </c>
       <c r="F69" s="15">

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6B985-B6CF-4FBF-B872-6D23A0284BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC27D89-6390-427D-864B-8AFD59688CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,12 +676,6 @@
       <color rgb="FF232A31"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -834,7 +828,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -956,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -14960,8 +14951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,10 +15541,10 @@
   <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16079,11 +16070,11 @@
         <f>F13+F14+F15</f>
         <v>-401.85800000000023</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="11">
         <f>G13+G14+G15</f>
         <v>-400</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="11">
         <f>H13+H14+H15</f>
         <v>-400</v>
       </c>
@@ -16588,10 +16579,10 @@
         <f>F19/F30</f>
         <v>1321.5904761904774</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="10">
         <v>1322</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="41">
         <v>1322</v>
       </c>
       <c r="K29" s="10"/>
@@ -17000,7 +16991,7 @@
       </c>
       <c r="B37" s="73"/>
       <c r="C37" s="57">
-        <f t="shared" ref="C37:H37" si="9">-C14/C13</f>
+        <f t="shared" ref="C37:F37" si="9">-C14/C13</f>
         <v>0</v>
       </c>
       <c r="D37" s="57">

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC27D89-6390-427D-864B-8AFD59688CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581CA66-3317-49A0-B778-58588FBFBDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14951,8 +14951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15357,7 +15357,10 @@
       <c r="B25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="36">
+        <f>(Model!F64+Model!F65)/Model!F69</f>
+        <v>-9.8584456579749435</v>
+      </c>
       <c r="E25" t="s">
         <v>77</v>
       </c>
@@ -15541,10 +15544,10 @@
   <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36:F36"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581CA66-3317-49A0-B778-58588FBFBDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DC03AE-9E3F-4BD8-A975-842A44F609BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,15 +55,262 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5C779D48-DB44-44C0-BDEF-96AFC28324AC}</author>
+    <author>Simon Burghardt</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{5C779D48-DB44-44C0-BDEF-96AFC28324AC}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{B7DA6434-C150-4C3C-B1F4-30E9DF19FD0E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    EBIT/Interest Expense</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+=Total Debt / Shareholders Equity
+D/E of 2 is considered dangerous (especially when Ops is contracting)
+D/E &lt; 1 is good</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{6A06A699-E770-40ED-A802-15E22956C79E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EBIT (before Interest &amp; D&amp;A) / Interest Expense
+ICR of 2 is generally minimum
+also Check Credit Rating</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{765539E8-1A47-4ECB-83FC-2520624DE20A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Current Assets / Current Liabilities
+Current Assets: Cash + Marketable Sec. + Inventory + AR + Other Rec
+Current Liabilities: Short Term Debt + AP + Accrued Expense + Def. Revenue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{3B3660AA-0E3B-40DA-B72C-699EA408D7EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Cash + Marketable Securities + AR / Current Liabilities or
+= Cash + Marketable Securities + AR / AP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{8C21D8C5-6B4E-4801-A331-1682453B7CFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Working Capital = Current Assets - Current Liabilities
+&gt;30% very good
+15% - 30% satisfactory
+0% - 15% unsatisfactory
+&lt; 0% critical</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{9B11D9F6-E534-4455-A7F7-5B76CBBF13FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+BVPS = Stockholders Equity $ - Preffered Stock $ / Average Shares Outstanding
+Book Value (Share Capital + Retained Earnings) = Total Assets - Total Liabilities</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{A0BBE17D-1658-4C75-8CD9-3AE3A5640AE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Net Sales / Average Total Assets
+Average Total Assets = (Assets at start of year + Assets end of year) / 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{E5794654-E474-4790-8F44-18372294BE8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Net Income / Total Assets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{1428D8E1-F517-450D-ABBD-E0D187E6B839}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Net Income / Shareholders Equity $</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{59EB69AA-EE4E-4AFC-9015-2AB19E506B22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Simon Burghardt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+= Last Annual Free Cash Flow per Share / Current Market Stock Price
+P/FCFPS = Current Market Stock Price / Annualized Free Cash Flow per Share
+P/E </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -610,7 +857,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +922,19 @@
       <sz val="11"/>
       <color rgb="FF232A31"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -828,7 +1088,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -950,6 +1210,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -14673,9 +14937,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Simon Burghardt" id="{3D5FEDCC-57B8-46B3-B5C3-AD78C54E51BF}" userId="89957cfae585bdc7" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14939,20 +15201,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B26" dT="2024-03-18T10:57:34.68" personId="{3D5FEDCC-57B8-46B3-B5C3-AD78C54E51BF}" id="{5C779D48-DB44-44C0-BDEF-96AFC28324AC}">
-    <text>EBIT/Interest Expense</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15007,7 +15261,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="20">
-        <v>45369</v>
+        <v>45401</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>102</v>
@@ -15028,7 +15282,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.41388888888888886</v>
+        <v>6.5277777777777782E-2</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>104</v>
@@ -15070,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>7.2</v>
+        <v>6.23</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>108</v>
@@ -15117,7 +15371,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>3147.0479999999998</v>
+        <v>2723.0707000000002</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>112</v>
@@ -15139,7 +15393,10 @@
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <f>Model!F41</f>
+        <v>1310.7149999999999</v>
+      </c>
       <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
@@ -15160,7 +15417,10 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f>Model!F61+Model!F64</f>
+        <v>7472.62</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>116</v>
       </c>
@@ -15181,7 +15441,10 @@
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15">
+        <f>C9-C10</f>
+        <v>-6161.9049999999997</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>118</v>
       </c>
@@ -15202,7 +15465,10 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15">
+        <f>C8-C9+C10</f>
+        <v>8884.9757000000009</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>119</v>
       </c>
@@ -15219,7 +15485,7 @@
       </c>
       <c r="C13" s="54">
         <f>C6/Model!F30</f>
-        <v>-34.285714285714285</v>
+        <v>-29.666666666666671</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -15232,7 +15498,7 @@
       </c>
       <c r="C14" s="54">
         <f>C6/Model!G31</f>
-        <v>40</v>
+        <v>34.611111111111114</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -15250,7 +15516,7 @@
       </c>
       <c r="C15" s="54">
         <f>C6/Model!H31</f>
-        <v>13.584905660377359</v>
+        <v>11.754716981132075</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -15284,7 +15550,7 @@
       </c>
       <c r="C18" s="54">
         <f>C14/C16</f>
-        <v>40</v>
+        <v>34.611111111111114</v>
       </c>
       <c r="L18" s="77"/>
       <c r="M18" s="78"/>
@@ -15296,7 +15562,7 @@
       </c>
       <c r="C19" s="54">
         <f>C15/C17</f>
-        <v>6.9865229110512121</v>
+        <v>6.0452830188679236</v>
       </c>
       <c r="L19" s="77"/>
       <c r="M19" s="78"/>
@@ -15330,7 +15596,10 @@
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="50">
+        <f>Model!F16+Model!F11</f>
+        <v>118.86799999999977</v>
+      </c>
       <c r="L22" s="77"/>
       <c r="M22" s="78"/>
       <c r="N22" s="79"/>
@@ -15339,7 +15608,10 @@
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="15">
+        <f>Model!F16</f>
+        <v>-401.85800000000023</v>
+      </c>
       <c r="L23" s="77"/>
       <c r="M23" s="78"/>
       <c r="N23" s="79"/>
@@ -15348,7 +15620,10 @@
       <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="36">
+        <f>C12/C23</f>
+        <v>-22.109739509976151</v>
+      </c>
       <c r="L24" s="77"/>
       <c r="M24" s="78"/>
       <c r="N24" s="79"/>
@@ -15369,10 +15644,10 @@
       <c r="N25" s="79"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="84">
         <f>(Model!F13+Model!F11)/-Model!F14</f>
         <v>1.2486729512285588</v>
       </c>
@@ -15384,49 +15659,70 @@
       <c r="B27" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="36">
+        <f>Model!F46/Model!F63</f>
+        <v>1.3992968594262518</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="36">
+        <f>(Model!F41+Model!F43)/Model!F63</f>
+        <v>1.2714068248128885</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="86">
+        <f>(Model!F46-Model!F63)/Model!F56</f>
+        <v>5.2558510988491978E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="36">
+        <f>(Model!F56-Model!F68)/Main!C7</f>
+        <v>-1.8113294744789443</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="36">
+        <f>Model!F5/Model!F56</f>
+        <v>0.45026995346600501</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="36">
+        <f>Model!F19/Model!F56</f>
+        <v>-3.3101204044459695E-2</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="36">
+        <f>Model!F19/Model!F69</f>
+        <v>0.3509916354079986</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="85"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E37" s="67"/>
@@ -15547,7 +15843,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FFC741-BBE4-4DBF-AB5F-7323CBB54BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24834F32-F0C9-47B2-9F62-5859C7FB0469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1035" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Catalysts" sheetId="4" r:id="rId5"/>
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Catalysts!$A$1:$B$1</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$A$30</definedName>
@@ -1831,6 +1828,83 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1867,34 +1941,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="13" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1907,20 +1953,6 @@
     <xf numFmtId="167" fontId="13" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="12" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1930,41 +1962,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="15" fillId="12" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="29" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="10" borderId="23" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -16644,134 +16641,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="KPIs"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="J3" t="str">
-            <v>Frequency</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>67</v>
-          </cell>
-          <cell r="K4" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>67</v>
-          </cell>
-          <cell r="K5" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>67</v>
-          </cell>
-          <cell r="K6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>67</v>
-          </cell>
-          <cell r="K7" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>67</v>
-          </cell>
-          <cell r="K8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>67</v>
-          </cell>
-          <cell r="K9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>67</v>
-          </cell>
-          <cell r="K10" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>67</v>
-          </cell>
-          <cell r="K11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>67</v>
-          </cell>
-          <cell r="K12" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>67</v>
-          </cell>
-          <cell r="K13" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>67</v>
-          </cell>
-          <cell r="K14" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>67</v>
-          </cell>
-          <cell r="K15" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17037,7 +16906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17368,11 +17239,11 @@
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="78" t="s">
+      <c r="L17" s="139" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="79"/>
-      <c r="N17" s="80"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="141"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -17382,9 +17253,9 @@
         <f>C14/C16</f>
         <v>34.611111111111114</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="144"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -17394,9 +17265,9 @@
         <f>C15/C17</f>
         <v>6.0452830188679236</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="83"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="144"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -17406,9 +17277,9 @@
         <f>Model!G6/Model!F5-1</f>
         <v>0.30852365421388317</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="83"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="144"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -17418,9 +17289,9 @@
         <f>Model!H6/Model!G6-1</f>
         <v>2.2267206477732726E-2</v>
       </c>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="83"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="144"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -17430,9 +17301,9 @@
         <f>Model!F16+Model!F11</f>
         <v>118.86799999999977</v>
       </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="83"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17442,9 +17313,9 @@
         <f>Model!F16</f>
         <v>-401.85800000000023</v>
       </c>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -17454,9 +17325,9 @@
         <f>C12/C23</f>
         <v>-22.109739509976151</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="83"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="144"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -17469,9 +17340,9 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="83"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="144"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="74" t="s">
@@ -17481,9 +17352,9 @@
         <f>(Model!F13+Model!F11)/-Model!F14</f>
         <v>1.2486729512285588</v>
       </c>
-      <c r="L26" s="84"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="86"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -17669,11 +17540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32362,7 +32233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -32391,14 +32262,14 @@
       <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="150"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -32411,12 +32282,12 @@
         <f>C2/C3-1</f>
         <v>-0.10359712230215823</v>
       </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -32429,22 +32300,22 @@
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-1.9746121297602226E-2</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="85" t="s">
         <v>183</v>
       </c>
     </row>
@@ -32459,27 +32330,27 @@
         <f t="shared" si="0"/>
         <v>-1.6643550624133141E-2</v>
       </c>
-      <c r="H4" s="98">
+      <c r="H4" s="86">
         <f>$I$19-3*$I$23</f>
         <v>-0.23074927196332307</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="87">
         <f>H4</f>
         <v>-0.23074927196332307</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="88">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>2</v>
       </c>
-      <c r="K4" s="100" t="str">
+      <c r="K4" s="88" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -23,07%</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="89">
         <f>J4/$I$31</f>
         <v>2.2123893805309734E-3</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="90">
         <f>L4</f>
         <v>2.2123893805309734E-3</v>
       </c>
@@ -32495,27 +32366,27 @@
         <f t="shared" si="0"/>
         <v>4.4927536231883947E-2</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="91">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.18425724216814479</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="92">
         <f>H5</f>
         <v>-0.18425724216814479</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="93">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>5</v>
       </c>
-      <c r="K5" s="106" t="str">
+      <c r="K5" s="94" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-23,07% to -18,43%</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="95">
         <f>J5/$I$31</f>
         <v>5.5309734513274336E-3</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="96">
         <f>M4+L5</f>
         <v>7.743362831858407E-3</v>
       </c>
@@ -32531,27 +32402,27 @@
         <f t="shared" si="0"/>
         <v>-4.166666666666663E-2</v>
       </c>
-      <c r="H6" s="103">
+      <c r="H6" s="91">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.13776521237296652</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="92">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.13776521237296652</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="93">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>24</v>
       </c>
-      <c r="K6" s="106" t="str">
+      <c r="K6" s="94" t="str">
         <f t="shared" si="1"/>
         <v>-18,43% to -13,78%</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="95">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>2.6548672566371681E-2</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="96">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>3.4292035398230086E-2</v>
       </c>
@@ -32567,27 +32438,27 @@
         <f t="shared" si="0"/>
         <v>-1.3698630136986245E-2</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="91">
         <f>$I$19-1.2*$I$23</f>
         <v>-9.1273182577788242E-2</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="92">
         <f t="shared" si="2"/>
         <v>-9.1273182577788242E-2</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="93">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="K7" s="106" t="str">
+      <c r="K7" s="94" t="str">
         <f t="shared" si="1"/>
         <v>-13,78% to -9,13%</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="95">
         <f t="shared" si="4"/>
         <v>6.3053097345132744E-2</v>
       </c>
-      <c r="M7" s="108">
+      <c r="M7" s="96">
         <f t="shared" si="5"/>
         <v>9.7345132743362831E-2</v>
       </c>
@@ -32603,27 +32474,27 @@
         <f t="shared" si="0"/>
         <v>2.528089887640439E-2</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="91">
         <f>$I$19-0.6*$I$23</f>
         <v>-4.4781152782609961E-2</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="92">
         <f t="shared" si="2"/>
         <v>-4.4781152782609961E-2</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="93">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="K8" s="106" t="str">
+      <c r="K8" s="94" t="str">
         <f t="shared" si="1"/>
         <v>-9,13% to -4,48%</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="95">
         <f t="shared" si="4"/>
         <v>0.15376106194690264</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="96">
         <f t="shared" si="5"/>
         <v>0.25110619469026546</v>
       </c>
@@ -32639,27 +32510,27 @@
         <f t="shared" si="0"/>
         <v>-0.1711292200232829</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="91">
         <f>$I$19</f>
         <v>1.7108770125683227E-3</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="92">
         <f t="shared" si="2"/>
         <v>1.7108770125683227E-3</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="93">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="K9" s="106" t="str">
+      <c r="K9" s="94" t="str">
         <f t="shared" si="1"/>
         <v>-4,48% to 0,17%</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="95">
         <f t="shared" si="4"/>
         <v>0.25331858407079644</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="96">
         <f t="shared" si="5"/>
         <v>0.50442477876106184</v>
       </c>
@@ -32675,27 +32546,27 @@
         <f t="shared" si="0"/>
         <v>-2.7180067950169917E-2</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="91">
         <f>$I$19+0.6*$I$23</f>
         <v>4.8202906807746602E-2</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="92">
         <f t="shared" si="2"/>
         <v>4.8202906807746602E-2</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="93">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="K10" s="106" t="str">
+      <c r="K10" s="94" t="str">
         <f t="shared" si="1"/>
         <v>0,17% to 4,82%</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="95">
         <f t="shared" si="4"/>
         <v>0.25995575221238937</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="96">
         <f t="shared" si="5"/>
         <v>0.76438053097345127</v>
       </c>
@@ -32711,27 +32582,27 @@
         <f t="shared" si="0"/>
         <v>-4.5095828635850488E-3</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="91">
         <f>$I$19+1.2*$I$23</f>
         <v>9.4694936602924884E-2</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="92">
         <f t="shared" si="2"/>
         <v>9.4694936602924884E-2</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="93">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="K11" s="106" t="str">
+      <c r="K11" s="94" t="str">
         <f t="shared" si="1"/>
         <v>4,82% to 9,47%</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="95">
         <f t="shared" si="4"/>
         <v>0.13938053097345132</v>
       </c>
-      <c r="M11" s="108">
+      <c r="M11" s="96">
         <f t="shared" si="5"/>
         <v>0.90376106194690253</v>
       </c>
@@ -32747,27 +32618,27 @@
         <f t="shared" si="0"/>
         <v>0.1087499999999999</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="91">
         <f>$I$19+1.8*$I$23</f>
         <v>0.14118696639810319</v>
       </c>
-      <c r="I12" s="104">
+      <c r="I12" s="92">
         <f t="shared" si="2"/>
         <v>0.14118696639810319</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="93">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="K12" s="106" t="str">
+      <c r="K12" s="94" t="str">
         <f t="shared" si="1"/>
         <v>9,47% to 14,12%</v>
       </c>
-      <c r="L12" s="107">
+      <c r="L12" s="95">
         <f t="shared" si="4"/>
         <v>5.8628318584070797E-2</v>
       </c>
-      <c r="M12" s="108">
+      <c r="M12" s="96">
         <f t="shared" si="5"/>
         <v>0.96238938053097334</v>
       </c>
@@ -32783,27 +32654,27 @@
         <f t="shared" si="0"/>
         <v>-5.2132701421800931E-2</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="91">
         <f>$I$19+2.4*$I$23</f>
         <v>0.18767899619328146</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="92">
         <f t="shared" si="2"/>
         <v>0.18767899619328146</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="93">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K13" s="106" t="str">
+      <c r="K13" s="94" t="str">
         <f t="shared" si="1"/>
         <v>14,12% to 18,77%</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="95">
         <f t="shared" si="4"/>
         <v>1.7699115044247787E-2</v>
       </c>
-      <c r="M13" s="108">
+      <c r="M13" s="96">
         <f t="shared" si="5"/>
         <v>0.98008849557522115</v>
       </c>
@@ -32819,27 +32690,27 @@
         <f t="shared" si="0"/>
         <v>0.10906701708278566</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="91">
         <f>$I$19+3*$I$23</f>
         <v>0.23417102598845974</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="92">
         <f t="shared" si="2"/>
         <v>0.23417102598845974</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="93">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K14" s="106" t="str">
+      <c r="K14" s="94" t="str">
         <f t="shared" si="1"/>
         <v>18,77% to 23,42%</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="95">
         <f t="shared" si="4"/>
         <v>1.1061946902654867E-2</v>
       </c>
-      <c r="M14" s="108">
+      <c r="M14" s="96">
         <f t="shared" si="5"/>
         <v>0.99115044247787598</v>
       </c>
@@ -32855,23 +32726,23 @@
         <f t="shared" si="0"/>
         <v>-7.3081607795371539E-2</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110" t="s">
+      <c r="H15" s="97"/>
+      <c r="I15" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="110">
+      <c r="J15" s="98">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>8</v>
       </c>
-      <c r="K15" s="110" t="str">
+      <c r="K15" s="98" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 23,42%</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="99">
         <f t="shared" si="4"/>
         <v>8.8495575221238937E-3</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="99">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -32887,8 +32758,8 @@
         <f t="shared" si="0"/>
         <v>-9.080841638981163E-2</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="M16" s="113"/>
+      <c r="H16" s="100"/>
+      <c r="M16" s="101"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -32901,11 +32772,11 @@
         <f t="shared" si="0"/>
         <v>1.8038331454340417E-2</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="151" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="115"/>
-      <c r="M17" s="113"/>
+      <c r="I17" s="152"/>
+      <c r="M17" s="101"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -32918,9 +32789,9 @@
         <f t="shared" si="0"/>
         <v>1.0250569476081939E-2</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
-      <c r="M18" s="113"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="154"/>
+      <c r="M18" s="101"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -32933,14 +32804,14 @@
         <f t="shared" si="0"/>
         <v>1.6203703703703498E-2</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="H19" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="I19" s="119">
+      <c r="I19" s="103">
         <f>AVERAGE(D:D)</f>
         <v>1.7108770125683227E-3</v>
       </c>
-      <c r="M19" s="113"/>
+      <c r="M19" s="101"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -32953,14 +32824,14 @@
         <f t="shared" si="0"/>
         <v>0.10344827586206895</v>
       </c>
-      <c r="H20" s="118" t="s">
+      <c r="H20" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="119">
+      <c r="I20" s="103">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>2.5771698493475626E-3</v>
       </c>
-      <c r="M20" s="113"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -32973,14 +32844,14 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="103">
         <f>MEDIAN(D:D)</f>
         <v>1.4752749148974065E-3</v>
       </c>
-      <c r="M21" s="113"/>
+      <c r="M21" s="101"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -32993,14 +32864,14 @@
         <f t="shared" si="0"/>
         <v>-6.4516129032258118E-2</v>
       </c>
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="I22" s="119">
+      <c r="I22" s="103">
         <f>MODE(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="113"/>
+      <c r="M22" s="101"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -33013,14 +32884,14 @@
         <f t="shared" si="0"/>
         <v>2.4793388429752206E-2</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H23" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="I23" s="119">
+      <c r="I23" s="103">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>7.7486716325297134E-2</v>
       </c>
-      <c r="M23" s="113"/>
+      <c r="M23" s="101"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -33033,14 +32904,14 @@
         <f t="shared" si="0"/>
         <v>1.538461538461533E-2</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="I24" s="119">
+      <c r="I24" s="103">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>6.0041912068770683E-3</v>
       </c>
-      <c r="M24" s="113"/>
+      <c r="M24" s="101"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -33053,14 +32924,14 @@
         <f t="shared" si="0"/>
         <v>-0.16569428238039674</v>
       </c>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="104">
         <f>KURT(D:D)</f>
         <v>1.7049231848619075</v>
       </c>
-      <c r="M25" s="113"/>
+      <c r="M25" s="101"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -33073,14 +32944,14 @@
         <f t="shared" si="0"/>
         <v>2.1454112038140627E-2</v>
       </c>
-      <c r="H26" s="118" t="s">
+      <c r="H26" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="I26" s="120">
+      <c r="I26" s="104">
         <f>SKEW(D:D)</f>
         <v>0.36397620702218908</v>
       </c>
-      <c r="M26" s="113"/>
+      <c r="M26" s="101"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -33093,14 +32964,14 @@
         <f t="shared" si="0"/>
         <v>4.74406991260925E-2</v>
       </c>
-      <c r="H27" s="118" t="s">
+      <c r="H27" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="I27" s="119">
+      <c r="I27" s="103">
         <f>I29-I28</f>
         <v>0.65050901520514615</v>
       </c>
-      <c r="M27" s="113"/>
+      <c r="M27" s="101"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -33113,14 +32984,14 @@
         <f t="shared" si="0"/>
         <v>-8.8737201365187701E-2</v>
       </c>
-      <c r="H28" s="118" t="s">
+      <c r="H28" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="I28" s="119">
+      <c r="I28" s="103">
         <f>MIN(D:D)</f>
         <v>-0.28480340063761955</v>
       </c>
-      <c r="M28" s="113"/>
+      <c r="M28" s="101"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -33133,14 +33004,14 @@
         <f t="shared" si="0"/>
         <v>-3.9344262295082144E-2</v>
       </c>
-      <c r="H29" s="118" t="s">
+      <c r="H29" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="I29" s="119">
+      <c r="I29" s="103">
         <f>MAX(D:D)</f>
         <v>0.36570561456752659</v>
       </c>
-      <c r="M29" s="113"/>
+      <c r="M29" s="101"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -33153,14 +33024,14 @@
         <f t="shared" si="0"/>
         <v>-7.4823053589484378E-2</v>
       </c>
-      <c r="H30" s="118" t="s">
+      <c r="H30" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="I30" s="120">
+      <c r="I30" s="104">
         <f>SUM(D:D)</f>
         <v>1.5466328193617638</v>
       </c>
-      <c r="M30" s="113"/>
+      <c r="M30" s="101"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -33173,14 +33044,14 @@
         <f t="shared" si="0"/>
         <v>1.1247443762781417E-2</v>
       </c>
-      <c r="H31" s="121" t="s">
+      <c r="H31" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="92">
+      <c r="I31" s="80">
         <f>COUNT(D:D)</f>
         <v>904</v>
       </c>
-      <c r="M31" s="113"/>
+      <c r="M31" s="101"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -33193,8 +33064,8 @@
         <f t="shared" si="0"/>
         <v>-6.0518731988472685E-2</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="M32" s="113"/>
+      <c r="H32" s="106"/>
+      <c r="M32" s="101"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -33207,20 +33078,20 @@
         <f t="shared" si="0"/>
         <v>2.5615763546797954E-2</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124" t="s">
+      <c r="H33" s="107"/>
+      <c r="I33" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="124" t="s">
+      <c r="J33" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="124" t="s">
+      <c r="K33" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="L33" s="125" t="s">
+      <c r="L33" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="M33" s="113"/>
+      <c r="M33" s="101"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -33233,26 +33104,26 @@
         <f t="shared" si="0"/>
         <v>-9.8579040852575406E-2</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H34" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="I34" s="107">
+      <c r="I34" s="95">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>5.9024640180802029E-2</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="93">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>457</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="95">
         <f>J34/$I$31</f>
         <v>0.50553097345132747</v>
       </c>
-      <c r="L34" s="108">
+      <c r="L34" s="96">
         <f>K34*I34</f>
         <v>2.9838783808215186E-2</v>
       </c>
-      <c r="M34" s="113"/>
+      <c r="M34" s="101"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -33265,26 +33136,26 @@
         <f t="shared" si="0"/>
         <v>2.5500910746812266E-2</v>
       </c>
-      <c r="H35" s="126" t="s">
+      <c r="H35" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="107">
+      <c r="I35" s="95">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-5.7398708224073947E-2</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="93">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>443</v>
       </c>
-      <c r="K35" s="107">
+      <c r="K35" s="95">
         <f>J35/$I$31</f>
         <v>0.49004424778761063</v>
       </c>
-      <c r="L35" s="108">
+      <c r="L35" s="96">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-2.8127906795646859E-2</v>
       </c>
-      <c r="M35" s="113"/>
+      <c r="M35" s="101"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -33297,25 +33168,25 @@
         <f t="shared" si="0"/>
         <v>3.6827195467422191E-2</v>
       </c>
-      <c r="H36" s="127" t="s">
+      <c r="H36" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="98">
         <v>0</v>
       </c>
-      <c r="J36" s="110">
+      <c r="J36" s="98">
         <f>COUNTIF(D:D,"0")</f>
         <v>4</v>
       </c>
-      <c r="K36" s="128">
+      <c r="K36" s="112">
         <f>J36/$I$31</f>
         <v>4.4247787610619468E-3</v>
       </c>
-      <c r="L36" s="111">
+      <c r="L36" s="99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="113"/>
+      <c r="M36" s="101"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -33328,12 +33199,12 @@
         <f t="shared" si="0"/>
         <v>-0.11750000000000005</v>
       </c>
-      <c r="H37" s="122"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="113"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="101"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -33346,22 +33217,22 @@
         <f t="shared" si="0"/>
         <v>-6.6874027993779173E-2</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="I38" s="124" t="s">
+      <c r="I38" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="J38" s="124" t="s">
+      <c r="J38" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="K38" s="124" t="s">
+      <c r="K38" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="L38" s="124" t="s">
+      <c r="L38" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="M38" s="125" t="s">
+      <c r="M38" s="109" t="s">
         <v>209</v>
       </c>
     </row>
@@ -33376,26 +33247,26 @@
         <f t="shared" si="0"/>
         <v>-4.386617100371748E-2</v>
       </c>
-      <c r="H39" s="130">
+      <c r="H39" s="114">
         <v>1</v>
       </c>
-      <c r="I39" s="107">
+      <c r="I39" s="95">
         <f>$I$19+($H39*$I$23)</f>
         <v>7.9197593337865455E-2</v>
       </c>
-      <c r="J39" s="107">
+      <c r="J39" s="95">
         <f>$I$19-($H39*$I$23)</f>
         <v>-7.5775839312728813E-2</v>
       </c>
-      <c r="K39" s="105">
+      <c r="K39" s="93">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>661</v>
       </c>
-      <c r="L39" s="107">
+      <c r="L39" s="95">
         <f>K39/$I$31</f>
         <v>0.73119469026548678</v>
       </c>
-      <c r="M39" s="108">
+      <c r="M39" s="96">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -33410,26 +33281,26 @@
         <f t="shared" si="0"/>
         <v>3.6209553158705665E-2</v>
       </c>
-      <c r="H40" s="130">
+      <c r="H40" s="114">
         <v>2</v>
       </c>
-      <c r="I40" s="107">
+      <c r="I40" s="95">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.1566843096631626</v>
       </c>
-      <c r="J40" s="107">
+      <c r="J40" s="95">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.15326255563802593</v>
       </c>
-      <c r="K40" s="105">
+      <c r="K40" s="93">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>855</v>
       </c>
-      <c r="L40" s="107">
+      <c r="L40" s="95">
         <f>K40/$I$31</f>
         <v>0.94579646017699115</v>
       </c>
-      <c r="M40" s="108">
+      <c r="M40" s="96">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -33444,26 +33315,26 @@
         <f t="shared" si="0"/>
         <v>-5.7371096586782855E-2</v>
       </c>
-      <c r="H41" s="130">
+      <c r="H41" s="114">
         <v>3</v>
       </c>
-      <c r="I41" s="107">
+      <c r="I41" s="95">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.23417102598845974</v>
       </c>
-      <c r="J41" s="107">
+      <c r="J41" s="95">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.23074927196332307</v>
       </c>
-      <c r="K41" s="105">
+      <c r="K41" s="93">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>894</v>
       </c>
-      <c r="L41" s="107">
+      <c r="L41" s="95">
         <f>K41/$I$31</f>
         <v>0.98893805309734517</v>
       </c>
-      <c r="M41" s="131">
+      <c r="M41" s="115">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -33478,8 +33349,8 @@
         <f t="shared" si="0"/>
         <v>0.14749999999999996</v>
       </c>
-      <c r="H42" s="103"/>
-      <c r="M42" s="131"/>
+      <c r="H42" s="91"/>
+      <c r="M42" s="115"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -33492,14 +33363,14 @@
         <f t="shared" si="0"/>
         <v>-1.7199017199017286E-2</v>
       </c>
-      <c r="H43" s="132" t="s">
+      <c r="H43" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="134"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="157"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -33512,24 +33383,24 @@
         <f t="shared" si="0"/>
         <v>-5.0544323483670217E-2</v>
       </c>
-      <c r="H44" s="135">
+      <c r="H44" s="116">
         <v>0.01</v>
       </c>
-      <c r="I44" s="136">
+      <c r="I44" s="117">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.17103599382908849</v>
       </c>
-      <c r="J44" s="137">
+      <c r="J44" s="118">
         <v>0.2</v>
       </c>
-      <c r="K44" s="136">
+      <c r="K44" s="117">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-5.6366608197175309E-2</v>
       </c>
-      <c r="L44" s="137">
+      <c r="L44" s="118">
         <v>0.85</v>
       </c>
-      <c r="M44" s="138">
+      <c r="M44" s="119">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>7.4733752620545144E-2</v>
       </c>
@@ -33545,24 +33416,24 @@
         <f t="shared" si="0"/>
         <v>2.7156549520766848E-2</v>
       </c>
-      <c r="H45" s="139">
+      <c r="H45" s="120">
         <v>0.02</v>
       </c>
-      <c r="I45" s="140">
+      <c r="I45" s="121">
         <f t="shared" si="7"/>
         <v>-0.15598545866578534</v>
       </c>
-      <c r="J45" s="141">
+      <c r="J45" s="122">
         <v>0.25</v>
       </c>
-      <c r="K45" s="140">
+      <c r="K45" s="121">
         <f t="shared" si="8"/>
         <v>-4.518164149813983E-2</v>
       </c>
-      <c r="L45" s="141">
+      <c r="L45" s="122">
         <v>0.86</v>
       </c>
-      <c r="M45" s="142">
+      <c r="M45" s="123">
         <f t="shared" si="9"/>
         <v>7.6986722264896279E-2</v>
       </c>
@@ -33578,24 +33449,24 @@
         <f t="shared" si="0"/>
         <v>3.4710743801652955E-2</v>
       </c>
-      <c r="H46" s="139">
+      <c r="H46" s="120">
         <v>0.03</v>
       </c>
-      <c r="I46" s="140">
+      <c r="I46" s="121">
         <f t="shared" si="7"/>
         <v>-0.14506611338274447</v>
       </c>
-      <c r="J46" s="141">
+      <c r="J46" s="122">
         <v>0.3</v>
       </c>
-      <c r="K46" s="140">
+      <c r="K46" s="121">
         <f t="shared" si="8"/>
         <v>-3.3032158088994304E-2</v>
       </c>
-      <c r="L46" s="141">
+      <c r="L46" s="122">
         <v>0.87</v>
       </c>
-      <c r="M46" s="142">
+      <c r="M46" s="123">
         <f t="shared" si="9"/>
         <v>7.9421057913364457E-2</v>
       </c>
@@ -33611,24 +33482,24 @@
         <f t="shared" si="0"/>
         <v>3.8626609442059978E-2</v>
       </c>
-      <c r="H47" s="139">
+      <c r="H47" s="120">
         <v>0.04</v>
       </c>
-      <c r="I47" s="140">
+      <c r="I47" s="121">
         <f t="shared" si="7"/>
         <v>-0.13370619946091641</v>
       </c>
-      <c r="J47" s="141">
+      <c r="J47" s="122">
         <v>0.35</v>
       </c>
-      <c r="K47" s="140">
+      <c r="K47" s="121">
         <f t="shared" si="8"/>
         <v>-2.4859618373049786E-2</v>
       </c>
-      <c r="L47" s="141">
+      <c r="L47" s="122">
         <v>0.88</v>
       </c>
-      <c r="M47" s="142">
+      <c r="M47" s="123">
         <f t="shared" si="9"/>
         <v>8.3302389550059489E-2</v>
       </c>
@@ -33644,24 +33515,24 @@
         <f t="shared" si="0"/>
         <v>5.1444043321299704E-2</v>
       </c>
-      <c r="H48" s="139">
+      <c r="H48" s="120">
         <v>0.05</v>
       </c>
-      <c r="I48" s="140">
+      <c r="I48" s="121">
         <f t="shared" si="7"/>
         <v>-0.12277925095683659</v>
       </c>
-      <c r="J48" s="141">
+      <c r="J48" s="122">
         <v>0.4</v>
       </c>
-      <c r="K48" s="140">
+      <c r="K48" s="121">
         <f t="shared" si="8"/>
         <v>-1.5075152955588533E-2</v>
       </c>
-      <c r="L48" s="141">
+      <c r="L48" s="122">
         <v>0.89</v>
       </c>
-      <c r="M48" s="142">
+      <c r="M48" s="123">
         <f t="shared" si="9"/>
         <v>8.7324059032421145E-2</v>
       </c>
@@ -33677,24 +33548,24 @@
         <f t="shared" si="0"/>
         <v>-3.4001743679163088E-2</v>
       </c>
-      <c r="H49" s="139">
+      <c r="H49" s="120">
         <v>0.06</v>
       </c>
-      <c r="I49" s="140">
+      <c r="I49" s="121">
         <f t="shared" si="7"/>
         <v>-0.11569158137278059</v>
       </c>
-      <c r="J49" s="141">
+      <c r="J49" s="122">
         <v>0.45</v>
       </c>
-      <c r="K49" s="140">
+      <c r="K49" s="121">
         <f t="shared" si="8"/>
         <v>-7.7904349761567029E-3</v>
       </c>
-      <c r="L49" s="141">
+      <c r="L49" s="122">
         <v>0.9</v>
       </c>
-      <c r="M49" s="142">
+      <c r="M49" s="123">
         <f t="shared" si="9"/>
         <v>9.1515033022259898E-2</v>
       </c>
@@ -33710,24 +33581,24 @@
         <f t="shared" si="0"/>
         <v>2.502234137622894E-2</v>
       </c>
-      <c r="H50" s="139">
+      <c r="H50" s="120">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="140">
+      <c r="I50" s="121">
         <f t="shared" si="7"/>
         <v>-0.10817760858434072</v>
       </c>
-      <c r="J50" s="141">
+      <c r="J50" s="122">
         <v>0.5</v>
       </c>
-      <c r="K50" s="140">
+      <c r="K50" s="121">
         <f t="shared" si="8"/>
         <v>1.4752749148974065E-3</v>
       </c>
-      <c r="L50" s="141">
+      <c r="L50" s="122">
         <v>0.91</v>
       </c>
-      <c r="M50" s="142">
+      <c r="M50" s="123">
         <f t="shared" si="9"/>
         <v>9.6949926739869879E-2</v>
       </c>
@@ -33743,24 +33614,24 @@
         <f t="shared" si="0"/>
         <v>-0.13989239046887014</v>
       </c>
-      <c r="H51" s="139">
+      <c r="H51" s="120">
         <v>0.08</v>
       </c>
-      <c r="I51" s="140">
+      <c r="I51" s="121">
         <f t="shared" si="7"/>
         <v>-0.10428780663807732</v>
       </c>
-      <c r="J51" s="141">
+      <c r="J51" s="122">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="140">
+      <c r="K51" s="121">
         <f t="shared" si="8"/>
         <v>8.0075641810029557E-3</v>
       </c>
-      <c r="L51" s="141">
+      <c r="L51" s="122">
         <v>0.92</v>
       </c>
-      <c r="M51" s="142">
+      <c r="M51" s="123">
         <f t="shared" si="9"/>
         <v>0.10293128404730048</v>
       </c>
@@ -33776,24 +33647,24 @@
         <f t="shared" si="0"/>
         <v>-4.6187683284457548E-2</v>
       </c>
-      <c r="H52" s="139">
+      <c r="H52" s="120">
         <v>0.09</v>
       </c>
-      <c r="I52" s="140">
+      <c r="I52" s="121">
         <f t="shared" si="7"/>
         <v>-9.3230957429704303E-2</v>
       </c>
-      <c r="J52" s="141">
+      <c r="J52" s="122">
         <v>0.6</v>
       </c>
-      <c r="K52" s="140">
+      <c r="K52" s="121">
         <f t="shared" si="8"/>
         <v>1.667586497092621E-2</v>
       </c>
-      <c r="L52" s="141">
+      <c r="L52" s="122">
         <v>0.93</v>
       </c>
-      <c r="M52" s="142">
+      <c r="M52" s="123">
         <f t="shared" si="9"/>
         <v>0.10853642597488432</v>
       </c>
@@ -33809,24 +33680,24 @@
         <f t="shared" si="0"/>
         <v>-5.2119527449617786E-2</v>
       </c>
-      <c r="H53" s="139">
+      <c r="H53" s="120">
         <v>0.1</v>
       </c>
-      <c r="I53" s="140">
+      <c r="I53" s="121">
         <f t="shared" si="7"/>
         <v>-9.0565891472868129E-2</v>
       </c>
-      <c r="J53" s="141">
+      <c r="J53" s="122">
         <v>0.65</v>
       </c>
-      <c r="K53" s="140">
+      <c r="K53" s="121">
         <f t="shared" si="8"/>
         <v>2.444254961512294E-2</v>
       </c>
-      <c r="L53" s="141">
+      <c r="L53" s="122">
         <v>0.94</v>
       </c>
-      <c r="M53" s="142">
+      <c r="M53" s="123">
         <f t="shared" si="9"/>
         <v>0.11448308404290729</v>
       </c>
@@ -33842,24 +33713,24 @@
         <f t="shared" si="0"/>
         <v>0.12071651090342694</v>
       </c>
-      <c r="H54" s="139">
+      <c r="H54" s="120">
         <v>0.11</v>
       </c>
-      <c r="I54" s="140">
+      <c r="I54" s="121">
         <f t="shared" si="7"/>
         <v>-8.7304479418418915E-2</v>
       </c>
-      <c r="J54" s="141">
+      <c r="J54" s="122">
         <v>0.7</v>
       </c>
-      <c r="K54" s="140">
+      <c r="K54" s="121">
         <f t="shared" si="8"/>
         <v>3.2380506798888015E-2</v>
       </c>
-      <c r="L54" s="141">
+      <c r="L54" s="122">
         <v>0.95</v>
       </c>
-      <c r="M54" s="142">
+      <c r="M54" s="123">
         <f t="shared" si="9"/>
         <v>0.12518478260869553</v>
       </c>
@@ -33875,24 +33746,24 @@
         <f t="shared" si="0"/>
         <v>1.6627078384797933E-2</v>
       </c>
-      <c r="H55" s="139">
+      <c r="H55" s="120">
         <v>0.12</v>
       </c>
-      <c r="I55" s="140">
+      <c r="I55" s="121">
         <f t="shared" si="7"/>
         <v>-8.285595474881885E-2</v>
       </c>
-      <c r="J55" s="141">
+      <c r="J55" s="122">
         <v>0.75</v>
       </c>
-      <c r="K55" s="140">
+      <c r="K55" s="121">
         <f t="shared" si="8"/>
         <v>4.4929467863174199E-2</v>
       </c>
-      <c r="L55" s="141">
+      <c r="L55" s="122">
         <v>0.96</v>
       </c>
-      <c r="M55" s="142">
+      <c r="M55" s="123">
         <f t="shared" si="9"/>
         <v>0.1354312630928885</v>
       </c>
@@ -33908,24 +33779,24 @@
         <f t="shared" si="0"/>
         <v>-7.8554595443832698E-3</v>
       </c>
-      <c r="H56" s="139">
+      <c r="H56" s="120">
         <v>0.13</v>
       </c>
-      <c r="I56" s="140">
+      <c r="I56" s="121">
         <f t="shared" si="7"/>
         <v>-7.8413300568838926E-2</v>
       </c>
-      <c r="J56" s="141">
+      <c r="J56" s="122">
         <v>0.8</v>
       </c>
-      <c r="K56" s="140">
+      <c r="K56" s="121">
         <f t="shared" si="8"/>
         <v>5.8788987293030531E-2</v>
       </c>
-      <c r="L56" s="141">
+      <c r="L56" s="122">
         <v>0.97</v>
       </c>
-      <c r="M56" s="142">
+      <c r="M56" s="123">
         <f t="shared" si="9"/>
         <v>0.15301861496416211</v>
       </c>
@@ -33941,19 +33812,19 @@
         <f t="shared" si="0"/>
         <v>5.9068219633943597E-2</v>
       </c>
-      <c r="H57" s="139">
+      <c r="H57" s="120">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="140">
+      <c r="I57" s="121">
         <f t="shared" si="7"/>
         <v>-7.3787633516842532E-2</v>
       </c>
-      <c r="J57" s="141"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="141">
+      <c r="J57" s="122"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="122">
         <v>0.98</v>
       </c>
-      <c r="M57" s="142">
+      <c r="M57" s="123">
         <f t="shared" si="9"/>
         <v>0.18645482028888102</v>
       </c>
@@ -33969,19 +33840,19 @@
         <f t="shared" si="0"/>
         <v>2.9991431019708692E-2</v>
       </c>
-      <c r="H58" s="143">
+      <c r="H58" s="124">
         <v>0.15</v>
       </c>
-      <c r="I58" s="144">
+      <c r="I58" s="125">
         <f t="shared" si="7"/>
         <v>-7.0264606787739381E-2</v>
       </c>
-      <c r="J58" s="145"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="147">
+      <c r="J58" s="126"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="128">
         <v>0.99</v>
       </c>
-      <c r="M58" s="148">
+      <c r="M58" s="129">
         <f t="shared" si="9"/>
         <v>0.22601109674639111</v>
       </c>
@@ -34009,10 +33880,10 @@
         <f t="shared" si="0"/>
         <v>-0.11230329041487841</v>
       </c>
-      <c r="H60" s="149" t="s">
+      <c r="H60" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="I60" s="150">
+      <c r="I60" s="131">
         <v>-0.1</v>
       </c>
     </row>
@@ -34027,10 +33898,10 @@
         <f t="shared" si="0"/>
         <v>0.16112956810631252</v>
       </c>
-      <c r="H61" s="151" t="s">
+      <c r="H61" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="I61" s="152">
+      <c r="I61" s="133">
         <v>-0.3</v>
       </c>
     </row>
@@ -34045,7 +33916,7 @@
         <f t="shared" si="0"/>
         <v>-4.2163882259347751E-2</v>
       </c>
-      <c r="H62" s="153"/>
+      <c r="H62" s="134"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -34058,10 +33929,10 @@
         <f t="shared" si="0"/>
         <v>-2.8593508500772691E-2</v>
       </c>
-      <c r="H63" s="149" t="s">
+      <c r="H63" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="I63" s="154">
+      <c r="I63" s="135">
         <v>6.2</v>
       </c>
     </row>
@@ -34076,10 +33947,10 @@
         <f t="shared" si="0"/>
         <v>-3.2161555721765156E-2</v>
       </c>
-      <c r="H64" s="155" t="s">
+      <c r="H64" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="I64" s="156">
+      <c r="I64" s="137">
         <f>I63*(1-I60)</f>
         <v>6.8200000000000012</v>
       </c>
@@ -34095,10 +33966,10 @@
         <f t="shared" si="0"/>
         <v>-1.3284132841328566E-2</v>
       </c>
-      <c r="H65" s="151" t="s">
+      <c r="H65" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="I65" s="157">
+      <c r="I65" s="138">
         <f>I63*(1+I61)</f>
         <v>4.34</v>
       </c>
@@ -44107,7 +43978,7 @@
         <v>18.620000999999998</v>
       </c>
       <c r="D899">
-        <f t="shared" ref="D899:D906" si="23">C899/C900-1</f>
+        <f t="shared" ref="D899:D905" si="23">C899/C900-1</f>
         <v>-8.8148824681684723E-2</v>
       </c>
     </row>

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E28CBD-1BEC-4BBB-9C26-A40A51F4B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2305BD1-94F5-47B8-8CA7-A71AB69C16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Catalysts!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$6</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$5:$W$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$6:$W$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$30</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$30:$W$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$31:$W$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$6</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$30:$W$30</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$31:$W$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$5:$W$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$6:$W$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1905,6 +1905,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1962,7 +1963,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -11004,18 +11004,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11059,7 +11059,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11079,7 +11079,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11110,18 +11110,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11165,7 +11165,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11185,7 +11185,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16907,7 +16907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -17240,11 +17240,11 @@
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -17254,9 +17254,9 @@
         <f>C14/C16</f>
         <v>34.611111111111114</v>
       </c>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="144"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -17266,9 +17266,9 @@
         <f>C15/C17</f>
         <v>6.0452830188679236</v>
       </c>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="144"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="145"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -17278,9 +17278,9 @@
         <f>Model!G6/Model!F5-1</f>
         <v>0.30852365421388317</v>
       </c>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="144"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="145"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -17290,9 +17290,9 @@
         <f>Model!H6/Model!G6-1</f>
         <v>2.2267206477732726E-2</v>
       </c>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="145"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -17302,9 +17302,9 @@
         <f>Model!F16+Model!F11</f>
         <v>118.86799999999977</v>
       </c>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="145"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17314,9 +17314,9 @@
         <f>Model!F16</f>
         <v>-401.85800000000023</v>
       </c>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="145"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -17326,9 +17326,9 @@
         <f>C12/C23</f>
         <v>-22.109739509976151</v>
       </c>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="145"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -17341,9 +17341,9 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="144"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="145"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="74" t="s">
@@ -17353,9 +17353,9 @@
         <f>(Model!F13+Model!F11)/-Model!F14</f>
         <v>1.2486729512285588</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="148"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -32234,8 +32234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M907"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C907" sqref="C2:C907"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32263,14 +32263,14 @@
       <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -32279,7 +32279,7 @@
       <c r="C2">
         <v>6.27</v>
       </c>
-      <c r="D2" s="158">
+      <c r="D2" s="139">
         <f>C2/C3-1</f>
         <v>1.9512195121951015E-2</v>
       </c>
@@ -32297,7 +32297,7 @@
       <c r="C3">
         <v>6.15</v>
       </c>
-      <c r="D3" s="158">
+      <c r="D3" s="139">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-0.1151079136690647</v>
       </c>
@@ -32327,7 +32327,7 @@
       <c r="C4">
         <v>6.95</v>
       </c>
-      <c r="D4" s="158">
+      <c r="D4" s="139">
         <f t="shared" si="0"/>
         <v>-1.9746121297602226E-2</v>
       </c>
@@ -32363,7 +32363,7 @@
       <c r="C5">
         <v>7.09</v>
       </c>
-      <c r="D5" s="158">
+      <c r="D5" s="139">
         <f t="shared" si="0"/>
         <v>-1.6643550624133141E-2</v>
       </c>
@@ -32399,7 +32399,7 @@
       <c r="C6">
         <v>7.21</v>
       </c>
-      <c r="D6" s="158">
+      <c r="D6" s="139">
         <f t="shared" si="0"/>
         <v>4.4927536231883947E-2</v>
       </c>
@@ -32435,7 +32435,7 @@
       <c r="C7">
         <v>6.9</v>
       </c>
-      <c r="D7" s="158">
+      <c r="D7" s="139">
         <f t="shared" si="0"/>
         <v>-4.166666666666663E-2</v>
       </c>
@@ -32471,7 +32471,7 @@
       <c r="C8" s="18">
         <v>7.2</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="139">
         <f t="shared" si="0"/>
         <v>-1.3698630136986245E-2</v>
       </c>
@@ -32507,7 +32507,7 @@
       <c r="C9" s="18">
         <v>7.3</v>
       </c>
-      <c r="D9" s="158">
+      <c r="D9" s="139">
         <f t="shared" si="0"/>
         <v>2.528089887640439E-2</v>
       </c>
@@ -32543,7 +32543,7 @@
       <c r="C10" s="18">
         <v>7.12</v>
       </c>
-      <c r="D10" s="158">
+      <c r="D10" s="139">
         <f t="shared" si="0"/>
         <v>-0.1711292200232829</v>
       </c>
@@ -32579,7 +32579,7 @@
       <c r="C11" s="18">
         <v>8.59</v>
       </c>
-      <c r="D11" s="158">
+      <c r="D11" s="139">
         <f t="shared" si="0"/>
         <v>-2.7180067950169917E-2</v>
       </c>
@@ -32615,7 +32615,7 @@
       <c r="C12" s="18">
         <v>8.83</v>
       </c>
-      <c r="D12" s="158">
+      <c r="D12" s="139">
         <f t="shared" si="0"/>
         <v>-4.5095828635850488E-3</v>
       </c>
@@ -32651,7 +32651,7 @@
       <c r="C13" s="18">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="139">
         <f t="shared" si="0"/>
         <v>0.1087499999999999</v>
       </c>
@@ -32687,7 +32687,7 @@
       <c r="C14" s="18">
         <v>8</v>
       </c>
-      <c r="D14" s="158">
+      <c r="D14" s="139">
         <f t="shared" si="0"/>
         <v>-5.2132701421800931E-2</v>
       </c>
@@ -32723,7 +32723,7 @@
       <c r="C15" s="18">
         <v>8.44</v>
       </c>
-      <c r="D15" s="158">
+      <c r="D15" s="139">
         <f t="shared" si="0"/>
         <v>0.10906701708278566</v>
       </c>
@@ -32755,7 +32755,7 @@
       <c r="C16" s="18">
         <v>7.61</v>
       </c>
-      <c r="D16" s="158">
+      <c r="D16" s="139">
         <f t="shared" si="0"/>
         <v>-7.3081607795371539E-2</v>
       </c>
@@ -32769,14 +32769,14 @@
       <c r="C17" s="18">
         <v>8.2100000000000009</v>
       </c>
-      <c r="D17" s="158">
+      <c r="D17" s="139">
         <f t="shared" si="0"/>
         <v>-9.080841638981163E-2</v>
       </c>
-      <c r="H17" s="151" t="s">
+      <c r="H17" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="I17" s="152"/>
+      <c r="I17" s="153"/>
       <c r="M17" s="101"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -32786,12 +32786,12 @@
       <c r="C18" s="18">
         <v>9.0299999999999994</v>
       </c>
-      <c r="D18" s="158">
+      <c r="D18" s="139">
         <f t="shared" si="0"/>
         <v>1.8038331454340417E-2</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="155"/>
       <c r="M18" s="101"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -32801,7 +32801,7 @@
       <c r="C19" s="18">
         <v>8.8699999999999992</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="139">
         <f t="shared" si="0"/>
         <v>1.0250569476081939E-2</v>
       </c>
@@ -32821,7 +32821,7 @@
       <c r="C20" s="18">
         <v>8.7799999999999994</v>
       </c>
-      <c r="D20" s="158">
+      <c r="D20" s="139">
         <f t="shared" si="0"/>
         <v>1.6203703703703498E-2</v>
       </c>
@@ -32841,7 +32841,7 @@
       <c r="C21" s="18">
         <v>8.64</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="139">
         <f t="shared" si="0"/>
         <v>0.10344827586206895</v>
       </c>
@@ -32861,7 +32861,7 @@
       <c r="C22" s="18">
         <v>7.83</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="139">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
@@ -32881,7 +32881,7 @@
       <c r="C23" s="18">
         <v>6.96</v>
       </c>
-      <c r="D23" s="158">
+      <c r="D23" s="139">
         <f t="shared" si="0"/>
         <v>-6.4516129032258118E-2</v>
       </c>
@@ -32901,7 +32901,7 @@
       <c r="C24" s="18">
         <v>7.44</v>
       </c>
-      <c r="D24" s="158">
+      <c r="D24" s="139">
         <f t="shared" si="0"/>
         <v>2.4793388429752206E-2</v>
       </c>
@@ -32921,7 +32921,7 @@
       <c r="C25" s="18">
         <v>7.26</v>
       </c>
-      <c r="D25" s="158">
+      <c r="D25" s="139">
         <f t="shared" si="0"/>
         <v>1.538461538461533E-2</v>
       </c>
@@ -32941,7 +32941,7 @@
       <c r="C26" s="18">
         <v>7.15</v>
       </c>
-      <c r="D26" s="158">
+      <c r="D26" s="139">
         <f t="shared" si="0"/>
         <v>-0.16569428238039674</v>
       </c>
@@ -32961,7 +32961,7 @@
       <c r="C27" s="18">
         <v>8.57</v>
       </c>
-      <c r="D27" s="158">
+      <c r="D27" s="139">
         <f t="shared" si="0"/>
         <v>2.1454112038140627E-2</v>
       </c>
@@ -32981,7 +32981,7 @@
       <c r="C28" s="18">
         <v>8.39</v>
       </c>
-      <c r="D28" s="158">
+      <c r="D28" s="139">
         <f t="shared" si="0"/>
         <v>4.74406991260925E-2</v>
       </c>
@@ -33001,7 +33001,7 @@
       <c r="C29" s="18">
         <v>8.01</v>
       </c>
-      <c r="D29" s="158">
+      <c r="D29" s="139">
         <f t="shared" si="0"/>
         <v>-8.8737201365187701E-2</v>
       </c>
@@ -33021,7 +33021,7 @@
       <c r="C30" s="18">
         <v>8.7899999999999991</v>
       </c>
-      <c r="D30" s="158">
+      <c r="D30" s="139">
         <f t="shared" si="0"/>
         <v>-3.9344262295082144E-2</v>
       </c>
@@ -33041,7 +33041,7 @@
       <c r="C31" s="18">
         <v>9.15</v>
       </c>
-      <c r="D31" s="158">
+      <c r="D31" s="139">
         <f t="shared" si="0"/>
         <v>-7.4823053589484378E-2</v>
       </c>
@@ -33061,7 +33061,7 @@
       <c r="C32" s="18">
         <v>9.89</v>
       </c>
-      <c r="D32" s="158">
+      <c r="D32" s="139">
         <f t="shared" si="0"/>
         <v>1.1247443762781417E-2</v>
       </c>
@@ -33075,7 +33075,7 @@
       <c r="C33" s="18">
         <v>9.7799999999999994</v>
       </c>
-      <c r="D33" s="158">
+      <c r="D33" s="139">
         <f t="shared" si="0"/>
         <v>-6.0518731988472685E-2</v>
       </c>
@@ -33101,7 +33101,7 @@
       <c r="C34" s="18">
         <v>10.41</v>
       </c>
-      <c r="D34" s="158">
+      <c r="D34" s="139">
         <f t="shared" si="0"/>
         <v>2.5615763546797954E-2</v>
       </c>
@@ -33133,7 +33133,7 @@
       <c r="C35" s="18">
         <v>10.15</v>
       </c>
-      <c r="D35" s="158">
+      <c r="D35" s="139">
         <f t="shared" si="0"/>
         <v>-9.8579040852575406E-2</v>
       </c>
@@ -33165,7 +33165,7 @@
       <c r="C36" s="18">
         <v>11.26</v>
       </c>
-      <c r="D36" s="158">
+      <c r="D36" s="139">
         <f t="shared" si="0"/>
         <v>2.5500910746812266E-2</v>
       </c>
@@ -33196,7 +33196,7 @@
       <c r="C37" s="18">
         <v>10.98</v>
       </c>
-      <c r="D37" s="158">
+      <c r="D37" s="139">
         <f t="shared" si="0"/>
         <v>3.6827195467422191E-2</v>
       </c>
@@ -33214,7 +33214,7 @@
       <c r="C38" s="18">
         <v>10.59</v>
       </c>
-      <c r="D38" s="158">
+      <c r="D38" s="139">
         <f t="shared" si="0"/>
         <v>-0.11750000000000005</v>
       </c>
@@ -33244,7 +33244,7 @@
       <c r="C39" s="18">
         <v>12</v>
       </c>
-      <c r="D39" s="158">
+      <c r="D39" s="139">
         <f t="shared" si="0"/>
         <v>-6.6874027993779173E-2</v>
       </c>
@@ -33278,7 +33278,7 @@
       <c r="C40" s="18">
         <v>12.86</v>
       </c>
-      <c r="D40" s="158">
+      <c r="D40" s="139">
         <f t="shared" si="0"/>
         <v>-4.386617100371748E-2</v>
       </c>
@@ -33312,7 +33312,7 @@
       <c r="C41" s="18">
         <v>13.45</v>
       </c>
-      <c r="D41" s="158">
+      <c r="D41" s="139">
         <f t="shared" si="0"/>
         <v>3.6209553158705665E-2</v>
       </c>
@@ -33346,7 +33346,7 @@
       <c r="C42" s="18">
         <v>12.98</v>
       </c>
-      <c r="D42" s="158">
+      <c r="D42" s="139">
         <f t="shared" si="0"/>
         <v>-5.7371096586782855E-2</v>
       </c>
@@ -33360,18 +33360,18 @@
       <c r="C43" s="18">
         <v>13.77</v>
       </c>
-      <c r="D43" s="158">
+      <c r="D43" s="139">
         <f t="shared" si="0"/>
         <v>0.14749999999999996</v>
       </c>
-      <c r="H43" s="155" t="s">
+      <c r="H43" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="158"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -33380,7 +33380,7 @@
       <c r="C44" s="18">
         <v>12</v>
       </c>
-      <c r="D44" s="158">
+      <c r="D44" s="139">
         <f t="shared" si="0"/>
         <v>-1.7199017199017286E-2</v>
       </c>
@@ -33413,7 +33413,7 @@
       <c r="C45" s="18">
         <v>12.21</v>
       </c>
-      <c r="D45" s="158">
+      <c r="D45" s="139">
         <f t="shared" si="0"/>
         <v>-5.0544323483670217E-2</v>
       </c>
@@ -33446,7 +33446,7 @@
       <c r="C46" s="18">
         <v>12.86</v>
       </c>
-      <c r="D46" s="158">
+      <c r="D46" s="139">
         <f t="shared" si="0"/>
         <v>2.7156549520766848E-2</v>
       </c>
@@ -33479,7 +33479,7 @@
       <c r="C47" s="18">
         <v>12.52</v>
       </c>
-      <c r="D47" s="158">
+      <c r="D47" s="139">
         <f t="shared" si="0"/>
         <v>3.4710743801652955E-2</v>
       </c>
@@ -33512,7 +33512,7 @@
       <c r="C48" s="18">
         <v>12.1</v>
       </c>
-      <c r="D48" s="158">
+      <c r="D48" s="139">
         <f t="shared" si="0"/>
         <v>3.8626609442059978E-2</v>
       </c>
@@ -33545,7 +33545,7 @@
       <c r="C49" s="18">
         <v>11.65</v>
       </c>
-      <c r="D49" s="158">
+      <c r="D49" s="139">
         <f t="shared" si="0"/>
         <v>5.1444043321299704E-2</v>
       </c>
@@ -33578,7 +33578,7 @@
       <c r="C50" s="18">
         <v>11.08</v>
       </c>
-      <c r="D50" s="158">
+      <c r="D50" s="139">
         <f t="shared" si="0"/>
         <v>-3.4001743679163088E-2</v>
       </c>
@@ -33611,7 +33611,7 @@
       <c r="C51" s="18">
         <v>11.47</v>
       </c>
-      <c r="D51" s="158">
+      <c r="D51" s="139">
         <f t="shared" si="0"/>
         <v>2.502234137622894E-2</v>
       </c>
@@ -33644,7 +33644,7 @@
       <c r="C52" s="18">
         <v>11.19</v>
       </c>
-      <c r="D52" s="158">
+      <c r="D52" s="139">
         <f t="shared" si="0"/>
         <v>-0.13989239046887014</v>
       </c>
@@ -33677,7 +33677,7 @@
       <c r="C53" s="18">
         <v>13.01</v>
       </c>
-      <c r="D53" s="158">
+      <c r="D53" s="139">
         <f t="shared" si="0"/>
         <v>-4.6187683284457548E-2</v>
       </c>
@@ -33710,7 +33710,7 @@
       <c r="C54" s="18">
         <v>13.64</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="139">
         <f t="shared" si="0"/>
         <v>-5.2119527449617786E-2</v>
       </c>
@@ -33743,7 +33743,7 @@
       <c r="C55" s="18">
         <v>14.39</v>
       </c>
-      <c r="D55" s="158">
+      <c r="D55" s="139">
         <f t="shared" si="0"/>
         <v>0.12071651090342694</v>
       </c>
@@ -33776,7 +33776,7 @@
       <c r="C56" s="18">
         <v>12.84</v>
       </c>
-      <c r="D56" s="158">
+      <c r="D56" s="139">
         <f t="shared" si="0"/>
         <v>1.6627078384797933E-2</v>
       </c>
@@ -33809,7 +33809,7 @@
       <c r="C57" s="18">
         <v>12.63</v>
       </c>
-      <c r="D57" s="158">
+      <c r="D57" s="139">
         <f t="shared" si="0"/>
         <v>-7.8554595443832698E-3</v>
       </c>
@@ -33837,7 +33837,7 @@
       <c r="C58" s="18">
         <v>12.73</v>
       </c>
-      <c r="D58" s="158">
+      <c r="D58" s="139">
         <f t="shared" si="0"/>
         <v>5.9068219633943597E-2</v>
       </c>
@@ -33865,7 +33865,7 @@
       <c r="C59" s="18">
         <v>12.02</v>
       </c>
-      <c r="D59" s="158">
+      <c r="D59" s="139">
         <f t="shared" si="0"/>
         <v>2.9991431019708692E-2</v>
       </c>
@@ -33877,7 +33877,7 @@
       <c r="C60" s="18">
         <v>11.67</v>
       </c>
-      <c r="D60" s="158">
+      <c r="D60" s="139">
         <f t="shared" si="0"/>
         <v>-5.9629331184528622E-2</v>
       </c>
@@ -33895,7 +33895,7 @@
       <c r="C61" s="18">
         <v>12.41</v>
       </c>
-      <c r="D61" s="158">
+      <c r="D61" s="139">
         <f t="shared" si="0"/>
         <v>-0.11230329041487841</v>
       </c>
@@ -33913,7 +33913,7 @@
       <c r="C62" s="18">
         <v>13.98</v>
       </c>
-      <c r="D62" s="158">
+      <c r="D62" s="139">
         <f t="shared" si="0"/>
         <v>0.16112956810631252</v>
       </c>
@@ -33926,7 +33926,7 @@
       <c r="C63" s="18">
         <v>12.04</v>
       </c>
-      <c r="D63" s="158">
+      <c r="D63" s="139">
         <f t="shared" si="0"/>
         <v>-4.2163882259347751E-2</v>
       </c>
@@ -33934,7 +33934,7 @@
         <v>213</v>
       </c>
       <c r="I63" s="135">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -33944,7 +33944,7 @@
       <c r="C64" s="18">
         <v>12.57</v>
       </c>
-      <c r="D64" s="158">
+      <c r="D64" s="139">
         <f t="shared" si="0"/>
         <v>-2.8593508500772691E-2</v>
       </c>
@@ -33953,7 +33953,7 @@
       </c>
       <c r="I64" s="137">
         <f>I63*(1-I60)</f>
-        <v>6.8200000000000012</v>
+        <v>6.7870000000000008</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33963,7 +33963,7 @@
       <c r="C65" s="18">
         <v>12.94</v>
       </c>
-      <c r="D65" s="158">
+      <c r="D65" s="139">
         <f t="shared" si="0"/>
         <v>-3.2161555721765156E-2</v>
       </c>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="I65" s="138">
         <f>I63*(1+I61)</f>
-        <v>4.34</v>
+        <v>4.319</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -33982,7 +33982,7 @@
       <c r="C66" s="18">
         <v>13.37</v>
       </c>
-      <c r="D66" s="158">
+      <c r="D66" s="139">
         <f t="shared" si="0"/>
         <v>-1.3284132841328566E-2</v>
       </c>
@@ -33994,7 +33994,7 @@
       <c r="C67" s="18">
         <v>13.55</v>
       </c>
-      <c r="D67" s="158">
+      <c r="D67" s="139">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>2.5738077214231714E-2</v>
       </c>
@@ -34006,7 +34006,7 @@
       <c r="C68" s="18">
         <v>13.21</v>
       </c>
-      <c r="D68" s="158">
+      <c r="D68" s="139">
         <f t="shared" si="10"/>
         <v>-3.0102790014684189E-2</v>
       </c>
@@ -34018,7 +34018,7 @@
       <c r="C69" s="18">
         <v>13.62</v>
       </c>
-      <c r="D69" s="158">
+      <c r="D69" s="139">
         <f t="shared" si="10"/>
         <v>5.255023183925811E-2</v>
       </c>
@@ -34030,7 +34030,7 @@
       <c r="C70" s="18">
         <v>12.94</v>
       </c>
-      <c r="D70" s="158">
+      <c r="D70" s="139">
         <f t="shared" si="10"/>
         <v>0.12521739130434772</v>
       </c>
@@ -34042,7 +34042,7 @@
       <c r="C71" s="18">
         <v>11.5</v>
       </c>
-      <c r="D71" s="158">
+      <c r="D71" s="139">
         <f t="shared" si="10"/>
         <v>2.9543419874664245E-2</v>
       </c>
@@ -34054,7 +34054,7 @@
       <c r="C72" s="18">
         <v>11.17</v>
       </c>
-      <c r="D72" s="158">
+      <c r="D72" s="139">
         <f t="shared" si="10"/>
         <v>-7.1487946799667412E-2</v>
       </c>
@@ -34066,7 +34066,7 @@
       <c r="C73" s="18">
         <v>12.03</v>
       </c>
-      <c r="D73" s="158">
+      <c r="D73" s="139">
         <f t="shared" si="10"/>
         <v>6.2720848056537104E-2</v>
       </c>
@@ -34078,7 +34078,7 @@
       <c r="C74" s="18">
         <v>11.32</v>
       </c>
-      <c r="D74" s="158">
+      <c r="D74" s="139">
         <f t="shared" si="10"/>
         <v>0.25777777777777788</v>
       </c>
@@ -34090,7 +34090,7 @@
       <c r="C75" s="18">
         <v>9</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="139">
         <f t="shared" si="10"/>
         <v>0.36570561456752659</v>
       </c>
@@ -34102,7 +34102,7 @@
       <c r="C76" s="18">
         <v>6.59</v>
       </c>
-      <c r="D76" s="158">
+      <c r="D76" s="139">
         <f t="shared" si="10"/>
         <v>-0.11305518169582773</v>
       </c>
@@ -34114,7 +34114,7 @@
       <c r="C77" s="18">
         <v>7.43</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="139">
         <f t="shared" si="10"/>
         <v>6.7750677506774881E-3</v>
       </c>
@@ -34126,7 +34126,7 @@
       <c r="C78" s="18">
         <v>7.38</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="139">
         <f t="shared" si="10"/>
         <v>0.14774494556765161</v>
       </c>
@@ -34138,7 +34138,7 @@
       <c r="C79" s="18">
         <v>6.43</v>
       </c>
-      <c r="D79" s="158">
+      <c r="D79" s="139">
         <f t="shared" si="10"/>
         <v>0.20864661654135319</v>
       </c>
@@ -34150,7 +34150,7 @@
       <c r="C80" s="18">
         <v>5.32</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="139">
         <f t="shared" si="10"/>
         <v>-0.13915857605177984</v>
       </c>
@@ -34162,7 +34162,7 @@
       <c r="C81" s="18">
         <v>6.18</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="139">
         <f t="shared" si="10"/>
         <v>-1.5923566878980999E-2</v>
       </c>
@@ -34174,7 +34174,7 @@
       <c r="C82" s="18">
         <v>6.28</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="139">
         <f t="shared" si="10"/>
         <v>-0.22373300370828175</v>
       </c>
@@ -34186,7 +34186,7 @@
       <c r="C83" s="18">
         <v>8.09</v>
       </c>
-      <c r="D83" s="158">
+      <c r="D83" s="139">
         <f t="shared" si="10"/>
         <v>0.22021116138763208</v>
       </c>
@@ -34198,7 +34198,7 @@
       <c r="C84" s="18">
         <v>6.63</v>
       </c>
-      <c r="D84" s="158">
+      <c r="D84" s="139">
         <f t="shared" si="10"/>
         <v>0.25094339622641515</v>
       </c>
@@ -34210,7 +34210,7 @@
       <c r="C85" s="18">
         <v>5.3</v>
       </c>
-      <c r="D85" s="158">
+      <c r="D85" s="139">
         <f t="shared" si="10"/>
         <v>-8.7779690189328741E-2</v>
       </c>
@@ -34222,7 +34222,7 @@
       <c r="C86" s="18">
         <v>5.81</v>
       </c>
-      <c r="D86" s="158">
+      <c r="D86" s="139">
         <f t="shared" si="10"/>
         <v>5.6363636363636394E-2</v>
       </c>
@@ -34234,7 +34234,7 @@
       <c r="C87" s="18">
         <v>5.5</v>
       </c>
-      <c r="D87" s="158">
+      <c r="D87" s="139">
         <f t="shared" si="10"/>
         <v>7.421875E-2</v>
       </c>
@@ -34246,7 +34246,7 @@
       <c r="C88" s="18">
         <v>5.12</v>
       </c>
-      <c r="D88" s="158">
+      <c r="D88" s="139">
         <f t="shared" si="10"/>
         <v>-0.12925170068027203</v>
       </c>
@@ -34258,7 +34258,7 @@
       <c r="C89" s="18">
         <v>5.88</v>
       </c>
-      <c r="D89" s="158">
+      <c r="D89" s="139">
         <f t="shared" si="10"/>
         <v>9.7014925373134275E-2</v>
       </c>
@@ -34270,7 +34270,7 @@
       <c r="C90" s="18">
         <v>5.36</v>
       </c>
-      <c r="D90" s="158">
+      <c r="D90" s="139">
         <f t="shared" si="10"/>
         <v>1.5151515151515138E-2</v>
       </c>
@@ -34282,7 +34282,7 @@
       <c r="C91" s="18">
         <v>5.28</v>
       </c>
-      <c r="D91" s="158">
+      <c r="D91" s="139">
         <f t="shared" si="10"/>
         <v>-9.3808630393995562E-3</v>
       </c>
@@ -34294,7 +34294,7 @@
       <c r="C92" s="18">
         <v>5.33</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="139">
         <f t="shared" si="10"/>
         <v>3.4951456310679641E-2</v>
       </c>
@@ -34306,7 +34306,7 @@
       <c r="C93" s="18">
         <v>5.15</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="139">
         <f t="shared" si="10"/>
         <v>-8.5257548845470654E-2</v>
       </c>
@@ -34318,7 +34318,7 @@
       <c r="C94" s="18">
         <v>5.63</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="139">
         <f t="shared" si="10"/>
         <v>0.16082474226804133</v>
       </c>
@@ -34330,7 +34330,7 @@
       <c r="C95" s="18">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="139">
         <f t="shared" si="10"/>
         <v>-0.1339285714285714</v>
       </c>
@@ -34342,7 +34342,7 @@
       <c r="C96" s="18">
         <v>5.6</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="139">
         <f t="shared" si="10"/>
         <v>-6.9767441860465129E-2</v>
       </c>
@@ -34354,7 +34354,7 @@
       <c r="C97" s="18">
         <v>6.02</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="139">
         <f t="shared" si="10"/>
         <v>-1.4729950900163824E-2</v>
       </c>
@@ -34366,7 +34366,7 @@
       <c r="C98" s="18">
         <v>6.11</v>
       </c>
-      <c r="D98" s="158">
+      <c r="D98" s="139">
         <f t="shared" si="10"/>
         <v>0.13568773234200759</v>
       </c>
@@ -34378,7 +34378,7 @@
       <c r="C99" s="18">
         <v>5.38</v>
       </c>
-      <c r="D99" s="158">
+      <c r="D99" s="139">
         <f t="shared" si="10"/>
         <v>-5.6140350877193046E-2</v>
       </c>
@@ -34390,7 +34390,7 @@
       <c r="C100" s="18">
         <v>5.7</v>
       </c>
-      <c r="D100" s="158">
+      <c r="D100" s="139">
         <f t="shared" si="10"/>
         <v>4.3956043956044022E-2</v>
       </c>
@@ -34402,7 +34402,7 @@
       <c r="C101" s="18">
         <v>5.46</v>
       </c>
-      <c r="D101" s="158">
+      <c r="D101" s="139">
         <f t="shared" si="10"/>
         <v>3.0188679245283012E-2</v>
       </c>
@@ -34414,7 +34414,7 @@
       <c r="C102" s="18">
         <v>5.3</v>
       </c>
-      <c r="D102" s="158">
+      <c r="D102" s="139">
         <f t="shared" si="10"/>
         <v>-2.9304029304029311E-2</v>
       </c>
@@ -34426,7 +34426,7 @@
       <c r="C103" s="18">
         <v>5.46</v>
       </c>
-      <c r="D103" s="158">
+      <c r="D103" s="139">
         <f t="shared" si="10"/>
         <v>1.6759776536312776E-2</v>
       </c>
@@ -34438,7 +34438,7 @@
       <c r="C104" s="18">
         <v>5.37</v>
       </c>
-      <c r="D104" s="158">
+      <c r="D104" s="139">
         <f t="shared" si="10"/>
         <v>6.9721115537848766E-2</v>
       </c>
@@ -34450,7 +34450,7 @@
       <c r="C105" s="18">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D105" s="158">
+      <c r="D105" s="139">
         <f t="shared" si="10"/>
         <v>-0.1223776223776224</v>
       </c>
@@ -34462,7 +34462,7 @@
       <c r="C106" s="18">
         <v>5.72</v>
       </c>
-      <c r="D106" s="158">
+      <c r="D106" s="139">
         <f t="shared" si="10"/>
         <v>-5.7660626029654161E-2</v>
       </c>
@@ -34474,7 +34474,7 @@
       <c r="C107" s="18">
         <v>6.07</v>
       </c>
-      <c r="D107" s="158">
+      <c r="D107" s="139">
         <f t="shared" si="10"/>
         <v>-0.10735294117647054</v>
       </c>
@@ -34486,7 +34486,7 @@
       <c r="C108" s="18">
         <v>6.8</v>
       </c>
-      <c r="D108" s="158">
+      <c r="D108" s="139">
         <f t="shared" si="10"/>
         <v>-7.2992700729926918E-3</v>
       </c>
@@ -34498,7 +34498,7 @@
       <c r="C109" s="18">
         <v>6.85</v>
       </c>
-      <c r="D109" s="158">
+      <c r="D109" s="139">
         <f t="shared" si="10"/>
         <v>-0.15222772277227725</v>
       </c>
@@ -34510,7 +34510,7 @@
       <c r="C110" s="18">
         <v>8.08</v>
       </c>
-      <c r="D110" s="158">
+      <c r="D110" s="139">
         <f t="shared" si="10"/>
         <v>2.4813895781636841E-3</v>
       </c>
@@ -34522,7 +34522,7 @@
       <c r="C111" s="18">
         <v>8.06</v>
       </c>
-      <c r="D111" s="158">
+      <c r="D111" s="139">
         <f t="shared" si="10"/>
         <v>-3.125E-2</v>
       </c>
@@ -34534,7 +34534,7 @@
       <c r="C112" s="18">
         <v>8.32</v>
       </c>
-      <c r="D112" s="158">
+      <c r="D112" s="139">
         <f t="shared" si="10"/>
         <v>0.23625557206537895</v>
       </c>
@@ -34546,7 +34546,7 @@
       <c r="C113" s="18">
         <v>6.73</v>
       </c>
-      <c r="D113" s="158">
+      <c r="D113" s="139">
         <f t="shared" si="10"/>
         <v>-0.28480340063761955</v>
       </c>
@@ -34558,7 +34558,7 @@
       <c r="C114" s="18">
         <v>9.41</v>
       </c>
-      <c r="D114" s="158">
+      <c r="D114" s="139">
         <f t="shared" si="10"/>
         <v>-8.640776699029129E-2</v>
       </c>
@@ -34570,7 +34570,7 @@
       <c r="C115" s="18">
         <v>10.3</v>
       </c>
-      <c r="D115" s="158">
+      <c r="D115" s="139">
         <f t="shared" si="10"/>
         <v>-7.3741007194244479E-2</v>
       </c>
@@ -34582,7 +34582,7 @@
       <c r="C116" s="18">
         <v>11.12</v>
       </c>
-      <c r="D116" s="158">
+      <c r="D116" s="139">
         <f t="shared" si="10"/>
         <v>4.806786050895373E-2</v>
       </c>
@@ -34594,7 +34594,7 @@
       <c r="C117" s="18">
         <v>10.61</v>
       </c>
-      <c r="D117" s="158">
+      <c r="D117" s="139">
         <f t="shared" si="10"/>
         <v>2.314368370298947E-2</v>
       </c>
@@ -34606,7 +34606,7 @@
       <c r="C118" s="18">
         <v>10.37</v>
       </c>
-      <c r="D118" s="158">
+      <c r="D118" s="139">
         <f t="shared" si="10"/>
         <v>4.1164658634537998E-2</v>
       </c>
@@ -34618,7 +34618,7 @@
       <c r="C119" s="18">
         <v>9.9600000000000009</v>
       </c>
-      <c r="D119" s="158">
+      <c r="D119" s="139">
         <f t="shared" si="10"/>
         <v>-0.10752688172043001</v>
       </c>
@@ -34630,7 +34630,7 @@
       <c r="C120" s="18">
         <v>11.16</v>
       </c>
-      <c r="D120" s="158">
+      <c r="D120" s="139">
         <f t="shared" si="10"/>
         <v>5.4054054054053502E-3</v>
       </c>
@@ -34642,7 +34642,7 @@
       <c r="C121" s="18">
         <v>11.1</v>
       </c>
-      <c r="D121" s="158">
+      <c r="D121" s="139">
         <f t="shared" si="10"/>
         <v>0.14315139031925828</v>
       </c>
@@ -34654,7 +34654,7 @@
       <c r="C122" s="18">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D122" s="158">
+      <c r="D122" s="139">
         <f t="shared" si="10"/>
         <v>-4.6168958742632493E-2</v>
       </c>
@@ -34666,7 +34666,7 @@
       <c r="C123" s="18">
         <v>10.18</v>
       </c>
-      <c r="D123" s="158">
+      <c r="D123" s="139">
         <f t="shared" si="10"/>
         <v>-2.4904214559386961E-2</v>
       </c>
@@ -34678,7 +34678,7 @@
       <c r="C124" s="18">
         <v>10.44</v>
       </c>
-      <c r="D124" s="158">
+      <c r="D124" s="139">
         <f t="shared" si="10"/>
         <v>0.11777301927194861</v>
       </c>
@@ -34690,7 +34690,7 @@
       <c r="C125" s="18">
         <v>9.34</v>
       </c>
-      <c r="D125" s="158">
+      <c r="D125" s="139">
         <f t="shared" si="10"/>
         <v>-8.6105675146771143E-2</v>
       </c>
@@ -34702,7 +34702,7 @@
       <c r="C126" s="18">
         <v>10.220000000000001</v>
       </c>
-      <c r="D126" s="158">
+      <c r="D126" s="139">
         <f t="shared" si="10"/>
         <v>0.1001076426264802</v>
       </c>
@@ -34714,7 +34714,7 @@
       <c r="C127" s="18">
         <v>9.2899999999999991</v>
       </c>
-      <c r="D127" s="158">
+      <c r="D127" s="139">
         <f t="shared" si="10"/>
         <v>-0.1067307692307693</v>
       </c>
@@ -34726,7 +34726,7 @@
       <c r="C128" s="18">
         <v>10.4</v>
       </c>
-      <c r="D128" s="158">
+      <c r="D128" s="139">
         <f t="shared" si="10"/>
         <v>-4.9360146252285131E-2</v>
       </c>
@@ -34738,7 +34738,7 @@
       <c r="C129" s="18">
         <v>10.94</v>
       </c>
-      <c r="D129" s="158">
+      <c r="D129" s="139">
         <f t="shared" si="10"/>
         <v>-5.6896551724137989E-2</v>
       </c>
@@ -34750,7 +34750,7 @@
       <c r="C130" s="18">
         <v>11.6</v>
       </c>
-      <c r="D130" s="158">
+      <c r="D130" s="139">
         <f t="shared" si="10"/>
         <v>1.1333914559720881E-2</v>
       </c>
@@ -34762,7 +34762,7 @@
       <c r="C131" s="18">
         <v>11.47</v>
       </c>
-      <c r="D131" s="158">
+      <c r="D131" s="139">
         <f t="shared" ref="D131:D194" si="11">C131/C132-1</f>
         <v>5.9095106186519031E-2</v>
       </c>
@@ -34774,7 +34774,7 @@
       <c r="C132" s="18">
         <v>10.83</v>
       </c>
-      <c r="D132" s="158">
+      <c r="D132" s="139">
         <f t="shared" si="11"/>
         <v>-3.0438675022381401E-2</v>
       </c>
@@ -34786,7 +34786,7 @@
       <c r="C133" s="18">
         <v>11.17</v>
       </c>
-      <c r="D133" s="158">
+      <c r="D133" s="139">
         <f t="shared" si="11"/>
         <v>4.4964028776979248E-3</v>
       </c>
@@ -34798,7 +34798,7 @@
       <c r="C134" s="18">
         <v>11.12</v>
       </c>
-      <c r="D134" s="158">
+      <c r="D134" s="139">
         <f t="shared" si="11"/>
         <v>2.8677150786308836E-2</v>
       </c>
@@ -34810,7 +34810,7 @@
       <c r="C135" s="18">
         <v>10.81</v>
       </c>
-      <c r="D135" s="158">
+      <c r="D135" s="139">
         <f t="shared" si="11"/>
         <v>9.3370681605975392E-3</v>
       </c>
@@ -34822,7 +34822,7 @@
       <c r="C136" s="18">
         <v>10.71</v>
       </c>
-      <c r="D136" s="158">
+      <c r="D136" s="139">
         <f t="shared" si="11"/>
         <v>7.6381909547738935E-2</v>
       </c>
@@ -34834,7 +34834,7 @@
       <c r="C137" s="18">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D137" s="158">
+      <c r="D137" s="139">
         <f t="shared" si="11"/>
         <v>-3.3041788143828965E-2</v>
       </c>
@@ -34846,7 +34846,7 @@
       <c r="C138" s="18">
         <v>10.29</v>
       </c>
-      <c r="D138" s="158">
+      <c r="D138" s="139">
         <f t="shared" si="11"/>
         <v>-0.21330275229357809</v>
       </c>
@@ -34858,7 +34858,7 @@
       <c r="C139" s="18">
         <v>13.08</v>
       </c>
-      <c r="D139" s="158">
+      <c r="D139" s="139">
         <f t="shared" si="11"/>
         <v>-5.2860246198407013E-2</v>
       </c>
@@ -34870,7 +34870,7 @@
       <c r="C140" s="18">
         <v>13.81</v>
       </c>
-      <c r="D140" s="158">
+      <c r="D140" s="139">
         <f t="shared" si="11"/>
         <v>7.2204968944099335E-2</v>
       </c>
@@ -34882,7 +34882,7 @@
       <c r="C141" s="18">
         <v>12.88</v>
       </c>
-      <c r="D141" s="158">
+      <c r="D141" s="139">
         <f t="shared" si="11"/>
         <v>0.1881918819188193</v>
       </c>
@@ -34894,7 +34894,7 @@
       <c r="C142" s="18">
         <v>10.84</v>
       </c>
-      <c r="D142" s="158">
+      <c r="D142" s="139">
         <f t="shared" si="11"/>
         <v>-0.12651087832393237</v>
       </c>
@@ -34906,7 +34906,7 @@
       <c r="C143" s="18">
         <v>12.41</v>
       </c>
-      <c r="D143" s="158">
+      <c r="D143" s="139">
         <f t="shared" si="11"/>
         <v>-5.699088145896658E-2</v>
       </c>
@@ -34918,7 +34918,7 @@
       <c r="C144" s="18">
         <v>13.16</v>
       </c>
-      <c r="D144" s="158">
+      <c r="D144" s="139">
         <f t="shared" si="11"/>
         <v>-5.4597701149425304E-2</v>
       </c>
@@ -34930,7 +34930,7 @@
       <c r="C145" s="18">
         <v>13.92</v>
       </c>
-      <c r="D145" s="158">
+      <c r="D145" s="139">
         <f t="shared" si="11"/>
         <v>-3.8674033149171283E-2</v>
       </c>
@@ -34942,7 +34942,7 @@
       <c r="C146" s="18">
         <v>14.48</v>
       </c>
-      <c r="D146" s="158">
+      <c r="D146" s="139">
         <f t="shared" si="11"/>
         <v>-3.0140656396517085E-2</v>
       </c>
@@ -34954,7 +34954,7 @@
       <c r="C147" s="18">
         <v>14.93</v>
       </c>
-      <c r="D147" s="158">
+      <c r="D147" s="139">
         <f t="shared" si="11"/>
         <v>-7.3821397405620437E-2</v>
       </c>
@@ -34966,7 +34966,7 @@
       <c r="C148" s="18">
         <v>16.120000999999998</v>
       </c>
-      <c r="D148" s="158">
+      <c r="D148" s="139">
         <f t="shared" si="11"/>
         <v>-4.1617063020214173E-2</v>
       </c>
@@ -34978,7 +34978,7 @@
       <c r="C149" s="18">
         <v>16.82</v>
       </c>
-      <c r="D149" s="158">
+      <c r="D149" s="139">
         <f t="shared" si="11"/>
         <v>-7.6696750637359479E-3</v>
       </c>
@@ -34990,7 +34990,7 @@
       <c r="C150" s="18">
         <v>16.950001</v>
       </c>
-      <c r="D150" s="158">
+      <c r="D150" s="139">
         <f t="shared" si="11"/>
         <v>-2.136252886836032E-2</v>
       </c>
@@ -35002,7 +35002,7 @@
       <c r="C151" s="18">
         <v>17.32</v>
       </c>
-      <c r="D151" s="158">
+      <c r="D151" s="139">
         <f t="shared" si="11"/>
         <v>-9.1533180778031742E-3</v>
       </c>
@@ -35014,7 +35014,7 @@
       <c r="C152" s="18">
         <v>17.48</v>
       </c>
-      <c r="D152" s="158">
+      <c r="D152" s="139">
         <f t="shared" si="11"/>
         <v>2.4018746338605679E-2</v>
       </c>
@@ -35026,7 +35026,7 @@
       <c r="C153" s="18">
         <v>17.07</v>
       </c>
-      <c r="D153" s="158">
+      <c r="D153" s="139">
         <f t="shared" si="11"/>
         <v>-6.9808605595775841E-3</v>
       </c>
@@ -35038,7 +35038,7 @@
       <c r="C154" s="18">
         <v>17.190000999999999</v>
       </c>
-      <c r="D154" s="158">
+      <c r="D154" s="139">
         <f t="shared" si="11"/>
         <v>-8.6504613610151049E-3</v>
       </c>
@@ -35050,7 +35050,7 @@
       <c r="C155" s="18">
         <v>17.34</v>
       </c>
-      <c r="D155" s="158">
+      <c r="D155" s="139">
         <f t="shared" si="11"/>
         <v>-1.7006746995847366E-2</v>
       </c>
@@ -35062,7 +35062,7 @@
       <c r="C156" s="18">
         <v>17.639999</v>
       </c>
-      <c r="D156" s="158">
+      <c r="D156" s="139">
         <f t="shared" si="11"/>
         <v>-3.1301484420729553E-2</v>
       </c>
@@ -35074,7 +35074,7 @@
       <c r="C157" s="18">
         <v>18.209999</v>
       </c>
-      <c r="D157" s="158">
+      <c r="D157" s="139">
         <f t="shared" si="11"/>
         <v>-5.5987659098618026E-2</v>
       </c>
@@ -35086,7 +35086,7 @@
       <c r="C158" s="18">
         <v>19.290001</v>
       </c>
-      <c r="D158" s="158">
+      <c r="D158" s="139">
         <f t="shared" si="11"/>
         <v>2.7703835908364338E-2</v>
       </c>
@@ -35098,7 +35098,7 @@
       <c r="C159" s="18">
         <v>18.77</v>
       </c>
-      <c r="D159" s="158">
+      <c r="D159" s="139">
         <f t="shared" si="11"/>
         <v>-3.047525669032769E-2</v>
       </c>
@@ -35110,7 +35110,7 @@
       <c r="C160" s="18">
         <v>19.360001</v>
       </c>
-      <c r="D160" s="158">
+      <c r="D160" s="139">
         <f t="shared" si="11"/>
         <v>-4.6774891520181772E-2</v>
       </c>
@@ -35122,7 +35122,7 @@
       <c r="C161" s="18">
         <v>20.309999000000001</v>
       </c>
-      <c r="D161" s="158">
+      <c r="D161" s="139">
         <f t="shared" si="11"/>
         <v>1.4791912485607739E-3</v>
       </c>
@@ -35134,7 +35134,7 @@
       <c r="C162" s="18">
         <v>20.280000999999999</v>
       </c>
-      <c r="D162" s="158">
+      <c r="D162" s="139">
         <f t="shared" si="11"/>
         <v>3.5222103113833558E-2</v>
       </c>
@@ -35146,7 +35146,7 @@
       <c r="C163" s="18">
         <v>19.59</v>
       </c>
-      <c r="D163" s="158">
+      <c r="D163" s="139">
         <f t="shared" si="11"/>
         <v>-7.0683111954459088E-2</v>
       </c>
@@ -35158,7 +35158,7 @@
       <c r="C164" s="18">
         <v>21.08</v>
       </c>
-      <c r="D164" s="158">
+      <c r="D164" s="139">
         <f t="shared" si="11"/>
         <v>1.2001920307249225E-2</v>
       </c>
@@ -35170,7 +35170,7 @@
       <c r="C165" s="18">
         <v>20.83</v>
       </c>
-      <c r="D165" s="158">
+      <c r="D165" s="139">
         <f t="shared" si="11"/>
         <v>-4.9292560474669234E-2</v>
       </c>
@@ -35182,7 +35182,7 @@
       <c r="C166" s="18">
         <v>21.91</v>
       </c>
-      <c r="D166" s="158">
+      <c r="D166" s="139">
         <f t="shared" si="11"/>
         <v>1.1542012927054479E-2</v>
       </c>
@@ -35194,7 +35194,7 @@
       <c r="C167" s="18">
         <v>21.66</v>
       </c>
-      <c r="D167" s="158">
+      <c r="D167" s="139">
         <f t="shared" si="11"/>
         <v>0.1595289079229123</v>
       </c>
@@ -35206,7 +35206,7 @@
       <c r="C168" s="18">
         <v>18.68</v>
       </c>
-      <c r="D168" s="158">
+      <c r="D168" s="139">
         <f t="shared" si="11"/>
         <v>4.943826120439665E-2</v>
       </c>
@@ -35218,7 +35218,7 @@
       <c r="C169" s="18">
         <v>17.799999</v>
       </c>
-      <c r="D169" s="158">
+      <c r="D169" s="139">
         <f t="shared" si="11"/>
         <v>2.4755208707242016E-2</v>
       </c>
@@ -35230,7 +35230,7 @@
       <c r="C170" s="18">
         <v>17.370000999999998</v>
       </c>
-      <c r="D170" s="158">
+      <c r="D170" s="139">
         <f t="shared" si="11"/>
         <v>8.6304002501563337E-2</v>
       </c>
@@ -35242,7 +35242,7 @@
       <c r="C171" s="18">
         <v>15.99</v>
       </c>
-      <c r="D171" s="158">
+      <c r="D171" s="139">
         <f t="shared" si="11"/>
         <v>-2.261619666160164E-2</v>
       </c>
@@ -35254,7 +35254,7 @@
       <c r="C172" s="18">
         <v>16.360001</v>
       </c>
-      <c r="D172" s="158">
+      <c r="D172" s="139">
         <f t="shared" si="11"/>
         <v>-4.2604382227632298E-3</v>
       </c>
@@ -35266,7 +35266,7 @@
       <c r="C173" s="18">
         <v>16.43</v>
       </c>
-      <c r="D173" s="158">
+      <c r="D173" s="139">
         <f t="shared" si="11"/>
         <v>-0.11237169097784994</v>
       </c>
@@ -35278,7 +35278,7 @@
       <c r="C174" s="18">
         <v>18.510000000000002</v>
       </c>
-      <c r="D174" s="158">
+      <c r="D174" s="139">
         <f t="shared" si="11"/>
         <v>-2.1562804396915158E-3</v>
       </c>
@@ -35290,7 +35290,7 @@
       <c r="C175" s="18">
         <v>18.549999</v>
       </c>
-      <c r="D175" s="158">
+      <c r="D175" s="139">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -35302,7 +35302,7 @@
       <c r="C176" s="18">
         <v>18.549999</v>
       </c>
-      <c r="D176" s="158">
+      <c r="D176" s="139">
         <f t="shared" si="11"/>
         <v>-2.2140222569331791E-2</v>
       </c>
@@ -35314,7 +35314,7 @@
       <c r="C177" s="18">
         <v>18.969999000000001</v>
       </c>
-      <c r="D177" s="158">
+      <c r="D177" s="139">
         <f t="shared" si="11"/>
         <v>3.3224290129395984E-2</v>
       </c>
@@ -35326,7 +35326,7 @@
       <c r="C178" s="18">
         <v>18.360001</v>
       </c>
-      <c r="D178" s="158">
+      <c r="D178" s="139">
         <f t="shared" si="11"/>
         <v>-6.6124059003051849E-2</v>
       </c>
@@ -35338,7 +35338,7 @@
       <c r="C179" s="18">
         <v>19.66</v>
       </c>
-      <c r="D179" s="158">
+      <c r="D179" s="139">
         <f t="shared" si="11"/>
         <v>6.3277447268794029E-2</v>
       </c>
@@ -35350,7 +35350,7 @@
       <c r="C180" s="18">
         <v>18.489999999999998</v>
       </c>
-      <c r="D180" s="158">
+      <c r="D180" s="139">
         <f t="shared" si="11"/>
         <v>-1.5442011957294333E-2</v>
       </c>
@@ -35362,7 +35362,7 @@
       <c r="C181" s="18">
         <v>18.780000999999999</v>
       </c>
-      <c r="D181" s="158">
+      <c r="D181" s="139">
         <f t="shared" si="11"/>
         <v>3.9867222584009987E-2</v>
       </c>
@@ -35374,7 +35374,7 @@
       <c r="C182" s="18">
         <v>18.059999000000001</v>
       </c>
-      <c r="D182" s="158">
+      <c r="D182" s="139">
         <f t="shared" si="11"/>
         <v>0.11481468427069852</v>
       </c>
@@ -35386,7 +35386,7 @@
       <c r="C183" s="18">
         <v>16.200001</v>
       </c>
-      <c r="D183" s="158">
+      <c r="D183" s="139">
         <f t="shared" si="11"/>
         <v>4.9627788484629676E-3</v>
       </c>
@@ -35398,7 +35398,7 @@
       <c r="C184" s="18">
         <v>16.120000999999998</v>
       </c>
-      <c r="D184" s="158">
+      <c r="D184" s="139">
         <f t="shared" si="11"/>
         <v>3.7361148029957381E-3</v>
       </c>
@@ -35410,7 +35410,7 @@
       <c r="C185" s="18">
         <v>16.059999000000001</v>
       </c>
-      <c r="D185" s="158">
+      <c r="D185" s="139">
         <f t="shared" si="11"/>
         <v>7.5686470194239908E-2</v>
       </c>
@@ -35422,7 +35422,7 @@
       <c r="C186" s="18">
         <v>14.93</v>
       </c>
-      <c r="D186" s="158">
+      <c r="D186" s="139">
         <f t="shared" si="11"/>
         <v>-3.3031088082901561E-2</v>
       </c>
@@ -35434,7 +35434,7 @@
       <c r="C187" s="18">
         <v>15.44</v>
       </c>
-      <c r="D187" s="158">
+      <c r="D187" s="139">
         <f t="shared" si="11"/>
         <v>-7.9857027422107985E-2</v>
       </c>
@@ -35446,7 +35446,7 @@
       <c r="C188" s="18">
         <v>16.780000999999999</v>
       </c>
-      <c r="D188" s="158">
+      <c r="D188" s="139">
         <f t="shared" si="11"/>
         <v>2.2547288238878638E-2</v>
       </c>
@@ -35458,7 +35458,7 @@
       <c r="C189" s="18">
         <v>16.41</v>
       </c>
-      <c r="D189" s="158">
+      <c r="D189" s="139">
         <f t="shared" si="11"/>
         <v>-9.3370165745856437E-2</v>
       </c>
@@ -35470,7 +35470,7 @@
       <c r="C190" s="18">
         <v>18.100000000000001</v>
       </c>
-      <c r="D190" s="158">
+      <c r="D190" s="139">
         <f t="shared" si="11"/>
         <v>-3.2085613257453738E-2</v>
       </c>
@@ -35482,7 +35482,7 @@
       <c r="C191" s="18">
         <v>18.700001</v>
       </c>
-      <c r="D191" s="158">
+      <c r="D191" s="139">
         <f t="shared" si="11"/>
         <v>-1.7857141919267794E-2</v>
       </c>
@@ -35494,7 +35494,7 @@
       <c r="C192" s="18">
         <v>19.040001</v>
       </c>
-      <c r="D192" s="158">
+      <c r="D192" s="139">
         <f t="shared" si="11"/>
         <v>-4.3216030150753704E-2</v>
       </c>
@@ -35506,7 +35506,7 @@
       <c r="C193" s="18">
         <v>19.899999999999999</v>
       </c>
-      <c r="D193" s="158">
+      <c r="D193" s="139">
         <f t="shared" si="11"/>
         <v>3.7539103232533844E-2</v>
       </c>
@@ -35518,7 +35518,7 @@
       <c r="C194" s="18">
         <v>19.18</v>
       </c>
-      <c r="D194" s="158">
+      <c r="D194" s="139">
         <f t="shared" si="11"/>
         <v>-1.5905592611595631E-2</v>
       </c>
@@ -35530,7 +35530,7 @@
       <c r="C195" s="18">
         <v>19.489999999999998</v>
       </c>
-      <c r="D195" s="158">
+      <c r="D195" s="139">
         <f t="shared" ref="D195:D258" si="12">C195/C196-1</f>
         <v>0.1220494460535726</v>
       </c>
@@ -35542,7 +35542,7 @@
       <c r="C196" s="18">
         <v>17.370000999999998</v>
       </c>
-      <c r="D196" s="158">
+      <c r="D196" s="139">
         <f t="shared" si="12"/>
         <v>5.5285665570210529E-2</v>
       </c>
@@ -35554,7 +35554,7 @@
       <c r="C197" s="18">
         <v>16.459999</v>
       </c>
-      <c r="D197" s="158">
+      <c r="D197" s="139">
         <f t="shared" si="12"/>
         <v>7.9344196721311544E-2</v>
       </c>
@@ -35566,7 +35566,7 @@
       <c r="C198" s="18">
         <v>15.25</v>
       </c>
-      <c r="D198" s="158">
+      <c r="D198" s="139">
         <f t="shared" si="12"/>
         <v>-0.10870840977741614</v>
       </c>
@@ -35578,7 +35578,7 @@
       <c r="C199" s="18">
         <v>17.110001</v>
       </c>
-      <c r="D199" s="158">
+      <c r="D199" s="139">
         <f t="shared" si="12"/>
         <v>9.6092312620115417E-2</v>
       </c>
@@ -35590,7 +35590,7 @@
       <c r="C200" s="18">
         <v>15.61</v>
       </c>
-      <c r="D200" s="158">
+      <c r="D200" s="139">
         <f t="shared" si="12"/>
         <v>-5.8504221954161606E-2</v>
       </c>
@@ -35602,7 +35602,7 @@
       <c r="C201" s="18">
         <v>16.579999999999998</v>
       </c>
-      <c r="D201" s="158">
+      <c r="D201" s="139">
         <f t="shared" si="12"/>
         <v>9.4389438943894177E-2</v>
       </c>
@@ -35614,7 +35614,7 @@
       <c r="C202" s="18">
         <v>15.15</v>
       </c>
-      <c r="D202" s="158">
+      <c r="D202" s="139">
         <f t="shared" si="12"/>
         <v>-7.8467209338977439E-2</v>
       </c>
@@ -35626,7 +35626,7 @@
       <c r="C203" s="18">
         <v>16.440000999999999</v>
       </c>
-      <c r="D203" s="158">
+      <c r="D203" s="139">
         <f t="shared" si="12"/>
         <v>-7.6404386314853245E-2</v>
       </c>
@@ -35638,7 +35638,7 @@
       <c r="C204" s="18">
         <v>17.799999</v>
       </c>
-      <c r="D204" s="158">
+      <c r="D204" s="139">
         <f t="shared" si="12"/>
         <v>-5.0666720000000054E-2</v>
       </c>
@@ -35650,7 +35650,7 @@
       <c r="C205" s="18">
         <v>18.75</v>
       </c>
-      <c r="D205" s="158">
+      <c r="D205" s="139">
         <f t="shared" si="12"/>
         <v>0.16968177356944647</v>
       </c>
@@ -35662,7 +35662,7 @@
       <c r="C206" s="18">
         <v>16.030000999999999</v>
       </c>
-      <c r="D206" s="158">
+      <c r="D206" s="139">
         <f t="shared" si="12"/>
         <v>0.12019573724668042</v>
       </c>
@@ -35674,7 +35674,7 @@
       <c r="C207" s="18">
         <v>14.31</v>
       </c>
-      <c r="D207" s="158">
+      <c r="D207" s="139">
         <f t="shared" si="12"/>
         <v>-5.4821664464993369E-2</v>
       </c>
@@ -35686,7 +35686,7 @@
       <c r="C208" s="18">
         <v>15.14</v>
       </c>
-      <c r="D208" s="158">
+      <c r="D208" s="139">
         <f t="shared" si="12"/>
         <v>-9.5579450418159961E-2</v>
       </c>
@@ -35698,7 +35698,7 @@
       <c r="C209" s="18">
         <v>16.739999999999998</v>
       </c>
-      <c r="D209" s="158">
+      <c r="D209" s="139">
         <f t="shared" si="12"/>
         <v>0.11081619110816177</v>
       </c>
@@ -35710,7 +35710,7 @@
       <c r="C210" s="18">
         <v>15.07</v>
       </c>
-      <c r="D210" s="158">
+      <c r="D210" s="139">
         <f t="shared" si="12"/>
         <v>-2.647253474520106E-3</v>
       </c>
@@ -35722,7 +35722,7 @@
       <c r="C211" s="18">
         <v>15.11</v>
       </c>
-      <c r="D211" s="158">
+      <c r="D211" s="139">
         <f t="shared" si="12"/>
         <v>7.3333333333331918E-3</v>
       </c>
@@ -35734,7 +35734,7 @@
       <c r="C212" s="18">
         <v>15</v>
       </c>
-      <c r="D212" s="158">
+      <c r="D212" s="139">
         <f t="shared" si="12"/>
         <v>0.10294117647058831</v>
       </c>
@@ -35746,7 +35746,7 @@
       <c r="C213" s="18">
         <v>13.6</v>
       </c>
-      <c r="D213" s="158">
+      <c r="D213" s="139">
         <f t="shared" si="12"/>
         <v>0.23636363636363633</v>
       </c>
@@ -35758,7 +35758,7 @@
       <c r="C214" s="18">
         <v>11</v>
       </c>
-      <c r="D214" s="158">
+      <c r="D214" s="139">
         <f t="shared" si="12"/>
         <v>-0.10277324632952689</v>
       </c>
@@ -35770,7 +35770,7 @@
       <c r="C215" s="18">
         <v>12.26</v>
       </c>
-      <c r="D215" s="158">
+      <c r="D215" s="139">
         <f t="shared" si="12"/>
         <v>-8.915304606240726E-2</v>
       </c>
@@ -35782,7 +35782,7 @@
       <c r="C216" s="18">
         <v>13.46</v>
       </c>
-      <c r="D216" s="158">
+      <c r="D216" s="139">
         <f t="shared" si="12"/>
         <v>-0.15980024968789008</v>
       </c>
@@ -35794,7 +35794,7 @@
       <c r="C217" s="18">
         <v>16.02</v>
       </c>
-      <c r="D217" s="158">
+      <c r="D217" s="139">
         <f t="shared" si="12"/>
         <v>-4.2438732815301861E-2</v>
       </c>
@@ -35806,7 +35806,7 @@
       <c r="C218" s="18">
         <v>16.73</v>
       </c>
-      <c r="D218" s="158">
+      <c r="D218" s="139">
         <f t="shared" si="12"/>
         <v>-3.5178777393310212E-2</v>
       </c>
@@ -35818,7 +35818,7 @@
       <c r="C219" s="18">
         <v>17.34</v>
       </c>
-      <c r="D219" s="158">
+      <c r="D219" s="139">
         <f t="shared" si="12"/>
         <v>-0.14833010076964148</v>
       </c>
@@ -35830,7 +35830,7 @@
       <c r="C220" s="18">
         <v>20.360001</v>
       </c>
-      <c r="D220" s="158">
+      <c r="D220" s="139">
         <f t="shared" si="12"/>
         <v>-4.8598084112149498E-2</v>
       </c>
@@ -35842,7 +35842,7 @@
       <c r="C221" s="18">
         <v>21.4</v>
       </c>
-      <c r="D221" s="158">
+      <c r="D221" s="139">
         <f t="shared" si="12"/>
         <v>5.6268509378084808E-2</v>
       </c>
@@ -35854,7 +35854,7 @@
       <c r="C222" s="18">
         <v>20.260000000000002</v>
       </c>
-      <c r="D222" s="158">
+      <c r="D222" s="139">
         <f t="shared" si="12"/>
         <v>4.4620723847297317E-3</v>
       </c>
@@ -35866,7 +35866,7 @@
       <c r="C223" s="18">
         <v>20.170000000000002</v>
       </c>
-      <c r="D223" s="158">
+      <c r="D223" s="139">
         <f t="shared" si="12"/>
         <v>-5.0376647834274757E-2</v>
       </c>
@@ -35878,7 +35878,7 @@
       <c r="C224" s="18">
         <v>21.24</v>
       </c>
-      <c r="D224" s="158">
+      <c r="D224" s="139">
         <f t="shared" si="12"/>
         <v>-0.15107913669064754</v>
       </c>
@@ -35890,7 +35890,7 @@
       <c r="C225" s="18">
         <v>25.02</v>
       </c>
-      <c r="D225" s="158">
+      <c r="D225" s="139">
         <f t="shared" si="12"/>
         <v>8.9246891129598938E-2</v>
       </c>
@@ -35902,7 +35902,7 @@
       <c r="C226" s="18">
         <v>22.969999000000001</v>
       </c>
-      <c r="D226" s="158">
+      <c r="D226" s="139">
         <f t="shared" si="12"/>
         <v>-6.8532076236820672E-2</v>
       </c>
@@ -35914,7 +35914,7 @@
       <c r="C227" s="18">
         <v>24.66</v>
       </c>
-      <c r="D227" s="158">
+      <c r="D227" s="139">
         <f t="shared" si="12"/>
         <v>1.1899835375468459E-2</v>
       </c>
@@ -35926,7 +35926,7 @@
       <c r="C228" s="18">
         <v>24.370000999999998</v>
       </c>
-      <c r="D228" s="158">
+      <c r="D228" s="139">
         <f t="shared" si="12"/>
         <v>1.1203360995850398E-2</v>
       </c>
@@ -35938,7 +35938,7 @@
       <c r="C229" s="18">
         <v>24.1</v>
       </c>
-      <c r="D229" s="158">
+      <c r="D229" s="139">
         <f t="shared" si="12"/>
         <v>2.2052586938083207E-2</v>
       </c>
@@ -35950,7 +35950,7 @@
       <c r="C230" s="18">
         <v>23.58</v>
       </c>
-      <c r="D230" s="158">
+      <c r="D230" s="139">
         <f t="shared" si="12"/>
         <v>0.10289995804022234</v>
       </c>
@@ -35962,7 +35962,7 @@
       <c r="C231" s="18">
         <v>21.379999000000002</v>
       </c>
-      <c r="D231" s="158">
+      <c r="D231" s="139">
         <f t="shared" si="12"/>
         <v>4.6991539145135874E-3</v>
       </c>
@@ -35974,7 +35974,7 @@
       <c r="C232" s="18">
         <v>21.280000999999999</v>
       </c>
-      <c r="D232" s="158">
+      <c r="D232" s="139">
         <f t="shared" si="12"/>
         <v>-1.7543813481071147E-2</v>
       </c>
@@ -35986,7 +35986,7 @@
       <c r="C233" s="18">
         <v>21.66</v>
       </c>
-      <c r="D233" s="158">
+      <c r="D233" s="139">
         <f t="shared" si="12"/>
         <v>-9.1491761596900201E-3</v>
       </c>
@@ -35998,7 +35998,7 @@
       <c r="C234" s="18">
         <v>21.860001</v>
       </c>
-      <c r="D234" s="158">
+      <c r="D234" s="139">
         <f t="shared" si="12"/>
         <v>-1.4871563097270668E-2</v>
       </c>
@@ -36010,7 +36010,7 @@
       <c r="C235" s="18">
         <v>22.190000999999999</v>
       </c>
-      <c r="D235" s="158">
+      <c r="D235" s="139">
         <f t="shared" si="12"/>
         <v>4.509017132552362E-4</v>
       </c>
@@ -36022,7 +36022,7 @@
       <c r="C236" s="18">
         <v>22.18</v>
       </c>
-      <c r="D236" s="158">
+      <c r="D236" s="139">
         <f t="shared" si="12"/>
         <v>-1.1586496809870894E-2</v>
       </c>
@@ -36034,7 +36034,7 @@
       <c r="C237" s="18">
         <v>22.440000999999999</v>
       </c>
-      <c r="D237" s="158">
+      <c r="D237" s="139">
         <f t="shared" si="12"/>
         <v>0.10596352360948624</v>
       </c>
@@ -36046,7 +36046,7 @@
       <c r="C238" s="18">
         <v>20.290001</v>
       </c>
-      <c r="D238" s="158">
+      <c r="D238" s="139">
         <f t="shared" si="12"/>
         <v>-4.9251233953262474E-4</v>
       </c>
@@ -36058,7 +36058,7 @@
       <c r="C239" s="18">
         <v>20.299999</v>
       </c>
-      <c r="D239" s="158">
+      <c r="D239" s="139">
         <f t="shared" si="12"/>
         <v>4.4776067936181052E-2</v>
       </c>
@@ -36070,7 +36070,7 @@
       <c r="C240" s="18">
         <v>19.43</v>
       </c>
-      <c r="D240" s="158">
+      <c r="D240" s="139">
         <f t="shared" si="12"/>
         <v>1.4621409921671047E-2</v>
       </c>
@@ -36082,7 +36082,7 @@
       <c r="C241" s="18">
         <v>19.149999999999999</v>
       </c>
-      <c r="D241" s="158">
+      <c r="D241" s="139">
         <f t="shared" si="12"/>
         <v>-7.9326878813792301E-2</v>
       </c>
@@ -36094,7 +36094,7 @@
       <c r="C242" s="18">
         <v>20.799999</v>
       </c>
-      <c r="D242" s="158">
+      <c r="D242" s="139">
         <f t="shared" si="12"/>
         <v>-4.1032824295397674E-2</v>
       </c>
@@ -36106,7 +36106,7 @@
       <c r="C243" s="18">
         <v>21.690000999999999</v>
       </c>
-      <c r="D243" s="158">
+      <c r="D243" s="139">
         <f t="shared" si="12"/>
         <v>3.5322194018033715E-2</v>
       </c>
@@ -36118,7 +36118,7 @@
       <c r="C244" s="18">
         <v>20.950001</v>
       </c>
-      <c r="D244" s="158">
+      <c r="D244" s="139">
         <f t="shared" si="12"/>
         <v>7.2116349620978681E-3</v>
       </c>
@@ -36130,7 +36130,7 @@
       <c r="C245" s="18">
         <v>20.799999</v>
       </c>
-      <c r="D245" s="158">
+      <c r="D245" s="139">
         <f t="shared" si="12"/>
         <v>5.7447839349262786E-2</v>
       </c>
@@ -36142,7 +36142,7 @@
       <c r="C246" s="18">
         <v>19.670000000000002</v>
       </c>
-      <c r="D246" s="158">
+      <c r="D246" s="139">
         <f t="shared" si="12"/>
         <v>-1.8463122831181455E-2</v>
       </c>
@@ -36154,7 +36154,7 @@
       <c r="C247" s="18">
         <v>20.040001</v>
       </c>
-      <c r="D247" s="158">
+      <c r="D247" s="139">
         <f t="shared" si="12"/>
         <v>-5.4590074441686065E-3</v>
       </c>
@@ -36166,7 +36166,7 @@
       <c r="C248" s="18">
         <v>20.149999999999999</v>
       </c>
-      <c r="D248" s="158">
+      <c r="D248" s="139">
         <f t="shared" si="12"/>
         <v>-3.8186203427866272E-2</v>
       </c>
@@ -36178,7 +36178,7 @@
       <c r="C249" s="18">
         <v>20.950001</v>
       </c>
-      <c r="D249" s="158">
+      <c r="D249" s="139">
         <f t="shared" si="12"/>
         <v>-0.12562596517637581</v>
       </c>
@@ -36190,7 +36190,7 @@
       <c r="C250" s="18">
         <v>23.959999</v>
       </c>
-      <c r="D250" s="158">
+      <c r="D250" s="139">
         <f t="shared" si="12"/>
         <v>-1.8837059787059851E-2</v>
       </c>
@@ -36202,7 +36202,7 @@
       <c r="C251" s="18">
         <v>24.42</v>
       </c>
-      <c r="D251" s="158">
+      <c r="D251" s="139">
         <f t="shared" si="12"/>
         <v>2.8210526315789464E-2</v>
       </c>
@@ -36214,7 +36214,7 @@
       <c r="C252" s="18">
         <v>23.75</v>
       </c>
-      <c r="D252" s="158">
+      <c r="D252" s="139">
         <f t="shared" si="12"/>
         <v>9.3497233595527529E-3</v>
       </c>
@@ -36226,7 +36226,7 @@
       <c r="C253" s="18">
         <v>23.530000999999999</v>
       </c>
-      <c r="D253" s="158">
+      <c r="D253" s="139">
         <f t="shared" si="12"/>
         <v>8.3333429251078561E-2</v>
       </c>
@@ -36238,7 +36238,7 @@
       <c r="C254" s="18">
         <v>21.719999000000001</v>
       </c>
-      <c r="D254" s="158">
+      <c r="D254" s="139">
         <f t="shared" si="12"/>
         <v>4.6252541801456992E-3</v>
       </c>
@@ -36250,7 +36250,7 @@
       <c r="C255" s="18">
         <v>21.620000999999998</v>
       </c>
-      <c r="D255" s="158">
+      <c r="D255" s="139">
         <f t="shared" si="12"/>
         <v>7.8842311435014301E-2</v>
       </c>
@@ -36262,7 +36262,7 @@
       <c r="C256" s="18">
         <v>20.040001</v>
       </c>
-      <c r="D256" s="158">
+      <c r="D256" s="139">
         <f t="shared" si="12"/>
         <v>3.4589569716594326E-2</v>
       </c>
@@ -36274,7 +36274,7 @@
       <c r="C257" s="18">
         <v>19.370000999999998</v>
       </c>
-      <c r="D257" s="158">
+      <c r="D257" s="139">
         <f t="shared" si="12"/>
         <v>3.6270468200541028E-3</v>
       </c>
@@ -36286,7 +36286,7 @@
       <c r="C258" s="18">
         <v>19.299999</v>
       </c>
-      <c r="D258" s="158">
+      <c r="D258" s="139">
         <f t="shared" si="12"/>
         <v>-6.082725356823615E-2</v>
       </c>
@@ -36298,7 +36298,7 @@
       <c r="C259" s="18">
         <v>20.549999</v>
       </c>
-      <c r="D259" s="158">
+      <c r="D259" s="139">
         <f t="shared" ref="D259:D322" si="13">C259/C260-1</f>
         <v>2.9282088823816554E-3</v>
       </c>
@@ -36310,7 +36310,7 @@
       <c r="C260" s="18">
         <v>20.49</v>
       </c>
-      <c r="D260" s="158">
+      <c r="D260" s="139">
         <f t="shared" si="13"/>
         <v>-7.7857744278026386E-2</v>
       </c>
@@ -36322,7 +36322,7 @@
       <c r="C261" s="18">
         <v>22.219999000000001</v>
       </c>
-      <c r="D261" s="158">
+      <c r="D261" s="139">
         <f t="shared" si="13"/>
         <v>-0.12277935254638761</v>
       </c>
@@ -36334,7 +36334,7 @@
       <c r="C262" s="18">
         <v>25.33</v>
       </c>
-      <c r="D262" s="158">
+      <c r="D262" s="139">
         <f t="shared" si="13"/>
         <v>-4.8459840403462073E-2</v>
       </c>
@@ -36346,7 +36346,7 @@
       <c r="C263" s="18">
         <v>26.620000999999998</v>
       </c>
-      <c r="D263" s="158">
+      <c r="D263" s="139">
         <f t="shared" si="13"/>
         <v>3.2183015425241601E-2</v>
       </c>
@@ -36358,7 +36358,7 @@
       <c r="C264" s="18">
         <v>25.790001</v>
       </c>
-      <c r="D264" s="158">
+      <c r="D264" s="139">
         <f t="shared" si="13"/>
         <v>5.0662899454403387E-3</v>
       </c>
@@ -36370,7 +36370,7 @@
       <c r="C265" s="18">
         <v>25.66</v>
       </c>
-      <c r="D265" s="158">
+      <c r="D265" s="139">
         <f t="shared" si="13"/>
         <v>2.231075697211149E-2</v>
       </c>
@@ -36382,7 +36382,7 @@
       <c r="C266" s="18">
         <v>25.1</v>
       </c>
-      <c r="D266" s="158">
+      <c r="D266" s="139">
         <f t="shared" si="13"/>
         <v>0.11111111111111116</v>
       </c>
@@ -36394,7 +36394,7 @@
       <c r="C267" s="18">
         <v>22.59</v>
       </c>
-      <c r="D267" s="158">
+      <c r="D267" s="139">
         <f t="shared" si="13"/>
         <v>4.4865816611201925E-2</v>
       </c>
@@ -36406,7 +36406,7 @@
       <c r="C268" s="18">
         <v>21.620000999999998</v>
       </c>
-      <c r="D268" s="158">
+      <c r="D268" s="139">
         <f t="shared" si="13"/>
         <v>-4.6316674018526793E-2</v>
       </c>
@@ -36418,7 +36418,7 @@
       <c r="C269" s="18">
         <v>22.67</v>
       </c>
-      <c r="D269" s="158">
+      <c r="D269" s="139">
         <f t="shared" si="13"/>
         <v>1.1601963409192395E-2</v>
       </c>
@@ -36430,7 +36430,7 @@
       <c r="C270" s="18">
         <v>22.41</v>
       </c>
-      <c r="D270" s="158">
+      <c r="D270" s="139">
         <f t="shared" si="13"/>
         <v>-2.9870129870129936E-2</v>
       </c>
@@ -36442,7 +36442,7 @@
       <c r="C271" s="18">
         <v>23.1</v>
       </c>
-      <c r="D271" s="158">
+      <c r="D271" s="139">
         <f t="shared" si="13"/>
         <v>-2.6138238875979769E-2</v>
       </c>
@@ -36454,7 +36454,7 @@
       <c r="C272" s="18">
         <v>23.719999000000001</v>
       </c>
-      <c r="D272" s="158">
+      <c r="D272" s="139">
         <f t="shared" si="13"/>
         <v>9.10763109475623E-2</v>
       </c>
@@ -36466,7 +36466,7 @@
       <c r="C273" s="18">
         <v>21.74</v>
       </c>
-      <c r="D273" s="158">
+      <c r="D273" s="139">
         <f t="shared" si="13"/>
         <v>-9.1158154459518581E-3</v>
       </c>
@@ -36478,7 +36478,7 @@
       <c r="C274" s="18">
         <v>21.940000999999999</v>
       </c>
-      <c r="D274" s="158">
+      <c r="D274" s="139">
         <f t="shared" si="13"/>
         <v>-9.4807674943566678E-3</v>
       </c>
@@ -36490,7 +36490,7 @@
       <c r="C275" s="18">
         <v>22.15</v>
       </c>
-      <c r="D275" s="158">
+      <c r="D275" s="139">
         <f t="shared" si="13"/>
         <v>2.3567514952288038E-2</v>
       </c>
@@ -36502,7 +36502,7 @@
       <c r="C276" s="18">
         <v>21.639999</v>
       </c>
-      <c r="D276" s="158">
+      <c r="D276" s="139">
         <f t="shared" si="13"/>
         <v>2.0754621662517847E-2</v>
       </c>
@@ -36514,7 +36514,7 @@
       <c r="C277" s="18">
         <v>21.200001</v>
       </c>
-      <c r="D277" s="158">
+      <c r="D277" s="139">
         <f t="shared" si="13"/>
         <v>7.3417772151898708E-2</v>
       </c>
@@ -36526,7 +36526,7 @@
       <c r="C278" s="18">
         <v>19.75</v>
       </c>
-      <c r="D278" s="158">
+      <c r="D278" s="139">
         <f t="shared" si="13"/>
         <v>2.1199586349534671E-2</v>
       </c>
@@ -36538,7 +36538,7 @@
       <c r="C279" s="18">
         <v>19.34</v>
       </c>
-      <c r="D279" s="158">
+      <c r="D279" s="139">
         <f t="shared" si="13"/>
         <v>0.10388127853881279</v>
       </c>
@@ -36550,7 +36550,7 @@
       <c r="C280" s="18">
         <v>17.52</v>
       </c>
-      <c r="D280" s="158">
+      <c r="D280" s="139">
         <f t="shared" si="13"/>
         <v>4.910173358672254E-2</v>
       </c>
@@ -36562,7 +36562,7 @@
       <c r="C281" s="18">
         <v>16.700001</v>
       </c>
-      <c r="D281" s="158">
+      <c r="D281" s="139">
         <f t="shared" si="13"/>
         <v>-5.0056825938566418E-2</v>
       </c>
@@ -36574,7 +36574,7 @@
       <c r="C282" s="18">
         <v>17.579999999999998</v>
       </c>
-      <c r="D282" s="158">
+      <c r="D282" s="139">
         <f t="shared" si="13"/>
         <v>3.1690080299877854E-2</v>
       </c>
@@ -36586,7 +36586,7 @@
       <c r="C283" s="18">
         <v>17.040001</v>
       </c>
-      <c r="D283" s="158">
+      <c r="D283" s="139">
         <f t="shared" si="13"/>
         <v>-5.7000498063088045E-2</v>
       </c>
@@ -36598,7 +36598,7 @@
       <c r="C284" s="18">
         <v>18.07</v>
       </c>
-      <c r="D284" s="158">
+      <c r="D284" s="139">
         <f t="shared" si="13"/>
         <v>6.4820333813808695E-2</v>
       </c>
@@ -36610,7 +36610,7 @@
       <c r="C285" s="18">
         <v>16.969999000000001</v>
       </c>
-      <c r="D285" s="158">
+      <c r="D285" s="139">
         <f t="shared" si="13"/>
         <v>2.9550236406619135E-3</v>
       </c>
@@ -36622,7 +36622,7 @@
       <c r="C286" s="18">
         <v>16.920000000000002</v>
       </c>
-      <c r="D286" s="158">
+      <c r="D286" s="139">
         <f t="shared" si="13"/>
         <v>8.4615384615384759E-2</v>
       </c>
@@ -36634,7 +36634,7 @@
       <c r="C287" s="18">
         <v>15.6</v>
       </c>
-      <c r="D287" s="158">
+      <c r="D287" s="139">
         <f t="shared" si="13"/>
         <v>-0.16666662215099481</v>
       </c>
@@ -36646,7 +36646,7 @@
       <c r="C288" s="18">
         <v>18.719999000000001</v>
       </c>
-      <c r="D288" s="158">
+      <c r="D288" s="139">
         <f t="shared" si="13"/>
         <v>0.13180156397814002</v>
       </c>
@@ -36658,7 +36658,7 @@
       <c r="C289" s="18">
         <v>16.540001</v>
       </c>
-      <c r="D289" s="158">
+      <c r="D289" s="139">
         <f t="shared" si="13"/>
         <v>-6.9741278417250863E-2</v>
       </c>
@@ -36670,7 +36670,7 @@
       <c r="C290" s="18">
         <v>17.780000999999999</v>
       </c>
-      <c r="D290" s="158">
+      <c r="D290" s="139">
         <f t="shared" si="13"/>
         <v>-5.6263216560509588E-2</v>
       </c>
@@ -36682,7 +36682,7 @@
       <c r="C291" s="18">
         <v>18.84</v>
       </c>
-      <c r="D291" s="158">
+      <c r="D291" s="139">
         <f t="shared" si="13"/>
         <v>-4.9445005045408719E-2</v>
       </c>
@@ -36694,7 +36694,7 @@
       <c r="C292" s="18">
         <v>19.82</v>
       </c>
-      <c r="D292" s="158">
+      <c r="D292" s="139">
         <f t="shared" si="13"/>
         <v>-6.2884160756501051E-2</v>
       </c>
@@ -36706,7 +36706,7 @@
       <c r="C293" s="18">
         <v>21.15</v>
       </c>
-      <c r="D293" s="158">
+      <c r="D293" s="139">
         <f t="shared" si="13"/>
         <v>-4.1685545990031825E-2</v>
       </c>
@@ -36718,7 +36718,7 @@
       <c r="C294" s="18">
         <v>22.07</v>
       </c>
-      <c r="D294" s="158">
+      <c r="D294" s="139">
         <f t="shared" si="13"/>
         <v>5.9021113243761913E-2</v>
       </c>
@@ -36730,7 +36730,7 @@
       <c r="C295" s="18">
         <v>20.84</v>
       </c>
-      <c r="D295" s="158">
+      <c r="D295" s="139">
         <f t="shared" si="13"/>
         <v>-1.4191060273938461E-2</v>
       </c>
@@ -36742,7 +36742,7 @@
       <c r="C296" s="18">
         <v>21.139999</v>
       </c>
-      <c r="D296" s="158">
+      <c r="D296" s="139">
         <f t="shared" si="13"/>
         <v>-0.11474037331408604</v>
       </c>
@@ -36754,7 +36754,7 @@
       <c r="C297" s="18">
         <v>23.879999000000002</v>
       </c>
-      <c r="D297" s="158">
+      <c r="D297" s="139">
         <f t="shared" si="13"/>
         <v>1.5737941301573688E-2</v>
       </c>
@@ -36766,7 +36766,7 @@
       <c r="C298" s="18">
         <v>23.51</v>
       </c>
-      <c r="D298" s="158">
+      <c r="D298" s="139">
         <f t="shared" si="13"/>
         <v>6.3800904977375561E-2</v>
       </c>
@@ -36778,7 +36778,7 @@
       <c r="C299" s="18">
         <v>22.1</v>
       </c>
-      <c r="D299" s="158">
+      <c r="D299" s="139">
         <f t="shared" si="13"/>
         <v>-2.1257750221434724E-2</v>
       </c>
@@ -36790,7 +36790,7 @@
       <c r="C300" s="18">
         <v>22.58</v>
       </c>
-      <c r="D300" s="158">
+      <c r="D300" s="139">
         <f t="shared" si="13"/>
         <v>-4.5243128964059243E-2</v>
       </c>
@@ -36802,7 +36802,7 @@
       <c r="C301" s="18">
         <v>23.65</v>
       </c>
-      <c r="D301" s="158">
+      <c r="D301" s="139">
         <f t="shared" si="13"/>
         <v>-2.5144270403957281E-2</v>
       </c>
@@ -36814,7 +36814,7 @@
       <c r="C302" s="18">
         <v>24.26</v>
       </c>
-      <c r="D302" s="158">
+      <c r="D302" s="139">
         <f t="shared" si="13"/>
         <v>-3.6960985626283138E-3</v>
       </c>
@@ -36826,7 +36826,7 @@
       <c r="C303" s="18">
         <v>24.35</v>
       </c>
-      <c r="D303" s="158">
+      <c r="D303" s="139">
         <f t="shared" si="13"/>
         <v>-2.2480931352870326E-2</v>
       </c>
@@ -36838,7 +36838,7 @@
       <c r="C304" s="18">
         <v>24.91</v>
       </c>
-      <c r="D304" s="158">
+      <c r="D304" s="139">
         <f t="shared" si="13"/>
         <v>2.8180354267310914E-3</v>
       </c>
@@ -36850,7 +36850,7 @@
       <c r="C305" s="18">
         <v>24.84</v>
       </c>
-      <c r="D305" s="158">
+      <c r="D305" s="139">
         <f t="shared" si="13"/>
         <v>-0.11285714285714288</v>
       </c>
@@ -36862,7 +36862,7 @@
       <c r="C306" s="18">
         <v>28</v>
       </c>
-      <c r="D306" s="158">
+      <c r="D306" s="139">
         <f t="shared" si="13"/>
         <v>-6.3858241390839177E-2</v>
       </c>
@@ -36874,7 +36874,7 @@
       <c r="C307" s="18">
         <v>29.91</v>
       </c>
-      <c r="D307" s="158">
+      <c r="D307" s="139">
         <f t="shared" si="13"/>
         <v>7.070673162603569E-3</v>
       </c>
@@ -36886,7 +36886,7 @@
       <c r="C308" s="18">
         <v>29.700001</v>
       </c>
-      <c r="D308" s="158">
+      <c r="D308" s="139">
         <f t="shared" si="13"/>
         <v>1.686374367622312E-3</v>
       </c>
@@ -36898,7 +36898,7 @@
       <c r="C309" s="18">
         <v>29.65</v>
       </c>
-      <c r="D309" s="158">
+      <c r="D309" s="139">
         <f t="shared" si="13"/>
         <v>-8.2327481203111064E-2</v>
       </c>
@@ -36910,7 +36910,7 @@
       <c r="C310" s="18">
         <v>32.310001</v>
       </c>
-      <c r="D310" s="158">
+      <c r="D310" s="139">
         <f t="shared" si="13"/>
         <v>-4.621010616790322E-3</v>
       </c>
@@ -36922,7 +36922,7 @@
       <c r="C311" s="18">
         <v>32.459999000000003</v>
       </c>
-      <c r="D311" s="158">
+      <c r="D311" s="139">
         <f t="shared" si="13"/>
         <v>5.6984697394487194E-2</v>
       </c>
@@ -36934,7 +36934,7 @@
       <c r="C312" s="18">
         <v>30.709999</v>
       </c>
-      <c r="D312" s="158">
+      <c r="D312" s="139">
         <f t="shared" si="13"/>
         <v>-2.2597103755569781E-2</v>
       </c>
@@ -36946,7 +36946,7 @@
       <c r="C313" s="18">
         <v>31.42</v>
       </c>
-      <c r="D313" s="158">
+      <c r="D313" s="139">
         <f t="shared" si="13"/>
         <v>-3.6787217559387408E-2</v>
       </c>
@@ -36958,7 +36958,7 @@
       <c r="C314" s="18">
         <v>32.619999</v>
       </c>
-      <c r="D314" s="158">
+      <c r="D314" s="139">
         <f t="shared" si="13"/>
         <v>6.9157620452310553E-2</v>
       </c>
@@ -36970,7 +36970,7 @@
       <c r="C315" s="18">
         <v>30.51</v>
       </c>
-      <c r="D315" s="158">
+      <c r="D315" s="139">
         <f t="shared" si="13"/>
         <v>-2.8653295128939771E-2</v>
       </c>
@@ -36982,7 +36982,7 @@
       <c r="C316" s="18">
         <v>31.41</v>
       </c>
-      <c r="D316" s="158">
+      <c r="D316" s="139">
         <f t="shared" si="13"/>
         <v>1.6833959755065075E-2</v>
       </c>
@@ -36994,7 +36994,7 @@
       <c r="C317" s="18">
         <v>30.889999</v>
       </c>
-      <c r="D317" s="158">
+      <c r="D317" s="139">
         <f t="shared" si="13"/>
         <v>8.8826151257449748E-2</v>
       </c>
@@ -37006,7 +37006,7 @@
       <c r="C318" s="18">
         <v>28.370000999999998</v>
       </c>
-      <c r="D318" s="158">
+      <c r="D318" s="139">
         <f t="shared" si="13"/>
         <v>-2.1048964803312642E-2</v>
       </c>
@@ -37018,7 +37018,7 @@
       <c r="C319" s="18">
         <v>28.98</v>
       </c>
-      <c r="D319" s="158">
+      <c r="D319" s="139">
         <f t="shared" si="13"/>
         <v>6.819023472872221E-2</v>
       </c>
@@ -37030,7 +37030,7 @@
       <c r="C320" s="18">
         <v>27.129999000000002</v>
       </c>
-      <c r="D320" s="158">
+      <c r="D320" s="139">
         <f t="shared" si="13"/>
         <v>-1.1657631633601673E-2</v>
       </c>
@@ -37042,7 +37042,7 @@
       <c r="C321" s="18">
         <v>27.450001</v>
       </c>
-      <c r="D321" s="158">
+      <c r="D321" s="139">
         <f t="shared" si="13"/>
         <v>-3.616569522471913E-2</v>
       </c>
@@ -37054,7 +37054,7 @@
       <c r="C322" s="18">
         <v>28.48</v>
       </c>
-      <c r="D322" s="158">
+      <c r="D322" s="139">
         <f t="shared" si="13"/>
         <v>7.4716981132075588E-2</v>
       </c>
@@ -37066,7 +37066,7 @@
       <c r="C323" s="18">
         <v>26.5</v>
       </c>
-      <c r="D323" s="158">
+      <c r="D323" s="139">
         <f t="shared" ref="D323:D386" si="14">C323/C324-1</f>
         <v>-6.2610541209762949E-2</v>
       </c>
@@ -37078,7 +37078,7 @@
       <c r="C324" s="18">
         <v>28.27</v>
       </c>
-      <c r="D324" s="158">
+      <c r="D324" s="139">
         <f t="shared" si="14"/>
         <v>4.6197940518761804E-3</v>
       </c>
@@ -37090,7 +37090,7 @@
       <c r="C325" s="18">
         <v>28.139999</v>
       </c>
-      <c r="D325" s="158">
+      <c r="D325" s="139">
         <f t="shared" si="14"/>
         <v>6.7931650853889858E-2</v>
       </c>
@@ -37102,7 +37102,7 @@
       <c r="C326" s="18">
         <v>26.35</v>
       </c>
-      <c r="D326" s="158">
+      <c r="D326" s="139">
         <f t="shared" si="14"/>
         <v>-8.602150537634401E-2</v>
       </c>
@@ -37114,7 +37114,7 @@
       <c r="C327" s="18">
         <v>28.83</v>
       </c>
-      <c r="D327" s="158">
+      <c r="D327" s="139">
         <f t="shared" si="14"/>
         <v>1.2644924926059842E-2</v>
       </c>
@@ -37126,7 +37126,7 @@
       <c r="C328" s="18">
         <v>28.469999000000001</v>
       </c>
-      <c r="D328" s="158">
+      <c r="D328" s="139">
         <f t="shared" si="14"/>
         <v>-2.3997291738087068E-2</v>
       </c>
@@ -37138,7 +37138,7 @@
       <c r="C329" s="18">
         <v>29.17</v>
       </c>
-      <c r="D329" s="158">
+      <c r="D329" s="139">
         <f t="shared" si="14"/>
         <v>7.9970381340244368E-2</v>
       </c>
@@ -37150,7 +37150,7 @@
       <c r="C330" s="18">
         <v>27.01</v>
       </c>
-      <c r="D330" s="158">
+      <c r="D330" s="139">
         <f t="shared" si="14"/>
         <v>-2.6666666666666616E-2</v>
       </c>
@@ -37162,7 +37162,7 @@
       <c r="C331" s="18">
         <v>27.75</v>
       </c>
-      <c r="D331" s="158">
+      <c r="D331" s="139">
         <f t="shared" si="14"/>
         <v>-4.4421520508900803E-2</v>
       </c>
@@ -37174,7 +37174,7 @@
       <c r="C332" s="18">
         <v>29.040001</v>
       </c>
-      <c r="D332" s="158">
+      <c r="D332" s="139">
         <f t="shared" si="14"/>
         <v>2.0379550962036141E-2</v>
       </c>
@@ -37186,7 +37186,7 @@
       <c r="C333" s="18">
         <v>28.459999</v>
       </c>
-      <c r="D333" s="158">
+      <c r="D333" s="139">
         <f t="shared" si="14"/>
         <v>5.2125695087826163E-2</v>
       </c>
@@ -37198,7 +37198,7 @@
       <c r="C334" s="18">
         <v>27.049999</v>
       </c>
-      <c r="D334" s="158">
+      <c r="D334" s="139">
         <f t="shared" si="14"/>
         <v>4.6421624758220537E-2</v>
       </c>
@@ -37210,7 +37210,7 @@
       <c r="C335" s="18">
         <v>25.85</v>
       </c>
-      <c r="D335" s="158">
+      <c r="D335" s="139">
         <f t="shared" si="14"/>
         <v>-2.673189106671281E-2</v>
       </c>
@@ -37222,7 +37222,7 @@
       <c r="C336" s="18">
         <v>26.559999000000001</v>
       </c>
-      <c r="D336" s="158">
+      <c r="D336" s="139">
         <f t="shared" si="14"/>
         <v>2.2641132075471582E-3</v>
       </c>
@@ -37234,7 +37234,7 @@
       <c r="C337" s="18">
         <v>26.5</v>
       </c>
-      <c r="D337" s="158">
+      <c r="D337" s="139">
         <f t="shared" si="14"/>
         <v>4.1257326473189471E-2</v>
       </c>
@@ -37246,7 +37246,7 @@
       <c r="C338" s="18">
         <v>25.450001</v>
       </c>
-      <c r="D338" s="158">
+      <c r="D338" s="139">
         <f t="shared" si="14"/>
         <v>9.9206345269589047E-3</v>
       </c>
@@ -37258,7 +37258,7 @@
       <c r="C339" s="18">
         <v>25.200001</v>
       </c>
-      <c r="D339" s="158">
+      <c r="D339" s="139">
         <f t="shared" si="14"/>
         <v>-2.7402508683905813E-2</v>
       </c>
@@ -37270,7 +37270,7 @@
       <c r="C340" s="18">
         <v>25.91</v>
       </c>
-      <c r="D340" s="158">
+      <c r="D340" s="139">
         <f t="shared" si="14"/>
         <v>0.11297246078297007</v>
       </c>
@@ -37282,7 +37282,7 @@
       <c r="C341" s="18">
         <v>23.280000999999999</v>
       </c>
-      <c r="D341" s="158">
+      <c r="D341" s="139">
         <f t="shared" si="14"/>
         <v>-2.6348766206608198E-2</v>
       </c>
@@ -37294,7 +37294,7 @@
       <c r="C342" s="18">
         <v>23.91</v>
       </c>
-      <c r="D342" s="158">
+      <c r="D342" s="139">
         <f t="shared" si="14"/>
         <v>8.860716925708223E-3</v>
       </c>
@@ -37306,7 +37306,7 @@
       <c r="C343" s="18">
         <v>23.700001</v>
       </c>
-      <c r="D343" s="158">
+      <c r="D343" s="139">
         <f t="shared" si="14"/>
         <v>5.5155282138310557E-3</v>
       </c>
@@ -37318,7 +37318,7 @@
       <c r="C344" s="18">
         <v>23.57</v>
       </c>
-      <c r="D344" s="158">
+      <c r="D344" s="139">
         <f t="shared" si="14"/>
         <v>-2.280269391365275E-2</v>
       </c>
@@ -37330,7 +37330,7 @@
       <c r="C345" s="18">
         <v>24.120000999999998</v>
       </c>
-      <c r="D345" s="158">
+      <c r="D345" s="139">
         <f t="shared" si="14"/>
         <v>2.5074372075037266E-2</v>
       </c>
@@ -37342,7 +37342,7 @@
       <c r="C346" s="18">
         <v>23.530000999999999</v>
       </c>
-      <c r="D346" s="158">
+      <c r="D346" s="139">
         <f t="shared" si="14"/>
         <v>4.1150486725663571E-2</v>
       </c>
@@ -37354,7 +37354,7 @@
       <c r="C347" s="18">
         <v>22.6</v>
       </c>
-      <c r="D347" s="158">
+      <c r="D347" s="139">
         <f t="shared" si="14"/>
         <v>-1.0507880910682998E-2</v>
       </c>
@@ -37366,7 +37366,7 @@
       <c r="C348" s="18">
         <v>22.84</v>
       </c>
-      <c r="D348" s="158">
+      <c r="D348" s="139">
         <f t="shared" si="14"/>
         <v>2.8828782485190052E-2</v>
       </c>
@@ -37378,7 +37378,7 @@
       <c r="C349" s="18">
         <v>22.200001</v>
       </c>
-      <c r="D349" s="158">
+      <c r="D349" s="139">
         <f t="shared" si="14"/>
         <v>6.4748249400479629E-2</v>
       </c>
@@ -37390,7 +37390,7 @@
       <c r="C350" s="18">
         <v>20.85</v>
       </c>
-      <c r="D350" s="158">
+      <c r="D350" s="139">
         <f t="shared" si="14"/>
         <v>1.0174467547212629E-2</v>
       </c>
@@ -37402,7 +37402,7 @@
       <c r="C351" s="18">
         <v>20.639999</v>
       </c>
-      <c r="D351" s="158">
+      <c r="D351" s="139">
         <f t="shared" si="14"/>
         <v>2.6865621890547198E-2</v>
       </c>
@@ -37414,7 +37414,7 @@
       <c r="C352" s="18">
         <v>20.100000000000001</v>
       </c>
-      <c r="D352" s="158">
+      <c r="D352" s="139">
         <f t="shared" si="14"/>
         <v>-6.9169960474306791E-3</v>
       </c>
@@ -37426,7 +37426,7 @@
       <c r="C353" s="18">
         <v>20.239999999999998</v>
       </c>
-      <c r="D353" s="158">
+      <c r="D353" s="139">
         <f t="shared" si="14"/>
         <v>-3.9370078740158521E-3</v>
       </c>
@@ -37438,7 +37438,7 @@
       <c r="C354" s="18">
         <v>20.32</v>
       </c>
-      <c r="D354" s="158">
+      <c r="D354" s="139">
         <f t="shared" si="14"/>
         <v>-6.6176470588235392E-2</v>
       </c>
@@ -37450,7 +37450,7 @@
       <c r="C355" s="18">
         <v>21.76</v>
       </c>
-      <c r="D355" s="158">
+      <c r="D355" s="139">
         <f t="shared" si="14"/>
         <v>2.6415045923818603E-2</v>
       </c>
@@ -37462,7 +37462,7 @@
       <c r="C356" s="18">
         <v>21.200001</v>
       </c>
-      <c r="D356" s="158">
+      <c r="D356" s="139">
         <f t="shared" si="14"/>
         <v>-2.2140175276752716E-2</v>
       </c>
@@ -37474,7 +37474,7 @@
       <c r="C357" s="18">
         <v>21.68</v>
       </c>
-      <c r="D357" s="158">
+      <c r="D357" s="139">
         <f t="shared" si="14"/>
         <v>-3.4298483995613194E-2</v>
       </c>
@@ -37486,7 +37486,7 @@
       <c r="C358" s="18">
         <v>22.450001</v>
       </c>
-      <c r="D358" s="158">
+      <c r="D358" s="139">
         <f t="shared" si="14"/>
         <v>-4.5898850578034334E-2</v>
       </c>
@@ -37498,7 +37498,7 @@
       <c r="C359" s="18">
         <v>23.530000999999999</v>
       </c>
-      <c r="D359" s="158">
+      <c r="D359" s="139">
         <f t="shared" si="14"/>
         <v>3.6563875041238925E-2</v>
       </c>
@@ -37510,7 +37510,7 @@
       <c r="C360" s="18">
         <v>22.700001</v>
       </c>
-      <c r="D360" s="158">
+      <c r="D360" s="139">
         <f t="shared" si="14"/>
         <v>7.5454945607860147E-3</v>
       </c>
@@ -37522,7 +37522,7 @@
       <c r="C361" s="18">
         <v>22.530000999999999</v>
       </c>
-      <c r="D361" s="158">
+      <c r="D361" s="139">
         <f t="shared" si="14"/>
         <v>3.5634742287984356E-3</v>
       </c>
@@ -37534,7 +37534,7 @@
       <c r="C362" s="18">
         <v>22.450001</v>
       </c>
-      <c r="D362" s="158">
+      <c r="D362" s="139">
         <f t="shared" si="14"/>
         <v>2.2779042242412562E-2</v>
       </c>
@@ -37546,7 +37546,7 @@
       <c r="C363" s="18">
         <v>21.950001</v>
       </c>
-      <c r="D363" s="158">
+      <c r="D363" s="139">
         <f t="shared" si="14"/>
         <v>4.0284407582938275E-2</v>
       </c>
@@ -37558,7 +37558,7 @@
       <c r="C364" s="18">
         <v>21.1</v>
       </c>
-      <c r="D364" s="158">
+      <c r="D364" s="139">
         <f t="shared" si="14"/>
         <v>-4.4384057971014301E-2</v>
       </c>
@@ -37570,7 +37570,7 @@
       <c r="C365" s="18">
         <v>22.08</v>
       </c>
-      <c r="D365" s="158">
+      <c r="D365" s="139">
         <f t="shared" si="14"/>
         <v>-1.1638316920322356E-2</v>
       </c>
@@ -37582,7 +37582,7 @@
       <c r="C366" s="18">
         <v>22.34</v>
       </c>
-      <c r="D366" s="158">
+      <c r="D366" s="139">
         <f t="shared" si="14"/>
         <v>1.7767607390997364E-2</v>
       </c>
@@ -37594,7 +37594,7 @@
       <c r="C367" s="18">
         <v>21.950001</v>
       </c>
-      <c r="D367" s="158">
+      <c r="D367" s="139">
         <f t="shared" si="14"/>
         <v>6.8126621320030223E-2</v>
       </c>
@@ -37606,7 +37606,7 @@
       <c r="C368" s="18">
         <v>20.549999</v>
       </c>
-      <c r="D368" s="158">
+      <c r="D368" s="139">
         <f t="shared" si="14"/>
         <v>3.840313095486958E-2</v>
       </c>
@@ -37618,7 +37618,7 @@
       <c r="C369" s="18">
         <v>19.790001</v>
       </c>
-      <c r="D369" s="158">
+      <c r="D369" s="139">
         <f t="shared" si="14"/>
         <v>1.8528100874935616E-2</v>
       </c>
@@ -37630,7 +37630,7 @@
       <c r="C370" s="18">
         <v>19.43</v>
       </c>
-      <c r="D370" s="158">
+      <c r="D370" s="139">
         <f t="shared" si="14"/>
         <v>4.8004258467947203E-2</v>
       </c>
@@ -37642,7 +37642,7 @@
       <c r="C371" s="18">
         <v>18.540001</v>
       </c>
-      <c r="D371" s="158">
+      <c r="D371" s="139">
         <f t="shared" si="14"/>
         <v>-9.6152782914145085E-3</v>
       </c>
@@ -37654,7 +37654,7 @@
       <c r="C372" s="18">
         <v>18.719999000000001</v>
       </c>
-      <c r="D372" s="158">
+      <c r="D372" s="139">
         <f t="shared" si="14"/>
         <v>9.1644209792141051E-3</v>
       </c>
@@ -37666,7 +37666,7 @@
       <c r="C373" s="18">
         <v>18.549999</v>
       </c>
-      <c r="D373" s="158">
+      <c r="D373" s="139">
         <f t="shared" si="14"/>
         <v>0.12424236363636365</v>
       </c>
@@ -37678,7 +37678,7 @@
       <c r="C374" s="18">
         <v>16.5</v>
       </c>
-      <c r="D374" s="158">
+      <c r="D374" s="139">
         <f t="shared" si="14"/>
         <v>-2.6548729997125098E-2</v>
       </c>
@@ -37690,7 +37690,7 @@
       <c r="C375" s="18">
         <v>16.950001</v>
       </c>
-      <c r="D375" s="158">
+      <c r="D375" s="139">
         <f t="shared" si="14"/>
         <v>5.5417313537815316E-2</v>
       </c>
@@ -37702,7 +37702,7 @@
       <c r="C376" s="18">
         <v>16.059999000000001</v>
       </c>
-      <c r="D376" s="158">
+      <c r="D376" s="139">
         <f t="shared" si="14"/>
         <v>-5.4738140082401299E-2</v>
       </c>
@@ -37714,7 +37714,7 @@
       <c r="C377" s="18">
         <v>16.989999999999998</v>
       </c>
-      <c r="D377" s="158">
+      <c r="D377" s="139">
         <f t="shared" si="14"/>
         <v>6.5166473054885099E-3</v>
       </c>
@@ -37726,7 +37726,7 @@
       <c r="C378" s="18">
         <v>16.879999000000002</v>
       </c>
-      <c r="D378" s="158">
+      <c r="D378" s="139">
         <f t="shared" si="14"/>
         <v>2.8014555420219134E-2</v>
       </c>
@@ -37738,7 +37738,7 @@
       <c r="C379" s="18">
         <v>16.420000000000002</v>
       </c>
-      <c r="D379" s="158">
+      <c r="D379" s="139">
         <f t="shared" si="14"/>
         <v>-4.8667439165701043E-2</v>
       </c>
@@ -37750,7 +37750,7 @@
       <c r="C380" s="18">
         <v>17.260000000000002</v>
       </c>
-      <c r="D380" s="158">
+      <c r="D380" s="139">
         <f t="shared" si="14"/>
         <v>4.2900365129931561E-2</v>
       </c>
@@ -37762,7 +37762,7 @@
       <c r="C381" s="18">
         <v>16.549999</v>
       </c>
-      <c r="D381" s="158">
+      <c r="D381" s="139">
         <f t="shared" si="14"/>
         <v>-4.2245483666349282E-2</v>
       </c>
@@ -37774,7 +37774,7 @@
       <c r="C382" s="18">
         <v>17.280000999999999</v>
       </c>
-      <c r="D382" s="158">
+      <c r="D382" s="139">
         <f t="shared" si="14"/>
         <v>9.0220883280756947E-2</v>
       </c>
@@ -37786,7 +37786,7 @@
       <c r="C383" s="18">
         <v>15.85</v>
       </c>
-      <c r="D383" s="158">
+      <c r="D383" s="139">
         <f t="shared" si="14"/>
         <v>-3.1446540880503138E-3</v>
       </c>
@@ -37798,7 +37798,7 @@
       <c r="C384" s="18">
         <v>15.9</v>
       </c>
-      <c r="D384" s="158">
+      <c r="D384" s="139">
         <f t="shared" si="14"/>
         <v>1.40306122448981E-2</v>
       </c>
@@ -37810,7 +37810,7 @@
       <c r="C385" s="18">
         <v>15.68</v>
       </c>
-      <c r="D385" s="158">
+      <c r="D385" s="139">
         <f t="shared" si="14"/>
         <v>-2.669155638165388E-2</v>
       </c>
@@ -37822,7 +37822,7 @@
       <c r="C386" s="18">
         <v>16.110001</v>
       </c>
-      <c r="D386" s="158">
+      <c r="D386" s="139">
         <f t="shared" si="14"/>
         <v>-5.4022310392113249E-2</v>
       </c>
@@ -37834,7 +37834,7 @@
       <c r="C387" s="18">
         <v>17.030000999999999</v>
       </c>
-      <c r="D387" s="158">
+      <c r="D387" s="139">
         <f t="shared" ref="D387:D450" si="15">C387/C388-1</f>
         <v>-9.318423358976391E-2</v>
       </c>
@@ -37846,7 +37846,7 @@
       <c r="C388" s="18">
         <v>18.780000999999999</v>
       </c>
-      <c r="D388" s="158">
+      <c r="D388" s="139">
         <f t="shared" si="15"/>
         <v>-2.6942902950409575E-2</v>
       </c>
@@ -37858,7 +37858,7 @@
       <c r="C389" s="18">
         <v>19.299999</v>
       </c>
-      <c r="D389" s="158">
+      <c r="D389" s="139">
         <f t="shared" si="15"/>
         <v>2.7688922913262859E-2</v>
       </c>
@@ -37870,7 +37870,7 @@
       <c r="C390" s="18">
         <v>18.780000999999999</v>
       </c>
-      <c r="D390" s="158">
+      <c r="D390" s="139">
         <f t="shared" si="15"/>
         <v>0.10340781433607504</v>
       </c>
@@ -37882,7 +37882,7 @@
       <c r="C391" s="18">
         <v>17.02</v>
       </c>
-      <c r="D391" s="158">
+      <c r="D391" s="139">
         <f t="shared" si="15"/>
         <v>-3.295454545454557E-2</v>
       </c>
@@ -37894,7 +37894,7 @@
       <c r="C392" s="18">
         <v>17.600000000000001</v>
       </c>
-      <c r="D392" s="158">
+      <c r="D392" s="139">
         <f t="shared" si="15"/>
         <v>4.1420118343195478E-2</v>
       </c>
@@ -37906,7 +37906,7 @@
       <c r="C393" s="18">
         <v>16.899999999999999</v>
       </c>
-      <c r="D393" s="158">
+      <c r="D393" s="139">
         <f t="shared" si="15"/>
         <v>3.2376235041158496E-2</v>
       </c>
@@ -37918,7 +37918,7 @@
       <c r="C394" s="18">
         <v>16.370000999999998</v>
       </c>
-      <c r="D394" s="158">
+      <c r="D394" s="139">
         <f t="shared" si="15"/>
         <v>5.476810567010304E-2</v>
       </c>
@@ -37930,7 +37930,7 @@
       <c r="C395" s="18">
         <v>15.52</v>
       </c>
-      <c r="D395" s="158">
+      <c r="D395" s="139">
         <f t="shared" si="15"/>
         <v>-6.7867867867867804E-2</v>
       </c>
@@ -37942,7 +37942,7 @@
       <c r="C396" s="18">
         <v>16.649999999999999</v>
       </c>
-      <c r="D396" s="158">
+      <c r="D396" s="139">
         <f t="shared" si="15"/>
         <v>3.351948891871559E-2</v>
       </c>
@@ -37954,7 +37954,7 @@
       <c r="C397" s="18">
         <v>16.110001</v>
       </c>
-      <c r="D397" s="158">
+      <c r="D397" s="139">
         <f t="shared" si="15"/>
         <v>1.5762988650693588E-2</v>
       </c>
@@ -37966,7 +37966,7 @@
       <c r="C398" s="18">
         <v>15.86</v>
       </c>
-      <c r="D398" s="158">
+      <c r="D398" s="139">
         <f t="shared" si="15"/>
         <v>4.4331855604813342E-3</v>
       </c>
@@ -37978,7 +37978,7 @@
       <c r="C399" s="18">
         <v>15.79</v>
       </c>
-      <c r="D399" s="158">
+      <c r="D399" s="139">
         <f t="shared" si="15"/>
         <v>2.4659312134977185E-2</v>
       </c>
@@ -37990,7 +37990,7 @@
       <c r="C400" s="18">
         <v>15.41</v>
       </c>
-      <c r="D400" s="158">
+      <c r="D400" s="139">
         <f t="shared" si="15"/>
         <v>9.2133238837703857E-2</v>
       </c>
@@ -38002,7 +38002,7 @@
       <c r="C401" s="18">
         <v>14.11</v>
       </c>
-      <c r="D401" s="158">
+      <c r="D401" s="139">
         <f t="shared" si="15"/>
         <v>8.1226053639846585E-2</v>
       </c>
@@ -38014,7 +38014,7 @@
       <c r="C402" s="18">
         <v>13.05</v>
       </c>
-      <c r="D402" s="158">
+      <c r="D402" s="139">
         <f t="shared" si="15"/>
         <v>-2.6119402985074647E-2</v>
       </c>
@@ -38026,7 +38026,7 @@
       <c r="C403" s="18">
         <v>13.4</v>
       </c>
-      <c r="D403" s="158">
+      <c r="D403" s="139">
         <f t="shared" si="15"/>
         <v>-9.152542372881356E-2</v>
       </c>
@@ -38038,7 +38038,7 @@
       <c r="C404" s="18">
         <v>14.75</v>
       </c>
-      <c r="D404" s="158">
+      <c r="D404" s="139">
         <f t="shared" si="15"/>
         <v>6.1915046796256146E-2</v>
       </c>
@@ -38050,7 +38050,7 @@
       <c r="C405" s="18">
         <v>13.89</v>
       </c>
-      <c r="D405" s="158">
+      <c r="D405" s="139">
         <f t="shared" si="15"/>
         <v>-5.0143266475645154E-3</v>
       </c>
@@ -38062,7 +38062,7 @@
       <c r="C406" s="18">
         <v>13.96</v>
       </c>
-      <c r="D406" s="158">
+      <c r="D406" s="139">
         <f t="shared" si="15"/>
         <v>9.5761381475667262E-2</v>
       </c>
@@ -38074,7 +38074,7 @@
       <c r="C407" s="18">
         <v>12.74</v>
       </c>
-      <c r="D407" s="158">
+      <c r="D407" s="139">
         <f t="shared" si="15"/>
         <v>2.6591458501208809E-2</v>
       </c>
@@ -38086,7 +38086,7 @@
       <c r="C408" s="18">
         <v>12.41</v>
       </c>
-      <c r="D408" s="158">
+      <c r="D408" s="139">
         <f t="shared" si="15"/>
         <v>3.8493723849372552E-2</v>
       </c>
@@ -38098,7 +38098,7 @@
       <c r="C409" s="18">
         <v>11.95</v>
       </c>
-      <c r="D409" s="158">
+      <c r="D409" s="139">
         <f t="shared" si="15"/>
         <v>-7.3643410852713309E-2</v>
       </c>
@@ -38110,7 +38110,7 @@
       <c r="C410" s="18">
         <v>12.9</v>
       </c>
-      <c r="D410" s="158">
+      <c r="D410" s="139">
         <f t="shared" si="15"/>
         <v>1.3354281225451681E-2</v>
       </c>
@@ -38122,7 +38122,7 @@
       <c r="C411" s="18">
         <v>12.73</v>
       </c>
-      <c r="D411" s="158">
+      <c r="D411" s="139">
         <f t="shared" si="15"/>
         <v>-9.9079971691436675E-2</v>
       </c>
@@ -38134,7 +38134,7 @@
       <c r="C412" s="18">
         <v>14.13</v>
       </c>
-      <c r="D412" s="158">
+      <c r="D412" s="139">
         <f t="shared" si="15"/>
         <v>2.9133284777858703E-2</v>
       </c>
@@ -38146,7 +38146,7 @@
       <c r="C413" s="18">
         <v>13.73</v>
       </c>
-      <c r="D413" s="158">
+      <c r="D413" s="139">
         <f t="shared" si="15"/>
         <v>-2.3470839260312903E-2</v>
       </c>
@@ -38158,7 +38158,7 @@
       <c r="C414" s="18">
         <v>14.06</v>
       </c>
-      <c r="D414" s="158">
+      <c r="D414" s="139">
         <f t="shared" si="15"/>
         <v>-4.5485403937542412E-2</v>
       </c>
@@ -38170,7 +38170,7 @@
       <c r="C415" s="18">
         <v>14.73</v>
       </c>
-      <c r="D415" s="158">
+      <c r="D415" s="139">
         <f t="shared" si="15"/>
         <v>3.0069930069930084E-2</v>
       </c>
@@ -38182,7 +38182,7 @@
       <c r="C416" s="18">
         <v>14.3</v>
       </c>
-      <c r="D416" s="158">
+      <c r="D416" s="139">
         <f t="shared" si="15"/>
         <v>-2.1887824897400709E-2</v>
       </c>
@@ -38194,7 +38194,7 @@
       <c r="C417" s="18">
         <v>14.62</v>
       </c>
-      <c r="D417" s="158">
+      <c r="D417" s="139">
         <f t="shared" si="15"/>
         <v>-1.8132975151108233E-2</v>
       </c>
@@ -38206,7 +38206,7 @@
       <c r="C418" s="18">
         <v>14.89</v>
       </c>
-      <c r="D418" s="158">
+      <c r="D418" s="139">
         <f t="shared" si="15"/>
         <v>6.0810810810809635E-3</v>
       </c>
@@ -38218,7 +38218,7 @@
       <c r="C419" s="18">
         <v>14.8</v>
       </c>
-      <c r="D419" s="158">
+      <c r="D419" s="139">
         <f t="shared" si="15"/>
         <v>-4.3927648578811374E-2</v>
       </c>
@@ -38230,7 +38230,7 @@
       <c r="C420" s="18">
         <v>15.48</v>
       </c>
-      <c r="D420" s="158">
+      <c r="D420" s="139">
         <f t="shared" si="15"/>
         <v>-6.7469879518072373E-2</v>
       </c>
@@ -38242,7 +38242,7 @@
       <c r="C421" s="18">
         <v>16.600000000000001</v>
       </c>
-      <c r="D421" s="158">
+      <c r="D421" s="139">
         <f t="shared" si="15"/>
         <v>5.8673469387755306E-2</v>
       </c>
@@ -38254,7 +38254,7 @@
       <c r="C422" s="18">
         <v>15.68</v>
       </c>
-      <c r="D422" s="158">
+      <c r="D422" s="139">
         <f t="shared" si="15"/>
         <v>-3.9804041641151144E-2</v>
       </c>
@@ -38266,7 +38266,7 @@
       <c r="C423" s="18">
         <v>16.329999999999998</v>
       </c>
-      <c r="D423" s="158">
+      <c r="D423" s="139">
         <f t="shared" si="15"/>
         <v>-1.5672091621458772E-2</v>
       </c>
@@ -38278,7 +38278,7 @@
       <c r="C424" s="18">
         <v>16.59</v>
       </c>
-      <c r="D424" s="158">
+      <c r="D424" s="139">
         <f t="shared" si="15"/>
         <v>-3.9374638100752701E-2</v>
       </c>
@@ -38290,7 +38290,7 @@
       <c r="C425" s="18">
         <v>17.27</v>
       </c>
-      <c r="D425" s="158">
+      <c r="D425" s="139">
         <f t="shared" si="15"/>
         <v>0.10989717223650386</v>
       </c>
@@ -38302,7 +38302,7 @@
       <c r="C426" s="18">
         <v>15.56</v>
       </c>
-      <c r="D426" s="158">
+      <c r="D426" s="139">
         <f t="shared" si="15"/>
         <v>-3.3540372670807561E-2</v>
       </c>
@@ -38314,7 +38314,7 @@
       <c r="C427" s="18">
         <v>16.100000000000001</v>
       </c>
-      <c r="D427" s="158">
+      <c r="D427" s="139">
         <f t="shared" si="15"/>
         <v>1.0037641154328814E-2</v>
       </c>
@@ -38326,7 +38326,7 @@
       <c r="C428" s="18">
         <v>15.94</v>
       </c>
-      <c r="D428" s="158">
+      <c r="D428" s="139">
         <f t="shared" si="15"/>
         <v>2.1794871794871717E-2</v>
       </c>
@@ -38338,7 +38338,7 @@
       <c r="C429" s="18">
         <v>15.6</v>
       </c>
-      <c r="D429" s="158">
+      <c r="D429" s="139">
         <f t="shared" si="15"/>
         <v>0.10014104372355437</v>
       </c>
@@ -38350,7 +38350,7 @@
       <c r="C430" s="18">
         <v>14.18</v>
       </c>
-      <c r="D430" s="158">
+      <c r="D430" s="139">
         <f t="shared" si="15"/>
         <v>5.3491827637444089E-2</v>
       </c>
@@ -38362,7 +38362,7 @@
       <c r="C431" s="18">
         <v>13.46</v>
       </c>
-      <c r="D431" s="158">
+      <c r="D431" s="139">
         <f t="shared" si="15"/>
         <v>-0.11679790026246717</v>
       </c>
@@ -38374,7 +38374,7 @@
       <c r="C432" s="18">
         <v>15.24</v>
       </c>
-      <c r="D432" s="158">
+      <c r="D432" s="139">
         <f t="shared" si="15"/>
         <v>9.4827586206896575E-2</v>
       </c>
@@ -38386,7 +38386,7 @@
       <c r="C433" s="18">
         <v>13.92</v>
       </c>
-      <c r="D433" s="158">
+      <c r="D433" s="139">
         <f t="shared" si="15"/>
         <v>-2.1784961349262111E-2</v>
       </c>
@@ -38398,7 +38398,7 @@
       <c r="C434" s="18">
         <v>14.23</v>
       </c>
-      <c r="D434" s="158">
+      <c r="D434" s="139">
         <f t="shared" si="15"/>
         <v>5.6537102473497303E-3</v>
       </c>
@@ -38410,7 +38410,7 @@
       <c r="C435" s="18">
         <v>14.15</v>
       </c>
-      <c r="D435" s="158">
+      <c r="D435" s="139">
         <f t="shared" si="15"/>
         <v>-0.15773804510345502</v>
       </c>
@@ -38422,7 +38422,7 @@
       <c r="C436" s="18">
         <v>16.799999</v>
       </c>
-      <c r="D436" s="158">
+      <c r="D436" s="139">
         <f t="shared" si="15"/>
         <v>-3.7249396146166402E-2</v>
       </c>
@@ -38434,7 +38434,7 @@
       <c r="C437" s="18">
         <v>17.450001</v>
       </c>
-      <c r="D437" s="158">
+      <c r="D437" s="139">
         <f t="shared" si="15"/>
         <v>6.9240257352941148E-2</v>
       </c>
@@ -38446,7 +38446,7 @@
       <c r="C438" s="18">
         <v>16.32</v>
       </c>
-      <c r="D438" s="158">
+      <c r="D438" s="139">
         <f t="shared" si="15"/>
         <v>7.7939233817701403E-2</v>
       </c>
@@ -38458,7 +38458,7 @@
       <c r="C439" s="18">
         <v>15.14</v>
       </c>
-      <c r="D439" s="158">
+      <c r="D439" s="139">
         <f t="shared" si="15"/>
         <v>-3.6895674300254422E-2</v>
       </c>
@@ -38470,7 +38470,7 @@
       <c r="C440" s="18">
         <v>15.72</v>
       </c>
-      <c r="D440" s="158">
+      <c r="D440" s="139">
         <f t="shared" si="15"/>
         <v>-1.9047619047618536E-3</v>
       </c>
@@ -38482,7 +38482,7 @@
       <c r="C441" s="18">
         <v>15.75</v>
       </c>
-      <c r="D441" s="158">
+      <c r="D441" s="139">
         <f t="shared" si="15"/>
         <v>-2.1739130434782705E-2</v>
       </c>
@@ -38494,7 +38494,7 @@
       <c r="C442" s="18">
         <v>16.100000000000001</v>
       </c>
-      <c r="D442" s="158">
+      <c r="D442" s="139">
         <f t="shared" si="15"/>
         <v>-6.1224489795918213E-2</v>
       </c>
@@ -38506,7 +38506,7 @@
       <c r="C443" s="18">
         <v>17.149999999999999</v>
       </c>
-      <c r="D443" s="158">
+      <c r="D443" s="139">
         <f t="shared" si="15"/>
         <v>-9.498685514581251E-2</v>
       </c>
@@ -38518,7 +38518,7 @@
       <c r="C444" s="18">
         <v>18.950001</v>
       </c>
-      <c r="D444" s="158">
+      <c r="D444" s="139">
         <f t="shared" si="15"/>
         <v>1.1745915643352811E-2</v>
       </c>
@@ -38530,7 +38530,7 @@
       <c r="C445" s="18">
         <v>18.73</v>
       </c>
-      <c r="D445" s="158">
+      <c r="D445" s="139">
         <f t="shared" si="15"/>
         <v>1.8488364246240563E-2</v>
       </c>
@@ -38542,7 +38542,7 @@
       <c r="C446" s="18">
         <v>18.389999</v>
       </c>
-      <c r="D446" s="158">
+      <c r="D446" s="139">
         <f t="shared" si="15"/>
         <v>-5.4353260869555164E-4</v>
       </c>
@@ -38554,7 +38554,7 @@
       <c r="C447" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="D447" s="158">
+      <c r="D447" s="139">
         <f t="shared" si="15"/>
         <v>5.3837402854375771E-2</v>
       </c>
@@ -38566,7 +38566,7 @@
       <c r="C448" s="18">
         <v>17.459999</v>
       </c>
-      <c r="D448" s="158">
+      <c r="D448" s="139">
         <f t="shared" si="15"/>
         <v>0.12572527401676337</v>
       </c>
@@ -38578,7 +38578,7 @@
       <c r="C449" s="18">
         <v>15.51</v>
       </c>
-      <c r="D449" s="158">
+      <c r="D449" s="139">
         <f t="shared" si="15"/>
         <v>2.5793650793650924E-2</v>
       </c>
@@ -38590,7 +38590,7 @@
       <c r="C450" s="18">
         <v>15.12</v>
       </c>
-      <c r="D450" s="158">
+      <c r="D450" s="139">
         <f t="shared" si="15"/>
         <v>-0.14816901408450711</v>
       </c>
@@ -38602,7 +38602,7 @@
       <c r="C451" s="18">
         <v>17.75</v>
       </c>
-      <c r="D451" s="158">
+      <c r="D451" s="139">
         <f t="shared" ref="D451:D514" si="16">C451/C452-1</f>
         <v>5.1540346655233771E-2</v>
       </c>
@@ -38614,7 +38614,7 @@
       <c r="C452" s="18">
         <v>16.879999000000002</v>
       </c>
-      <c r="D452" s="158">
+      <c r="D452" s="139">
         <f t="shared" si="16"/>
         <v>-1.7741573033707159E-3</v>
       </c>
@@ -38626,7 +38626,7 @@
       <c r="C453" s="18">
         <v>16.91</v>
       </c>
-      <c r="D453" s="158">
+      <c r="D453" s="139">
         <f t="shared" si="16"/>
         <v>-7.1898961136057205E-2</v>
       </c>
@@ -38638,7 +38638,7 @@
       <c r="C454" s="18">
         <v>18.219999000000001</v>
       </c>
-      <c r="D454" s="158">
+      <c r="D454" s="139">
         <f t="shared" si="16"/>
         <v>-3.9536111730949508E-2</v>
       </c>
@@ -38650,7 +38650,7 @@
       <c r="C455" s="18">
         <v>18.969999000000001</v>
       </c>
-      <c r="D455" s="158">
+      <c r="D455" s="139">
         <f t="shared" si="16"/>
         <v>-0.13536927368417151</v>
       </c>
@@ -38662,7 +38662,7 @@
       <c r="C456" s="18">
         <v>21.940000999999999</v>
       </c>
-      <c r="D456" s="158">
+      <c r="D456" s="139">
         <f t="shared" si="16"/>
         <v>-6.0385396145610337E-2</v>
       </c>
@@ -38674,7 +38674,7 @@
       <c r="C457" s="18">
         <v>23.35</v>
       </c>
-      <c r="D457" s="158">
+      <c r="D457" s="139">
         <f t="shared" si="16"/>
         <v>0.13184687987624244</v>
       </c>
@@ -38686,7 +38686,7 @@
       <c r="C458" s="18">
         <v>20.629999000000002</v>
       </c>
-      <c r="D458" s="158">
+      <c r="D458" s="139">
         <f t="shared" si="16"/>
         <v>7.8163169426632706E-3</v>
       </c>
@@ -38698,7 +38698,7 @@
       <c r="C459" s="18">
         <v>20.469999000000001</v>
       </c>
-      <c r="D459" s="158">
+      <c r="D459" s="139">
         <f t="shared" si="16"/>
         <v>-1.4443957631198767E-2</v>
       </c>
@@ -38710,7 +38710,7 @@
       <c r="C460" s="18">
         <v>20.77</v>
       </c>
-      <c r="D460" s="158">
+      <c r="D460" s="139">
         <f t="shared" si="16"/>
         <v>-9.5373871977773028E-3</v>
       </c>
@@ -38722,7 +38722,7 @@
       <c r="C461" s="18">
         <v>20.969999000000001</v>
       </c>
-      <c r="D461" s="158">
+      <c r="D461" s="139">
         <f t="shared" si="16"/>
         <v>1.6480853925392891E-2</v>
       </c>
@@ -38734,7 +38734,7 @@
       <c r="C462" s="18">
         <v>20.629999000000002</v>
       </c>
-      <c r="D462" s="158">
+      <c r="D462" s="139">
         <f t="shared" si="16"/>
         <v>0.10913973118279574</v>
       </c>
@@ -38746,7 +38746,7 @@
       <c r="C463" s="18">
         <v>18.600000000000001</v>
       </c>
-      <c r="D463" s="158">
+      <c r="D463" s="139">
         <f t="shared" si="16"/>
         <v>-4.5174537987679675E-2</v>
       </c>
@@ -38758,7 +38758,7 @@
       <c r="C464" s="18">
         <v>19.48</v>
       </c>
-      <c r="D464" s="158">
+      <c r="D464" s="139">
         <f t="shared" si="16"/>
         <v>-1.0665362586827598E-2</v>
       </c>
@@ -38770,7 +38770,7 @@
       <c r="C465" s="18">
         <v>19.690000999999999</v>
       </c>
-      <c r="D465" s="158">
+      <c r="D465" s="139">
         <f t="shared" si="16"/>
         <v>-6.0143195219895307E-2</v>
       </c>
@@ -38782,7 +38782,7 @@
       <c r="C466" s="18">
         <v>20.950001</v>
       </c>
-      <c r="D466" s="158">
+      <c r="D466" s="139">
         <f t="shared" si="16"/>
         <v>8.3247207859358907E-2</v>
       </c>
@@ -38794,7 +38794,7 @@
       <c r="C467" s="18">
         <v>19.34</v>
       </c>
-      <c r="D467" s="158">
+      <c r="D467" s="139">
         <f t="shared" si="16"/>
         <v>6.7673611018927993E-3</v>
       </c>
@@ -38806,7 +38806,7 @@
       <c r="C468" s="18">
         <v>19.209999</v>
       </c>
-      <c r="D468" s="158">
+      <c r="D468" s="139">
         <f t="shared" si="16"/>
         <v>8.9284659176225301E-3</v>
       </c>
@@ -38818,7 +38818,7 @@
       <c r="C469" s="18">
         <v>19.040001</v>
       </c>
-      <c r="D469" s="158">
+      <c r="D469" s="139">
         <f t="shared" si="16"/>
         <v>-7.438011667476907E-2</v>
       </c>
@@ -38830,7 +38830,7 @@
       <c r="C470" s="18">
         <v>20.57</v>
       </c>
-      <c r="D470" s="158">
+      <c r="D470" s="139">
         <f t="shared" si="16"/>
         <v>-9.1522157996146714E-3</v>
       </c>
@@ -38842,7 +38842,7 @@
       <c r="C471" s="18">
         <v>20.76</v>
       </c>
-      <c r="D471" s="158">
+      <c r="D471" s="139">
         <f t="shared" si="16"/>
         <v>-5.593451568894936E-2</v>
       </c>
@@ -38854,7 +38854,7 @@
       <c r="C472" s="18">
         <v>21.99</v>
       </c>
-      <c r="D472" s="158">
+      <c r="D472" s="139">
         <f t="shared" si="16"/>
         <v>-1.8157511658760672E-3</v>
       </c>
@@ -38866,7 +38866,7 @@
       <c r="C473" s="18">
         <v>22.030000999999999</v>
       </c>
-      <c r="D473" s="158">
+      <c r="D473" s="139">
         <f t="shared" si="16"/>
         <v>-0.10628799188640969</v>
       </c>
@@ -38878,7 +38878,7 @@
       <c r="C474" s="18">
         <v>24.65</v>
       </c>
-      <c r="D474" s="158">
+      <c r="D474" s="139">
         <f t="shared" si="16"/>
         <v>6.7099567099566881E-2</v>
       </c>
@@ -38890,7 +38890,7 @@
       <c r="C475" s="18">
         <v>23.1</v>
       </c>
-      <c r="D475" s="158">
+      <c r="D475" s="139">
         <f t="shared" si="16"/>
         <v>6.4516079976217666E-2</v>
       </c>
@@ -38902,7 +38902,7 @@
       <c r="C476" s="18">
         <v>21.700001</v>
       </c>
-      <c r="D476" s="158">
+      <c r="D476" s="139">
         <f t="shared" si="16"/>
         <v>-5.6521695652173909E-2</v>
       </c>
@@ -38914,7 +38914,7 @@
       <c r="C477" s="18">
         <v>23</v>
       </c>
-      <c r="D477" s="158">
+      <c r="D477" s="139">
         <f t="shared" si="16"/>
         <v>7.4766355140186924E-2</v>
       </c>
@@ -38926,7 +38926,7 @@
       <c r="C478" s="18">
         <v>21.4</v>
       </c>
-      <c r="D478" s="158">
+      <c r="D478" s="139">
         <f t="shared" si="16"/>
         <v>-7.2388383181621219E-2</v>
       </c>
@@ -38938,7 +38938,7 @@
       <c r="C479" s="18">
         <v>23.07</v>
       </c>
-      <c r="D479" s="158">
+      <c r="D479" s="139">
         <f t="shared" si="16"/>
         <v>-3.9550374687760126E-2</v>
       </c>
@@ -38950,7 +38950,7 @@
       <c r="C480" s="18">
         <v>24.02</v>
       </c>
-      <c r="D480" s="158">
+      <c r="D480" s="139">
         <f t="shared" si="16"/>
         <v>-0.12527309269020737</v>
       </c>
@@ -38962,7 +38962,7 @@
       <c r="C481" s="18">
         <v>27.459999</v>
       </c>
-      <c r="D481" s="158">
+      <c r="D481" s="139">
         <f t="shared" si="16"/>
         <v>-2.904938166124249E-3</v>
       </c>
@@ -38974,7 +38974,7 @@
       <c r="C482" s="18">
         <v>27.540001</v>
       </c>
-      <c r="D482" s="158">
+      <c r="D482" s="139">
         <f t="shared" si="16"/>
         <v>9.6774189694377233E-2</v>
       </c>
@@ -38986,7 +38986,7 @@
       <c r="C483" s="18">
         <v>25.110001</v>
       </c>
-      <c r="D483" s="158">
+      <c r="D483" s="139">
         <f t="shared" si="16"/>
         <v>4.6250041666666686E-2</v>
       </c>
@@ -38998,7 +38998,7 @@
       <c r="C484" s="18">
         <v>24</v>
       </c>
-      <c r="D484" s="158">
+      <c r="D484" s="139">
         <f t="shared" si="16"/>
         <v>4.5296212774225353E-2</v>
       </c>
@@ -39010,7 +39010,7 @@
       <c r="C485" s="18">
         <v>22.959999</v>
       </c>
-      <c r="D485" s="158">
+      <c r="D485" s="139">
         <f t="shared" si="16"/>
         <v>1.9991070635273056E-2</v>
       </c>
@@ -39022,7 +39022,7 @@
       <c r="C486" s="18">
         <v>22.51</v>
       </c>
-      <c r="D486" s="158">
+      <c r="D486" s="139">
         <f t="shared" si="16"/>
         <v>-7.8214578214578223E-2</v>
       </c>
@@ -39034,7 +39034,7 @@
       <c r="C487" s="18">
         <v>24.42</v>
       </c>
-      <c r="D487" s="158">
+      <c r="D487" s="139">
         <f t="shared" si="16"/>
         <v>1.0761589403973648E-2</v>
       </c>
@@ -39046,7 +39046,7 @@
       <c r="C488" s="18">
         <v>24.16</v>
       </c>
-      <c r="D488" s="158">
+      <c r="D488" s="139">
         <f t="shared" si="16"/>
         <v>-3.5528903613928242E-2</v>
       </c>
@@ -39058,7 +39058,7 @@
       <c r="C489" s="18">
         <v>25.049999</v>
       </c>
-      <c r="D489" s="158">
+      <c r="D489" s="139">
         <f t="shared" si="16"/>
         <v>4.6803134141245373E-2</v>
       </c>
@@ -39070,7 +39070,7 @@
       <c r="C490" s="18">
         <v>23.93</v>
       </c>
-      <c r="D490" s="158">
+      <c r="D490" s="139">
         <f t="shared" si="16"/>
         <v>2.3086832966517035E-2</v>
       </c>
@@ -39082,7 +39082,7 @@
       <c r="C491" s="18">
         <v>23.389999</v>
       </c>
-      <c r="D491" s="158">
+      <c r="D491" s="139">
         <f t="shared" si="16"/>
         <v>-6.8498683054612375E-2</v>
       </c>
@@ -39094,7 +39094,7 @@
       <c r="C492" s="18">
         <v>25.110001</v>
       </c>
-      <c r="D492" s="158">
+      <c r="D492" s="139">
         <f t="shared" si="16"/>
         <v>-2.9752628661229852E-2</v>
       </c>
@@ -39106,7 +39106,7 @@
       <c r="C493" s="18">
         <v>25.879999000000002</v>
       </c>
-      <c r="D493" s="158">
+      <c r="D493" s="139">
         <f t="shared" si="16"/>
         <v>-8.808961746114008E-3</v>
       </c>
@@ -39118,7 +39118,7 @@
       <c r="C494" s="18">
         <v>26.110001</v>
       </c>
-      <c r="D494" s="158">
+      <c r="D494" s="139">
         <f t="shared" si="16"/>
         <v>-1.5831133967918021E-2</v>
       </c>
@@ -39130,7 +39130,7 @@
       <c r="C495" s="18">
         <v>26.530000999999999</v>
       </c>
-      <c r="D495" s="158">
+      <c r="D495" s="139">
         <f t="shared" si="16"/>
         <v>7.1053734356075759E-2</v>
       </c>
@@ -39142,7 +39142,7 @@
       <c r="C496" s="18">
         <v>24.77</v>
       </c>
-      <c r="D496" s="158">
+      <c r="D496" s="139">
         <f t="shared" si="16"/>
         <v>-8.7324947948597909E-2</v>
       </c>
@@ -39154,7 +39154,7 @@
       <c r="C497" s="18">
         <v>27.139999</v>
       </c>
-      <c r="D497" s="158">
+      <c r="D497" s="139">
         <f t="shared" si="16"/>
         <v>5.9328569112858442E-2</v>
       </c>
@@ -39166,7 +39166,7 @@
       <c r="C498" s="18">
         <v>25.620000999999998</v>
       </c>
-      <c r="D498" s="158">
+      <c r="D498" s="139">
         <f t="shared" si="16"/>
         <v>5.1000784621419992E-3</v>
       </c>
@@ -39178,7 +39178,7 @@
       <c r="C499" s="18">
         <v>25.49</v>
       </c>
-      <c r="D499" s="158">
+      <c r="D499" s="139">
         <f t="shared" si="16"/>
         <v>3.4496795231200972E-2</v>
       </c>
@@ -39190,7 +39190,7 @@
       <c r="C500" s="18">
         <v>24.639999</v>
       </c>
-      <c r="D500" s="158">
+      <c r="D500" s="139">
         <f t="shared" si="16"/>
         <v>-6.4516131633715057E-3</v>
       </c>
@@ -39202,7 +39202,7 @@
       <c r="C501" s="18">
         <v>24.799999</v>
       </c>
-      <c r="D501" s="158">
+      <c r="D501" s="139">
         <f t="shared" si="16"/>
         <v>-6.4150981132075513E-2</v>
       </c>
@@ -39214,7 +39214,7 @@
       <c r="C502" s="18">
         <v>26.5</v>
       </c>
-      <c r="D502" s="158">
+      <c r="D502" s="139">
         <f t="shared" si="16"/>
         <v>-2.0694716211925979E-2</v>
       </c>
@@ -39226,7 +39226,7 @@
       <c r="C503" s="18">
         <v>27.059999000000001</v>
       </c>
-      <c r="D503" s="158">
+      <c r="D503" s="139">
         <f t="shared" si="16"/>
         <v>-2.4864900900900877E-2</v>
       </c>
@@ -39238,7 +39238,7 @@
       <c r="C504" s="18">
         <v>27.75</v>
       </c>
-      <c r="D504" s="158">
+      <c r="D504" s="139">
         <f t="shared" si="16"/>
         <v>-1.2806865428428904E-2</v>
       </c>
@@ -39250,7 +39250,7 @@
       <c r="C505" s="18">
         <v>28.110001</v>
       </c>
-      <c r="D505" s="158">
+      <c r="D505" s="139">
         <f t="shared" si="16"/>
         <v>-8.8152324113105474E-3</v>
       </c>
@@ -39262,7 +39262,7 @@
       <c r="C506" s="18">
         <v>28.360001</v>
       </c>
-      <c r="D506" s="158">
+      <c r="D506" s="139">
         <f t="shared" si="16"/>
         <v>-2.4759250343878936E-2</v>
       </c>
@@ -39274,7 +39274,7 @@
       <c r="C507" s="18">
         <v>29.08</v>
       </c>
-      <c r="D507" s="158">
+      <c r="D507" s="139">
         <f t="shared" si="16"/>
         <v>-3.0853616729518141E-3</v>
       </c>
@@ -39286,7 +39286,7 @@
       <c r="C508" s="18">
         <v>29.17</v>
       </c>
-      <c r="D508" s="158">
+      <c r="D508" s="139">
         <f t="shared" si="16"/>
         <v>-1.1521518129447683E-2</v>
       </c>
@@ -39298,7 +39298,7 @@
       <c r="C509" s="18">
         <v>29.51</v>
       </c>
-      <c r="D509" s="158">
+      <c r="D509" s="139">
         <f t="shared" si="16"/>
         <v>-8.7789742676336435E-2</v>
       </c>
@@ -39310,7 +39310,7 @@
       <c r="C510" s="18">
         <v>32.349997999999999</v>
       </c>
-      <c r="D510" s="158">
+      <c r="D510" s="139">
         <f t="shared" si="16"/>
         <v>-1.5220701078885956E-2</v>
       </c>
@@ -39322,7 +39322,7 @@
       <c r="C511" s="18">
         <v>32.849997999999999</v>
       </c>
-      <c r="D511" s="158">
+      <c r="D511" s="139">
         <f t="shared" si="16"/>
         <v>8.5968068774946449E-3</v>
       </c>
@@ -39334,7 +39334,7 @@
       <c r="C512" s="18">
         <v>32.57</v>
       </c>
-      <c r="D512" s="158">
+      <c r="D512" s="139">
         <f t="shared" si="16"/>
         <v>-1.2731190498260547E-2</v>
       </c>
@@ -39346,7 +39346,7 @@
       <c r="C513" s="18">
         <v>32.990001999999997</v>
       </c>
-      <c r="D513" s="158">
+      <c r="D513" s="139">
         <f t="shared" si="16"/>
         <v>-0.10450591748099913</v>
       </c>
@@ -39358,7 +39358,7 @@
       <c r="C514" s="18">
         <v>36.840000000000003</v>
       </c>
-      <c r="D514" s="158">
+      <c r="D514" s="139">
         <f t="shared" si="16"/>
         <v>4.4810042246741011E-2</v>
       </c>
@@ -39370,7 +39370,7 @@
       <c r="C515" s="18">
         <v>35.259998000000003</v>
       </c>
-      <c r="D515" s="158">
+      <c r="D515" s="139">
         <f t="shared" ref="D515:D578" si="17">C515/C516-1</f>
         <v>5.0655451410743568E-2</v>
       </c>
@@ -39382,7 +39382,7 @@
       <c r="C516" s="18">
         <v>33.560001</v>
       </c>
-      <c r="D516" s="158">
+      <c r="D516" s="139">
         <f t="shared" si="17"/>
         <v>8.1105434631858486E-3</v>
       </c>
@@ -39394,7 +39394,7 @@
       <c r="C517" s="18">
         <v>33.290000999999997</v>
       </c>
-      <c r="D517" s="158">
+      <c r="D517" s="139">
         <f t="shared" si="17"/>
         <v>2.2734317134694759E-2</v>
       </c>
@@ -39406,7 +39406,7 @@
       <c r="C518" s="18">
         <v>32.549999</v>
       </c>
-      <c r="D518" s="158">
+      <c r="D518" s="139">
         <f t="shared" si="17"/>
         <v>-5.5700665630964208E-2</v>
       </c>
@@ -39418,7 +39418,7 @@
       <c r="C519" s="18">
         <v>34.470001000000003</v>
       </c>
-      <c r="D519" s="158">
+      <c r="D519" s="139">
         <f t="shared" si="17"/>
         <v>1.7114252496732263E-2</v>
       </c>
@@ -39430,7 +39430,7 @@
       <c r="C520" s="18">
         <v>33.889999000000003</v>
       </c>
-      <c r="D520" s="158">
+      <c r="D520" s="139">
         <f t="shared" si="17"/>
         <v>5.1504778156996833E-2</v>
       </c>
@@ -39442,7 +39442,7 @@
       <c r="C521" s="18">
         <v>32.229999999999997</v>
       </c>
-      <c r="D521" s="158">
+      <c r="D521" s="139">
         <f t="shared" si="17"/>
         <v>-3.7910447761194122E-2</v>
       </c>
@@ -39454,7 +39454,7 @@
       <c r="C522" s="18">
         <v>33.5</v>
       </c>
-      <c r="D522" s="158">
+      <c r="D522" s="139">
         <f t="shared" si="17"/>
         <v>-8.0932809850951748E-2</v>
       </c>
@@ -39466,7 +39466,7 @@
       <c r="C523" s="18">
         <v>36.450001</v>
       </c>
-      <c r="D523" s="158">
+      <c r="D523" s="139">
         <f t="shared" si="17"/>
         <v>2.4451909811584516E-2</v>
       </c>
@@ -39478,7 +39478,7 @@
       <c r="C524" s="18">
         <v>35.580002</v>
       </c>
-      <c r="D524" s="158">
+      <c r="D524" s="139">
         <f t="shared" si="17"/>
         <v>-4.3033835395373865E-2</v>
       </c>
@@ -39490,7 +39490,7 @@
       <c r="C525" s="18">
         <v>37.18</v>
       </c>
-      <c r="D525" s="158">
+      <c r="D525" s="139">
         <f t="shared" si="17"/>
         <v>4.2624789680314246E-2</v>
       </c>
@@ -39502,7 +39502,7 @@
       <c r="C526" s="18">
         <v>35.659999999999997</v>
       </c>
-      <c r="D526" s="158">
+      <c r="D526" s="139">
         <f t="shared" si="17"/>
         <v>-4.0107723278184571E-2</v>
       </c>
@@ -39514,7 +39514,7 @@
       <c r="C527" s="18">
         <v>37.150002000000001</v>
       </c>
-      <c r="D527" s="158">
+      <c r="D527" s="139">
         <f t="shared" si="17"/>
         <v>-8.2754139956063844E-3</v>
       </c>
@@ -39526,7 +39526,7 @@
       <c r="C528" s="18">
         <v>37.459999000000003</v>
       </c>
-      <c r="D528" s="158">
+      <c r="D528" s="139">
         <f t="shared" si="17"/>
         <v>-6.3734044675533341E-2</v>
       </c>
@@ -39538,7 +39538,7 @@
       <c r="C529" s="18">
         <v>40.009998000000003</v>
       </c>
-      <c r="D529" s="158">
+      <c r="D529" s="139">
         <f t="shared" si="17"/>
         <v>-3.1234891797454978E-2</v>
       </c>
@@ -39550,7 +39550,7 @@
       <c r="C530" s="18">
         <v>41.299999</v>
       </c>
-      <c r="D530" s="158">
+      <c r="D530" s="139">
         <f t="shared" si="17"/>
         <v>-6.9610274152067553E-2</v>
       </c>
@@ -39562,7 +39562,7 @@
       <c r="C531" s="18">
         <v>44.389999000000003</v>
       </c>
-      <c r="D531" s="158">
+      <c r="D531" s="139">
         <f t="shared" si="17"/>
         <v>3.4249791903531834E-2</v>
       </c>
@@ -39574,7 +39574,7 @@
       <c r="C532" s="18">
         <v>42.919998</v>
       </c>
-      <c r="D532" s="158">
+      <c r="D532" s="139">
         <f t="shared" si="17"/>
         <v>1.5377288857345572E-2</v>
       </c>
@@ -39586,7 +39586,7 @@
       <c r="C533" s="18">
         <v>42.27</v>
       </c>
-      <c r="D533" s="158">
+      <c r="D533" s="139">
         <f t="shared" si="17"/>
         <v>-8.2120837215410303E-3</v>
       </c>
@@ -39598,7 +39598,7 @@
       <c r="C534" s="18">
         <v>42.619999</v>
       </c>
-      <c r="D534" s="158">
+      <c r="D534" s="139">
         <f t="shared" si="17"/>
         <v>4.103566294664529E-2</v>
       </c>
@@ -39610,7 +39610,7 @@
       <c r="C535" s="18">
         <v>40.939999</v>
       </c>
-      <c r="D535" s="158">
+      <c r="D535" s="139">
         <f t="shared" si="17"/>
         <v>-1.2198828387467442E-3</v>
       </c>
@@ -39622,7 +39622,7 @@
       <c r="C536" s="18">
         <v>40.990001999999997</v>
       </c>
-      <c r="D536" s="158">
+      <c r="D536" s="139">
         <f t="shared" si="17"/>
         <v>7.3036673480715297E-2</v>
       </c>
@@ -39634,7 +39634,7 @@
       <c r="C537" s="18">
         <v>38.200001</v>
       </c>
-      <c r="D537" s="158">
+      <c r="D537" s="139">
         <f t="shared" si="17"/>
         <v>-0.15054480430187234</v>
       </c>
@@ -39646,7 +39646,7 @@
       <c r="C538" s="18">
         <v>44.970001000000003</v>
       </c>
-      <c r="D538" s="158">
+      <c r="D538" s="139">
         <f t="shared" si="17"/>
         <v>4.5570869359259136E-2</v>
       </c>
@@ -39658,7 +39658,7 @@
       <c r="C539" s="18">
         <v>43.009998000000003</v>
       </c>
-      <c r="D539" s="158">
+      <c r="D539" s="139">
         <f t="shared" si="17"/>
         <v>8.528884468107889E-2</v>
       </c>
@@ -39670,7 +39670,7 @@
       <c r="C540" s="18">
         <v>39.630001</v>
       </c>
-      <c r="D540" s="158">
+      <c r="D540" s="139">
         <f t="shared" si="17"/>
         <v>1.7981017210377592E-2</v>
       </c>
@@ -39682,7 +39682,7 @@
       <c r="C541" s="18">
         <v>38.93</v>
       </c>
-      <c r="D541" s="158">
+      <c r="D541" s="139">
         <f t="shared" si="17"/>
         <v>2.8533739948942705E-2</v>
       </c>
@@ -39694,7 +39694,7 @@
       <c r="C542" s="18">
         <v>37.849997999999999</v>
       </c>
-      <c r="D542" s="158">
+      <c r="D542" s="139">
         <f t="shared" si="17"/>
         <v>5.2857517691906608E-4</v>
       </c>
@@ -39706,7 +39706,7 @@
       <c r="C543" s="18">
         <v>37.830002</v>
       </c>
-      <c r="D543" s="158">
+      <c r="D543" s="139">
         <f t="shared" si="17"/>
         <v>2.8827903181941616E-2</v>
       </c>
@@ -39718,7 +39718,7 @@
       <c r="C544" s="18">
         <v>36.770000000000003</v>
       </c>
-      <c r="D544" s="158">
+      <c r="D544" s="139">
         <f t="shared" si="17"/>
         <v>3.3155380724922745E-2</v>
       </c>
@@ -39730,7 +39730,7 @@
       <c r="C545" s="18">
         <v>35.590000000000003</v>
       </c>
-      <c r="D545" s="158">
+      <c r="D545" s="139">
         <f t="shared" si="17"/>
         <v>3.1594202898550749E-2</v>
       </c>
@@ -39742,7 +39742,7 @@
       <c r="C546" s="18">
         <v>34.5</v>
       </c>
-      <c r="D546" s="158">
+      <c r="D546" s="139">
         <f t="shared" si="17"/>
         <v>-1.0894523770225817E-2</v>
       </c>
@@ -39754,7 +39754,7 @@
       <c r="C547" s="18">
         <v>34.880001</v>
       </c>
-      <c r="D547" s="158">
+      <c r="D547" s="139">
         <f t="shared" si="17"/>
         <v>1.988304035429711E-2</v>
       </c>
@@ -39766,7 +39766,7 @@
       <c r="C548" s="18">
         <v>34.200001</v>
       </c>
-      <c r="D548" s="158">
+      <c r="D548" s="139">
         <f t="shared" si="17"/>
         <v>2.4258820732519171E-2</v>
       </c>
@@ -39778,7 +39778,7 @@
       <c r="C549" s="18">
         <v>33.389999000000003</v>
       </c>
-      <c r="D549" s="158">
+      <c r="D549" s="139">
         <f t="shared" si="17"/>
         <v>-2.7097931235431139E-2</v>
       </c>
@@ -39790,7 +39790,7 @@
       <c r="C550" s="18">
         <v>34.32</v>
       </c>
-      <c r="D550" s="158">
+      <c r="D550" s="139">
         <f t="shared" si="17"/>
         <v>-5.9983514652616643E-2</v>
       </c>
@@ -39802,7 +39802,7 @@
       <c r="C551" s="18">
         <v>36.509998000000003</v>
       </c>
-      <c r="D551" s="158">
+      <c r="D551" s="139">
         <f t="shared" si="17"/>
         <v>7.5721834876895544E-2</v>
       </c>
@@ -39814,7 +39814,7 @@
       <c r="C552" s="18">
         <v>33.939999</v>
       </c>
-      <c r="D552" s="158">
+      <c r="D552" s="139">
         <f t="shared" si="17"/>
         <v>3.1924598112635927E-2</v>
       </c>
@@ -39826,7 +39826,7 @@
       <c r="C553" s="18">
         <v>32.889999000000003</v>
       </c>
-      <c r="D553" s="158">
+      <c r="D553" s="139">
         <f t="shared" si="17"/>
         <v>4.082275316455708E-2</v>
       </c>
@@ -39838,7 +39838,7 @@
       <c r="C554" s="18">
         <v>31.6</v>
       </c>
-      <c r="D554" s="158">
+      <c r="D554" s="139">
         <f t="shared" si="17"/>
         <v>2.3979227998080832E-2</v>
       </c>
@@ -39850,7 +39850,7 @@
       <c r="C555" s="18">
         <v>30.860001</v>
       </c>
-      <c r="D555" s="158">
+      <c r="D555" s="139">
         <f t="shared" si="17"/>
         <v>-2.2631425800193616E-3</v>
       </c>
@@ -39862,7 +39862,7 @@
       <c r="C556" s="18">
         <v>30.93</v>
       </c>
-      <c r="D556" s="158">
+      <c r="D556" s="139">
         <f t="shared" si="17"/>
         <v>7.6200417536534504E-2</v>
       </c>
@@ -39874,7 +39874,7 @@
       <c r="C557" s="18">
         <v>28.74</v>
       </c>
-      <c r="D557" s="158">
+      <c r="D557" s="139">
         <f t="shared" si="17"/>
         <v>5.7006213423824503E-2</v>
       </c>
@@ -39886,7 +39886,7 @@
       <c r="C558" s="18">
         <v>27.190000999999999</v>
       </c>
-      <c r="D558" s="158">
+      <c r="D558" s="139">
         <f t="shared" si="17"/>
         <v>-4.0292309168217244E-3</v>
       </c>
@@ -39898,7 +39898,7 @@
       <c r="C559" s="18">
         <v>27.299999</v>
       </c>
-      <c r="D559" s="158">
+      <c r="D559" s="139">
         <f t="shared" si="17"/>
         <v>1.8656717114056587E-2</v>
       </c>
@@ -39910,7 +39910,7 @@
       <c r="C560" s="18">
         <v>26.799999</v>
       </c>
-      <c r="D560" s="158">
+      <c r="D560" s="139">
         <f t="shared" si="17"/>
         <v>1.6691881005619136E-2</v>
       </c>
@@ -39922,7 +39922,7 @@
       <c r="C561" s="18">
         <v>26.360001</v>
       </c>
-      <c r="D561" s="158">
+      <c r="D561" s="139">
         <f t="shared" si="17"/>
         <v>6.4910268617401901E-3</v>
       </c>
@@ -39934,7 +39934,7 @@
       <c r="C562" s="18">
         <v>26.190000999999999</v>
       </c>
-      <c r="D562" s="158">
+      <c r="D562" s="139">
         <f t="shared" si="17"/>
         <v>0.10180904501472443</v>
       </c>
@@ -39946,7 +39946,7 @@
       <c r="C563" s="18">
         <v>23.77</v>
       </c>
-      <c r="D563" s="158">
+      <c r="D563" s="139">
         <f t="shared" si="17"/>
         <v>-2.502046862266083E-2</v>
       </c>
@@ -39958,7 +39958,7 @@
       <c r="C564" s="18">
         <v>24.379999000000002</v>
       </c>
-      <c r="D564" s="158">
+      <c r="D564" s="139">
         <f t="shared" si="17"/>
         <v>5.4954476202748737E-2</v>
       </c>
@@ -39970,7 +39970,7 @@
       <c r="C565" s="18">
         <v>23.110001</v>
       </c>
-      <c r="D565" s="158">
+      <c r="D565" s="139">
         <f t="shared" si="17"/>
         <v>2.6654864504664477E-2</v>
       </c>
@@ -39982,7 +39982,7 @@
       <c r="C566" s="18">
         <v>22.51</v>
       </c>
-      <c r="D566" s="158">
+      <c r="D566" s="139">
         <f t="shared" si="17"/>
         <v>6.7083628484632118E-3</v>
       </c>
@@ -39994,7 +39994,7 @@
       <c r="C567" s="18">
         <v>22.360001</v>
       </c>
-      <c r="D567" s="158">
+      <c r="D567" s="139">
         <f t="shared" si="17"/>
         <v>-5.7803023566028733E-3</v>
       </c>
@@ -40006,7 +40006,7 @@
       <c r="C568" s="18">
         <v>22.49</v>
       </c>
-      <c r="D568" s="158">
+      <c r="D568" s="139">
         <f t="shared" si="17"/>
         <v>-6.6804979253112129E-2</v>
       </c>
@@ -40018,7 +40018,7 @@
       <c r="C569" s="18">
         <v>24.1</v>
       </c>
-      <c r="D569" s="158">
+      <c r="D569" s="139">
         <f t="shared" si="17"/>
         <v>-9.4533497739415218E-3</v>
       </c>
@@ -40030,7 +40030,7 @@
       <c r="C570" s="18">
         <v>24.33</v>
       </c>
-      <c r="D570" s="158">
+      <c r="D570" s="139">
         <f t="shared" si="17"/>
         <v>2.3128636537904201E-2</v>
       </c>
@@ -40042,7 +40042,7 @@
       <c r="C571" s="18">
         <v>23.780000999999999</v>
       </c>
-      <c r="D571" s="158">
+      <c r="D571" s="139">
         <f t="shared" si="17"/>
         <v>2.4999998922413669E-2</v>
       </c>
@@ -40054,7 +40054,7 @@
       <c r="C572" s="18">
         <v>23.200001</v>
       </c>
-      <c r="D572" s="158">
+      <c r="D572" s="139">
         <f t="shared" si="17"/>
         <v>-3.3735901707621863E-2</v>
       </c>
@@ -40066,7 +40066,7 @@
       <c r="C573" s="18">
         <v>24.01</v>
       </c>
-      <c r="D573" s="158">
+      <c r="D573" s="139">
         <f t="shared" si="17"/>
         <v>-3.2634971796937862E-2</v>
       </c>
@@ -40078,7 +40078,7 @@
       <c r="C574" s="18">
         <v>24.82</v>
       </c>
-      <c r="D574" s="158">
+      <c r="D574" s="139">
         <f t="shared" si="17"/>
         <v>2.8282828282828465E-3</v>
       </c>
@@ -40090,7 +40090,7 @@
       <c r="C575" s="18">
         <v>24.75</v>
       </c>
-      <c r="D575" s="158">
+      <c r="D575" s="139">
         <f t="shared" si="17"/>
         <v>1.977750309023496E-2</v>
       </c>
@@ -40102,7 +40102,7 @@
       <c r="C576" s="18">
         <v>24.27</v>
       </c>
-      <c r="D576" s="158">
+      <c r="D576" s="139">
         <f t="shared" si="17"/>
         <v>7.4844995571302197E-2</v>
       </c>
@@ -40114,7 +40114,7 @@
       <c r="C577" s="18">
         <v>22.58</v>
       </c>
-      <c r="D577" s="158">
+      <c r="D577" s="139">
         <f t="shared" si="17"/>
         <v>-4.3220338983050999E-2</v>
       </c>
@@ -40126,7 +40126,7 @@
       <c r="C578" s="18">
         <v>23.6</v>
       </c>
-      <c r="D578" s="158">
+      <c r="D578" s="139">
         <f t="shared" si="17"/>
         <v>8.2072493446698536E-2</v>
       </c>
@@ -40138,7 +40138,7 @@
       <c r="C579" s="18">
         <v>21.809999000000001</v>
       </c>
-      <c r="D579" s="158">
+      <c r="D579" s="139">
         <f t="shared" ref="D579:D642" si="18">C579/C580-1</f>
         <v>-6.595293361884369E-2</v>
       </c>
@@ -40150,7 +40150,7 @@
       <c r="C580" s="18">
         <v>23.35</v>
       </c>
-      <c r="D580" s="158">
+      <c r="D580" s="139">
         <f t="shared" si="18"/>
         <v>6.0881417537482996E-2</v>
       </c>
@@ -40162,7 +40162,7 @@
       <c r="C581" s="18">
         <v>22.01</v>
       </c>
-      <c r="D581" s="158">
+      <c r="D581" s="139">
         <f t="shared" si="18"/>
         <v>7.1046280829502706E-2</v>
       </c>
@@ -40174,7 +40174,7 @@
       <c r="C582" s="18">
         <v>20.549999</v>
       </c>
-      <c r="D582" s="158">
+      <c r="D582" s="139">
         <f t="shared" si="18"/>
         <v>-1.2968347742555286E-2</v>
       </c>
@@ -40186,7 +40186,7 @@
       <c r="C583" s="18">
         <v>20.82</v>
       </c>
-      <c r="D583" s="158">
+      <c r="D583" s="139">
         <f t="shared" si="18"/>
         <v>7.3749410714255337E-2</v>
       </c>
@@ -40198,7 +40198,7 @@
       <c r="C584" s="18">
         <v>19.389999</v>
       </c>
-      <c r="D584" s="158">
+      <c r="D584" s="139">
         <f t="shared" si="18"/>
         <v>1.8917392594987259E-2</v>
       </c>
@@ -40210,7 +40210,7 @@
       <c r="C585" s="18">
         <v>19.030000999999999</v>
       </c>
-      <c r="D585" s="158">
+      <c r="D585" s="139">
         <f t="shared" si="18"/>
         <v>-8.4215587862579988E-2</v>
       </c>
@@ -40222,7 +40222,7 @@
       <c r="C586" s="18">
         <v>20.780000999999999</v>
       </c>
-      <c r="D586" s="158">
+      <c r="D586" s="139">
         <f t="shared" si="18"/>
         <v>-4.78917647457755E-3</v>
       </c>
@@ -40234,7 +40234,7 @@
       <c r="C587" s="18">
         <v>20.879999000000002</v>
       </c>
-      <c r="D587" s="158">
+      <c r="D587" s="139">
         <f t="shared" si="18"/>
         <v>-7.1327623807529994E-3</v>
       </c>
@@ -40246,7 +40246,7 @@
       <c r="C588" s="18">
         <v>21.030000999999999</v>
       </c>
-      <c r="D588" s="158">
+      <c r="D588" s="139">
         <f t="shared" si="18"/>
         <v>3.1388034889064942E-2</v>
       </c>
@@ -40258,7 +40258,7 @@
       <c r="C589" s="18">
         <v>20.389999</v>
       </c>
-      <c r="D589" s="158">
+      <c r="D589" s="139">
         <f t="shared" si="18"/>
         <v>3.2928014184397281E-2</v>
       </c>
@@ -40270,7 +40270,7 @@
       <c r="C590" s="18">
         <v>19.739999999999998</v>
       </c>
-      <c r="D590" s="158">
+      <c r="D590" s="139">
         <f t="shared" si="18"/>
         <v>5.6179718770480447E-2</v>
       </c>
@@ -40282,7 +40282,7 @@
       <c r="C591" s="18">
         <v>18.690000999999999</v>
       </c>
-      <c r="D591" s="158">
+      <c r="D591" s="139">
         <f t="shared" si="18"/>
         <v>2.6923075443787026E-2</v>
       </c>
@@ -40294,7 +40294,7 @@
       <c r="C592" s="18">
         <v>18.200001</v>
       </c>
-      <c r="D592" s="158">
+      <c r="D592" s="139">
         <f t="shared" si="18"/>
         <v>0.1193112546125461</v>
       </c>
@@ -40306,7 +40306,7 @@
       <c r="C593" s="18">
         <v>16.260000000000002</v>
       </c>
-      <c r="D593" s="158">
+      <c r="D593" s="139">
         <f t="shared" si="18"/>
         <v>-8.5365853658534441E-3</v>
       </c>
@@ -40318,7 +40318,7 @@
       <c r="C594" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="D594" s="158">
+      <c r="D594" s="139">
         <f t="shared" si="18"/>
         <v>-2.147971360381884E-2</v>
       </c>
@@ -40330,7 +40330,7 @@
       <c r="C595" s="18">
         <v>16.760000000000002</v>
       </c>
-      <c r="D595" s="158">
+      <c r="D595" s="139">
         <f t="shared" si="18"/>
         <v>0.10773298083278249</v>
       </c>
@@ -40342,7 +40342,7 @@
       <c r="C596" s="18">
         <v>15.13</v>
       </c>
-      <c r="D596" s="158">
+      <c r="D596" s="139">
         <f t="shared" si="18"/>
         <v>-8.5190039318479016E-3</v>
       </c>
@@ -40354,7 +40354,7 @@
       <c r="C597" s="18">
         <v>15.26</v>
       </c>
-      <c r="D597" s="158">
+      <c r="D597" s="139">
         <f t="shared" si="18"/>
         <v>-1.9620667102681066E-3</v>
       </c>
@@ -40366,7 +40366,7 @@
       <c r="C598" s="18">
         <v>15.29</v>
       </c>
-      <c r="D598" s="158">
+      <c r="D598" s="139">
         <f t="shared" si="18"/>
         <v>0.10556760665220533</v>
       </c>
@@ -40378,7 +40378,7 @@
       <c r="C599" s="18">
         <v>13.83</v>
       </c>
-      <c r="D599" s="158">
+      <c r="D599" s="139">
         <f t="shared" si="18"/>
         <v>-4.6206896551724164E-2</v>
       </c>
@@ -40390,7 +40390,7 @@
       <c r="C600" s="18">
         <v>14.5</v>
       </c>
-      <c r="D600" s="158">
+      <c r="D600" s="139">
         <f t="shared" si="18"/>
         <v>-2.6192075218267385E-2</v>
       </c>
@@ -40402,7 +40402,7 @@
       <c r="C601" s="18">
         <v>14.89</v>
       </c>
-      <c r="D601" s="158">
+      <c r="D601" s="139">
         <f t="shared" si="18"/>
         <v>3.6908077994429078E-2</v>
       </c>
@@ -40414,7 +40414,7 @@
       <c r="C602" s="18">
         <v>14.36</v>
       </c>
-      <c r="D602" s="158">
+      <c r="D602" s="139">
         <f t="shared" si="18"/>
         <v>3.0868628858578662E-2</v>
       </c>
@@ -40426,7 +40426,7 @@
       <c r="C603" s="18">
         <v>13.93</v>
       </c>
-      <c r="D603" s="158">
+      <c r="D603" s="139">
         <f t="shared" si="18"/>
         <v>2.4264705882352855E-2</v>
       </c>
@@ -40438,7 +40438,7 @@
       <c r="C604" s="18">
         <v>13.6</v>
       </c>
-      <c r="D604" s="158">
+      <c r="D604" s="139">
         <f t="shared" si="18"/>
         <v>3.0303030303030276E-2</v>
       </c>
@@ -40450,7 +40450,7 @@
       <c r="C605" s="18">
         <v>13.2</v>
       </c>
-      <c r="D605" s="158">
+      <c r="D605" s="139">
         <f t="shared" si="18"/>
         <v>-2.0771513353115778E-2</v>
       </c>
@@ -40462,7 +40462,7 @@
       <c r="C606" s="18">
         <v>13.48</v>
       </c>
-      <c r="D606" s="158">
+      <c r="D606" s="139">
         <f t="shared" si="18"/>
         <v>5.7254901960784421E-2</v>
       </c>
@@ -40474,7 +40474,7 @@
       <c r="C607" s="18">
         <v>12.75</v>
       </c>
-      <c r="D607" s="158">
+      <c r="D607" s="139">
         <f t="shared" si="18"/>
         <v>-3.041825095057038E-2</v>
       </c>
@@ -40486,7 +40486,7 @@
       <c r="C608" s="18">
         <v>13.15</v>
       </c>
-      <c r="D608" s="158">
+      <c r="D608" s="139">
         <f t="shared" si="18"/>
         <v>6.391585760517815E-2</v>
       </c>
@@ -40498,7 +40498,7 @@
       <c r="C609" s="18">
         <v>12.36</v>
       </c>
-      <c r="D609" s="158">
+      <c r="D609" s="139">
         <f t="shared" si="18"/>
         <v>5.4607508532423132E-2</v>
       </c>
@@ -40510,7 +40510,7 @@
       <c r="C610" s="18">
         <v>11.72</v>
       </c>
-      <c r="D610" s="158">
+      <c r="D610" s="139">
         <f t="shared" si="18"/>
         <v>-1.5126050420168013E-2</v>
       </c>
@@ -40522,7 +40522,7 @@
       <c r="C611" s="18">
         <v>11.9</v>
       </c>
-      <c r="D611" s="158">
+      <c r="D611" s="139">
         <f t="shared" si="18"/>
         <v>2.4096385542168752E-2</v>
       </c>
@@ -40534,7 +40534,7 @@
       <c r="C612" s="18">
         <v>11.62</v>
       </c>
-      <c r="D612" s="158">
+      <c r="D612" s="139">
         <f t="shared" si="18"/>
         <v>0.12815533980582505</v>
       </c>
@@ -40546,7 +40546,7 @@
       <c r="C613" s="18">
         <v>10.3</v>
       </c>
-      <c r="D613" s="158">
+      <c r="D613" s="139">
         <f t="shared" si="18"/>
         <v>9.8039215686276382E-3</v>
       </c>
@@ -40558,7 +40558,7 @@
       <c r="C614" s="18">
         <v>10.199999999999999</v>
       </c>
-      <c r="D614" s="158">
+      <c r="D614" s="139">
         <f t="shared" si="18"/>
         <v>-9.7087378640777766E-3</v>
       </c>
@@ -40570,7 +40570,7 @@
       <c r="C615" s="18">
         <v>10.3</v>
       </c>
-      <c r="D615" s="158">
+      <c r="D615" s="139">
         <f t="shared" si="18"/>
         <v>-4.8309178743960457E-3</v>
       </c>
@@ -40582,7 +40582,7 @@
       <c r="C616" s="18">
         <v>10.35</v>
       </c>
-      <c r="D616" s="158">
+      <c r="D616" s="139">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -40594,7 +40594,7 @@
       <c r="C617" s="18">
         <v>10.35</v>
       </c>
-      <c r="D617" s="158">
+      <c r="D617" s="139">
         <f t="shared" si="18"/>
         <v>-4.5202952029520294E-2</v>
       </c>
@@ -40606,7 +40606,7 @@
       <c r="C618" s="18">
         <v>10.84</v>
       </c>
-      <c r="D618" s="158">
+      <c r="D618" s="139">
         <f t="shared" si="18"/>
         <v>-5.902777777777779E-2</v>
       </c>
@@ -40618,7 +40618,7 @@
       <c r="C619" s="18">
         <v>11.52</v>
       </c>
-      <c r="D619" s="158">
+      <c r="D619" s="139">
         <f t="shared" si="18"/>
         <v>-2.5380710659898553E-2</v>
       </c>
@@ -40630,7 +40630,7 @@
       <c r="C620" s="18">
         <v>11.82</v>
       </c>
-      <c r="D620" s="158">
+      <c r="D620" s="139">
         <f t="shared" si="18"/>
         <v>4.3248014121800571E-2</v>
       </c>
@@ -40642,7 +40642,7 @@
       <c r="C621" s="18">
         <v>11.33</v>
       </c>
-      <c r="D621" s="158">
+      <c r="D621" s="139">
         <f t="shared" si="18"/>
         <v>-5.2675585284280957E-2</v>
       </c>
@@ -40654,7 +40654,7 @@
       <c r="C622" s="18">
         <v>11.96</v>
       </c>
-      <c r="D622" s="158">
+      <c r="D622" s="139">
         <f t="shared" si="18"/>
         <v>9.2237442922374679E-2</v>
       </c>
@@ -40666,7 +40666,7 @@
       <c r="C623" s="18">
         <v>10.95</v>
       </c>
-      <c r="D623" s="158">
+      <c r="D623" s="139">
         <f t="shared" si="18"/>
         <v>-9.5041322314049603E-2</v>
       </c>
@@ -40678,7 +40678,7 @@
       <c r="C624" s="18">
         <v>12.1</v>
       </c>
-      <c r="D624" s="158">
+      <c r="D624" s="139">
         <f t="shared" si="18"/>
         <v>3.3167495854062867E-3</v>
       </c>
@@ -40690,7 +40690,7 @@
       <c r="C625" s="18">
         <v>12.06</v>
       </c>
-      <c r="D625" s="158">
+      <c r="D625" s="139">
         <f t="shared" si="18"/>
         <v>-0.16075156576200411</v>
       </c>
@@ -40702,7 +40702,7 @@
       <c r="C626" s="18">
         <v>14.37</v>
       </c>
-      <c r="D626" s="158">
+      <c r="D626" s="139">
         <f t="shared" si="18"/>
         <v>3.3812949640287693E-2</v>
       </c>
@@ -40714,7 +40714,7 @@
       <c r="C627" s="18">
         <v>13.9</v>
       </c>
-      <c r="D627" s="158">
+      <c r="D627" s="139">
         <f t="shared" si="18"/>
         <v>-0.1224747474747474</v>
       </c>
@@ -40726,7 +40726,7 @@
       <c r="C628" s="18">
         <v>15.84</v>
       </c>
-      <c r="D628" s="158">
+      <c r="D628" s="139">
         <f t="shared" si="18"/>
         <v>1.6688061617458283E-2</v>
       </c>
@@ -40738,7 +40738,7 @@
       <c r="C629" s="18">
         <v>15.58</v>
       </c>
-      <c r="D629" s="158">
+      <c r="D629" s="139">
         <f t="shared" si="18"/>
         <v>9.1036414565826451E-2</v>
       </c>
@@ -40750,7 +40750,7 @@
       <c r="C630" s="18">
         <v>14.28</v>
       </c>
-      <c r="D630" s="158">
+      <c r="D630" s="139">
         <f t="shared" si="18"/>
         <v>3.3285094066570098E-2</v>
       </c>
@@ -40762,7 +40762,7 @@
       <c r="C631" s="18">
         <v>13.82</v>
       </c>
-      <c r="D631" s="158">
+      <c r="D631" s="139">
         <f t="shared" si="18"/>
         <v>1.3196480938416411E-2</v>
       </c>
@@ -40774,7 +40774,7 @@
       <c r="C632" s="18">
         <v>13.64</v>
       </c>
-      <c r="D632" s="158">
+      <c r="D632" s="139">
         <f t="shared" si="18"/>
         <v>-6.5549890750181694E-3</v>
       </c>
@@ -40786,7 +40786,7 @@
       <c r="C633" s="18">
         <v>13.73</v>
       </c>
-      <c r="D633" s="158">
+      <c r="D633" s="139">
         <f t="shared" si="18"/>
         <v>7.2886297376095754E-4</v>
       </c>
@@ -40798,7 +40798,7 @@
       <c r="C634" s="18">
         <v>13.72</v>
       </c>
-      <c r="D634" s="158">
+      <c r="D634" s="139">
         <f t="shared" si="18"/>
         <v>4.4935262757044958E-2</v>
       </c>
@@ -40810,7 +40810,7 @@
       <c r="C635" s="18">
         <v>13.13</v>
       </c>
-      <c r="D635" s="158">
+      <c r="D635" s="139">
         <f t="shared" si="18"/>
         <v>-1.9417475728155331E-2</v>
       </c>
@@ -40822,7 +40822,7 @@
       <c r="C636" s="18">
         <v>13.39</v>
       </c>
-      <c r="D636" s="158">
+      <c r="D636" s="139">
         <f t="shared" si="18"/>
         <v>7.5502008032128698E-2</v>
       </c>
@@ -40834,7 +40834,7 @@
       <c r="C637" s="18">
         <v>12.45</v>
       </c>
-      <c r="D637" s="158">
+      <c r="D637" s="139">
         <f t="shared" si="18"/>
         <v>2.3848684210526327E-2</v>
       </c>
@@ -40846,7 +40846,7 @@
       <c r="C638" s="18">
         <v>12.16</v>
       </c>
-      <c r="D638" s="158">
+      <c r="D638" s="139">
         <f t="shared" si="18"/>
         <v>5.4640069384215062E-2</v>
       </c>
@@ -40858,7 +40858,7 @@
       <c r="C639" s="18">
         <v>11.53</v>
       </c>
-      <c r="D639" s="158">
+      <c r="D639" s="139">
         <f t="shared" si="18"/>
         <v>-4.5529801324503349E-2</v>
       </c>
@@ -40870,7 +40870,7 @@
       <c r="C640" s="18">
         <v>12.08</v>
       </c>
-      <c r="D640" s="158">
+      <c r="D640" s="139">
         <f t="shared" si="18"/>
         <v>3.0716723549488067E-2</v>
       </c>
@@ -40882,7 +40882,7 @@
       <c r="C641" s="18">
         <v>11.72</v>
       </c>
-      <c r="D641" s="158">
+      <c r="D641" s="139">
         <f t="shared" si="18"/>
         <v>4.8300536672629679E-2</v>
       </c>
@@ -40894,7 +40894,7 @@
       <c r="C642" s="18">
         <v>11.18</v>
       </c>
-      <c r="D642" s="158">
+      <c r="D642" s="139">
         <f t="shared" si="18"/>
         <v>6.4761904761904798E-2</v>
       </c>
@@ -40906,7 +40906,7 @@
       <c r="C643" s="18">
         <v>10.5</v>
       </c>
-      <c r="D643" s="158">
+      <c r="D643" s="139">
         <f t="shared" ref="D643:D706" si="19">C643/C644-1</f>
         <v>0.10410094637223977</v>
       </c>
@@ -40918,7 +40918,7 @@
       <c r="C644" s="18">
         <v>9.51</v>
       </c>
-      <c r="D644" s="158">
+      <c r="D644" s="139">
         <f t="shared" si="19"/>
         <v>-1.1434511434511352E-2</v>
       </c>
@@ -40930,7 +40930,7 @@
       <c r="C645" s="18">
         <v>9.6199999999999992</v>
       </c>
-      <c r="D645" s="158">
+      <c r="D645" s="139">
         <f t="shared" si="19"/>
         <v>1.3698630136986134E-2</v>
       </c>
@@ -40942,7 +40942,7 @@
       <c r="C646" s="18">
         <v>9.49</v>
       </c>
-      <c r="D646" s="158">
+      <c r="D646" s="139">
         <f t="shared" si="19"/>
         <v>4.4004400440043945E-2</v>
       </c>
@@ -40954,7 +40954,7 @@
       <c r="C647" s="18">
         <v>9.09</v>
       </c>
-      <c r="D647" s="158">
+      <c r="D647" s="139">
         <f t="shared" si="19"/>
         <v>-1.1956521739130421E-2</v>
       </c>
@@ -40966,7 +40966,7 @@
       <c r="C648" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D648" s="158">
+      <c r="D648" s="139">
         <f t="shared" si="19"/>
         <v>-8.2751744765702906E-2</v>
       </c>
@@ -40978,7 +40978,7 @@
       <c r="C649" s="18">
         <v>10.029999999999999</v>
       </c>
-      <c r="D649" s="158">
+      <c r="D649" s="139">
         <f t="shared" si="19"/>
         <v>0.18979833926453149</v>
       </c>
@@ -40990,7 +40990,7 @@
       <c r="C650" s="18">
         <v>8.43</v>
       </c>
-      <c r="D650" s="158">
+      <c r="D650" s="139">
         <f t="shared" si="19"/>
         <v>-5.2808988764045051E-2</v>
       </c>
@@ -41002,7 +41002,7 @@
       <c r="C651" s="18">
         <v>8.9</v>
       </c>
-      <c r="D651" s="158">
+      <c r="D651" s="139">
         <f t="shared" si="19"/>
         <v>-8.247422680412364E-2</v>
       </c>
@@ -41014,7 +41014,7 @@
       <c r="C652" s="18">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D652" s="158">
+      <c r="D652" s="139">
         <f t="shared" si="19"/>
         <v>-0.17376490630323682</v>
       </c>
@@ -41026,7 +41026,7 @@
       <c r="C653" s="18">
         <v>11.74</v>
       </c>
-      <c r="D653" s="158">
+      <c r="D653" s="139">
         <f t="shared" si="19"/>
         <v>-2.491694352159457E-2</v>
       </c>
@@ -41038,7 +41038,7 @@
       <c r="C654" s="18">
         <v>12.04</v>
       </c>
-      <c r="D654" s="158">
+      <c r="D654" s="139">
         <f t="shared" si="19"/>
         <v>0.19444444444444442</v>
       </c>
@@ -41050,7 +41050,7 @@
       <c r="C655" s="18">
         <v>10.08</v>
       </c>
-      <c r="D655" s="158">
+      <c r="D655" s="139">
         <f t="shared" si="19"/>
         <v>-7.6076993583867991E-2</v>
       </c>
@@ -41062,7 +41062,7 @@
       <c r="C656" s="18">
         <v>10.91</v>
       </c>
-      <c r="D656" s="158">
+      <c r="D656" s="139">
         <f t="shared" si="19"/>
         <v>0.15327695560253685</v>
       </c>
@@ -41074,7 +41074,7 @@
       <c r="C657" s="18">
         <v>9.4600000000000009</v>
       </c>
-      <c r="D657" s="158">
+      <c r="D657" s="139">
         <f t="shared" si="19"/>
         <v>0.13838748495788211</v>
       </c>
@@ -41086,7 +41086,7 @@
       <c r="C658" s="18">
         <v>8.31</v>
       </c>
-      <c r="D658" s="158">
+      <c r="D658" s="139">
         <f t="shared" si="19"/>
         <v>-0.18449460255152106</v>
       </c>
@@ -41098,7 +41098,7 @@
       <c r="C659" s="18">
         <v>10.19</v>
       </c>
-      <c r="D659" s="158">
+      <c r="D659" s="139">
         <f t="shared" si="19"/>
         <v>-0.11468288444830588</v>
       </c>
@@ -41110,7 +41110,7 @@
       <c r="C660" s="18">
         <v>11.51</v>
       </c>
-      <c r="D660" s="158">
+      <c r="D660" s="139">
         <f t="shared" si="19"/>
         <v>-5.0330033003300301E-2</v>
       </c>
@@ -41122,7 +41122,7 @@
       <c r="C661" s="18">
         <v>12.12</v>
       </c>
-      <c r="D661" s="158">
+      <c r="D661" s="139">
         <f t="shared" si="19"/>
         <v>-1.7828200972447417E-2</v>
       </c>
@@ -41134,7 +41134,7 @@
       <c r="C662" s="18">
         <v>12.34</v>
       </c>
-      <c r="D662" s="158">
+      <c r="D662" s="139">
         <f t="shared" si="19"/>
         <v>2.3217247097844007E-2</v>
       </c>
@@ -41146,7 +41146,7 @@
       <c r="C663" s="18">
         <v>12.06</v>
       </c>
-      <c r="D663" s="158">
+      <c r="D663" s="139">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -41158,7 +41158,7 @@
       <c r="C664" s="18">
         <v>12.06</v>
       </c>
-      <c r="D664" s="158">
+      <c r="D664" s="139">
         <f t="shared" si="19"/>
         <v>-0.1073279052553664</v>
       </c>
@@ -41170,7 +41170,7 @@
       <c r="C665" s="18">
         <v>13.51</v>
       </c>
-      <c r="D665" s="158">
+      <c r="D665" s="139">
         <f t="shared" si="19"/>
         <v>7.7352472089314173E-2</v>
       </c>
@@ -41182,7 +41182,7 @@
       <c r="C666" s="18">
         <v>12.54</v>
       </c>
-      <c r="D666" s="158">
+      <c r="D666" s="139">
         <f t="shared" si="19"/>
         <v>-0.17118307997356252</v>
       </c>
@@ -41194,7 +41194,7 @@
       <c r="C667" s="18">
         <v>15.13</v>
       </c>
-      <c r="D667" s="158">
+      <c r="D667" s="139">
         <f t="shared" si="19"/>
         <v>-3.8143674507310821E-2</v>
       </c>
@@ -41206,7 +41206,7 @@
       <c r="C668" s="18">
         <v>15.73</v>
       </c>
-      <c r="D668" s="158">
+      <c r="D668" s="139">
         <f t="shared" si="19"/>
         <v>8.7076710435383564E-2</v>
       </c>
@@ -41218,7 +41218,7 @@
       <c r="C669" s="18">
         <v>14.47</v>
       </c>
-      <c r="D669" s="158">
+      <c r="D669" s="139">
         <f t="shared" si="19"/>
         <v>3.5050071530758231E-2</v>
       </c>
@@ -41230,7 +41230,7 @@
       <c r="C670" s="18">
         <v>13.98</v>
       </c>
-      <c r="D670" s="158">
+      <c r="D670" s="139">
         <f t="shared" si="19"/>
         <v>2.8697571743929506E-2</v>
       </c>
@@ -41242,7 +41242,7 @@
       <c r="C671" s="18">
         <v>13.59</v>
       </c>
-      <c r="D671" s="158">
+      <c r="D671" s="139">
         <f t="shared" si="19"/>
         <v>0.18689956331877733</v>
       </c>
@@ -41254,7 +41254,7 @@
       <c r="C672" s="18">
         <v>11.45</v>
       </c>
-      <c r="D672" s="158">
+      <c r="D672" s="139">
         <f t="shared" si="19"/>
         <v>6.909430438842179E-2</v>
       </c>
@@ -41266,7 +41266,7 @@
       <c r="C673" s="18">
         <v>10.71</v>
       </c>
-      <c r="D673" s="158">
+      <c r="D673" s="139">
         <f t="shared" si="19"/>
         <v>2.8818443804034644E-2</v>
       </c>
@@ -41278,7 +41278,7 @@
       <c r="C674" s="18">
         <v>10.41</v>
       </c>
-      <c r="D674" s="158">
+      <c r="D674" s="139">
         <f t="shared" si="19"/>
         <v>-9.0829694323144028E-2</v>
       </c>
@@ -41290,7 +41290,7 @@
       <c r="C675" s="18">
         <v>11.45</v>
       </c>
-      <c r="D675" s="158">
+      <c r="D675" s="139">
         <f t="shared" si="19"/>
         <v>4.5662100456621113E-2</v>
       </c>
@@ -41302,7 +41302,7 @@
       <c r="C676" s="18">
         <v>10.95</v>
       </c>
-      <c r="D676" s="158">
+      <c r="D676" s="139">
         <f t="shared" si="19"/>
         <v>6.2075654704170535E-2</v>
       </c>
@@ -41314,7 +41314,7 @@
       <c r="C677" s="18">
         <v>10.31</v>
       </c>
-      <c r="D677" s="158">
+      <c r="D677" s="139">
         <f t="shared" si="19"/>
         <v>-1.7159199237368861E-2</v>
       </c>
@@ -41326,7 +41326,7 @@
       <c r="C678" s="18">
         <v>10.49</v>
       </c>
-      <c r="D678" s="158">
+      <c r="D678" s="139">
         <f t="shared" si="19"/>
         <v>-1.3170272812794037E-2</v>
       </c>
@@ -41338,7 +41338,7 @@
       <c r="C679" s="18">
         <v>10.63</v>
       </c>
-      <c r="D679" s="158">
+      <c r="D679" s="139">
         <f t="shared" si="19"/>
         <v>-1.024208566107998E-2</v>
       </c>
@@ -41350,7 +41350,7 @@
       <c r="C680" s="18">
         <v>10.74</v>
       </c>
-      <c r="D680" s="158">
+      <c r="D680" s="139">
         <f t="shared" si="19"/>
         <v>7.4000000000000066E-2</v>
       </c>
@@ -41362,7 +41362,7 @@
       <c r="C681" s="18">
         <v>10</v>
       </c>
-      <c r="D681" s="158">
+      <c r="D681" s="139">
         <f t="shared" si="19"/>
         <v>9.1703056768558833E-2</v>
       </c>
@@ -41374,7 +41374,7 @@
       <c r="C682" s="18">
         <v>9.16</v>
       </c>
-      <c r="D682" s="158">
+      <c r="D682" s="139">
         <f t="shared" si="19"/>
         <v>8.7885985748218598E-2</v>
       </c>
@@ -41386,7 +41386,7 @@
       <c r="C683" s="18">
         <v>8.42</v>
       </c>
-      <c r="D683" s="158">
+      <c r="D683" s="139">
         <f t="shared" si="19"/>
         <v>5.1186017478152435E-2</v>
       </c>
@@ -41398,7 +41398,7 @@
       <c r="C684" s="18">
         <v>8.01</v>
       </c>
-      <c r="D684" s="158">
+      <c r="D684" s="139">
         <f t="shared" si="19"/>
         <v>1.9083969465648831E-2</v>
       </c>
@@ -41410,7 +41410,7 @@
       <c r="C685" s="18">
         <v>7.86</v>
       </c>
-      <c r="D685" s="158">
+      <c r="D685" s="139">
         <f t="shared" si="19"/>
         <v>0.14912280701754388</v>
       </c>
@@ -41422,7 +41422,7 @@
       <c r="C686" s="18">
         <v>6.84</v>
       </c>
-      <c r="D686" s="158">
+      <c r="D686" s="139">
         <f t="shared" si="19"/>
         <v>-6.938775510204076E-2</v>
       </c>
@@ -41434,7 +41434,7 @@
       <c r="C687" s="18">
         <v>7.35</v>
       </c>
-      <c r="D687" s="158">
+      <c r="D687" s="139">
         <f t="shared" si="19"/>
         <v>-2.7137042062416183E-3</v>
       </c>
@@ -41446,7 +41446,7 @@
       <c r="C688" s="18">
         <v>7.37</v>
       </c>
-      <c r="D688" s="158">
+      <c r="D688" s="139">
         <f t="shared" si="19"/>
         <v>7.906295754026349E-2</v>
       </c>
@@ -41458,7 +41458,7 @@
       <c r="C689" s="18">
         <v>6.83</v>
       </c>
-      <c r="D689" s="158">
+      <c r="D689" s="139">
         <f t="shared" si="19"/>
         <v>-5.0069541029207243E-2</v>
       </c>
@@ -41470,7 +41470,7 @@
       <c r="C690" s="18">
         <v>7.19</v>
       </c>
-      <c r="D690" s="158">
+      <c r="D690" s="139">
         <f t="shared" si="19"/>
         <v>1.3927576601673319E-3</v>
       </c>
@@ -41482,7 +41482,7 @@
       <c r="C691" s="18">
         <v>7.18</v>
       </c>
-      <c r="D691" s="158">
+      <c r="D691" s="139">
         <f t="shared" si="19"/>
         <v>-2.4456521739130488E-2</v>
       </c>
@@ -41494,7 +41494,7 @@
       <c r="C692" s="18">
         <v>7.36</v>
       </c>
-      <c r="D692" s="158">
+      <c r="D692" s="139">
         <f t="shared" si="19"/>
         <v>-1.4725568942436373E-2</v>
       </c>
@@ -41506,7 +41506,7 @@
       <c r="C693" s="18">
         <v>7.47</v>
       </c>
-      <c r="D693" s="158">
+      <c r="D693" s="139">
         <f t="shared" si="19"/>
         <v>2.7510316368638321E-2</v>
       </c>
@@ -41518,7 +41518,7 @@
       <c r="C694" s="18">
         <v>7.27</v>
       </c>
-      <c r="D694" s="158">
+      <c r="D694" s="139">
         <f t="shared" si="19"/>
         <v>-3.7086092715231778E-2</v>
       </c>
@@ -41530,7 +41530,7 @@
       <c r="C695" s="18">
         <v>7.55</v>
       </c>
-      <c r="D695" s="158">
+      <c r="D695" s="139">
         <f t="shared" si="19"/>
         <v>7.7032810271041363E-2</v>
       </c>
@@ -41542,7 +41542,7 @@
       <c r="C696" s="18">
         <v>7.01</v>
       </c>
-      <c r="D696" s="158">
+      <c r="D696" s="139">
         <f t="shared" si="19"/>
         <v>0.10220125786163514</v>
       </c>
@@ -41554,7 +41554,7 @@
       <c r="C697" s="18">
         <v>6.36</v>
       </c>
-      <c r="D697" s="158">
+      <c r="D697" s="139">
         <f t="shared" si="19"/>
         <v>1.760000000000006E-2</v>
       </c>
@@ -41566,7 +41566,7 @@
       <c r="C698" s="18">
         <v>6.25</v>
       </c>
-      <c r="D698" s="158">
+      <c r="D698" s="139">
         <f t="shared" si="19"/>
         <v>1.6025641025640969E-3</v>
       </c>
@@ -41578,7 +41578,7 @@
       <c r="C699" s="18">
         <v>6.24</v>
       </c>
-      <c r="D699" s="158">
+      <c r="D699" s="139">
         <f t="shared" si="19"/>
         <v>8.1455805892547861E-2</v>
       </c>
@@ -41590,7 +41590,7 @@
       <c r="C700" s="18">
         <v>5.77</v>
       </c>
-      <c r="D700" s="158">
+      <c r="D700" s="139">
         <f t="shared" si="19"/>
         <v>-4.4701986754966949E-2</v>
       </c>
@@ -41602,7 +41602,7 @@
       <c r="C701" s="18">
         <v>6.04</v>
       </c>
-      <c r="D701" s="158">
+      <c r="D701" s="139">
         <f t="shared" si="19"/>
         <v>-1.6528925619834212E-3</v>
       </c>
@@ -41614,7 +41614,7 @@
       <c r="C702" s="18">
         <v>6.05</v>
       </c>
-      <c r="D702" s="158">
+      <c r="D702" s="139">
         <f t="shared" si="19"/>
         <v>-2.5764895330112725E-2</v>
       </c>
@@ -41626,7 +41626,7 @@
       <c r="C703" s="18">
         <v>6.21</v>
       </c>
-      <c r="D703" s="158">
+      <c r="D703" s="139">
         <f t="shared" si="19"/>
         <v>8.116883116883189E-3</v>
       </c>
@@ -41638,7 +41638,7 @@
       <c r="C704" s="18">
         <v>6.16</v>
       </c>
-      <c r="D704" s="158">
+      <c r="D704" s="139">
         <f t="shared" si="19"/>
         <v>-6.2404870624048758E-2</v>
       </c>
@@ -41650,7 +41650,7 @@
       <c r="C705" s="18">
         <v>6.57</v>
       </c>
-      <c r="D705" s="158">
+      <c r="D705" s="139">
         <f t="shared" si="19"/>
         <v>4.7846889952153138E-2</v>
       </c>
@@ -41662,7 +41662,7 @@
       <c r="C706" s="18">
         <v>6.27</v>
       </c>
-      <c r="D706" s="158">
+      <c r="D706" s="139">
         <f t="shared" si="19"/>
         <v>6.271186440677945E-2</v>
       </c>
@@ -41674,7 +41674,7 @@
       <c r="C707" s="18">
         <v>5.9</v>
       </c>
-      <c r="D707" s="158">
+      <c r="D707" s="139">
         <f t="shared" ref="D707:D770" si="20">C707/C708-1</f>
         <v>5.9245960502692929E-2</v>
       </c>
@@ -41686,7 +41686,7 @@
       <c r="C708" s="18">
         <v>5.57</v>
       </c>
-      <c r="D708" s="158">
+      <c r="D708" s="139">
         <f t="shared" si="20"/>
         <v>-1.7921146953404632E-3</v>
       </c>
@@ -41698,7 +41698,7 @@
       <c r="C709" s="18">
         <v>5.58</v>
       </c>
-      <c r="D709" s="158">
+      <c r="D709" s="139">
         <f t="shared" si="20"/>
         <v>9.6267190569744532E-2</v>
       </c>
@@ -41710,7 +41710,7 @@
       <c r="C710" s="18">
         <v>5.09</v>
       </c>
-      <c r="D710" s="158">
+      <c r="D710" s="139">
         <f t="shared" si="20"/>
         <v>3.8775510204081431E-2</v>
       </c>
@@ -41722,7 +41722,7 @@
       <c r="C711" s="18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D711" s="158">
+      <c r="D711" s="139">
         <f t="shared" si="20"/>
         <v>2.044989775051187E-3</v>
       </c>
@@ -41734,7 +41734,7 @@
       <c r="C712" s="18">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D712" s="158">
+      <c r="D712" s="139">
         <f t="shared" si="20"/>
         <v>7.9470198675496651E-2</v>
       </c>
@@ -41746,7 +41746,7 @@
       <c r="C713" s="18">
         <v>4.53</v>
       </c>
-      <c r="D713" s="158">
+      <c r="D713" s="139">
         <f t="shared" si="20"/>
         <v>8.9086859688196629E-3</v>
       </c>
@@ -41758,7 +41758,7 @@
       <c r="C714" s="18">
         <v>4.49</v>
       </c>
-      <c r="D714" s="158">
+      <c r="D714" s="139">
         <f t="shared" si="20"/>
         <v>5.89622641509433E-2</v>
       </c>
@@ -41770,7 +41770,7 @@
       <c r="C715" s="18">
         <v>4.24</v>
       </c>
-      <c r="D715" s="158">
+      <c r="D715" s="139">
         <f t="shared" si="20"/>
         <v>1.4354066985646119E-2</v>
       </c>
@@ -41782,7 +41782,7 @@
       <c r="C716" s="18">
         <v>4.18</v>
       </c>
-      <c r="D716" s="158">
+      <c r="D716" s="139">
         <f t="shared" si="20"/>
         <v>9.7112860892388353E-2</v>
       </c>
@@ -41794,7 +41794,7 @@
       <c r="C717" s="18">
         <v>3.81</v>
       </c>
-      <c r="D717" s="158">
+      <c r="D717" s="139">
         <f t="shared" si="20"/>
         <v>-2.0565552699228773E-2</v>
       </c>
@@ -41806,7 +41806,7 @@
       <c r="C718" s="18">
         <v>3.89</v>
       </c>
-      <c r="D718" s="158">
+      <c r="D718" s="139">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -41818,7 +41818,7 @@
       <c r="C719" s="18">
         <v>3.89</v>
       </c>
-      <c r="D719" s="158">
+      <c r="D719" s="139">
         <f t="shared" si="20"/>
         <v>-5.3527980535279851E-2</v>
       </c>
@@ -41830,7 +41830,7 @@
       <c r="C720" s="18">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D720" s="158">
+      <c r="D720" s="139">
         <f t="shared" si="20"/>
         <v>0.12602739726027412</v>
       </c>
@@ -41842,7 +41842,7 @@
       <c r="C721" s="18">
         <v>3.65</v>
       </c>
-      <c r="D721" s="158">
+      <c r="D721" s="139">
         <f t="shared" si="20"/>
         <v>-8.2914572864321578E-2</v>
       </c>
@@ -41854,7 +41854,7 @@
       <c r="C722" s="18">
         <v>3.98</v>
       </c>
-      <c r="D722" s="158">
+      <c r="D722" s="139">
         <f t="shared" si="20"/>
         <v>8.1521739130434812E-2</v>
       </c>
@@ -41866,7 +41866,7 @@
       <c r="C723" s="18">
         <v>3.68</v>
       </c>
-      <c r="D723" s="158">
+      <c r="D723" s="139">
         <f t="shared" si="20"/>
         <v>-0.13207547169811318</v>
       </c>
@@ -41878,7 +41878,7 @@
       <c r="C724" s="18">
         <v>4.24</v>
       </c>
-      <c r="D724" s="158">
+      <c r="D724" s="139">
         <f t="shared" si="20"/>
         <v>-3.4168564920273203E-2</v>
       </c>
@@ -41890,7 +41890,7 @@
       <c r="C725" s="18">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D725" s="158">
+      <c r="D725" s="139">
         <f t="shared" si="20"/>
         <v>6.0386473429951737E-2</v>
       </c>
@@ -41902,7 +41902,7 @@
       <c r="C726" s="18">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D726" s="158">
+      <c r="D726" s="139">
         <f t="shared" si="20"/>
         <v>3.2418952618453734E-2</v>
       </c>
@@ -41914,7 +41914,7 @@
       <c r="C727" s="18">
         <v>4.01</v>
       </c>
-      <c r="D727" s="158">
+      <c r="D727" s="139">
         <f t="shared" si="20"/>
         <v>-6.5268065268065278E-2</v>
       </c>
@@ -41926,7 +41926,7 @@
       <c r="C728" s="18">
         <v>4.29</v>
       </c>
-      <c r="D728" s="158">
+      <c r="D728" s="139">
         <f t="shared" si="20"/>
         <v>0.16893732970027253</v>
       </c>
@@ -41938,7 +41938,7 @@
       <c r="C729" s="18">
         <v>3.67</v>
       </c>
-      <c r="D729" s="158">
+      <c r="D729" s="139">
         <f t="shared" si="20"/>
         <v>-9.1584158415841554E-2</v>
       </c>
@@ -41950,7 +41950,7 @@
       <c r="C730" s="18">
         <v>4.04</v>
       </c>
-      <c r="D730" s="158">
+      <c r="D730" s="139">
         <f t="shared" si="20"/>
         <v>5.7591623036649331E-2</v>
       </c>
@@ -41962,7 +41962,7 @@
       <c r="C731" s="18">
         <v>3.82</v>
       </c>
-      <c r="D731" s="158">
+      <c r="D731" s="139">
         <f t="shared" si="20"/>
         <v>-0.19747899159663862</v>
       </c>
@@ -41974,7 +41974,7 @@
       <c r="C732" s="18">
         <v>4.76</v>
       </c>
-      <c r="D732" s="158">
+      <c r="D732" s="139">
         <f t="shared" si="20"/>
         <v>-1.8556701030927769E-2</v>
       </c>
@@ -41986,7 +41986,7 @@
       <c r="C733" s="18">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D733" s="158">
+      <c r="D733" s="139">
         <f t="shared" si="20"/>
         <v>2.1052631578947212E-2</v>
       </c>
@@ -41998,7 +41998,7 @@
       <c r="C734" s="18">
         <v>4.75</v>
       </c>
-      <c r="D734" s="158">
+      <c r="D734" s="139">
         <f t="shared" si="20"/>
         <v>-0.13162705667276042</v>
       </c>
@@ -42010,7 +42010,7 @@
       <c r="C735" s="18">
         <v>5.47</v>
       </c>
-      <c r="D735" s="158">
+      <c r="D735" s="139">
         <f t="shared" si="20"/>
         <v>0.17381974248927023</v>
       </c>
@@ -42022,7 +42022,7 @@
       <c r="C736" s="18">
         <v>4.66</v>
       </c>
-      <c r="D736" s="158">
+      <c r="D736" s="139">
         <f t="shared" si="20"/>
         <v>-4.3121149897330624E-2</v>
       </c>
@@ -42034,7 +42034,7 @@
       <c r="C737" s="18">
         <v>4.87</v>
       </c>
-      <c r="D737" s="158">
+      <c r="D737" s="139">
         <f t="shared" si="20"/>
         <v>7.0329670329670302E-2</v>
       </c>
@@ -42046,7 +42046,7 @@
       <c r="C738" s="18">
         <v>4.55</v>
       </c>
-      <c r="D738" s="158">
+      <c r="D738" s="139">
         <f t="shared" si="20"/>
         <v>1.7897091722595126E-2</v>
       </c>
@@ -42058,7 +42058,7 @@
       <c r="C739" s="18">
         <v>4.47</v>
       </c>
-      <c r="D739" s="158">
+      <c r="D739" s="139">
         <f t="shared" si="20"/>
         <v>2.0547945205479312E-2</v>
       </c>
@@ -42070,7 +42070,7 @@
       <c r="C740" s="18">
         <v>4.38</v>
       </c>
-      <c r="D740" s="158">
+      <c r="D740" s="139">
         <f t="shared" si="20"/>
         <v>8.4158415841584233E-2</v>
       </c>
@@ -42082,7 +42082,7 @@
       <c r="C741" s="18">
         <v>4.04</v>
       </c>
-      <c r="D741" s="158">
+      <c r="D741" s="139">
         <f t="shared" si="20"/>
         <v>6.5963060686015762E-2</v>
       </c>
@@ -42094,7 +42094,7 @@
       <c r="C742" s="18">
         <v>3.79</v>
       </c>
-      <c r="D742" s="158">
+      <c r="D742" s="139">
         <f t="shared" si="20"/>
         <v>1.3368983957219305E-2</v>
       </c>
@@ -42106,7 +42106,7 @@
       <c r="C743" s="18">
         <v>3.74</v>
       </c>
-      <c r="D743" s="158">
+      <c r="D743" s="139">
         <f t="shared" si="20"/>
         <v>6.25E-2</v>
       </c>
@@ -42118,7 +42118,7 @@
       <c r="C744" s="18">
         <v>3.52</v>
       </c>
-      <c r="D744" s="158">
+      <c r="D744" s="139">
         <f t="shared" si="20"/>
         <v>-1.4005602240896309E-2</v>
       </c>
@@ -42130,7 +42130,7 @@
       <c r="C745" s="18">
         <v>3.57</v>
       </c>
-      <c r="D745" s="158">
+      <c r="D745" s="139">
         <f t="shared" si="20"/>
         <v>1.4204545454545414E-2</v>
       </c>
@@ -42142,7 +42142,7 @@
       <c r="C746" s="18">
         <v>3.52</v>
       </c>
-      <c r="D746" s="158">
+      <c r="D746" s="139">
         <f t="shared" si="20"/>
         <v>-6.1333333333333351E-2</v>
       </c>
@@ -42154,7 +42154,7 @@
       <c r="C747" s="18">
         <v>3.75</v>
       </c>
-      <c r="D747" s="158">
+      <c r="D747" s="139">
         <f t="shared" si="20"/>
         <v>-8.9805825242718518E-2</v>
       </c>
@@ -42166,7 +42166,7 @@
       <c r="C748" s="18">
         <v>4.12</v>
       </c>
-      <c r="D748" s="158">
+      <c r="D748" s="139">
         <f t="shared" si="20"/>
         <v>0.22619047619047628</v>
       </c>
@@ -42178,7 +42178,7 @@
       <c r="C749" s="18">
         <v>3.36</v>
       </c>
-      <c r="D749" s="158">
+      <c r="D749" s="139">
         <f t="shared" si="20"/>
         <v>-2.0408163265306256E-2</v>
       </c>
@@ -42190,7 +42190,7 @@
       <c r="C750" s="18">
         <v>3.43</v>
       </c>
-      <c r="D750" s="158">
+      <c r="D750" s="139">
         <f t="shared" si="20"/>
         <v>-5.509641873278226E-2</v>
       </c>
@@ -42202,7 +42202,7 @@
       <c r="C751" s="18">
         <v>3.63</v>
       </c>
-      <c r="D751" s="158">
+      <c r="D751" s="139">
         <f t="shared" si="20"/>
         <v>-3.2000000000000028E-2</v>
       </c>
@@ -42214,7 +42214,7 @@
       <c r="C752" s="18">
         <v>3.75</v>
       </c>
-      <c r="D752" s="158">
+      <c r="D752" s="139">
         <f t="shared" si="20"/>
         <v>-0.12177985948477743</v>
       </c>
@@ -42226,7 +42226,7 @@
       <c r="C753" s="18">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D753" s="158">
+      <c r="D753" s="139">
         <f t="shared" si="20"/>
         <v>3.6407766990291135E-2</v>
       </c>
@@ -42238,7 +42238,7 @@
       <c r="C754" s="18">
         <v>4.12</v>
       </c>
-      <c r="D754" s="158">
+      <c r="D754" s="139">
         <f t="shared" si="20"/>
         <v>-6.3636363636363713E-2</v>
       </c>
@@ -42250,7 +42250,7 @@
       <c r="C755" s="18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D755" s="158">
+      <c r="D755" s="139">
         <f t="shared" si="20"/>
         <v>2.277904328018332E-3</v>
       </c>
@@ -42262,7 +42262,7 @@
       <c r="C756" s="18">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D756" s="158">
+      <c r="D756" s="139">
         <f t="shared" si="20"/>
         <v>-0.1306930693069307</v>
       </c>
@@ -42274,7 +42274,7 @@
       <c r="C757" s="18">
         <v>5.05</v>
       </c>
-      <c r="D757" s="158">
+      <c r="D757" s="139">
         <f t="shared" si="20"/>
         <v>1.8145161290322509E-2</v>
       </c>
@@ -42286,7 +42286,7 @@
       <c r="C758" s="18">
         <v>4.96</v>
       </c>
-      <c r="D758" s="158">
+      <c r="D758" s="139">
         <f t="shared" si="20"/>
         <v>-0.10469314079422387</v>
       </c>
@@ -42298,7 +42298,7 @@
       <c r="C759" s="18">
         <v>5.54</v>
       </c>
-      <c r="D759" s="158">
+      <c r="D759" s="139">
         <f t="shared" si="20"/>
         <v>-8.5808580858085737E-2</v>
       </c>
@@ -42310,7 +42310,7 @@
       <c r="C760" s="18">
         <v>6.06</v>
       </c>
-      <c r="D760" s="158">
+      <c r="D760" s="139">
         <f t="shared" si="20"/>
         <v>-0.15598885793871864</v>
       </c>
@@ -42322,7 +42322,7 @@
       <c r="C761" s="18">
         <v>7.18</v>
       </c>
-      <c r="D761" s="158">
+      <c r="D761" s="139">
         <f t="shared" si="20"/>
         <v>0.106317411402157</v>
       </c>
@@ -42334,7 +42334,7 @@
       <c r="C762" s="18">
         <v>6.49</v>
       </c>
-      <c r="D762" s="158">
+      <c r="D762" s="139">
         <f t="shared" si="20"/>
         <v>-0.12533692722371959</v>
       </c>
@@ -42346,7 +42346,7 @@
       <c r="C763" s="18">
         <v>7.42</v>
       </c>
-      <c r="D763" s="158">
+      <c r="D763" s="139">
         <f t="shared" si="20"/>
         <v>5.8487874465049883E-2</v>
       </c>
@@ -42358,7 +42358,7 @@
       <c r="C764" s="18">
         <v>7.01</v>
       </c>
-      <c r="D764" s="158">
+      <c r="D764" s="139">
         <f t="shared" si="20"/>
         <v>5.7388809182210565E-3</v>
       </c>
@@ -42370,7 +42370,7 @@
       <c r="C765" s="18">
         <v>6.97</v>
       </c>
-      <c r="D765" s="158">
+      <c r="D765" s="139">
         <f t="shared" si="20"/>
         <v>8.5669781931464239E-2</v>
       </c>
@@ -42382,7 +42382,7 @@
       <c r="C766" s="18">
         <v>6.42</v>
       </c>
-      <c r="D766" s="158">
+      <c r="D766" s="139">
         <f t="shared" si="20"/>
         <v>-1.0785824345146411E-2</v>
       </c>
@@ -42394,7 +42394,7 @@
       <c r="C767" s="18">
         <v>6.49</v>
       </c>
-      <c r="D767" s="158">
+      <c r="D767" s="139">
         <f t="shared" si="20"/>
         <v>0.10940170940170946</v>
       </c>
@@ -42406,7 +42406,7 @@
       <c r="C768" s="18">
         <v>5.85</v>
       </c>
-      <c r="D768" s="158">
+      <c r="D768" s="139">
         <f t="shared" si="20"/>
         <v>7.9335793357933504E-2</v>
       </c>
@@ -42418,7 +42418,7 @@
       <c r="C769" s="18">
         <v>5.42</v>
       </c>
-      <c r="D769" s="158">
+      <c r="D769" s="139">
         <f t="shared" si="20"/>
         <v>5.5658627087198376E-3</v>
       </c>
@@ -42430,7 +42430,7 @@
       <c r="C770" s="18">
         <v>5.39</v>
       </c>
-      <c r="D770" s="158">
+      <c r="D770" s="139">
         <f t="shared" si="20"/>
         <v>-3.0575539568345356E-2</v>
       </c>
@@ -42442,7 +42442,7 @@
       <c r="C771" s="18">
         <v>5.56</v>
       </c>
-      <c r="D771" s="158">
+      <c r="D771" s="139">
         <f t="shared" ref="D771:D834" si="21">C771/C772-1</f>
         <v>4.7080979284369162E-2</v>
       </c>
@@ -42454,7 +42454,7 @@
       <c r="C772" s="18">
         <v>5.31</v>
       </c>
-      <c r="D772" s="158">
+      <c r="D772" s="139">
         <f t="shared" si="21"/>
         <v>8.1466395112016254E-2</v>
       </c>
@@ -42466,7 +42466,7 @@
       <c r="C773" s="18">
         <v>4.91</v>
       </c>
-      <c r="D773" s="158">
+      <c r="D773" s="139">
         <f t="shared" si="21"/>
         <v>0.15801886792452824</v>
       </c>
@@ -42478,7 +42478,7 @@
       <c r="C774" s="18">
         <v>4.24</v>
       </c>
-      <c r="D774" s="158">
+      <c r="D774" s="139">
         <f t="shared" si="21"/>
         <v>-6.8131868131868001E-2</v>
       </c>
@@ -42490,7 +42490,7 @@
       <c r="C775" s="18">
         <v>4.55</v>
       </c>
-      <c r="D775" s="158">
+      <c r="D775" s="139">
         <f t="shared" si="21"/>
         <v>-2.777777777777779E-2</v>
       </c>
@@ -42502,7 +42502,7 @@
       <c r="C776" s="18">
         <v>4.68</v>
       </c>
-      <c r="D776" s="158">
+      <c r="D776" s="139">
         <f t="shared" si="21"/>
         <v>-0.12030075187969935</v>
       </c>
@@ -42514,7 +42514,7 @@
       <c r="C777" s="18">
         <v>5.32</v>
       </c>
-      <c r="D777" s="158">
+      <c r="D777" s="139">
         <f t="shared" si="21"/>
         <v>7.4747474747474785E-2</v>
       </c>
@@ -42526,7 +42526,7 @@
       <c r="C778" s="18">
         <v>4.95</v>
       </c>
-      <c r="D778" s="158">
+      <c r="D778" s="139">
         <f t="shared" si="21"/>
         <v>-0.14507772020725385</v>
       </c>
@@ -42538,7 +42538,7 @@
       <c r="C779" s="18">
         <v>5.79</v>
       </c>
-      <c r="D779" s="158">
+      <c r="D779" s="139">
         <f t="shared" si="21"/>
         <v>-3.8205980066445155E-2</v>
       </c>
@@ -42550,7 +42550,7 @@
       <c r="C780" s="18">
         <v>6.02</v>
       </c>
-      <c r="D780" s="158">
+      <c r="D780" s="139">
         <f t="shared" si="21"/>
         <v>7.6923076923076872E-2</v>
       </c>
@@ -42562,7 +42562,7 @@
       <c r="C781" s="18">
         <v>5.59</v>
       </c>
-      <c r="D781" s="158">
+      <c r="D781" s="139">
         <f t="shared" si="21"/>
         <v>2.3809523809523725E-2</v>
       </c>
@@ -42574,7 +42574,7 @@
       <c r="C782" s="18">
         <v>5.46</v>
       </c>
-      <c r="D782" s="158">
+      <c r="D782" s="139">
         <f t="shared" si="21"/>
         <v>-8.9999999999999969E-2</v>
       </c>
@@ -42586,7 +42586,7 @@
       <c r="C783" s="18">
         <v>6</v>
       </c>
-      <c r="D783" s="158">
+      <c r="D783" s="139">
         <f t="shared" si="21"/>
         <v>0.19999999999999996</v>
       </c>
@@ -42598,7 +42598,7 @@
       <c r="C784" s="18">
         <v>5</v>
       </c>
-      <c r="D784" s="158">
+      <c r="D784" s="139">
         <f t="shared" si="21"/>
         <v>2.4590163934426146E-2</v>
       </c>
@@ -42610,7 +42610,7 @@
       <c r="C785" s="18">
         <v>4.88</v>
       </c>
-      <c r="D785" s="158">
+      <c r="D785" s="139">
         <f t="shared" si="21"/>
         <v>7.7262693156732842E-2</v>
       </c>
@@ -42622,7 +42622,7 @@
       <c r="C786" s="18">
         <v>4.53</v>
       </c>
-      <c r="D786" s="158">
+      <c r="D786" s="139">
         <f t="shared" si="21"/>
         <v>-6.0165975103734448E-2</v>
       </c>
@@ -42634,7 +42634,7 @@
       <c r="C787" s="18">
         <v>4.82</v>
       </c>
-      <c r="D787" s="158">
+      <c r="D787" s="139">
         <f t="shared" si="21"/>
         <v>5.2401746724890952E-2</v>
       </c>
@@ -42646,7 +42646,7 @@
       <c r="C788" s="18">
         <v>4.58</v>
       </c>
-      <c r="D788" s="158">
+      <c r="D788" s="139">
         <f t="shared" si="21"/>
         <v>0.32369942196531798</v>
       </c>
@@ -42658,7 +42658,7 @@
       <c r="C789" s="18">
         <v>3.46</v>
       </c>
-      <c r="D789" s="158">
+      <c r="D789" s="139">
         <f t="shared" si="21"/>
         <v>9.8412698412698507E-2</v>
       </c>
@@ -42670,7 +42670,7 @@
       <c r="C790" s="18">
         <v>3.15</v>
       </c>
-      <c r="D790" s="158">
+      <c r="D790" s="139">
         <f t="shared" si="21"/>
         <v>-2.7777777777777901E-2</v>
       </c>
@@ -42682,7 +42682,7 @@
       <c r="C791" s="18">
         <v>3.24</v>
       </c>
-      <c r="D791" s="158">
+      <c r="D791" s="139">
         <f t="shared" si="21"/>
         <v>0.23193916349809895</v>
       </c>
@@ -42694,7 +42694,7 @@
       <c r="C792" s="18">
         <v>2.63</v>
       </c>
-      <c r="D792" s="158">
+      <c r="D792" s="139">
         <f t="shared" si="21"/>
         <v>-7.067137809187285E-2</v>
       </c>
@@ -42706,7 +42706,7 @@
       <c r="C793" s="18">
         <v>2.83</v>
       </c>
-      <c r="D793" s="158">
+      <c r="D793" s="139">
         <f t="shared" si="21"/>
         <v>0.15040650406504064</v>
       </c>
@@ -42718,7 +42718,7 @@
       <c r="C794" s="18">
         <v>2.46</v>
       </c>
-      <c r="D794" s="158">
+      <c r="D794" s="139">
         <f t="shared" si="21"/>
         <v>-1.2048192771084487E-2</v>
       </c>
@@ -42730,7 +42730,7 @@
       <c r="C795" s="18">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D795" s="158">
+      <c r="D795" s="139">
         <f t="shared" si="21"/>
         <v>-0.15593220338983049</v>
       </c>
@@ -42742,7 +42742,7 @@
       <c r="C796" s="18">
         <v>2.95</v>
       </c>
-      <c r="D796" s="158">
+      <c r="D796" s="139">
         <f t="shared" si="21"/>
         <v>5.7347670250896154E-2</v>
       </c>
@@ -42754,7 +42754,7 @@
       <c r="C797" s="18">
         <v>2.79</v>
       </c>
-      <c r="D797" s="158">
+      <c r="D797" s="139">
         <f t="shared" si="21"/>
         <v>-7.9207920792079167E-2</v>
       </c>
@@ -42766,7 +42766,7 @@
       <c r="C798" s="18">
         <v>3.03</v>
       </c>
-      <c r="D798" s="158">
+      <c r="D798" s="139">
         <f t="shared" si="21"/>
         <v>-0.12173913043478268</v>
       </c>
@@ -42778,7 +42778,7 @@
       <c r="C799" s="18">
         <v>3.45</v>
       </c>
-      <c r="D799" s="158">
+      <c r="D799" s="139">
         <f t="shared" si="21"/>
         <v>-7.999999999999996E-2</v>
       </c>
@@ -42790,7 +42790,7 @@
       <c r="C800" s="18">
         <v>3.75</v>
       </c>
-      <c r="D800" s="158">
+      <c r="D800" s="139">
         <f t="shared" si="21"/>
         <v>7.7586206896551824E-2</v>
       </c>
@@ -42802,7 +42802,7 @@
       <c r="C801" s="18">
         <v>3.48</v>
       </c>
-      <c r="D801" s="158">
+      <c r="D801" s="139">
         <f t="shared" si="21"/>
         <v>0.13355048859934859</v>
       </c>
@@ -42814,7 +42814,7 @@
       <c r="C802" s="18">
         <v>3.07</v>
       </c>
-      <c r="D802" s="158">
+      <c r="D802" s="139">
         <f t="shared" si="21"/>
         <v>-0.16802168021680219</v>
       </c>
@@ -42826,7 +42826,7 @@
       <c r="C803" s="18">
         <v>3.69</v>
       </c>
-      <c r="D803" s="158">
+      <c r="D803" s="139">
         <f t="shared" si="21"/>
         <v>0.33212996389891702</v>
       </c>
@@ -42838,7 +42838,7 @@
       <c r="C804" s="18">
         <v>2.77</v>
       </c>
-      <c r="D804" s="158">
+      <c r="D804" s="139">
         <f t="shared" si="21"/>
         <v>-0.13437500000000002</v>
       </c>
@@ -42850,7 +42850,7 @@
       <c r="C805" s="18">
         <v>3.2</v>
       </c>
-      <c r="D805" s="158">
+      <c r="D805" s="139">
         <f t="shared" si="21"/>
         <v>6.2893081761006275E-3</v>
       </c>
@@ -42862,7 +42862,7 @@
       <c r="C806" s="18">
         <v>3.18</v>
       </c>
-      <c r="D806" s="158">
+      <c r="D806" s="139">
         <f t="shared" si="21"/>
         <v>0.20000000000000018</v>
       </c>
@@ -42874,7 +42874,7 @@
       <c r="C807" s="18">
         <v>2.65</v>
       </c>
-      <c r="D807" s="158">
+      <c r="D807" s="139">
         <f t="shared" si="21"/>
         <v>-0.24929178470254953</v>
       </c>
@@ -42886,7 +42886,7 @@
       <c r="C808" s="18">
         <v>3.53</v>
       </c>
-      <c r="D808" s="158">
+      <c r="D808" s="139">
         <f t="shared" si="21"/>
         <v>-7.8328981723237656E-2</v>
       </c>
@@ -42898,7 +42898,7 @@
       <c r="C809" s="18">
         <v>3.83</v>
       </c>
-      <c r="D809" s="158">
+      <c r="D809" s="139">
         <f t="shared" si="21"/>
         <v>-6.5853658536585313E-2</v>
       </c>
@@ -42910,7 +42910,7 @@
       <c r="C810" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D810" s="158">
+      <c r="D810" s="139">
         <f t="shared" si="21"/>
         <v>0.28930817610062864</v>
       </c>
@@ -42922,7 +42922,7 @@
       <c r="C811" s="18">
         <v>3.18</v>
       </c>
-      <c r="D811" s="158">
+      <c r="D811" s="139">
         <f t="shared" si="21"/>
         <v>-2.4539877300613355E-2</v>
       </c>
@@ -42934,7 +42934,7 @@
       <c r="C812" s="18">
         <v>3.26</v>
       </c>
-      <c r="D812" s="158">
+      <c r="D812" s="139">
         <f t="shared" si="21"/>
         <v>0.13986013986013979</v>
       </c>
@@ -42946,7 +42946,7 @@
       <c r="C813" s="18">
         <v>2.86</v>
       </c>
-      <c r="D813" s="158">
+      <c r="D813" s="139">
         <f t="shared" si="21"/>
         <v>-0.1090342679127726</v>
       </c>
@@ -42958,7 +42958,7 @@
       <c r="C814" s="18">
         <v>3.21</v>
       </c>
-      <c r="D814" s="158">
+      <c r="D814" s="139">
         <f t="shared" si="21"/>
         <v>-0.21323529411764708</v>
       </c>
@@ -42970,7 +42970,7 @@
       <c r="C815" s="18">
         <v>4.08</v>
       </c>
-      <c r="D815" s="158">
+      <c r="D815" s="139">
         <f t="shared" si="21"/>
         <v>-0.15527950310559002</v>
       </c>
@@ -42982,7 +42982,7 @@
       <c r="C816" s="18">
         <v>4.83</v>
       </c>
-      <c r="D816" s="158">
+      <c r="D816" s="139">
         <f t="shared" si="21"/>
         <v>-9.2105263157894801E-2</v>
       </c>
@@ -42994,7 +42994,7 @@
       <c r="C817" s="18">
         <v>5.32</v>
       </c>
-      <c r="D817" s="158">
+      <c r="D817" s="139">
         <f t="shared" si="21"/>
         <v>-0.13495934959349598</v>
       </c>
@@ -43006,7 +43006,7 @@
       <c r="C818" s="18">
         <v>6.15</v>
       </c>
-      <c r="D818" s="158">
+      <c r="D818" s="139">
         <f t="shared" si="21"/>
         <v>-6.8181818181818121E-2</v>
       </c>
@@ -43018,7 +43018,7 @@
       <c r="C819" s="18">
         <v>6.6</v>
       </c>
-      <c r="D819" s="158">
+      <c r="D819" s="139">
         <f t="shared" si="21"/>
         <v>7.3170731707316916E-2</v>
       </c>
@@ -43030,7 +43030,7 @@
       <c r="C820" s="18">
         <v>6.15</v>
       </c>
-      <c r="D820" s="158">
+      <c r="D820" s="139">
         <f t="shared" si="21"/>
         <v>-0.16440217391304346</v>
       </c>
@@ -43042,7 +43042,7 @@
       <c r="C821" s="18">
         <v>7.36</v>
       </c>
-      <c r="D821" s="158">
+      <c r="D821" s="139">
         <f t="shared" si="21"/>
         <v>0.17948717948717952</v>
       </c>
@@ -43054,7 +43054,7 @@
       <c r="C822" s="18">
         <v>6.24</v>
       </c>
-      <c r="D822" s="158">
+      <c r="D822" s="139">
         <f t="shared" si="21"/>
         <v>6.8493150684931559E-2</v>
       </c>
@@ -43066,7 +43066,7 @@
       <c r="C823" s="18">
         <v>5.84</v>
       </c>
-      <c r="D823" s="158">
+      <c r="D823" s="139">
         <f t="shared" si="21"/>
         <v>-0.14494875549048314</v>
       </c>
@@ -43078,7 +43078,7 @@
       <c r="C824" s="18">
         <v>6.83</v>
       </c>
-      <c r="D824" s="158">
+      <c r="D824" s="139">
         <f t="shared" si="21"/>
         <v>2.7067669172932352E-2</v>
       </c>
@@ -43090,7 +43090,7 @@
       <c r="C825" s="18">
         <v>6.65</v>
       </c>
-      <c r="D825" s="158">
+      <c r="D825" s="139">
         <f t="shared" si="21"/>
         <v>-6.3380281690140761E-2</v>
       </c>
@@ -43102,7 +43102,7 @@
       <c r="C826" s="18">
         <v>7.1</v>
       </c>
-      <c r="D826" s="158">
+      <c r="D826" s="139">
         <f t="shared" si="21"/>
         <v>-9.3231162196679485E-2</v>
       </c>
@@ -43114,7 +43114,7 @@
       <c r="C827" s="18">
         <v>7.83</v>
       </c>
-      <c r="D827" s="158">
+      <c r="D827" s="139">
         <f t="shared" si="21"/>
         <v>-0.16346153846153844</v>
       </c>
@@ -43126,7 +43126,7 @@
       <c r="C828" s="18">
         <v>9.36</v>
       </c>
-      <c r="D828" s="158">
+      <c r="D828" s="139">
         <f t="shared" si="21"/>
         <v>1.4084507042253502E-2</v>
       </c>
@@ -43138,7 +43138,7 @@
       <c r="C829" s="18">
         <v>9.23</v>
       </c>
-      <c r="D829" s="158">
+      <c r="D829" s="139">
         <f t="shared" si="21"/>
         <v>-0.11590038314176232</v>
       </c>
@@ -43150,7 +43150,7 @@
       <c r="C830" s="18">
         <v>10.44</v>
       </c>
-      <c r="D830" s="158">
+      <c r="D830" s="139">
         <f t="shared" si="21"/>
         <v>-1.6949152542372836E-2</v>
       </c>
@@ -43162,7 +43162,7 @@
       <c r="C831" s="18">
         <v>10.62</v>
       </c>
-      <c r="D831" s="158">
+      <c r="D831" s="139">
         <f t="shared" si="21"/>
         <v>-0.10681244743481932</v>
       </c>
@@ -43174,7 +43174,7 @@
       <c r="C832" s="18">
         <v>11.89</v>
       </c>
-      <c r="D832" s="158">
+      <c r="D832" s="139">
         <f t="shared" si="21"/>
         <v>-3.9579967689822304E-2</v>
       </c>
@@ -43186,7 +43186,7 @@
       <c r="C833" s="18">
         <v>12.38</v>
       </c>
-      <c r="D833" s="158">
+      <c r="D833" s="139">
         <f t="shared" si="21"/>
         <v>-5.5682684973302754E-2</v>
       </c>
@@ -43198,7 +43198,7 @@
       <c r="C834" s="18">
         <v>13.11</v>
       </c>
-      <c r="D834" s="158">
+      <c r="D834" s="139">
         <f t="shared" si="21"/>
         <v>-9.0846047156726839E-2</v>
       </c>
@@ -43210,7 +43210,7 @@
       <c r="C835" s="18">
         <v>14.42</v>
       </c>
-      <c r="D835" s="158">
+      <c r="D835" s="139">
         <f t="shared" ref="D835:D898" si="22">C835/C836-1</f>
         <v>7.3715562174236693E-2</v>
       </c>
@@ -43222,7 +43222,7 @@
       <c r="C836" s="18">
         <v>13.43</v>
       </c>
-      <c r="D836" s="158">
+      <c r="D836" s="139">
         <f t="shared" si="22"/>
         <v>-3.3812949640287804E-2</v>
       </c>
@@ -43234,7 +43234,7 @@
       <c r="C837" s="18">
         <v>13.9</v>
       </c>
-      <c r="D837" s="158">
+      <c r="D837" s="139">
         <f t="shared" si="22"/>
         <v>8.255451713395634E-2</v>
       </c>
@@ -43246,7 +43246,7 @@
       <c r="C838" s="18">
         <v>12.84</v>
       </c>
-      <c r="D838" s="158">
+      <c r="D838" s="139">
         <f t="shared" si="22"/>
         <v>-8.494208494208455E-3</v>
       </c>
@@ -43258,7 +43258,7 @@
       <c r="C839" s="18">
         <v>12.95</v>
       </c>
-      <c r="D839" s="158">
+      <c r="D839" s="139">
         <f t="shared" si="22"/>
         <v>8.5669781931463351E-3</v>
       </c>
@@ -43270,7 +43270,7 @@
       <c r="C840" s="18">
         <v>12.84</v>
       </c>
-      <c r="D840" s="158">
+      <c r="D840" s="139">
         <f t="shared" si="22"/>
         <v>8.3544303797468356E-2</v>
       </c>
@@ -43282,7 +43282,7 @@
       <c r="C841" s="18">
         <v>11.85</v>
       </c>
-      <c r="D841" s="158">
+      <c r="D841" s="139">
         <f t="shared" si="22"/>
         <v>1.6906170752324368E-3</v>
       </c>
@@ -43294,7 +43294,7 @@
       <c r="C842" s="18">
         <v>11.83</v>
       </c>
-      <c r="D842" s="158">
+      <c r="D842" s="139">
         <f t="shared" si="22"/>
         <v>9.385665529010101E-3</v>
       </c>
@@ -43306,7 +43306,7 @@
       <c r="C843" s="18">
         <v>11.72</v>
       </c>
-      <c r="D843" s="158">
+      <c r="D843" s="139">
         <f t="shared" si="22"/>
         <v>6.0085836909871126E-3</v>
       </c>
@@ -43318,7 +43318,7 @@
       <c r="C844" s="18">
         <v>11.65</v>
       </c>
-      <c r="D844" s="158">
+      <c r="D844" s="139">
         <f t="shared" si="22"/>
         <v>-3.7190082644628086E-2</v>
       </c>
@@ -43330,7 +43330,7 @@
       <c r="C845" s="18">
         <v>12.1</v>
       </c>
-      <c r="D845" s="158">
+      <c r="D845" s="139">
         <f t="shared" si="22"/>
         <v>-3.2773780975219879E-2</v>
       </c>
@@ -43342,7 +43342,7 @@
       <c r="C846" s="18">
         <v>12.51</v>
       </c>
-      <c r="D846" s="158">
+      <c r="D846" s="139">
         <f t="shared" si="22"/>
         <v>4.7738693467336724E-2</v>
       </c>
@@ -43354,7 +43354,7 @@
       <c r="C847" s="18">
         <v>11.94</v>
       </c>
-      <c r="D847" s="158">
+      <c r="D847" s="139">
         <f t="shared" si="22"/>
         <v>9.9447513812154664E-2</v>
       </c>
@@ -43366,7 +43366,7 @@
       <c r="C848" s="18">
         <v>10.86</v>
       </c>
-      <c r="D848" s="158">
+      <c r="D848" s="139">
         <f t="shared" si="22"/>
         <v>-0.12277867528271413</v>
       </c>
@@ -43378,7 +43378,7 @@
       <c r="C849" s="18">
         <v>12.38</v>
       </c>
-      <c r="D849" s="158">
+      <c r="D849" s="139">
         <f t="shared" si="22"/>
         <v>6.8162208800690349E-2</v>
       </c>
@@ -43390,7 +43390,7 @@
       <c r="C850" s="18">
         <v>11.59</v>
       </c>
-      <c r="D850" s="158">
+      <c r="D850" s="139">
         <f t="shared" si="22"/>
         <v>0.21743697478991608</v>
       </c>
@@ -43402,7 +43402,7 @@
       <c r="C851" s="18">
         <v>9.52</v>
       </c>
-      <c r="D851" s="158">
+      <c r="D851" s="139">
         <f t="shared" si="22"/>
         <v>-4.3216080402009971E-2</v>
       </c>
@@ -43414,7 +43414,7 @@
       <c r="C852" s="18">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D852" s="158">
+      <c r="D852" s="139">
         <f t="shared" si="22"/>
         <v>-8.7992667277726921E-2</v>
       </c>
@@ -43426,7 +43426,7 @@
       <c r="C853" s="18">
         <v>10.91</v>
       </c>
-      <c r="D853" s="158">
+      <c r="D853" s="139">
         <f t="shared" si="22"/>
         <v>-7.385398981324276E-2</v>
       </c>
@@ -43438,7 +43438,7 @@
       <c r="C854" s="18">
         <v>11.78</v>
       </c>
-      <c r="D854" s="158">
+      <c r="D854" s="139">
         <f t="shared" si="22"/>
         <v>-3.2046014790468424E-2</v>
       </c>
@@ -43450,7 +43450,7 @@
       <c r="C855" s="18">
         <v>12.17</v>
       </c>
-      <c r="D855" s="158">
+      <c r="D855" s="139">
         <f t="shared" si="22"/>
         <v>3.7510656436487544E-2</v>
       </c>
@@ -43462,7 +43462,7 @@
       <c r="C856" s="18">
         <v>11.73</v>
       </c>
-      <c r="D856" s="158">
+      <c r="D856" s="139">
         <f t="shared" si="22"/>
         <v>-9.210526315789469E-2</v>
       </c>
@@ -43474,7 +43474,7 @@
       <c r="C857" s="18">
         <v>12.92</v>
       </c>
-      <c r="D857" s="158">
+      <c r="D857" s="139">
         <f t="shared" si="22"/>
         <v>-0.10835058661145625</v>
       </c>
@@ -43486,7 +43486,7 @@
       <c r="C858" s="18">
         <v>14.49</v>
       </c>
-      <c r="D858" s="158">
+      <c r="D858" s="139">
         <f t="shared" si="22"/>
         <v>0.1171935235158057</v>
       </c>
@@ -43498,7 +43498,7 @@
       <c r="C859" s="18">
         <v>12.97</v>
       </c>
-      <c r="D859" s="158">
+      <c r="D859" s="139">
         <f t="shared" si="22"/>
         <v>-0.1347565043362241</v>
       </c>
@@ -43510,7 +43510,7 @@
       <c r="C860" s="18">
         <v>14.99</v>
       </c>
-      <c r="D860" s="158">
+      <c r="D860" s="139">
         <f t="shared" si="22"/>
         <v>8.3875632682574031E-2</v>
       </c>
@@ -43522,7 +43522,7 @@
       <c r="C861" s="18">
         <v>13.83</v>
       </c>
-      <c r="D861" s="158">
+      <c r="D861" s="139">
         <f t="shared" si="22"/>
         <v>-4.6864231564438308E-2</v>
       </c>
@@ -43534,7 +43534,7 @@
       <c r="C862" s="18">
         <v>14.51</v>
       </c>
-      <c r="D862" s="158">
+      <c r="D862" s="139">
         <f t="shared" si="22"/>
         <v>-4.9770792403405317E-2</v>
       </c>
@@ -43546,7 +43546,7 @@
       <c r="C863" s="18">
         <v>15.27</v>
       </c>
-      <c r="D863" s="158">
+      <c r="D863" s="139">
         <f t="shared" si="22"/>
         <v>-9.3230403800475092E-2</v>
       </c>
@@ -43558,7 +43558,7 @@
       <c r="C864" s="18">
         <v>16.84</v>
       </c>
-      <c r="D864" s="158">
+      <c r="D864" s="139">
         <f t="shared" si="22"/>
         <v>-8.726292209957065E-2</v>
       </c>
@@ -43570,7 +43570,7 @@
       <c r="C865" s="18">
         <v>18.450001</v>
       </c>
-      <c r="D865" s="158">
+      <c r="D865" s="139">
         <f t="shared" si="22"/>
         <v>-8.0644623655914405E-3</v>
       </c>
@@ -43582,7 +43582,7 @@
       <c r="C866" s="18">
         <v>18.600000000000001</v>
       </c>
-      <c r="D866" s="158">
+      <c r="D866" s="139">
         <f t="shared" si="22"/>
         <v>0.12727272727272743</v>
       </c>
@@ -43594,7 +43594,7 @@
       <c r="C867" s="18">
         <v>16.5</v>
       </c>
-      <c r="D867" s="158">
+      <c r="D867" s="139">
         <f t="shared" si="22"/>
         <v>6.3829787234042534E-2</v>
       </c>
@@ -43606,7 +43606,7 @@
       <c r="C868" s="18">
         <v>15.51</v>
       </c>
-      <c r="D868" s="158">
+      <c r="D868" s="139">
         <f t="shared" si="22"/>
         <v>2.1066491112573971E-2</v>
       </c>
@@ -43618,7 +43618,7 @@
       <c r="C869" s="18">
         <v>15.19</v>
       </c>
-      <c r="D869" s="158">
+      <c r="D869" s="139">
         <f t="shared" si="22"/>
         <v>0.11119239209948795</v>
       </c>
@@ -43630,7 +43630,7 @@
       <c r="C870" s="18">
         <v>13.67</v>
       </c>
-      <c r="D870" s="158">
+      <c r="D870" s="139">
         <f t="shared" si="22"/>
         <v>4.9117421335379996E-2</v>
       </c>
@@ -43642,7 +43642,7 @@
       <c r="C871" s="18">
         <v>13.03</v>
       </c>
-      <c r="D871" s="158">
+      <c r="D871" s="139">
         <f t="shared" si="22"/>
         <v>4.6260601387817513E-3</v>
       </c>
@@ -43654,7 +43654,7 @@
       <c r="C872" s="18">
         <v>12.97</v>
       </c>
-      <c r="D872" s="158">
+      <c r="D872" s="139">
         <f t="shared" si="22"/>
         <v>0.12979094076655051</v>
       </c>
@@ -43666,7 +43666,7 @@
       <c r="C873" s="18">
         <v>11.48</v>
       </c>
-      <c r="D873" s="158">
+      <c r="D873" s="139">
         <f t="shared" si="22"/>
         <v>-0.13489073097211746</v>
       </c>
@@ -43678,7 +43678,7 @@
       <c r="C874" s="18">
         <v>13.27</v>
       </c>
-      <c r="D874" s="158">
+      <c r="D874" s="139">
         <f t="shared" si="22"/>
         <v>3.7529319781079096E-2</v>
       </c>
@@ -43690,7 +43690,7 @@
       <c r="C875" s="18">
         <v>12.79</v>
       </c>
-      <c r="D875" s="158">
+      <c r="D875" s="139">
         <f t="shared" si="22"/>
         <v>4.1530944625407074E-2</v>
       </c>
@@ -43702,7 +43702,7 @@
       <c r="C876" s="18">
         <v>12.28</v>
       </c>
-      <c r="D876" s="158">
+      <c r="D876" s="139">
         <f t="shared" si="22"/>
         <v>-5.5384615384615477E-2</v>
       </c>
@@ -43714,7 +43714,7 @@
       <c r="C877" s="18">
         <v>13</v>
       </c>
-      <c r="D877" s="158">
+      <c r="D877" s="139">
         <f t="shared" si="22"/>
         <v>-6.6091954022988508E-2</v>
       </c>
@@ -43726,7 +43726,7 @@
       <c r="C878" s="18">
         <v>13.92</v>
       </c>
-      <c r="D878" s="158">
+      <c r="D878" s="139">
         <f t="shared" si="22"/>
         <v>1.8288222384784225E-2</v>
       </c>
@@ -43738,7 +43738,7 @@
       <c r="C879" s="18">
         <v>13.67</v>
       </c>
-      <c r="D879" s="158">
+      <c r="D879" s="139">
         <f t="shared" si="22"/>
         <v>8.8375796178343791E-2</v>
       </c>
@@ -43750,7 +43750,7 @@
       <c r="C880" s="18">
         <v>12.56</v>
       </c>
-      <c r="D880" s="158">
+      <c r="D880" s="139">
         <f t="shared" si="22"/>
         <v>8.7445887445887438E-2</v>
       </c>
@@ -43762,7 +43762,7 @@
       <c r="C881" s="18">
         <v>11.55</v>
       </c>
-      <c r="D881" s="158">
+      <c r="D881" s="139">
         <f t="shared" si="22"/>
         <v>-8.4786053882725754E-2</v>
       </c>
@@ -43774,7 +43774,7 @@
       <c r="C882" s="18">
         <v>12.62</v>
       </c>
-      <c r="D882" s="158">
+      <c r="D882" s="139">
         <f t="shared" si="22"/>
         <v>-4.8265460030165963E-2</v>
       </c>
@@ -43786,7 +43786,7 @@
       <c r="C883" s="18">
         <v>13.26</v>
       </c>
-      <c r="D883" s="158">
+      <c r="D883" s="139">
         <f t="shared" si="22"/>
         <v>-5.2857142857142825E-2</v>
       </c>
@@ -43798,7 +43798,7 @@
       <c r="C884" s="18">
         <v>14</v>
       </c>
-      <c r="D884" s="158">
+      <c r="D884" s="139">
         <f t="shared" si="22"/>
         <v>3.0169242089771897E-2</v>
       </c>
@@ -43810,7 +43810,7 @@
       <c r="C885" s="18">
         <v>13.59</v>
       </c>
-      <c r="D885" s="158">
+      <c r="D885" s="139">
         <f t="shared" si="22"/>
         <v>-2.9285714285714248E-2</v>
       </c>
@@ -43822,7 +43822,7 @@
       <c r="C886" s="18">
         <v>14</v>
       </c>
-      <c r="D886" s="158">
+      <c r="D886" s="139">
         <f t="shared" si="22"/>
         <v>-0.15509957754978876</v>
       </c>
@@ -43834,7 +43834,7 @@
       <c r="C887" s="18">
         <v>16.57</v>
       </c>
-      <c r="D887" s="158">
+      <c r="D887" s="139">
         <f t="shared" si="22"/>
         <v>-7.1188340807174844E-2</v>
       </c>
@@ -43846,7 +43846,7 @@
       <c r="C888" s="18">
         <v>17.84</v>
       </c>
-      <c r="D888" s="158">
+      <c r="D888" s="139">
         <f t="shared" si="22"/>
         <v>-5.0195203569436408E-3</v>
       </c>
@@ -43858,7 +43858,7 @@
       <c r="C889" s="18">
         <v>17.93</v>
       </c>
-      <c r="D889" s="158">
+      <c r="D889" s="139">
         <f t="shared" si="22"/>
         <v>-5.1824431517715541E-2</v>
       </c>
@@ -43870,7 +43870,7 @@
       <c r="C890" s="18">
         <v>18.91</v>
       </c>
-      <c r="D890" s="158">
+      <c r="D890" s="139">
         <f t="shared" si="22"/>
         <v>0.14121907060953531</v>
       </c>
@@ -43882,7 +43882,7 @@
       <c r="C891" s="18">
         <v>16.57</v>
       </c>
-      <c r="D891" s="158">
+      <c r="D891" s="139">
         <f t="shared" si="22"/>
         <v>1.656447954383311E-2</v>
       </c>
@@ -43894,7 +43894,7 @@
       <c r="C892" s="18">
         <v>16.299999</v>
       </c>
-      <c r="D892" s="158">
+      <c r="D892" s="139">
         <f t="shared" si="22"/>
         <v>9.9132595980953031E-3</v>
       </c>
@@ -43906,7 +43906,7 @@
       <c r="C893" s="18">
         <v>16.139999</v>
       </c>
-      <c r="D893" s="158">
+      <c r="D893" s="139">
         <f t="shared" si="22"/>
         <v>-2.4183916312943476E-2</v>
       </c>
@@ -43918,7 +43918,7 @@
       <c r="C894" s="18">
         <v>16.540001</v>
       </c>
-      <c r="D894" s="158">
+      <c r="D894" s="139">
         <f t="shared" si="22"/>
         <v>6.6408833010960677E-2</v>
       </c>
@@ -43930,7 +43930,7 @@
       <c r="C895" s="18">
         <v>15.51</v>
       </c>
-      <c r="D895" s="158">
+      <c r="D895" s="139">
         <f t="shared" si="22"/>
         <v>-2.8195488721804551E-2</v>
       </c>
@@ -43942,7 +43942,7 @@
       <c r="C896" s="18">
         <v>15.96</v>
       </c>
-      <c r="D896" s="158">
+      <c r="D896" s="139">
         <f t="shared" si="22"/>
         <v>-3.037661180902862E-2</v>
       </c>
@@ -43954,7 +43954,7 @@
       <c r="C897" s="18">
         <v>16.459999</v>
       </c>
-      <c r="D897" s="158">
+      <c r="D897" s="139">
         <f t="shared" si="22"/>
         <v>-0.10543483695652167</v>
       </c>
@@ -43966,7 +43966,7 @@
       <c r="C898" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="D898" s="158">
+      <c r="D898" s="139">
         <f t="shared" si="22"/>
         <v>2.7247956403269047E-3</v>
       </c>
@@ -43978,7 +43978,7 @@
       <c r="C899" s="18">
         <v>18.350000000000001</v>
       </c>
-      <c r="D899" s="158">
+      <c r="D899" s="139">
         <f t="shared" ref="D899:D906" si="23">C899/C900-1</f>
         <v>-1.4500589983856504E-2</v>
       </c>
@@ -43990,7 +43990,7 @@
       <c r="C900" s="18">
         <v>18.620000999999998</v>
       </c>
-      <c r="D900" s="158">
+      <c r="D900" s="139">
         <f t="shared" si="23"/>
         <v>-8.8148824681684723E-2</v>
       </c>
@@ -44002,7 +44002,7 @@
       <c r="C901" s="18">
         <v>20.420000000000002</v>
       </c>
-      <c r="D901" s="158">
+      <c r="D901" s="139">
         <f t="shared" si="23"/>
         <v>1.4713585812340391E-3</v>
       </c>
@@ -44014,7 +44014,7 @@
       <c r="C902" s="18">
         <v>20.389999</v>
       </c>
-      <c r="D902" s="158">
+      <c r="D902" s="139">
         <f t="shared" si="23"/>
         <v>-6.5536251145737912E-2</v>
       </c>
@@ -44026,7 +44026,7 @@
       <c r="C903" s="18">
         <v>21.82</v>
       </c>
-      <c r="D903" s="158">
+      <c r="D903" s="139">
         <f t="shared" si="23"/>
         <v>5.7683037211974542E-2</v>
       </c>
@@ -44038,7 +44038,7 @@
       <c r="C904" s="18">
         <v>20.629999000000002</v>
       </c>
-      <c r="D904" s="158">
+      <c r="D904" s="139">
         <f t="shared" si="23"/>
         <v>-7.2185752060357489E-3</v>
       </c>
@@ -44050,7 +44050,7 @@
       <c r="C905" s="18">
         <v>20.780000999999999</v>
       </c>
-      <c r="D905" s="158">
+      <c r="D905" s="139">
         <f t="shared" si="23"/>
         <v>-2.2577563499529774E-2</v>
       </c>
@@ -44062,7 +44062,7 @@
       <c r="C906" s="18">
         <v>21.26</v>
       </c>
-      <c r="D906" s="158">
+      <c r="D906" s="139">
         <f t="shared" si="23"/>
         <v>8.969759097898522E-2</v>
       </c>

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9E8EA-E1AF-42AF-AC57-231A2102E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C056B-9F6D-4785-8E9A-9E9C44EA5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="45" windowWidth="14340" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="45" windowWidth="14385" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Catalysts!$A$1:$B$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$8</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$36</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$7:$W$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$8:$W$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$35</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$36</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$35:$W$35</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$36:$W$36</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$8</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$35:$W$35</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$36:$W$36</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$7:$W$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$8:$W$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1741,7 +1741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1915,6 +1915,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,24 +1976,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2271,13 +2259,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>474.94499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>296.10700000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>241.83699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>337.08800000000002</c:v>
@@ -2286,10 +2274,10 @@
                   <c:v>716.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>947.93900000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1017.215</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1093.6130000000001</c:v>
@@ -2421,13 +2409,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.50855362199833665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.2013393806968429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.206200870834488</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.2442952582115057</c:v>
@@ -3586,13 +3574,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-183.28400000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-251.45899999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-243.86200000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-250.70500000000007</c:v>
@@ -3601,10 +3589,10 @@
                   <c:v>-81.288000000000096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-23.441000000000027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-16.302999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-156.55200000000008</c:v>
@@ -3736,13 +3724,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.3528029561317626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.30969885885845327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.28131344666035385</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.32584962977026777</c:v>
@@ -3751,10 +3739,10 @@
                   <c:v>0.44329360205448853</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.46665239007995241</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.47571457361521408</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.45402349825761035</c:v>
@@ -11073,18 +11061,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11128,7 +11116,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11148,7 +11136,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11179,18 +11167,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11234,7 +11222,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11254,7 +11242,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16976,7 +16964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -17309,11 +17297,11 @@
       <c r="E17" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="139" t="s">
+      <c r="L17" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="140"/>
-      <c r="N17" s="141"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -17323,9 +17311,9 @@
         <f>C14/C16</f>
         <v>36.555555555555557</v>
       </c>
-      <c r="L18" s="142"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="144"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -17335,9 +17323,9 @@
         <f>C15/C17</f>
         <v>6.384905660377358</v>
       </c>
-      <c r="L19" s="142"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="144"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="148"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -17347,9 +17335,9 @@
         <f>Model!G8/Model!F7-1</f>
         <v>0.30852365421388317</v>
       </c>
-      <c r="L20" s="142"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="144"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="148"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -17359,9 +17347,9 @@
         <f>Model!H8/Model!G8-1</f>
         <v>2.2267206477732726E-2</v>
       </c>
-      <c r="L21" s="142"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="148"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -17371,9 +17359,9 @@
         <f>Model!F21+Model!F16</f>
         <v>118.86799999999999</v>
       </c>
-      <c r="L22" s="142"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="144"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="148"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17383,9 +17371,9 @@
         <f>Model!F21</f>
         <v>-401.858</v>
       </c>
-      <c r="L23" s="142"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="148"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -17395,9 +17383,9 @@
         <f>C12/C23</f>
         <v>-22.490424975986546</v>
       </c>
-      <c r="L24" s="142"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="148"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -17410,9 +17398,9 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="142"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="144"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="148"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="73" t="s">
@@ -17425,9 +17413,9 @@
       <c r="E26" t="s">
         <v>215</v>
       </c>
-      <c r="L26" s="145"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="147"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="150"/>
+      <c r="N26" s="151"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -17613,18 +17601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="M46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="158"/>
     <col min="23" max="23" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -17688,7 +17675,7 @@
       <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="158" t="s">
+      <c r="V2" t="s">
         <v>45</v>
       </c>
       <c r="W2" s="13" t="s">
@@ -17723,18 +17710,28 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="O3" s="10">
+        <v>395.07499999999999</v>
+      </c>
+      <c r="P3" s="10">
+        <v>231.893</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>181.96199999999999</v>
+      </c>
       <c r="R3" s="10">
         <v>267.46800000000002</v>
       </c>
       <c r="S3" s="10">
         <v>599</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="160">
+      <c r="T3" s="10">
+        <v>768.45</v>
+      </c>
+      <c r="U3" s="10">
+        <v>812.08600000000001</v>
+      </c>
+      <c r="V3" s="10">
         <v>897.77599999999995</v>
       </c>
       <c r="W3" s="15">
@@ -17763,18 +17760,28 @@
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="O4" s="10">
+        <v>36.509</v>
+      </c>
+      <c r="P4" s="10">
+        <v>26.792000000000002</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>25.975999999999999</v>
+      </c>
       <c r="R4" s="10">
         <v>27.274999999999999</v>
       </c>
       <c r="S4" s="10">
         <v>58.588000000000001</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="160">
+      <c r="T4" s="10">
+        <v>80.075000000000003</v>
+      </c>
+      <c r="U4" s="10">
+        <v>96.113</v>
+      </c>
+      <c r="V4" s="10">
         <v>103.44799999999999</v>
       </c>
       <c r="W4" s="15">
@@ -17803,18 +17810,28 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="O5" s="10">
+        <v>24.327999999999999</v>
+      </c>
+      <c r="P5" s="10">
+        <v>19.937000000000001</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>17.972999999999999</v>
+      </c>
       <c r="R5" s="10">
         <v>23.28</v>
       </c>
       <c r="S5" s="10">
         <v>36.755000000000003</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="160">
+      <c r="T5" s="10">
+        <v>46.542999999999999</v>
+      </c>
+      <c r="U5" s="10">
+        <v>60.37</v>
+      </c>
+      <c r="V5" s="10">
         <v>65.216999999999999</v>
       </c>
       <c r="W5" s="15">
@@ -17847,9 +17864,15 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="O6" s="10">
+        <v>19.033000000000001</v>
+      </c>
+      <c r="P6" s="10">
+        <v>17.484999999999999</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>15.926</v>
+      </c>
       <c r="R6" s="10">
         <v>19.065000000000001</v>
       </c>
@@ -17857,9 +17880,13 @@
         <f>22.137</f>
         <v>22.137</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="160">
+      <c r="T6" s="10">
+        <v>52.871000000000002</v>
+      </c>
+      <c r="U6" s="10">
+        <v>48.646000000000001</v>
+      </c>
+      <c r="V6" s="10">
         <v>27.172000000000001</v>
       </c>
       <c r="W6" s="15">
@@ -17879,7 +17906,7 @@
       <c r="D7" s="11">
         <v>2012</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="11">
         <f>SUM(E3:E6)</f>
         <v>1349.9469999999999</v>
       </c>
@@ -17906,16 +17933,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="O7" si="1">SUM(O3:O6)</f>
+        <v>474.94499999999999</v>
       </c>
       <c r="P7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>296.10700000000003</v>
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>241.83699999999999</v>
       </c>
       <c r="R7" s="11">
         <f t="shared" si="0"/>
@@ -17926,12 +17953,12 @@
         <v>716.48</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="T7:U7" si="2">SUM(T3:T6)</f>
+        <v>947.93900000000008</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1017.215</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="0"/>
@@ -17965,123 +17992,183 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="160"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
       <c r="W8" s="15"/>
       <c r="X8" s="41"/>
     </row>
-    <row r="9" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="165" t="s">
+    <row r="9" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="165">
+      <c r="C9" s="10">
         <v>2668</v>
       </c>
-      <c r="D9" s="165">
+      <c r="D9" s="10">
         <v>2589</v>
       </c>
-      <c r="E9" s="165">
+      <c r="E9" s="10">
         <v>912.83900000000006</v>
       </c>
-      <c r="F9" s="166">
+      <c r="F9" s="15">
         <v>2034.848</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="R9" s="165">
+      <c r="O9" s="10">
+        <v>307.38299999999998</v>
+      </c>
+      <c r="P9" s="10">
+        <v>204.40299999999999</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>173.80500000000001</v>
+      </c>
+      <c r="R9" s="10">
         <v>227.24799999999999</v>
       </c>
-      <c r="S9" s="165">
+      <c r="S9" s="10">
         <v>398.86900000000003</v>
       </c>
-      <c r="V9" s="167">
+      <c r="T9" s="10">
+        <v>505.58100000000002</v>
+      </c>
+      <c r="U9" s="10">
+        <v>533.31100000000004</v>
+      </c>
+      <c r="V9" s="10">
         <v>597.08699999999999</v>
       </c>
-      <c r="W9" s="166">
+      <c r="W9" s="15">
         <v>609.75099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="165">
+      <c r="E10" s="10">
         <f>46.199</f>
         <v>46.198999999999998</v>
       </c>
-      <c r="F10" s="166">
+      <c r="F10" s="15">
         <v>87.637</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
-      <c r="R10" s="165">
+      <c r="O10" s="10">
+        <v>12.964</v>
+      </c>
+      <c r="P10" s="10">
+        <v>11.23</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>10.863</v>
+      </c>
+      <c r="R10" s="10">
         <v>11.141999999999999</v>
       </c>
-      <c r="S10" s="165">
+      <c r="S10" s="10">
         <v>14.351000000000001</v>
       </c>
-      <c r="V10" s="167">
+      <c r="T10" s="10">
+        <v>19.870999999999999</v>
+      </c>
+      <c r="U10" s="10">
+        <v>25.344999999999999</v>
+      </c>
+      <c r="V10" s="10">
         <v>28.07</v>
       </c>
-      <c r="W10" s="166">
+      <c r="W10" s="15">
         <v>29.251999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165" t="s">
+    <row r="11" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="165">
+      <c r="E11" s="10">
         <f>82</f>
         <v>82</v>
       </c>
-      <c r="F11" s="166">
+      <c r="F11" s="15">
         <v>163.49199999999999</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
-      <c r="R11" s="165">
+      <c r="O11" s="10">
+        <v>23.821000000000002</v>
+      </c>
+      <c r="P11" s="10">
+        <v>19.991</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>17.279</v>
+      </c>
+      <c r="R11" s="10">
         <v>20.908999999999999</v>
       </c>
-      <c r="S11" s="165">
+      <c r="S11" s="10">
         <v>27.513999999999999</v>
       </c>
-      <c r="V11" s="167">
+      <c r="T11" s="10">
+        <v>35.904000000000003</v>
+      </c>
+      <c r="U11" s="10">
+        <v>48.250999999999998</v>
+      </c>
+      <c r="V11" s="10">
         <v>51.823</v>
       </c>
-      <c r="W11" s="166">
+      <c r="W11" s="15">
         <v>54.737000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="165" t="s">
+    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="10">
         <f>22.419</f>
         <v>22.419</v>
       </c>
-      <c r="F12" s="166">
+      <c r="F12" s="15">
         <v>76.703999999999994</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
-      <c r="R12" s="165">
+      <c r="O12" s="10">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="P12" s="10">
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>5.1449999999999996</v>
+      </c>
+      <c r="R12" s="10">
         <v>5.5830000000000002</v>
       </c>
-      <c r="S12" s="165">
+      <c r="S12" s="10">
         <v>6.0259999999999998</v>
       </c>
-      <c r="V12" s="167">
+      <c r="T12" s="10">
+        <v>36.54</v>
+      </c>
+      <c r="U12" s="10">
+        <v>25.77</v>
+      </c>
+      <c r="V12" s="10">
         <v>8.3680000000000003</v>
       </c>
-      <c r="W12" s="166">
+      <c r="W12" s="15">
         <f>16.626</f>
         <v>16.626000000000001</v>
       </c>
@@ -18090,8 +18177,7 @@
       <c r="A13" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159">
+      <c r="E13" s="11">
         <f>SUM(E9:E12)</f>
         <v>1063.4570000000001</v>
       </c>
@@ -18101,6 +18187,18 @@
       </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
+      <c r="O13" s="11">
+        <f>SUM(O9:O12)</f>
+        <v>350.15600000000001</v>
+      </c>
+      <c r="P13" s="11">
+        <f>SUM(P9:P12)</f>
+        <v>241.32699999999997</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>SUM(Q9:Q12)</f>
+        <v>207.09200000000001</v>
+      </c>
       <c r="R13" s="11">
         <f>SUM(R9:R12)</f>
         <v>264.88200000000001</v>
@@ -18109,6 +18207,14 @@
         <f>SUM(S9:S12)</f>
         <v>446.76000000000005</v>
       </c>
+      <c r="T13" s="11">
+        <f>SUM(T9:T12)</f>
+        <v>597.89599999999996</v>
+      </c>
+      <c r="U13" s="11">
+        <f>SUM(U9:U12)</f>
+        <v>632.67700000000002</v>
+      </c>
       <c r="V13" s="11">
         <f>SUM(V9:V12)</f>
         <v>685.34800000000007</v>
@@ -18118,109 +18224,174 @@
         <v>710.36599999999987</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+    <row r="14" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="165">
+      <c r="E14" s="10">
         <v>423.22500000000002</v>
       </c>
-      <c r="F14" s="166">
+      <c r="F14" s="15">
         <v>488.12700000000001</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
-      <c r="R14" s="165">
+      <c r="O14" s="10">
+        <v>101.223</v>
+      </c>
+      <c r="P14" s="10">
+        <v>102.441</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>98.819000000000003</v>
+      </c>
+      <c r="R14" s="10">
         <v>120.742</v>
       </c>
-      <c r="S14" s="165">
+      <c r="S14" s="10">
         <v>110.004</v>
       </c>
-      <c r="V14" s="167">
+      <c r="T14" s="10">
+        <v>118.325</v>
+      </c>
+      <c r="U14" s="10">
+        <v>130.447</v>
+      </c>
+      <c r="V14" s="10">
         <v>129.351</v>
       </c>
-      <c r="W14" s="166">
+      <c r="W14" s="15">
         <v>126.955</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="165" t="s">
+    <row r="15" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="165">
+      <c r="E15" s="10">
         <f>28.894+15.585+32.785+22.662</f>
         <v>99.925999999999988</v>
       </c>
-      <c r="F15" s="166">
+      <c r="F15" s="15">
         <f>42.451+43.944+1.202+22.67</f>
         <v>110.26700000000001</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
-      <c r="R15" s="165">
+      <c r="O15" s="10">
+        <f>7.215+2.355+14.254+5.682</f>
+        <v>29.506</v>
+      </c>
+      <c r="P15" s="10">
+        <f>11.246+3.247+12.834+5.655</f>
+        <v>32.981999999999999</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>8.417+3.313+2.844+5.653</f>
+        <v>20.227</v>
+      </c>
+      <c r="R15" s="10">
         <f>2.016+6.67+2.853+5.672</f>
         <v>17.210999999999999</v>
       </c>
-      <c r="S15" s="165">
+      <c r="S15" s="10">
         <f>13.348+13.112+5.658</f>
         <v>32.118000000000002</v>
       </c>
-      <c r="V15" s="167">
+      <c r="T15" s="10">
+        <f>9.311+17.148+5.66</f>
+        <v>32.119</v>
+      </c>
+      <c r="U15" s="10">
+        <f>9.979+10.184+5.672</f>
+        <v>25.834999999999997</v>
+      </c>
+      <c r="V15" s="10">
         <f>9.813+3.55+1.202+5.68</f>
         <v>20.244999999999997</v>
       </c>
-      <c r="W15" s="166">
+      <c r="W15" s="15">
         <f>8.489+2.289+0.138+4.976</f>
         <v>15.891999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165" t="s">
+    <row r="16" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="165">
+      <c r="E16" s="10">
         <v>466.49200000000002</v>
       </c>
-      <c r="F16" s="166">
+      <c r="F16" s="15">
         <v>520.726</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="R16" s="165">
+      <c r="O16" s="10">
+        <v>121.35599999999999</v>
+      </c>
+      <c r="P16" s="10">
+        <v>118.23699999999999</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>113.54900000000001</v>
+      </c>
+      <c r="R16" s="10">
         <v>113.35</v>
       </c>
-      <c r="S16" s="165">
+      <c r="S16" s="10">
         <v>115.801</v>
       </c>
-      <c r="V16" s="167">
+      <c r="T16" s="10">
+        <v>130.869</v>
+      </c>
+      <c r="U16" s="10">
+        <v>134.99600000000001</v>
+      </c>
+      <c r="V16" s="10">
         <v>139.06</v>
       </c>
-      <c r="W16" s="166">
+      <c r="W16" s="15">
         <v>131.822</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="165" t="s">
+    <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="165">
+      <c r="E17" s="10">
         <v>39.981999999999999</v>
       </c>
-      <c r="F17" s="166">
+      <c r="F17" s="15">
         <v>228.43700000000001</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
-      <c r="R17" s="165">
+      <c r="O17" s="10">
+        <v>8.6010000000000009</v>
+      </c>
+      <c r="P17" s="10">
+        <v>10.298</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R17" s="10">
         <v>20.387</v>
       </c>
-      <c r="S17" s="165">
+      <c r="S17" s="10">
         <v>11.442</v>
       </c>
-      <c r="V17" s="167">
+      <c r="T17" s="10">
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="U17" s="10">
+        <v>-1.4419999999999999</v>
+      </c>
+      <c r="V17" s="10">
         <v>213.99199999999999</v>
       </c>
-      <c r="W17" s="166">
+      <c r="W17" s="15">
         <v>2.0219999999999998</v>
       </c>
     </row>
@@ -18228,19 +18399,19 @@
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="159">
+      <c r="B18" s="11">
         <f>B7-B9-B13-B14-B15-B16-B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="159">
-        <f t="shared" ref="C18:D18" si="1">C7-SUM(C13:C17)</f>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:D18" si="3">C7-SUM(C13:C17)</f>
         <v>1727</v>
       </c>
-      <c r="D18" s="159">
-        <f t="shared" si="1"/>
+      <c r="D18" s="11">
+        <f t="shared" si="3"/>
         <v>2012</v>
       </c>
-      <c r="E18" s="159">
+      <c r="E18" s="11">
         <f>E7-SUM(E13:E17)</f>
         <v>-743.13500000000045</v>
       </c>
@@ -18248,60 +18419,59 @@
         <f>F7-SUM(F13:F17)</f>
         <v>65.009000000000015</v>
       </c>
-      <c r="G18" s="159">
+      <c r="G18" s="11">
         <f>G7-SUM(G13:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="159">
+      <c r="H18" s="11">
         <f>H7-SUM(H13:H17)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="163"/>
-      <c r="K18" s="159">
-        <f t="shared" ref="K18:V18" si="2">K7-SUM(K13:K17)</f>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18:U18" si="4">K7-SUM(K13:K17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="159">
-        <f t="shared" si="2"/>
+      <c r="L18" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="159">
-        <f t="shared" si="2"/>
+      <c r="M18" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="159">
-        <f t="shared" si="2"/>
+      <c r="N18" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="159">
-        <f t="shared" si="2"/>
+      <c r="O18" s="11">
+        <f>O7-SUM(O13:O17)</f>
+        <v>-135.89699999999999</v>
+      </c>
+      <c r="P18" s="11">
+        <f>P7-SUM(P13:P17)</f>
+        <v>-209.17799999999994</v>
+      </c>
+      <c r="Q18" s="11">
+        <f>Q7-SUM(Q13:Q17)</f>
+        <v>-198.54600000000005</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="4"/>
         <v>-199.48400000000009</v>
       </c>
-      <c r="S18" s="159">
-        <f t="shared" si="2"/>
+      <c r="S18" s="11">
+        <f t="shared" si="4"/>
         <v>0.3549999999999045</v>
       </c>
-      <c r="T18" s="159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="159">
+      <c r="T18" s="11">
+        <f>T7-SUM(T13:T17)</f>
+        <v>64.284999999999968</v>
+      </c>
+      <c r="U18" s="11">
+        <f>U7-SUM(U13:U17)</f>
+        <v>94.701999999999998</v>
+      </c>
+      <c r="V18" s="11">
         <f>V7-SUM(V13:V17)</f>
         <v>-94.383000000000038</v>
       </c>
@@ -18328,6 +18498,18 @@
       <c r="H19" s="41">
         <v>-400</v>
       </c>
+      <c r="O19" s="10">
+        <f>0.99-87.087</f>
+        <v>-86.097000000000008</v>
+      </c>
+      <c r="P19" s="10">
+        <f>7.221-91.221</f>
+        <v>-84</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>8.814-93.747</f>
+        <v>-84.932999999999993</v>
+      </c>
       <c r="R19" s="10">
         <f>9.433-104.667</f>
         <v>-95.234000000000009</v>
@@ -18336,7 +18518,15 @@
         <f>6.794-108.958</f>
         <v>-102.164</v>
       </c>
-      <c r="V19" s="160">
+      <c r="T19" s="10">
+        <f>4.979-123.511</f>
+        <v>-118.532</v>
+      </c>
+      <c r="U19" s="10">
+        <f>6.064-131.128</f>
+        <v>-125.06399999999999</v>
+      </c>
+      <c r="V19" s="10">
         <f>5.468-128.794</f>
         <v>-123.32600000000001</v>
       </c>
@@ -18359,6 +18549,18 @@
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
+      <c r="O20" s="10">
+        <f>-1.343+2.778+0.688</f>
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="P20" s="10">
+        <f>-2.341+0.584+0.88</f>
+        <v>-0.87700000000000011</v>
+      </c>
+      <c r="Q20" s="10">
+        <f>-1.775-0.505+1.145</f>
+        <v>-1.1349999999999998</v>
+      </c>
       <c r="R20" s="10">
         <f>-0.957+1.047+1.217</f>
         <v>1.3069999999999999</v>
@@ -18367,7 +18569,15 @@
         <f>-0.934-0.819+0.66</f>
         <v>-1.093</v>
       </c>
-      <c r="V20" s="160">
+      <c r="T20" s="10">
+        <f>-0.99+2.36+0.658</f>
+        <v>2.028</v>
+      </c>
+      <c r="U20" s="10">
+        <f>-1.097-3.833+0.438+0.08</f>
+        <v>-4.4119999999999999</v>
+      </c>
+      <c r="V20" s="10">
         <f>-1.351+4.524+0.992+1.531</f>
         <v>5.6959999999999997</v>
       </c>
@@ -18381,19 +18591,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="11">
-        <f t="shared" ref="B21:E21" si="3">B18+B19+B20</f>
+        <f t="shared" ref="B21:E21" si="5">B18+B19+B20</f>
         <v>0</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1727</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2012</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1091.9610000000002</v>
       </c>
       <c r="F21" s="14">
@@ -18409,109 +18619,139 @@
         <v>-400</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" ref="K21:W21" si="4">K18+K19+K20</f>
+        <f t="shared" ref="K21:W21" si="6">K18+K19+K20</f>
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>O18+O19+O20</f>
+        <v>-219.87100000000001</v>
       </c>
       <c r="P21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>P18+P19+P20</f>
+        <v>-294.05499999999995</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>Q18+Q19+Q20</f>
+        <v>-284.61400000000003</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-293.41100000000006</v>
       </c>
       <c r="S21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-102.9020000000001</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>T18+T19+T20</f>
+        <v>-52.21900000000003</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="159">
+        <f>U18+U19+U20</f>
+        <v>-34.773999999999994</v>
+      </c>
+      <c r="V21" s="11">
         <f>V18+V19+V20</f>
         <v>-212.01300000000006</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2439999999999127</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="165" t="s">
+    <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="165">
+      <c r="E22" s="10">
         <v>-5.2359999999999998</v>
       </c>
-      <c r="F22" s="166">
+      <c r="F22" s="15">
         <v>35.914000000000001</v>
       </c>
-      <c r="R22" s="165">
+      <c r="O22" s="10">
+        <v>-1.9730000000000001</v>
+      </c>
+      <c r="P22" s="10">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>-2.028</v>
+      </c>
+      <c r="R22" s="10">
         <v>0.61799999999999999</v>
       </c>
-      <c r="S22" s="165">
+      <c r="S22" s="10">
         <v>2.2410000000000001</v>
       </c>
-      <c r="V22" s="167">
+      <c r="T22" s="10">
+        <v>1.075</v>
+      </c>
+      <c r="U22" s="10">
+        <v>-2.0209999999999999</v>
+      </c>
+      <c r="V22" s="10">
         <v>34.619</v>
       </c>
-      <c r="W22" s="166">
+      <c r="W22" s="15">
         <v>-3.694</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="165" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="165" t="s">
+    <row r="23" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="165">
+      <c r="C23" s="10">
         <v>-191</v>
       </c>
-      <c r="D23" s="165">
+      <c r="D23" s="10">
         <v>-144</v>
       </c>
-      <c r="E23" s="165">
+      <c r="E23" s="10">
         <v>166.64099999999999</v>
       </c>
-      <c r="F23" s="166">
+      <c r="F23" s="15">
         <v>88.41</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
-      <c r="R23" s="165">
+      <c r="O23" s="10">
+        <v>38.56</v>
+      </c>
+      <c r="P23" s="10">
+        <v>43.213000000000001</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>42.78</v>
+      </c>
+      <c r="R23" s="10">
         <v>42.088000000000001</v>
       </c>
-      <c r="S23" s="165">
+      <c r="S23" s="10">
         <v>19.373000000000001</v>
       </c>
-      <c r="V23" s="167">
+      <c r="T23" s="10">
+        <v>27.702999999999999</v>
+      </c>
+      <c r="U23" s="10">
+        <v>20.492000000000001</v>
+      </c>
+      <c r="V23" s="10">
         <v>20.841999999999999</v>
       </c>
-      <c r="W23" s="166">
+      <c r="W23" s="15">
         <v>14.62</v>
       </c>
     </row>
@@ -18521,15 +18761,15 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:E24" si="5">C21+C22+C23</f>
+        <f t="shared" ref="C24:E24" si="7">C21+C22+C23</f>
         <v>1536</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1868</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-930.55600000000038</v>
       </c>
       <c r="F24" s="14">
@@ -18545,55 +18785,55 @@
         <v>700.66000000000008</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:W24" si="6">K21+K22+K23</f>
+        <f t="shared" ref="K24:W24" si="8">K21+K22+K23</f>
         <v>0</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="O24" si="9">O21+O22+O23</f>
+        <v>-183.28400000000002</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-251.45899999999997</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-243.86200000000005</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-250.70500000000007</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-81.288000000000096</v>
       </c>
       <c r="T24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="T24:U24" si="10">T21+T22+T23</f>
+        <v>-23.441000000000027</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-16.302999999999994</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-156.55200000000008</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.169999999999913</v>
       </c>
       <c r="X24" s="11"/>
@@ -18619,17 +18859,31 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="170">
+      <c r="O25" s="162">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="P25" s="162">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Q25" s="162">
+        <v>2.028</v>
+      </c>
+      <c r="R25" s="162">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="S25" s="69">
         <v>-2.2410000000000001</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="168">
+      <c r="T25" s="162">
+        <v>-1.075</v>
+      </c>
+      <c r="U25" s="162">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="V25" s="162">
+        <v>-34.619</v>
+      </c>
+      <c r="W25" s="139">
         <v>3.694</v>
       </c>
       <c r="X25" s="11"/>
@@ -18655,17 +18909,31 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="170">
+      <c r="O26" s="162">
+        <v>83.974000000000004</v>
+      </c>
+      <c r="P26" s="162">
+        <v>84.876999999999995</v>
+      </c>
+      <c r="Q26" s="162">
+        <v>86.048000000000002</v>
+      </c>
+      <c r="R26" s="162">
+        <v>93.927000000000007</v>
+      </c>
+      <c r="S26" s="69">
         <v>103.25700000000001</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="168">
+      <c r="T26" s="162">
+        <v>116.504</v>
+      </c>
+      <c r="U26" s="162">
+        <v>129.476</v>
+      </c>
+      <c r="V26" s="162">
+        <v>117.63</v>
+      </c>
+      <c r="W26" s="139">
         <v>121.10599999999999</v>
       </c>
       <c r="X26" s="11"/>
@@ -18691,17 +18959,31 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="170">
+      <c r="O27" s="162">
+        <v>8.6010000000000009</v>
+      </c>
+      <c r="P27" s="162">
+        <v>10.298</v>
+      </c>
+      <c r="Q27" s="162">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R27" s="162">
+        <v>20.387</v>
+      </c>
+      <c r="S27" s="69">
         <v>11.442</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="168">
+      <c r="T27" s="162">
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="U27" s="162">
+        <v>-1.4419999999999999</v>
+      </c>
+      <c r="V27" s="162">
+        <v>213.99199999999999</v>
+      </c>
+      <c r="W27" s="139">
         <v>2.0019999999999998</v>
       </c>
       <c r="X27" s="11"/>
@@ -18727,17 +19009,31 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="170">
+      <c r="O28" s="162">
+        <v>141.292</v>
+      </c>
+      <c r="P28" s="162">
+        <v>136.726</v>
+      </c>
+      <c r="Q28" s="162">
+        <v>122.04600000000001</v>
+      </c>
+      <c r="R28" s="162">
+        <v>121.875</v>
+      </c>
+      <c r="S28" s="69">
         <v>121.459</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="168">
+      <c r="T28" s="162">
+        <v>136.529</v>
+      </c>
+      <c r="U28" s="162">
+        <v>140.66800000000001</v>
+      </c>
+      <c r="V28" s="162">
+        <v>144.74</v>
+      </c>
+      <c r="W28" s="139">
         <v>136.798</v>
       </c>
       <c r="X28" s="11"/>
@@ -18763,17 +19059,31 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="170">
+      <c r="O29" s="162">
+        <v>16.971</v>
+      </c>
+      <c r="P29" s="162">
+        <v>16.908000000000001</v>
+      </c>
+      <c r="Q29" s="162">
+        <v>9.9809999999999999</v>
+      </c>
+      <c r="R29" s="162">
+        <v>27.949000000000002</v>
+      </c>
+      <c r="S29" s="69">
         <v>10.811999999999999</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="168">
+      <c r="T29" s="162">
+        <v>8.8610000000000007</v>
+      </c>
+      <c r="U29" s="162">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="V29" s="162">
+        <v>8.2449999999999992</v>
+      </c>
+      <c r="W29" s="139">
         <v>6.9029999999999996</v>
       </c>
       <c r="X29" s="11"/>
@@ -18802,18 +19112,39 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="170">
+      <c r="O30" s="162">
+        <f>2.355+0.658+7.215-38.56</f>
+        <v>-28.332000000000001</v>
+      </c>
+      <c r="P30" s="162">
+        <f>3.247+0.638+11.246-43.213</f>
+        <v>-28.082000000000001</v>
+      </c>
+      <c r="Q30" s="162">
+        <f>3.313+0.555+8.417-42.78</f>
+        <v>-30.495000000000001</v>
+      </c>
+      <c r="R30" s="162">
+        <f>6.67+0.467+2.016-42.088</f>
+        <v>-32.935000000000002</v>
+      </c>
+      <c r="S30" s="69">
         <f>13.112+0.486+13.348-19.373</f>
         <v>7.5730000000000004</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="168">
+      <c r="T30" s="162">
+        <f>0.476+9.311+17.148-27.703</f>
+        <v>-0.76800000000000068</v>
+      </c>
+      <c r="U30" s="162">
+        <f>10.184+0.474+9.979-20.492</f>
+        <v>0.14499999999999957</v>
+      </c>
+      <c r="V30" s="162">
+        <f>1.202+3.55+0.475+9.813-20.842</f>
+        <v>-5.8019999999999996</v>
+      </c>
+      <c r="W30" s="139">
         <f>2.289+0.138+1.748+8.489-14.62</f>
         <v>-1.9559999999999977</v>
       </c>
@@ -18843,18 +19174,39 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="171">
+      <c r="O31" s="163">
+        <f>O24+SUM(O25:O30)</f>
+        <v>41.194999999999993</v>
+      </c>
+      <c r="P31" s="163">
+        <f>P24+SUM(P25:P30)</f>
+        <v>-30.114999999999981</v>
+      </c>
+      <c r="Q31" s="163">
+        <f>Q24+SUM(Q25:Q30)</f>
+        <v>-53.55800000000005</v>
+      </c>
+      <c r="R31" s="163">
+        <f>R24+SUM(R25:R30)</f>
+        <v>-18.884000000000043</v>
+      </c>
+      <c r="S31" s="70">
         <f>S24+SUM(S25:S30)</f>
         <v>171.01399999999992</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="169">
+      <c r="T31" s="163">
+        <f>T24+SUM(T25:T30)</f>
+        <v>241.05499999999995</v>
+      </c>
+      <c r="U31" s="163">
+        <f>U24+SUM(U25:U30)</f>
+        <v>262.11999999999995</v>
+      </c>
+      <c r="V31" s="163">
+        <f>V24+SUM(V25:V30)</f>
+        <v>287.6339999999999</v>
+      </c>
+      <c r="W31" s="140">
         <f>W24+SUM(W25:W30)</f>
         <v>283.71699999999993</v>
       </c>
@@ -18881,17 +19233,31 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="170">
+      <c r="O32" s="162">
+        <v>14.821</v>
+      </c>
+      <c r="P32" s="162">
+        <v>16.306000000000001</v>
+      </c>
+      <c r="Q32" s="162">
+        <v>18.677</v>
+      </c>
+      <c r="R32" s="162">
+        <v>13.343</v>
+      </c>
+      <c r="S32" s="69">
         <v>19.736000000000001</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="168">
+      <c r="T32" s="162">
+        <v>26.201000000000001</v>
+      </c>
+      <c r="U32" s="162">
+        <v>18.518000000000001</v>
+      </c>
+      <c r="V32" s="162">
+        <v>15.786</v>
+      </c>
+      <c r="W32" s="139">
         <v>15.06</v>
       </c>
       <c r="X32" s="11"/>
@@ -18920,18 +19286,39 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="171">
+      <c r="O33" s="163">
+        <f>O31+O32</f>
+        <v>56.015999999999991</v>
+      </c>
+      <c r="P33" s="163">
+        <f>P31+P32</f>
+        <v>-13.80899999999998</v>
+      </c>
+      <c r="Q33" s="163">
+        <f>Q31+Q32</f>
+        <v>-34.88100000000005</v>
+      </c>
+      <c r="R33" s="163">
+        <f>R31+R32</f>
+        <v>-5.541000000000043</v>
+      </c>
+      <c r="S33" s="70">
         <f>S31+S32</f>
         <v>190.74999999999991</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="169">
+      <c r="T33" s="163">
+        <f>T31+T32</f>
+        <v>267.25599999999997</v>
+      </c>
+      <c r="U33" s="163">
+        <f>U31+U32</f>
+        <v>280.63799999999992</v>
+      </c>
+      <c r="V33" s="163">
+        <f>V31+V32</f>
+        <v>303.4199999999999</v>
+      </c>
+      <c r="W33" s="140">
         <f>W31+W32</f>
         <v>298.77699999999993</v>
       </c>
@@ -18959,18 +19346,28 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="O34" s="10">
+        <v>1422.1751079999999</v>
+      </c>
+      <c r="P34" s="10">
+        <v>1421.4439460000001</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>1386.7205269999999</v>
+      </c>
       <c r="R34" s="10">
         <v>1335.2833459999999</v>
       </c>
       <c r="S34" s="10">
         <v>1325.716287</v>
       </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="160">
+      <c r="T34" s="10">
+        <v>1310.3582369999999</v>
+      </c>
+      <c r="U34" s="10">
+        <v>1311.270775</v>
+      </c>
+      <c r="V34" s="10">
         <v>1311.270775</v>
       </c>
       <c r="W34" s="15">
@@ -18997,9 +19394,18 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="O35" s="2">
+        <f t="shared" ref="O35:P35" si="11">O24/O34</f>
+        <v>-0.12887583179384407</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="11"/>
+        <v>-0.17690391570319436</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" ref="Q35" si="12">Q24/Q34</f>
+        <v>-0.17585518873623773</v>
+      </c>
       <c r="R35" s="2">
         <f>R24/R34</f>
         <v>-0.18775415776061066</v>
@@ -19008,16 +19414,16 @@
         <f>S24/S34</f>
         <v>-6.1316286747859876E-2</v>
       </c>
-      <c r="T35" s="2" t="e">
-        <f t="shared" ref="T35:V35" si="7">T24/T34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U35" s="2" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="T35" s="2">
+        <f t="shared" ref="T35:U35" si="13">T24/T34</f>
+        <v>-1.7889001143433135E-2</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="13"/>
+        <v>-1.2432977467983296E-2</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T35:V35" si="14">V24/V34</f>
         <v>-0.11938952883320388</v>
       </c>
       <c r="W35" s="35">
@@ -19052,7 +19458,7 @@
       <c r="S36" s="52"/>
       <c r="T36" s="52"/>
       <c r="U36" s="52"/>
-      <c r="V36" s="161"/>
+      <c r="V36" s="51"/>
       <c r="W36" s="35">
         <v>0.03</v>
       </c>
@@ -19082,51 +19488,51 @@
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="K37" s="3" t="e">
-        <f t="shared" ref="K37:V37" si="8">1-K9/K7</f>
+        <f t="shared" ref="K37:V37" si="15">1-K9/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O37" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="O37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.3528029561317626</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.30969885885845327</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.28131344666035385</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.32584962977026777</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.44329360205448853</v>
       </c>
-      <c r="T37" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U37" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="T37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.46665239007995241</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.47571457361521408</v>
       </c>
       <c r="V37" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.45402349825761035</v>
       </c>
       <c r="W37" s="6">
@@ -19164,51 +19570,51 @@
         <v>0.13874455445544556</v>
       </c>
       <c r="K38" s="4" t="e">
-        <f t="shared" ref="K38:V38" si="9">K24/K7</f>
+        <f t="shared" ref="K38:V38" si="16">K24/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="O38" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.38590573645369469</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.84921666829895937</v>
+      </c>
+      <c r="Q38" s="4">
+        <f t="shared" si="16"/>
+        <v>-1.0083734085355014</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.74373754034554795</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.11345466726217074</v>
       </c>
-      <c r="T38" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U38" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V38" s="162">
-        <f t="shared" si="9"/>
+      <c r="T38" s="4">
+        <f t="shared" si="16"/>
+        <v>-2.4728384421360473E-2</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="16"/>
+        <v>-1.6027093583952254E-2</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" si="16"/>
         <v>-0.1431511878516441</v>
       </c>
       <c r="W38" s="7">
@@ -19247,44 +19653,44 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="e">
-        <f t="shared" ref="O39:V39" si="10">O7/K7-1</f>
+        <f t="shared" ref="O39:V39" si="17">O7/K7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="4" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U39" s="4" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V39" s="173">
-        <f t="shared" si="10"/>
+      <c r="S39" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50855362199833665</v>
+      </c>
+      <c r="T39" s="4">
+        <f t="shared" si="17"/>
+        <v>2.2013393806968429</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="17"/>
+        <v>3.206200870834488</v>
+      </c>
+      <c r="V39" s="142">
+        <f t="shared" si="17"/>
         <v>2.2442952582115057</v>
       </c>
-      <c r="W39" s="172">
+      <c r="W39" s="141">
         <f>W7/S7-1</f>
         <v>0.55260021214828026</v>
       </c>
-      <c r="X39" s="37" t="e">
+      <c r="X39" s="37">
         <f>X8/T7-1</f>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -19312,35 +19718,35 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="e">
-        <f t="shared" ref="O40:W40" si="11">O24/K24-1</f>
+        <f t="shared" ref="O40:V40" si="18">O24/K24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U40" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V40" s="162">
-        <f t="shared" si="11"/>
+      <c r="S40" s="4">
+        <f t="shared" si="18"/>
+        <v>-0.55649156500294583</v>
+      </c>
+      <c r="T40" s="4">
+        <f t="shared" si="18"/>
+        <v>-0.9067800317347956</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="18"/>
+        <v>-0.93314661570888457</v>
+      </c>
+      <c r="V40" s="4">
+        <f t="shared" si="18"/>
         <v>-0.37555294070720557</v>
       </c>
       <c r="W40" s="6">
@@ -19381,17 +19787,38 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="O41" s="54">
+        <f>-O19/O7</f>
+        <v>0.18127783217004076</v>
+      </c>
+      <c r="P41" s="54">
+        <f t="shared" ref="P41:R41" si="19">-P19/P7</f>
+        <v>0.28368123685019264</v>
+      </c>
+      <c r="Q41" s="54">
+        <f t="shared" si="19"/>
+        <v>0.351199361553443</v>
+      </c>
+      <c r="R41" s="54">
+        <f t="shared" si="19"/>
+        <v>0.28251969812037214</v>
+      </c>
       <c r="S41" s="54">
         <f>-S19/S7</f>
         <v>0.14259155873157658</v>
       </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="162"/>
+      <c r="T41" s="54">
+        <f t="shared" ref="T41:V41" si="20">-T19/T7</f>
+        <v>0.12504180121294722</v>
+      </c>
+      <c r="U41" s="54">
+        <f t="shared" si="20"/>
+        <v>0.1229474594849663</v>
+      </c>
+      <c r="V41" s="54">
+        <f t="shared" si="20"/>
+        <v>0.11276932516347191</v>
+      </c>
       <c r="W41" s="55">
         <f>-W19/W7</f>
         <v>0.1075631490992056</v>
@@ -19403,19 +19830,19 @@
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="56">
-        <f t="shared" ref="C42:F42" si="12">-C19/C18</f>
+        <f t="shared" ref="C42:F42" si="21">-C19/C18</f>
         <v>0</v>
       </c>
       <c r="D42" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E42" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-0.47133293412367849</v>
       </c>
       <c r="F42" s="55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>7.2157085941946484</v>
       </c>
       <c r="G42" s="54"/>
@@ -19424,19 +19851,40 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="O42" s="54">
+        <f t="shared" ref="O42" si="22">-O19/O18</f>
+        <v>-0.63354599439281234</v>
+      </c>
+      <c r="P42" s="54">
+        <f t="shared" ref="P42:R42" si="23">-P19/P18</f>
+        <v>-0.40157186702234471</v>
+      </c>
+      <c r="Q42" s="54">
+        <f t="shared" si="23"/>
+        <v>-0.42777492369526443</v>
+      </c>
+      <c r="R42" s="54">
+        <f t="shared" si="23"/>
+        <v>-0.47740169637665159</v>
+      </c>
       <c r="S42" s="54">
-        <f t="shared" ref="S42" si="13">-S19/S18</f>
+        <f t="shared" ref="S42:V42" si="24">-S19/S18</f>
         <v>287.78591549303519</v>
       </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="162"/>
+      <c r="T42" s="54">
+        <f t="shared" si="24"/>
+        <v>1.8438515983510937</v>
+      </c>
+      <c r="U42" s="54">
+        <f>-U19/U18</f>
+        <v>1.3206056894257776</v>
+      </c>
+      <c r="V42" s="54">
+        <f>-V19/V18</f>
+        <v>-1.306654800122903</v>
+      </c>
       <c r="W42" s="55">
-        <f t="shared" ref="W42" si="14">-W19/W18</f>
+        <f t="shared" ref="W42" si="25">-W19/W18</f>
         <v>0.95455923414439636</v>
       </c>
     </row>
@@ -19465,55 +19913,55 @@
         <v>-6161.8779999999997</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" ref="K45:W45" si="15">K46+K47-K66-K69</f>
+        <f t="shared" ref="K45:W45" si="26">K46+K47-K66-K69</f>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>-6548.7870000000003</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-6524.125</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>-6434.82</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>U46+U47-U66-U69</f>
+        <v>-6350.7909999999993</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>-6161.8779999999997</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>-6159.7889999999998</v>
       </c>
     </row>
@@ -19541,10 +19989,16 @@
         <f>E46</f>
         <v>1812.729</v>
       </c>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="160">
+      <c r="S46" s="10">
+        <v>1338.558</v>
+      </c>
+      <c r="T46" s="10">
+        <v>1432.4390000000001</v>
+      </c>
+      <c r="U46" s="10">
+        <v>1417.998</v>
+      </c>
+      <c r="V46" s="10">
         <f>F46</f>
         <v>1310.7149999999999</v>
       </c>
@@ -19573,14 +20027,20 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10">
-        <f t="shared" ref="R47:R50" si="16">E47</f>
+        <f t="shared" ref="R47:R50" si="27">E47</f>
         <v>50.991999999999997</v>
       </c>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="160">
-        <f t="shared" ref="V47:V50" si="17">F47</f>
+      <c r="S47" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T47" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U47" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V47" s="10">
+        <f t="shared" ref="V47:V50" si="28">F47</f>
         <v>2.7E-2</v>
       </c>
       <c r="W47" s="15">
@@ -19610,14 +20070,23 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>56.622</v>
       </c>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="160">
-        <f t="shared" si="17"/>
+      <c r="S48" s="10">
+        <f>69.043+0.654</f>
+        <v>69.697000000000003</v>
+      </c>
+      <c r="T48" s="10">
+        <f>88.674+0.747</f>
+        <v>89.421000000000006</v>
+      </c>
+      <c r="U48" s="10">
+        <f>95.716+1.001</f>
+        <v>96.716999999999999</v>
+      </c>
+      <c r="V48" s="10">
+        <f t="shared" si="28"/>
         <v>92.435000000000002</v>
       </c>
       <c r="W48" s="15">
@@ -19645,14 +20114,20 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>26.416</v>
       </c>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="160">
-        <f t="shared" si="17"/>
+      <c r="S49" s="10">
+        <v>26.216000000000001</v>
+      </c>
+      <c r="T49" s="10">
+        <v>26.663</v>
+      </c>
+      <c r="U49" s="10">
+        <v>28.106000000000002</v>
+      </c>
+      <c r="V49" s="10">
+        <f t="shared" si="28"/>
         <v>29.427</v>
       </c>
       <c r="W49" s="15">
@@ -19681,14 +20156,22 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>127.913</v>
       </c>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="160">
-        <f t="shared" si="17"/>
+      <c r="S50" s="10">
+        <f>132.901+8.372</f>
+        <v>141.27300000000002</v>
+      </c>
+      <c r="T50" s="10">
+        <f>127.839+7.706</f>
+        <v>135.54499999999999</v>
+      </c>
+      <c r="U50" s="10">
+        <v>130.977</v>
+      </c>
+      <c r="V50" s="10">
+        <f t="shared" si="28"/>
         <v>111.688</v>
       </c>
       <c r="W50" s="15">
@@ -19721,55 +20204,55 @@
         <v>1544.2919999999999</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" ref="K51:W51" si="18">SUM(K46:K50)</f>
+        <f t="shared" ref="K51:W51" si="29">SUM(K46:K50)</f>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>2074.672</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1575.7660000000001</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1684.0900000000001</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
+        <v>1673.8240000000003</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="29"/>
         <v>1544.2919999999999</v>
       </c>
       <c r="W51" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>1391.6410000000001</v>
       </c>
     </row>
@@ -19794,14 +20277,20 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10">
-        <f t="shared" ref="R52:R60" si="19">E52</f>
+        <f t="shared" ref="R52:R60" si="30">E52</f>
         <v>5870.9049999999997</v>
       </c>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="160">
-        <f t="shared" ref="V52:V60" si="20">F52</f>
+      <c r="S52" s="10">
+        <v>5820.049</v>
+      </c>
+      <c r="T52" s="10">
+        <v>5769.5039999999999</v>
+      </c>
+      <c r="U52" s="10">
+        <v>5690.991</v>
+      </c>
+      <c r="V52" s="10">
+        <f t="shared" ref="V52:V60" si="31">F52</f>
         <v>5533.9939999999997</v>
       </c>
       <c r="W52" s="15">
@@ -19829,14 +20318,20 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>43.61</v>
       </c>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="160">
-        <f t="shared" si="20"/>
+      <c r="S53" s="10">
+        <v>274.38299999999998</v>
+      </c>
+      <c r="T53" s="10">
+        <v>349.92099999999999</v>
+      </c>
+      <c r="U53" s="10">
+        <v>339.49299999999999</v>
+      </c>
+      <c r="V53" s="10">
+        <f t="shared" si="31"/>
         <v>304.65199999999999</v>
       </c>
       <c r="W53" s="15">
@@ -19864,14 +20359,20 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>81.605999999999995</v>
       </c>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="160">
-        <f t="shared" si="20"/>
+      <c r="S54" s="10">
+        <v>81.188000000000002</v>
+      </c>
+      <c r="T54" s="10">
+        <v>81.301000000000002</v>
+      </c>
+      <c r="U54" s="10">
+        <v>81.385000000000005</v>
+      </c>
+      <c r="V54" s="10">
+        <f t="shared" si="31"/>
         <v>81.581999999999994</v>
       </c>
       <c r="W54" s="15">
@@ -19899,14 +20400,20 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>159.697</v>
       </c>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="160">
-        <f t="shared" si="20"/>
+      <c r="S55" s="10">
+        <v>159.983</v>
+      </c>
+      <c r="T55" s="10">
+        <v>143.35400000000001</v>
+      </c>
+      <c r="U55" s="10">
+        <v>84.042000000000002</v>
+      </c>
+      <c r="V55" s="10">
+        <f t="shared" si="31"/>
         <v>100.32</v>
       </c>
       <c r="W55" s="15">
@@ -19932,14 +20439,14 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>216.333</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="160">
-        <f t="shared" si="20"/>
+      <c r="V56" s="10">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W56" s="15"/>
@@ -19965,14 +20472,20 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>124.736</v>
       </c>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="160">
-        <f t="shared" si="20"/>
+      <c r="S57" s="10">
+        <v>124.483</v>
+      </c>
+      <c r="T57" s="10">
+        <v>124.655</v>
+      </c>
+      <c r="U57" s="10">
+        <v>124.773</v>
+      </c>
+      <c r="V57" s="10">
+        <f t="shared" si="31"/>
         <v>125.09399999999999</v>
       </c>
       <c r="W57" s="15">
@@ -20000,14 +20513,18 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>0.63800000000000001</v>
       </c>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
+      <c r="S58" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="T58" s="10">
+        <v>0.79400000000000004</v>
+      </c>
       <c r="U58" s="10"/>
-      <c r="V58" s="160">
-        <f t="shared" si="20"/>
+      <c r="V58" s="10">
+        <f t="shared" si="31"/>
         <v>49.335999999999999</v>
       </c>
       <c r="W58" s="15"/>
@@ -20033,14 +20550,20 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>58.715000000000003</v>
       </c>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="160">
-        <f t="shared" si="20"/>
+      <c r="S59" s="10">
+        <v>66.921000000000006</v>
+      </c>
+      <c r="T59" s="10">
+        <v>69.656000000000006</v>
+      </c>
+      <c r="U59" s="10">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="V59" s="10">
+        <f t="shared" si="31"/>
         <v>62.356000000000002</v>
       </c>
       <c r="W59" s="15">
@@ -20068,14 +20591,20 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>670.87199999999996</v>
       </c>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="160">
-        <f t="shared" si="20"/>
+      <c r="S60" s="10">
+        <v>661.78099999999995</v>
+      </c>
+      <c r="T60" s="10">
+        <v>657.04399999999998</v>
+      </c>
+      <c r="U60" s="10">
+        <v>652.05200000000002</v>
+      </c>
+      <c r="V60" s="10">
+        <f t="shared" si="31"/>
         <v>582.78200000000004</v>
       </c>
       <c r="W60" s="15">
@@ -20107,55 +20636,55 @@
         <v>8384.4079999999994</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" ref="K61:W61" si="21">SUM(K51:K60)</f>
+        <f t="shared" ref="K61:W61" si="32">SUM(K51:K60)</f>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>9301.7839999999997</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>8764.9160000000011</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>8880.3190000000013</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="159">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
+        <v>8713.8500000000022</v>
+      </c>
+      <c r="V61" s="11">
+        <f t="shared" si="32"/>
         <v>8384.4079999999994</v>
       </c>
       <c r="W61" s="14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>8076.1829999999991</v>
       </c>
     </row>
@@ -20180,14 +20709,20 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10">
-        <f t="shared" ref="R62:R67" si="22">E62</f>
+        <f t="shared" ref="R62:R67" si="33">E62</f>
         <v>6.73</v>
       </c>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="160">
-        <f t="shared" ref="V62:V67" si="23">F62</f>
+      <c r="S62" s="10">
+        <v>8.516</v>
+      </c>
+      <c r="T62" s="10">
+        <v>11.090999999999999</v>
+      </c>
+      <c r="U62" s="10">
+        <v>12.458</v>
+      </c>
+      <c r="V62" s="10">
+        <f t="shared" ref="V62:V67" si="34">F62</f>
         <v>11.752000000000001</v>
       </c>
       <c r="W62" s="15">
@@ -20215,14 +20750,20 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>809.30499999999995</v>
       </c>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="160">
-        <f t="shared" si="23"/>
+      <c r="S63" s="10">
+        <v>869.78200000000004</v>
+      </c>
+      <c r="T63" s="10">
+        <v>980.19200000000001</v>
+      </c>
+      <c r="U63" s="10">
+        <v>933.68799999999999</v>
+      </c>
+      <c r="V63" s="10">
+        <f t="shared" si="34"/>
         <v>1008.316</v>
       </c>
       <c r="W63" s="15">
@@ -20250,14 +20791,20 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>11.61</v>
       </c>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="160">
-        <f t="shared" si="23"/>
+      <c r="S64" s="10">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="T64" s="10">
+        <v>9.4280000000000008</v>
+      </c>
+      <c r="U64" s="10">
+        <v>11.345000000000001</v>
+      </c>
+      <c r="V64" s="10">
+        <f t="shared" si="34"/>
         <v>28.183</v>
       </c>
       <c r="W64" s="15">
@@ -20287,14 +20834,23 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>47.72</v>
       </c>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="160">
-        <f t="shared" si="23"/>
+      <c r="S65" s="10">
+        <f>17.398+36.045</f>
+        <v>53.442999999999998</v>
+      </c>
+      <c r="T65" s="10">
+        <f>18.965+35.437</f>
+        <v>54.402000000000001</v>
+      </c>
+      <c r="U65" s="10">
+        <f>19.431+34.442</f>
+        <v>53.873000000000005</v>
+      </c>
+      <c r="V65" s="10">
+        <f t="shared" si="34"/>
         <v>54.992000000000004</v>
       </c>
       <c r="W65" s="15">
@@ -20321,14 +20877,20 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>322.5</v>
       </c>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="160">
-        <f t="shared" si="23"/>
+      <c r="S66" s="10">
+        <v>0</v>
+      </c>
+      <c r="T66" s="10">
+        <v>100</v>
+      </c>
+      <c r="U66" s="10">
+        <v>0</v>
+      </c>
+      <c r="V66" s="10">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W66" s="15"/>
@@ -20354,14 +20916,20 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>0.76100000000000001</v>
       </c>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="160">
-        <f t="shared" si="23"/>
+      <c r="S67" s="10">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="T67" s="10">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="U67" s="10">
+        <v>0.253</v>
+      </c>
+      <c r="V67" s="10">
+        <f t="shared" si="34"/>
         <v>0.377</v>
       </c>
       <c r="W67" s="15">
@@ -20393,55 +20961,55 @@
         <v>1103.6199999999999</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" ref="K68:W68" si="24">SUM(K62:K67)</f>
+        <f t="shared" ref="K68:W68" si="35">SUM(K62:K67)</f>
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>1198.626</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>942.06200000000001</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1155.482</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
+        <v>1011.6170000000001</v>
+      </c>
+      <c r="V68" s="11">
+        <f t="shared" si="35"/>
         <v>1103.6199999999999</v>
       </c>
       <c r="W68" s="14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>1021.8330000000002</v>
       </c>
       <c r="X68" s="11"/>
@@ -20467,14 +21035,20 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10">
-        <f t="shared" ref="R69:R72" si="25">E69</f>
+        <f t="shared" ref="R69:R72" si="36">E69</f>
         <v>8090.0079999999998</v>
       </c>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="160">
-        <f t="shared" ref="V69:V72" si="26">F69</f>
+      <c r="S69" s="10">
+        <v>7862.7049999999999</v>
+      </c>
+      <c r="T69" s="10">
+        <v>7767.2809999999999</v>
+      </c>
+      <c r="U69" s="10">
+        <v>7768.8149999999996</v>
+      </c>
+      <c r="V69" s="10">
+        <f t="shared" ref="V69:V72" si="37">F69</f>
         <v>7472.62</v>
       </c>
       <c r="W69" s="15">
@@ -20502,14 +21076,20 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>33.712000000000003</v>
       </c>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="160">
-        <f t="shared" si="26"/>
+      <c r="S70" s="10">
+        <v>257.50900000000001</v>
+      </c>
+      <c r="T70" s="10">
+        <v>288.64299999999997</v>
+      </c>
+      <c r="U70" s="10">
+        <v>312.62200000000001</v>
+      </c>
+      <c r="V70" s="10">
+        <f t="shared" si="37"/>
         <v>322.59100000000001</v>
       </c>
       <c r="W70" s="15">
@@ -20537,14 +21117,20 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>39.677</v>
       </c>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="160">
-        <f t="shared" si="26"/>
+      <c r="S71" s="10">
+        <v>37.914000000000001</v>
+      </c>
+      <c r="T71" s="10">
+        <v>37.781999999999996</v>
+      </c>
+      <c r="U71" s="10">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="V71" s="10">
+        <f t="shared" si="37"/>
         <v>34.959000000000003</v>
       </c>
       <c r="W71" s="15">
@@ -20574,14 +21160,23 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>254.12299999999999</v>
       </c>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="160">
-        <f t="shared" si="26"/>
+      <c r="S72" s="10">
+        <f>59.374+201.318</f>
+        <v>260.69200000000001</v>
+      </c>
+      <c r="T72" s="10">
+        <f>58.949+194.758</f>
+        <v>253.70699999999999</v>
+      </c>
+      <c r="U72" s="10">
+        <f>56.225+186.131</f>
+        <v>242.35599999999999</v>
+      </c>
+      <c r="V72" s="10">
+        <f t="shared" si="37"/>
         <v>242.33199999999999</v>
       </c>
       <c r="W72" s="15">
@@ -20614,55 +21209,55 @@
         <v>9176.1220000000012</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:W73" si="27">SUM(K68:K72)</f>
+        <f t="shared" ref="K73:W73" si="38">SUM(K68:K72)</f>
         <v>0</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R73" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>9616.1459999999988</v>
       </c>
       <c r="S73" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9360.8820000000014</v>
       </c>
       <c r="T73" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9502.8949999999986</v>
       </c>
       <c r="U73" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
+        <v>9372.3899999999976</v>
+      </c>
+      <c r="V73" s="11">
+        <f t="shared" si="38"/>
         <v>9176.1220000000012</v>
       </c>
       <c r="W73" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>8929.018</v>
       </c>
     </row>
@@ -20679,47 +21274,47 @@
       <c r="F74" s="15">
         <v>-790.71400000000006</v>
       </c>
-      <c r="L74" s="160">
-        <f t="shared" ref="L74:U74" si="28">L61-L73</f>
+      <c r="L74" s="10">
+        <f t="shared" ref="L74:U74" si="39">L61-L73</f>
         <v>0</v>
       </c>
-      <c r="M74" s="160">
-        <f t="shared" si="28"/>
+      <c r="M74" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N74" s="160">
-        <f t="shared" si="28"/>
+      <c r="N74" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O74" s="160">
-        <f t="shared" si="28"/>
+      <c r="O74" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="P74" s="160">
-        <f t="shared" si="28"/>
+      <c r="P74" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="160">
-        <f t="shared" si="28"/>
+      <c r="Q74" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="R74" s="160">
-        <f t="shared" si="28"/>
+      <c r="R74" s="10">
+        <f t="shared" si="39"/>
         <v>-314.36199999999917</v>
       </c>
-      <c r="S74" s="160">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="160">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="160">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="160">
+      <c r="S74" s="10">
+        <f t="shared" si="39"/>
+        <v>-595.96600000000035</v>
+      </c>
+      <c r="T74" s="10">
+        <f t="shared" si="39"/>
+        <v>-622.57599999999729</v>
+      </c>
+      <c r="U74" s="10">
+        <f t="shared" si="39"/>
+        <v>-658.53999999999542</v>
+      </c>
+      <c r="V74" s="10">
         <f>V61-V73</f>
         <v>-791.71400000000176</v>
       </c>
@@ -20743,17 +21338,14 @@
         <f>-F19/F69</f>
         <v>6.2773966828234273E-2</v>
       </c>
-      <c r="V76" s="163"/>
       <c r="W76" s="16"/>
     </row>
     <row r="94" spans="6:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F94" s="42"/>
-      <c r="V94" s="164"/>
       <c r="W94" s="42"/>
     </row>
     <row r="95" spans="6:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F95" s="16"/>
-      <c r="V95" s="163"/>
       <c r="W95" s="16"/>
     </row>
   </sheetData>
@@ -32963,14 +33555,14 @@
       <c r="D1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="150"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="154"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -33473,10 +34065,10 @@
         <f t="shared" si="0"/>
         <v>-9.080841638981163E-2</v>
       </c>
-      <c r="H17" s="151" t="s">
+      <c r="H17" s="155" t="s">
         <v>184</v>
       </c>
-      <c r="I17" s="152"/>
+      <c r="I17" s="156"/>
       <c r="M17" s="100"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -33490,8 +34082,8 @@
         <f t="shared" si="0"/>
         <v>1.8038331454340417E-2</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="154"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="158"/>
       <c r="M18" s="100"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -34064,14 +34656,14 @@
         <f t="shared" si="0"/>
         <v>0.14749999999999996</v>
       </c>
-      <c r="H43" s="155" t="s">
+      <c r="H43" s="159" t="s">
         <v>209</v>
       </c>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="157"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="161"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">

--- a/Gaming/MLCO.xlsx
+++ b/Gaming/MLCO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Gaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34C056B-9F6D-4785-8E9A-9E9C44EA5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA89E5E9-B320-4CE2-A099-02430A4D4B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="45" windowWidth="14385" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="120" windowWidth="14760" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1741,7 +1741,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1976,8 +1976,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -16965,7 +16963,7 @@
   <dimension ref="B2:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17602,10 +17600,10 @@
   <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="M46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T73" sqref="T73"/>
+      <selection pane="bottomRight" activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18188,39 +18186,39 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="O13" s="11">
-        <f>SUM(O9:O12)</f>
+        <f t="shared" ref="O13:W13" si="3">SUM(O9:O12)</f>
         <v>350.15600000000001</v>
       </c>
       <c r="P13" s="11">
-        <f>SUM(P9:P12)</f>
+        <f t="shared" si="3"/>
         <v>241.32699999999997</v>
       </c>
       <c r="Q13" s="11">
-        <f>SUM(Q9:Q12)</f>
+        <f t="shared" si="3"/>
         <v>207.09200000000001</v>
       </c>
       <c r="R13" s="11">
-        <f>SUM(R9:R12)</f>
+        <f t="shared" si="3"/>
         <v>264.88200000000001</v>
       </c>
       <c r="S13" s="11">
-        <f>SUM(S9:S12)</f>
+        <f t="shared" si="3"/>
         <v>446.76000000000005</v>
       </c>
       <c r="T13" s="11">
-        <f>SUM(T9:T12)</f>
+        <f t="shared" si="3"/>
         <v>597.89599999999996</v>
       </c>
       <c r="U13" s="11">
-        <f>SUM(U9:U12)</f>
+        <f t="shared" si="3"/>
         <v>632.67700000000002</v>
       </c>
       <c r="V13" s="11">
-        <f>SUM(V9:V12)</f>
+        <f t="shared" si="3"/>
         <v>685.34800000000007</v>
       </c>
       <c r="W13" s="14">
-        <f>SUM(W9:W12)</f>
+        <f t="shared" si="3"/>
         <v>710.36599999999987</v>
       </c>
     </row>
@@ -18404,11 +18402,11 @@
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:D18" si="3">C7-SUM(C13:C17)</f>
+        <f t="shared" ref="C18:D18" si="4">C7-SUM(C13:C17)</f>
         <v>1727</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="E18" s="11">
@@ -18428,19 +18426,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" ref="K18:U18" si="4">K7-SUM(K13:K17)</f>
+        <f t="shared" ref="K18:S18" si="5">K7-SUM(K13:K17)</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18" s="11">
@@ -18456,11 +18454,11 @@
         <v>-198.54600000000005</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-199.48400000000009</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3549999999999045</v>
       </c>
       <c r="T18" s="11">
@@ -18591,19 +18589,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="11">
-        <f t="shared" ref="B21:E21" si="5">B18+B19+B20</f>
+        <f t="shared" ref="B21:E21" si="6">B18+B19+B20</f>
         <v>0</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1727</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2012</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1091.9610000000002</v>
       </c>
       <c r="F21" s="14">
@@ -18619,19 +18617,19 @@
         <v>-400</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" ref="K21:W21" si="6">K18+K19+K20</f>
+        <f t="shared" ref="K21:W21" si="7">K18+K19+K20</f>
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O21" s="11">
@@ -18647,11 +18645,11 @@
         <v>-284.61400000000003</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-293.41100000000006</v>
       </c>
       <c r="S21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-102.9020000000001</v>
       </c>
       <c r="T21" s="11">
@@ -18667,7 +18665,7 @@
         <v>-212.01300000000006</v>
       </c>
       <c r="W21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2439999999999127</v>
       </c>
     </row>
@@ -18761,15 +18759,15 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
-        <f t="shared" ref="C24:E24" si="7">C21+C22+C23</f>
+        <f t="shared" ref="C24:E24" si="8">C21+C22+C23</f>
         <v>1536</v>
       </c>
       <c r="D24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1868</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-930.55600000000038</v>
       </c>
       <c r="F24" s="14">
@@ -18785,55 +18783,55 @@
         <v>700.66000000000008</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:W24" si="8">K21+K22+K23</f>
+        <f t="shared" ref="K24:W24" si="9">K21+K22+K23</f>
         <v>0</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O24" s="11">
-        <f t="shared" ref="O24" si="9">O21+O22+O23</f>
+        <f t="shared" ref="O24" si="10">O21+O22+O23</f>
         <v>-183.28400000000002</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-251.45899999999997</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-243.86200000000005</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-250.70500000000007</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-81.288000000000096</v>
       </c>
       <c r="T24" s="11">
-        <f t="shared" ref="T24:U24" si="10">T21+T22+T23</f>
+        <f t="shared" ref="T24:U24" si="11">T21+T22+T23</f>
         <v>-23.441000000000027</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-16.302999999999994</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-156.55200000000008</v>
       </c>
       <c r="W24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.169999999999913</v>
       </c>
       <c r="X24" s="11"/>
@@ -18859,28 +18857,28 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="162">
+      <c r="O25" s="69">
         <v>1.9730000000000001</v>
       </c>
-      <c r="P25" s="162">
+      <c r="P25" s="69">
         <v>0.61699999999999999</v>
       </c>
-      <c r="Q25" s="162">
+      <c r="Q25" s="69">
         <v>2.028</v>
       </c>
-      <c r="R25" s="162">
+      <c r="R25" s="69">
         <v>0.61799999999999999</v>
       </c>
       <c r="S25" s="69">
         <v>-2.2410000000000001</v>
       </c>
-      <c r="T25" s="162">
+      <c r="T25" s="69">
         <v>-1.075</v>
       </c>
-      <c r="U25" s="162">
+      <c r="U25" s="69">
         <v>2.0209999999999999</v>
       </c>
-      <c r="V25" s="162">
+      <c r="V25" s="69">
         <v>-34.619</v>
       </c>
       <c r="W25" s="139">
@@ -18909,28 +18907,28 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="162">
+      <c r="O26" s="69">
         <v>83.974000000000004</v>
       </c>
-      <c r="P26" s="162">
+      <c r="P26" s="69">
         <v>84.876999999999995</v>
       </c>
-      <c r="Q26" s="162">
+      <c r="Q26" s="69">
         <v>86.048000000000002</v>
       </c>
-      <c r="R26" s="162">
+      <c r="R26" s="69">
         <v>93.927000000000007</v>
       </c>
       <c r="S26" s="69">
         <v>103.25700000000001</v>
       </c>
-      <c r="T26" s="162">
+      <c r="T26" s="69">
         <v>116.504</v>
       </c>
-      <c r="U26" s="162">
+      <c r="U26" s="69">
         <v>129.476</v>
       </c>
-      <c r="V26" s="162">
+      <c r="V26" s="69">
         <v>117.63</v>
       </c>
       <c r="W26" s="139">
@@ -18959,28 +18957,28 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="162">
+      <c r="O27" s="69">
         <v>8.6010000000000009</v>
       </c>
-      <c r="P27" s="162">
+      <c r="P27" s="69">
         <v>10.298</v>
       </c>
-      <c r="Q27" s="162">
+      <c r="Q27" s="69">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R27" s="162">
+      <c r="R27" s="69">
         <v>20.387</v>
       </c>
       <c r="S27" s="69">
         <v>11.442</v>
       </c>
-      <c r="T27" s="162">
+      <c r="T27" s="69">
         <v>4.4450000000000003</v>
       </c>
-      <c r="U27" s="162">
+      <c r="U27" s="69">
         <v>-1.4419999999999999</v>
       </c>
-      <c r="V27" s="162">
+      <c r="V27" s="69">
         <v>213.99199999999999</v>
       </c>
       <c r="W27" s="139">
@@ -19009,28 +19007,28 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="162">
+      <c r="O28" s="69">
         <v>141.292</v>
       </c>
-      <c r="P28" s="162">
+      <c r="P28" s="69">
         <v>136.726</v>
       </c>
-      <c r="Q28" s="162">
+      <c r="Q28" s="69">
         <v>122.04600000000001</v>
       </c>
-      <c r="R28" s="162">
+      <c r="R28" s="69">
         <v>121.875</v>
       </c>
       <c r="S28" s="69">
         <v>121.459</v>
       </c>
-      <c r="T28" s="162">
+      <c r="T28" s="69">
         <v>136.529</v>
       </c>
-      <c r="U28" s="162">
+      <c r="U28" s="69">
         <v>140.66800000000001</v>
       </c>
-      <c r="V28" s="162">
+      <c r="V28" s="69">
         <v>144.74</v>
       </c>
       <c r="W28" s="139">
@@ -19059,28 +19057,28 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="162">
+      <c r="O29" s="69">
         <v>16.971</v>
       </c>
-      <c r="P29" s="162">
+      <c r="P29" s="69">
         <v>16.908000000000001</v>
       </c>
-      <c r="Q29" s="162">
+      <c r="Q29" s="69">
         <v>9.9809999999999999</v>
       </c>
-      <c r="R29" s="162">
+      <c r="R29" s="69">
         <v>27.949000000000002</v>
       </c>
       <c r="S29" s="69">
         <v>10.811999999999999</v>
       </c>
-      <c r="T29" s="162">
+      <c r="T29" s="69">
         <v>8.8610000000000007</v>
       </c>
-      <c r="U29" s="162">
+      <c r="U29" s="69">
         <v>7.5549999999999997</v>
       </c>
-      <c r="V29" s="162">
+      <c r="V29" s="69">
         <v>8.2449999999999992</v>
       </c>
       <c r="W29" s="139">
@@ -19112,19 +19110,19 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="162">
+      <c r="O30" s="69">
         <f>2.355+0.658+7.215-38.56</f>
         <v>-28.332000000000001</v>
       </c>
-      <c r="P30" s="162">
+      <c r="P30" s="69">
         <f>3.247+0.638+11.246-43.213</f>
         <v>-28.082000000000001</v>
       </c>
-      <c r="Q30" s="162">
+      <c r="Q30" s="69">
         <f>3.313+0.555+8.417-42.78</f>
         <v>-30.495000000000001</v>
       </c>
-      <c r="R30" s="162">
+      <c r="R30" s="69">
         <f>6.67+0.467+2.016-42.088</f>
         <v>-32.935000000000002</v>
       </c>
@@ -19132,15 +19130,15 @@
         <f>13.112+0.486+13.348-19.373</f>
         <v>7.5730000000000004</v>
       </c>
-      <c r="T30" s="162">
+      <c r="T30" s="69">
         <f>0.476+9.311+17.148-27.703</f>
         <v>-0.76800000000000068</v>
       </c>
-      <c r="U30" s="162">
+      <c r="U30" s="69">
         <f>10.184+0.474+9.979-20.492</f>
         <v>0.14499999999999957</v>
       </c>
-      <c r="V30" s="162">
+      <c r="V30" s="69">
         <f>1.202+3.55+0.475+9.813-20.842</f>
         <v>-5.8019999999999996</v>
       </c>
@@ -19174,40 +19172,40 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="163">
-        <f>O24+SUM(O25:O30)</f>
+      <c r="O31" s="70">
+        <f t="shared" ref="O31:W31" si="12">O24+SUM(O25:O30)</f>
         <v>41.194999999999993</v>
       </c>
-      <c r="P31" s="163">
-        <f>P24+SUM(P25:P30)</f>
+      <c r="P31" s="70">
+        <f t="shared" si="12"/>
         <v>-30.114999999999981</v>
       </c>
-      <c r="Q31" s="163">
-        <f>Q24+SUM(Q25:Q30)</f>
+      <c r="Q31" s="70">
+        <f t="shared" si="12"/>
         <v>-53.55800000000005</v>
       </c>
-      <c r="R31" s="163">
-        <f>R24+SUM(R25:R30)</f>
+      <c r="R31" s="70">
+        <f t="shared" si="12"/>
         <v>-18.884000000000043</v>
       </c>
       <c r="S31" s="70">
-        <f>S24+SUM(S25:S30)</f>
+        <f t="shared" si="12"/>
         <v>171.01399999999992</v>
       </c>
-      <c r="T31" s="163">
-        <f>T24+SUM(T25:T30)</f>
+      <c r="T31" s="70">
+        <f t="shared" si="12"/>
         <v>241.05499999999995</v>
       </c>
-      <c r="U31" s="163">
-        <f>U24+SUM(U25:U30)</f>
+      <c r="U31" s="70">
+        <f t="shared" si="12"/>
         <v>262.11999999999995</v>
       </c>
-      <c r="V31" s="163">
-        <f>V24+SUM(V25:V30)</f>
+      <c r="V31" s="70">
+        <f t="shared" si="12"/>
         <v>287.6339999999999</v>
       </c>
       <c r="W31" s="140">
-        <f>W24+SUM(W25:W30)</f>
+        <f t="shared" si="12"/>
         <v>283.71699999999993</v>
       </c>
       <c r="X31" s="11"/>
@@ -19233,28 +19231,28 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="162">
+      <c r="O32" s="69">
         <v>14.821</v>
       </c>
-      <c r="P32" s="162">
+      <c r="P32" s="69">
         <v>16.306000000000001</v>
       </c>
-      <c r="Q32" s="162">
+      <c r="Q32" s="69">
         <v>18.677</v>
       </c>
-      <c r="R32" s="162">
+      <c r="R32" s="69">
         <v>13.343</v>
       </c>
       <c r="S32" s="69">
         <v>19.736000000000001</v>
       </c>
-      <c r="T32" s="162">
+      <c r="T32" s="69">
         <v>26.201000000000001</v>
       </c>
-      <c r="U32" s="162">
+      <c r="U32" s="69">
         <v>18.518000000000001</v>
       </c>
-      <c r="V32" s="162">
+      <c r="V32" s="69">
         <v>15.786</v>
       </c>
       <c r="W32" s="139">
@@ -19286,40 +19284,40 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="163">
-        <f>O31+O32</f>
+      <c r="O33" s="70">
+        <f t="shared" ref="O33:W33" si="13">O31+O32</f>
         <v>56.015999999999991</v>
       </c>
-      <c r="P33" s="163">
-        <f>P31+P32</f>
+      <c r="P33" s="70">
+        <f t="shared" si="13"/>
         <v>-13.80899999999998</v>
       </c>
-      <c r="Q33" s="163">
-        <f>Q31+Q32</f>
+      <c r="Q33" s="70">
+        <f t="shared" si="13"/>
         <v>-34.88100000000005</v>
       </c>
-      <c r="R33" s="163">
-        <f>R31+R32</f>
+      <c r="R33" s="70">
+        <f t="shared" si="13"/>
         <v>-5.541000000000043</v>
       </c>
       <c r="S33" s="70">
-        <f>S31+S32</f>
+        <f t="shared" si="13"/>
         <v>190.74999999999991</v>
       </c>
-      <c r="T33" s="163">
-        <f>T31+T32</f>
+      <c r="T33" s="70">
+        <f t="shared" si="13"/>
         <v>267.25599999999997</v>
       </c>
-      <c r="U33" s="163">
-        <f>U31+U32</f>
+      <c r="U33" s="70">
+        <f t="shared" si="13"/>
         <v>280.63799999999992</v>
       </c>
-      <c r="V33" s="163">
-        <f>V31+V32</f>
+      <c r="V33" s="70">
+        <f t="shared" si="13"/>
         <v>303.4199999999999</v>
       </c>
       <c r="W33" s="140">
-        <f>W31+W32</f>
+        <f t="shared" si="13"/>
         <v>298.77699999999993</v>
       </c>
       <c r="X33" s="11"/>
@@ -19395,15 +19393,15 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2">
-        <f t="shared" ref="O35:P35" si="11">O24/O34</f>
+        <f t="shared" ref="O35:P35" si="14">O24/O34</f>
         <v>-0.12887583179384407</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.17690391570319436</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35" si="12">Q24/Q34</f>
+        <f t="shared" ref="Q35" si="15">Q24/Q34</f>
         <v>-0.17585518873623773</v>
       </c>
       <c r="R35" s="2">
@@ -19415,15 +19413,15 @@
         <v>-6.1316286747859876E-2</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" ref="T35:U35" si="13">T24/T34</f>
+        <f t="shared" ref="T35:U35" si="16">T24/T34</f>
         <v>-1.7889001143433135E-2</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.2432977467983296E-2</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" ref="T35:V35" si="14">V24/V34</f>
+        <f t="shared" ref="V35" si="17">V24/V34</f>
         <v>-0.11938952883320388</v>
       </c>
       <c r="W35" s="35">
@@ -19488,51 +19486,51 @@
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
       <c r="K37" s="3" t="e">
-        <f t="shared" ref="K37:V37" si="15">1-K9/K7</f>
+        <f t="shared" ref="K37:V37" si="18">1-K9/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L37" s="3" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M37" s="3" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="3" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.3528029561317626</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.30969885885845327</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.28131344666035385</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.32584962977026777</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.44329360205448853</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.46665239007995241</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.47571457361521408</v>
       </c>
       <c r="V37" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.45402349825761035</v>
       </c>
       <c r="W37" s="6">
@@ -19570,51 +19568,51 @@
         <v>0.13874455445544556</v>
       </c>
       <c r="K38" s="4" t="e">
-        <f t="shared" ref="K38:V38" si="16">K24/K7</f>
+        <f t="shared" ref="K38:V38" si="19">K24/K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M38" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="4" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.38590573645369469</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.84921666829895937</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.0083734085355014</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.74373754034554795</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.11345466726217074</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-2.4728384421360473E-2</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.6027093583952254E-2</v>
       </c>
       <c r="V38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.1431511878516441</v>
       </c>
       <c r="W38" s="7">
@@ -19653,35 +19651,35 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="e">
-        <f t="shared" ref="O39:V39" si="17">O7/K7-1</f>
+        <f t="shared" ref="O39:V39" si="20">O7/K7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="4" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.50855362199833665</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.2013393806968429</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.206200870834488</v>
       </c>
       <c r="V39" s="142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.2442952582115057</v>
       </c>
       <c r="W39" s="141">
@@ -19718,35 +19716,35 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="e">
-        <f t="shared" ref="O40:V40" si="18">O24/K24-1</f>
+        <f t="shared" ref="O40:V40" si="21">O24/K24-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="4" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.55649156500294583</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.9067800317347956</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.93314661570888457</v>
       </c>
       <c r="V40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.37555294070720557</v>
       </c>
       <c r="W40" s="6">
@@ -19792,15 +19790,15 @@
         <v>0.18127783217004076</v>
       </c>
       <c r="P41" s="54">
-        <f t="shared" ref="P41:R41" si="19">-P19/P7</f>
+        <f t="shared" ref="P41:R41" si="22">-P19/P7</f>
         <v>0.28368123685019264</v>
       </c>
       <c r="Q41" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.351199361553443</v>
       </c>
       <c r="R41" s="54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.28251969812037214</v>
       </c>
       <c r="S41" s="54">
@@ -19808,15 +19806,15 @@
         <v>0.14259155873157658</v>
       </c>
       <c r="T41" s="54">
-        <f t="shared" ref="T41:V41" si="20">-T19/T7</f>
+        <f t="shared" ref="T41:V41" si="23">-T19/T7</f>
         <v>0.12504180121294722</v>
       </c>
       <c r="U41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.1229474594849663</v>
       </c>
       <c r="V41" s="54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.11276932516347191</v>
       </c>
       <c r="W41" s="55">
@@ -19830,19 +19828,19 @@
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="56">
-        <f t="shared" ref="C42:F42" si="21">-C19/C18</f>
+        <f t="shared" ref="C42:F42" si="24">-C19/C18</f>
         <v>0</v>
       </c>
       <c r="D42" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E42" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.47133293412367849</v>
       </c>
       <c r="F42" s="55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7.2157085941946484</v>
       </c>
       <c r="G42" s="54"/>
@@ -19852,27 +19850,27 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="54">
-        <f t="shared" ref="O42" si="22">-O19/O18</f>
+        <f t="shared" ref="O42" si="25">-O19/O18</f>
         <v>-0.63354599439281234</v>
       </c>
       <c r="P42" s="54">
-        <f t="shared" ref="P42:R42" si="23">-P19/P18</f>
+        <f t="shared" ref="P42:R42" si="26">-P19/P18</f>
         <v>-0.40157186702234471</v>
       </c>
       <c r="Q42" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.42777492369526443</v>
       </c>
       <c r="R42" s="54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.47740169637665159</v>
       </c>
       <c r="S42" s="54">
-        <f t="shared" ref="S42:V42" si="24">-S19/S18</f>
+        <f t="shared" ref="S42:T42" si="27">-S19/S18</f>
         <v>287.78591549303519</v>
       </c>
       <c r="T42" s="54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.8438515983510937</v>
       </c>
       <c r="U42" s="54">
@@ -19884,7 +19882,7 @@
         <v>-1.306654800122903</v>
       </c>
       <c r="W42" s="55">
-        <f t="shared" ref="W42" si="25">-W19/W18</f>
+        <f t="shared" ref="W42" si="28">-W19/W18</f>
         <v>0.95455923414439636</v>
       </c>
     </row>
@@ -19913,43 +19911,43 @@
         <v>-6161.8779999999997</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" ref="K45:W45" si="26">K46+K47-K66-K69</f>
+        <f t="shared" ref="K45:W45" si="29">K46+K47-K66-K69</f>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6548.7870000000003</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6524.125</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6434.82</v>
       </c>
       <c r="U45" s="11">
@@ -19957,11 +19955,11 @@
         <v>-6350.7909999999993</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6161.8779999999997</v>
       </c>
       <c r="W45" s="14">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-6159.7889999999998</v>
       </c>
     </row>
@@ -20027,7 +20025,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10">
-        <f t="shared" ref="R47:R50" si="27">E47</f>
+        <f t="shared" ref="R47:R50" si="30">E47</f>
         <v>50.991999999999997</v>
       </c>
       <c r="S47" s="10">
@@ -20040,7 +20038,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="V47" s="10">
-        <f t="shared" ref="V47:V50" si="28">F47</f>
+        <f t="shared" ref="V47:V50" si="31">F47</f>
         <v>2.7E-2</v>
       </c>
       <c r="W47" s="15">
@@ -20070,7 +20068,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>56.622</v>
       </c>
       <c r="S48" s="10">
@@ -20086,7 +20084,7 @@
         <v>96.716999999999999</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>92.435000000000002</v>
       </c>
       <c r="W48" s="15">
@@ -20114,7 +20112,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>26.416</v>
       </c>
       <c r="S49" s="10">
@@ -20127,7 +20125,7 @@
         <v>28.106000000000002</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>29.427</v>
       </c>
       <c r="W49" s="15">
@@ -20156,7 +20154,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>127.913</v>
       </c>
       <c r="S50" s="10">
@@ -20171,7 +20169,7 @@
         <v>130.977</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>111.688</v>
       </c>
       <c r="W50" s="15">
@@ -20204,55 +20202,55 @@
         <v>1544.2919999999999</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" ref="K51:W51" si="29">SUM(K46:K50)</f>
+        <f t="shared" ref="K51:W51" si="32">SUM(K46:K50)</f>
         <v>0</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2074.672</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1575.7660000000001</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1684.0900000000001</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1673.8240000000003</v>
       </c>
       <c r="V51" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1544.2919999999999</v>
       </c>
       <c r="W51" s="14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1391.6410000000001</v>
       </c>
     </row>
@@ -20277,7 +20275,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10">
-        <f t="shared" ref="R52:R60" si="30">E52</f>
+        <f t="shared" ref="R52:R60" si="33">E52</f>
         <v>5870.9049999999997</v>
       </c>
       <c r="S52" s="10">
@@ -20290,7 +20288,7 @@
         <v>5690.991</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" ref="V52:V60" si="31">F52</f>
+        <f t="shared" ref="V52:V60" si="34">F52</f>
         <v>5533.9939999999997</v>
       </c>
       <c r="W52" s="15">
@@ -20318,7 +20316,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>43.61</v>
       </c>
       <c r="S53" s="10">
@@ -20331,7 +20329,7 @@
         <v>339.49299999999999</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>304.65199999999999</v>
       </c>
       <c r="W53" s="15">
@@ -20359,7 +20357,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>81.605999999999995</v>
       </c>
       <c r="S54" s="10">
@@ -20372,7 +20370,7 @@
         <v>81.385000000000005</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>81.581999999999994</v>
       </c>
       <c r="W54" s="15">
@@ -20400,7 +20398,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>159.697</v>
       </c>
       <c r="S55" s="10">
@@ -20413,7 +20411,7 @@
         <v>84.042000000000002</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>100.32</v>
       </c>
       <c r="W55" s="15">
@@ -20439,14 +20437,14 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>216.333</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W56" s="15"/>
@@ -20472,7 +20470,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>124.736</v>
       </c>
       <c r="S57" s="10">
@@ -20485,7 +20483,7 @@
         <v>124.773</v>
       </c>
       <c r="V57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>125.09399999999999</v>
       </c>
       <c r="W57" s="15">
@@ -20513,7 +20511,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.63800000000000001</v>
       </c>
       <c r="S58" s="10">
@@ -20524,7 +20522,7 @@
       </c>
       <c r="U58" s="10"/>
       <c r="V58" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>49.335999999999999</v>
       </c>
       <c r="W58" s="15"/>
@@ -20550,7 +20548,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>58.715000000000003</v>
       </c>
       <c r="S59" s="10">
@@ -20563,7 +20561,7 @@
         <v>67.290000000000006</v>
       </c>
       <c r="V59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>62.356000000000002</v>
       </c>
       <c r="W59" s="15">
@@ -20591,7 +20589,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>670.87199999999996</v>
       </c>
       <c r="S60" s="10">
@@ -20604,7 +20602,7 @@
         <v>652.05200000000002</v>
       </c>
       <c r="V60" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>582.78200000000004</v>
       </c>
       <c r="W60" s="15">
@@ -20636,55 +20634,55 @@
         <v>8384.4079999999994</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" ref="K61:W61" si="32">SUM(K51:K60)</f>
+        <f t="shared" ref="K61:W61" si="35">SUM(K51:K60)</f>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>9301.7839999999997</v>
       </c>
       <c r="S61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8764.9160000000011</v>
       </c>
       <c r="T61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8880.3190000000013</v>
       </c>
       <c r="U61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8713.8500000000022</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8384.4079999999994</v>
       </c>
       <c r="W61" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8076.1829999999991</v>
       </c>
     </row>
@@ -20709,7 +20707,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10">
-        <f t="shared" ref="R62:R67" si="33">E62</f>
+        <f t="shared" ref="R62:R67" si="36">E62</f>
         <v>6.73</v>
       </c>
       <c r="S62" s="10">
@@ -20722,7 +20720,7 @@
         <v>12.458</v>
       </c>
       <c r="V62" s="10">
-        <f t="shared" ref="V62:V67" si="34">F62</f>
+        <f t="shared" ref="V62:V67" si="37">F62</f>
         <v>11.752000000000001</v>
       </c>
       <c r="W62" s="15">
@@ -20750,7 +20748,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>809.30499999999995</v>
       </c>
       <c r="S63" s="10">
@@ -20763,7 +20761,7 @@
         <v>933.68799999999999</v>
       </c>
       <c r="V63" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1008.316</v>
       </c>
       <c r="W63" s="15">
@@ -20791,7 +20789,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>11.61</v>
       </c>
       <c r="S64" s="10">
@@ -20804,7 +20802,7 @@
         <v>11.345000000000001</v>
       </c>
       <c r="V64" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>28.183</v>
       </c>
       <c r="W64" s="15">
@@ -20834,7 +20832,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>47.72</v>
       </c>
       <c r="S65" s="10">
@@ -20850,7 +20848,7 @@
         <v>53.873000000000005</v>
       </c>
       <c r="V65" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>54.992000000000004</v>
       </c>
       <c r="W65" s="15">
@@ -20877,7 +20875,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>322.5</v>
       </c>
       <c r="S66" s="10">
@@ -20890,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W66" s="15"/>
@@ -20916,7 +20914,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.76100000000000001</v>
       </c>
       <c r="S67" s="10">
@@ -20929,7 +20927,7 @@
         <v>0.253</v>
       </c>
       <c r="V67" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.377</v>
       </c>
       <c r="W67" s="15">
@@ -20961,55 +20959,55 @@
         <v>1103.6199999999999</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" ref="K68:W68" si="35">SUM(K62:K67)</f>
+        <f t="shared" ref="K68:W68" si="38">SUM(K62:K67)</f>
         <v>0</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1198.626</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>942.06200000000001</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1155.482</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1011.6170000000001</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1103.6199999999999</v>
       </c>
       <c r="W68" s="14">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1021.8330000000002</v>
       </c>
       <c r="X68" s="11"/>
@@ -21035,7 +21033,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10">
-        <f t="shared" ref="R69:R72" si="36">E69</f>
+        <f t="shared" ref="R69:R72" si="39">E69</f>
         <v>8090.0079999999998</v>
       </c>
       <c r="S69" s="10">
@@ -21048,7 +21046,7 @@
         <v>7768.8149999999996</v>
       </c>
       <c r="V69" s="10">
-        <f t="shared" ref="V69:V72" si="37">F69</f>
+        <f t="shared" ref="V69:V72" si="40">F69</f>
         <v>7472.62</v>
       </c>
       <c r="W69" s="15">
@@ -21076,7 +21074,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>33.712000000000003</v>
       </c>
       <c r="S70" s="10">
@@ -21089,7 +21087,7 @@
         <v>312.62200000000001</v>
       </c>
       <c r="V70" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>322.59100000000001</v>
       </c>
       <c r="W70" s="15">
@@ -21117,7 +21115,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>39.677</v>
       </c>
       <c r="S71" s="10">
@@ -21130,7 +21128,7 @@
         <v>36.979999999999997</v>
       </c>
       <c r="V71" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>34.959000000000003</v>
       </c>
       <c r="W71" s="15">
@@ -21160,7 +21158,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>254.12299999999999</v>
       </c>
       <c r="S72" s="10">
@@ -21176,7 +21174,7 @@
         <v>242.35599999999999</v>
       </c>
       <c r="V72" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>242.33199999999999</v>
       </c>
       <c r="W72" s="15">
@@ -21209,55 +21207,55 @@
         <v>9176.1220000000012</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:W73" si="38">SUM(K68:K72)</f>
+        <f t="shared" ref="K73:W73" si="41">SUM(K68:K72)</f>
         <v>0</v>
       </c>
       <c r="L73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9616.1459999999988</v>
       </c>
       <c r="S73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9360.8820000000014</v>
       </c>
       <c r="T73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9502.8949999999986</v>
       </c>
       <c r="U73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9372.3899999999976</v>
       </c>
       <c r="V73" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9176.1220000000012</v>
       </c>
       <c r="W73" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>8929.018</v>
       </c>
     </row>
@@ -21275,43 +21273,43 @@
         <v>-790.71400000000006</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" ref="L74:U74" si="39">L61-L73</f>
+        <f t="shared" ref="L74:U74" si="42">L61-L73</f>
         <v>0</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-314.36199999999917</v>
       </c>
       <c r="S74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-595.96600000000035</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-622.57599999999729</v>
       </c>
       <c r="U74" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-658.53999999999542</v>
       </c>
       <c r="V74" s="10">
